--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>交易计划执行结果编码</t>
   </si>
@@ -739,6 +739,20 @@
   </si>
   <si>
     <t>603010(万盛股份)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入场中枢点错误</t>
+    </r>
   </si>
   <si>
     <t>JG_0000008</t>
@@ -1684,7 +1698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1901,6 +1915,9 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2053,7 +2070,7 @@
       <sheetName val="交易水平监控表"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="4">
           <cell r="A4" t="str">
             <v>000001</v>
@@ -3315,7 +3332,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4360,11 +4377,11 @@
   <dimension ref="A1:BO552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -4435,35 +4452,35 @@
       <c r="AF1" s="61"/>
       <c r="AG1" s="61"/>
       <c r="AH1" s="61"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="72"/>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="72"/>
-      <c r="BC1" s="72"/>
-      <c r="BD1" s="72"/>
-      <c r="BE1" s="72"/>
-      <c r="BF1" s="72"/>
-      <c r="BG1" s="72"/>
-      <c r="BI1" s="72"/>
-      <c r="BJ1" s="72"/>
-      <c r="BK1" s="72"/>
-      <c r="BL1" s="72"/>
-      <c r="BM1" s="72"/>
-      <c r="BN1" s="72"/>
-      <c r="BO1" s="72"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="73"/>
     </row>
     <row r="2" ht="23.6" spans="1:67">
       <c r="A2" s="8"/>
@@ -4544,35 +4561,35 @@
       <c r="AF2" s="61"/>
       <c r="AG2" s="61"/>
       <c r="AH2" s="61"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="72"/>
-      <c r="BG2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="73"/>
+      <c r="BD2" s="73"/>
+      <c r="BE2" s="73"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="73"/>
+      <c r="BI2" s="73"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="73"/>
+      <c r="BL2" s="73"/>
+      <c r="BM2" s="73"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="73"/>
     </row>
     <row r="3" ht="23.6" spans="1:67">
       <c r="A3" s="15"/>
@@ -4613,41 +4630,41 @@
       <c r="AF3" s="61"/>
       <c r="AG3" s="61"/>
       <c r="AH3" s="61"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="72"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="73"/>
+      <c r="BM3" s="73"/>
+      <c r="BN3" s="73"/>
+      <c r="BO3" s="73"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="23.6" spans="1:67">
       <c r="A4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -4739,41 +4756,41 @@
       <c r="AF4" s="67"/>
       <c r="AG4" s="67"/>
       <c r="AH4" s="67"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="73"/>
-      <c r="BG4" s="73"/>
-      <c r="BI4" s="73"/>
-      <c r="BJ4" s="73"/>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="73"/>
-      <c r="BM4" s="73"/>
-      <c r="BN4" s="73"/>
-      <c r="BO4" s="73"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="74"/>
+      <c r="BE4" s="74"/>
+      <c r="BF4" s="74"/>
+      <c r="BG4" s="74"/>
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="74"/>
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="74"/>
+      <c r="BM4" s="74"/>
+      <c r="BN4" s="74"/>
+      <c r="BO4" s="74"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="13" spans="1:27">
       <c r="A5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="20"/>
@@ -4833,7 +4850,7 @@
       <c r="A6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="76" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -4891,7 +4908,7 @@
       <c r="A7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="76" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -4949,7 +4966,7 @@
       <c r="A8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="76" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -5007,7 +5024,7 @@
       <c r="A9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="77" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -5098,7 +5115,7 @@
       <c r="A10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="77" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -5176,18 +5193,24 @@
         <f>S10-I10</f>
         <v>-210.84262</v>
       </c>
-      <c r="Y10" s="49"/>
+      <c r="Y10" s="50">
+        <f>(O10-E10)/VLOOKUP(B10,[1]交易计划及执行表!$A$8:$AX$1000,40,FALSE)</f>
+        <v>-0.196428571428571</v>
+      </c>
+      <c r="Z10" s="72" t="s">
+        <v>51</v>
+      </c>
       <c r="AA10" s="69"/>
     </row>
     <row r="11" ht="13" spans="1:26">
       <c r="A11" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="75" t="s">
         <v>52</v>
       </c>
+      <c r="B11" s="76" t="s">
+        <v>53</v>
+      </c>
       <c r="C11" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -5215,13 +5238,13 @@
     </row>
     <row r="12" ht="13" spans="1:26">
       <c r="A12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="75" t="s">
         <v>55</v>
       </c>
+      <c r="B12" s="76" t="s">
+        <v>56</v>
+      </c>
       <c r="C12" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -5249,10 +5272,10 @@
     </row>
     <row r="13" ht="13" spans="1:26">
       <c r="A13" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="75" t="s">
         <v>58</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="22"/>
@@ -5281,10 +5304,10 @@
     </row>
     <row r="14" ht="13" spans="1:26">
       <c r="A14" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="75" t="s">
         <v>60</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="22"/>
@@ -5313,10 +5336,10 @@
     </row>
     <row r="15" ht="13" spans="1:26">
       <c r="A15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="75" t="s">
         <v>62</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="22"/>
@@ -5345,10 +5368,10 @@
     </row>
     <row r="16" ht="13" spans="1:26">
       <c r="A16" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="75" t="s">
         <v>64</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>65</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="22"/>
@@ -5377,10 +5400,10 @@
     </row>
     <row r="17" ht="13" spans="1:26">
       <c r="A17" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="75" t="s">
         <v>66</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>67</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="22"/>
@@ -5409,10 +5432,10 @@
     </row>
     <row r="18" ht="13" spans="1:26">
       <c r="A18" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="75" t="s">
         <v>68</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="22"/>
@@ -5441,10 +5464,10 @@
     </row>
     <row r="19" ht="13" spans="1:26">
       <c r="A19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="75" t="s">
         <v>70</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>71</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="22"/>
@@ -5473,10 +5496,10 @@
     </row>
     <row r="20" ht="13" spans="1:26">
       <c r="A20" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="75" t="s">
         <v>72</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="22"/>
@@ -17754,22 +17777,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CU1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4377,11 +4377,11 @@
   <dimension ref="A1:BO552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4381,7 +4381,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4377,11 +4377,11 @@
   <dimension ref="A1:BO552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -4409,12 +4409,12 @@
   <sheetPr/>
   <dimension ref="A1:BP552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -5116,8 +5116,7 @@
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="53">
-        <f>(E9-M9)*F9+G9+H9+5</f>
-        <v>3064.06108</v>
+        <v>0</v>
       </c>
       <c r="O9" s="26">
         <v>44525</v>
@@ -18298,8 +18297,8 @@
   <sheetPr/>
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -18333,8 +18332,8 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <f>SUM(交易计划及执行表!N6:N8)</f>
-        <v>625.132859999999</v>
+        <f>SUM(交易计划及执行表!N6:N11)</f>
+        <v>841.132859999999</v>
       </c>
       <c r="F2" s="3" t="e">
         <f>SUM(IF(交易计划及执行表!$P4&gt;0,VLOOKUP(交易计划及执行表!$B4,交易计划及执行表!B4:V995,53,FALSE),0))</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -18298,7 +18298,7 @@
   <dimension ref="A1:CU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -18335,10 +18335,7 @@
         <f>SUM(交易计划及执行表!N6:N11)</f>
         <v>841.132859999999</v>
       </c>
-      <c r="F2" s="3" t="e">
-        <f>SUM(IF(交易计划及执行表!$P4&gt;0,VLOOKUP(交易计划及执行表!$B4,交易计划及执行表!B4:V995,53,FALSE),0))</f>
-        <v>#REF!</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -748,6 +748,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -768,6 +774,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> 002585(</t>
     </r>
     <r>
@@ -797,6 +809,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>605028(</t>
     </r>
     <r>
@@ -887,11 +905,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -997,8 +1015,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,10 +1037,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1034,31 +1060,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,17 +1075,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1095,31 +1090,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,8 +1113,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,7 +1238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,7 +1250,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,7 +1334,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,13 +1370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,55 +1400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,67 +1412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,8 +1487,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1480,21 +1498,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,21 +1513,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1555,11 +1543,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1568,148 +1586,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1720,7 +1738,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1738,7 +1756,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1813,22 +1831,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1837,7 +1855,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1882,25 +1900,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1924,7 +1942,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4409,12 +4427,12 @@
   <sheetPr/>
   <dimension ref="A1:BP552"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="C6 B24 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -4918,7 +4936,7 @@
         <v>0.06746</v>
       </c>
       <c r="I6" s="37">
-        <f>E6*F6+G6+H6</f>
+        <f t="shared" ref="I6:I11" si="0">E6*F6+G6+H6</f>
         <v>3378.06746</v>
       </c>
       <c r="J6" s="35">
@@ -4979,7 +4997,7 @@
         <v>0.0654</v>
       </c>
       <c r="I7" s="37">
-        <f>E7*F7+G7+H7</f>
+        <f t="shared" si="0"/>
         <v>3275.0654</v>
       </c>
       <c r="J7" s="37">
@@ -5039,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="37">
-        <f>E8*F8+G8+H8</f>
+        <f t="shared" si="0"/>
         <v>7212</v>
       </c>
       <c r="J8" s="27">
@@ -5101,7 +5119,7 @@
         <v>0.06108</v>
       </c>
       <c r="I9" s="41">
-        <f>E9*F9+G9+H9</f>
+        <f t="shared" si="0"/>
         <v>3059.06108</v>
       </c>
       <c r="J9" s="27">
@@ -5192,7 +5210,7 @@
         <v>0.05962</v>
       </c>
       <c r="I10" s="41">
-        <f>E10*F10+G10+H10</f>
+        <f t="shared" si="0"/>
         <v>2986.05962</v>
       </c>
       <c r="J10" s="23">
@@ -5282,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="41">
-        <f>E11*F11+G11+H11</f>
+        <f t="shared" si="0"/>
         <v>2842</v>
       </c>
       <c r="J11" s="23"/>
@@ -5611,8 +5629,6 @@
     <row r="21" spans="1:26">
       <c r="A21" s="20"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -5639,8 +5655,6 @@
     <row r="22" spans="1:26">
       <c r="A22" s="20"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -5667,8 +5681,6 @@
     <row r="23" spans="1:26">
       <c r="A23" s="20"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -5695,8 +5707,6 @@
     <row r="24" spans="1:26">
       <c r="A24" s="20"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -5723,8 +5733,6 @@
     <row r="25" spans="1:26">
       <c r="A25" s="20"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -5751,8 +5759,6 @@
     <row r="26" spans="1:26">
       <c r="A26" s="20"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -5779,8 +5785,6 @@
     <row r="27" spans="1:26">
       <c r="A27" s="20"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -5807,8 +5811,6 @@
     <row r="28" spans="1:26">
       <c r="A28" s="20"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -5835,8 +5837,6 @@
     <row r="29" spans="1:26">
       <c r="A29" s="20"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -5863,8 +5863,6 @@
     <row r="30" spans="1:26">
       <c r="A30" s="20"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -5891,8 +5889,6 @@
     <row r="31" spans="1:26">
       <c r="A31" s="20"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -5919,8 +5915,6 @@
     <row r="32" spans="1:26">
       <c r="A32" s="20"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -5947,8 +5941,6 @@
     <row r="33" spans="1:26">
       <c r="A33" s="20"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -5975,8 +5967,6 @@
     <row r="34" spans="1:26">
       <c r="A34" s="20"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -6003,8 +5993,6 @@
     <row r="35" spans="1:26">
       <c r="A35" s="20"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -6031,8 +6019,6 @@
     <row r="36" spans="1:26">
       <c r="A36" s="20"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -6059,8 +6045,6 @@
     <row r="37" spans="1:26">
       <c r="A37" s="20"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -6087,8 +6071,6 @@
     <row r="38" spans="1:26">
       <c r="A38" s="20"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -6115,8 +6097,6 @@
     <row r="39" spans="1:26">
       <c r="A39" s="20"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -6143,8 +6123,6 @@
     <row r="40" spans="1:26">
       <c r="A40" s="20"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -6171,8 +6149,6 @@
     <row r="41" spans="1:26">
       <c r="A41" s="20"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -6199,8 +6175,6 @@
     <row r="42" spans="1:26">
       <c r="A42" s="20"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -6227,8 +6201,6 @@
     <row r="43" spans="1:26">
       <c r="A43" s="20"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -6255,8 +6227,6 @@
     <row r="44" spans="1:26">
       <c r="A44" s="20"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -6283,8 +6253,6 @@
     <row r="45" spans="1:26">
       <c r="A45" s="20"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -6311,8 +6279,6 @@
     <row r="46" spans="1:26">
       <c r="A46" s="20"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -6339,8 +6305,6 @@
     <row r="47" spans="1:26">
       <c r="A47" s="20"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -6367,8 +6331,6 @@
     <row r="48" spans="1:26">
       <c r="A48" s="20"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -6394,8 +6356,6 @@
     </row>
     <row r="49" spans="2:26">
       <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -6421,8 +6381,6 @@
     </row>
     <row r="50" spans="2:26">
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -6448,8 +6406,6 @@
     </row>
     <row r="51" spans="2:26">
       <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -6475,8 +6431,6 @@
     </row>
     <row r="52" spans="2:26">
       <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -6502,8 +6456,6 @@
     </row>
     <row r="53" spans="2:26">
       <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -6529,8 +6481,6 @@
     </row>
     <row r="54" spans="2:26">
       <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -6556,8 +6506,6 @@
     </row>
     <row r="55" spans="2:26">
       <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -6583,8 +6531,6 @@
     </row>
     <row r="56" spans="2:26">
       <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -6610,8 +6556,6 @@
     </row>
     <row r="57" spans="2:26">
       <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -6637,8 +6581,6 @@
     </row>
     <row r="58" spans="2:26">
       <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -6664,8 +6606,6 @@
     </row>
     <row r="59" spans="2:26">
       <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -6691,8 +6631,6 @@
     </row>
     <row r="60" spans="2:26">
       <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -6718,8 +6656,6 @@
     </row>
     <row r="61" spans="2:26">
       <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -6745,8 +6681,6 @@
     </row>
     <row r="62" spans="2:26">
       <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -6772,8 +6706,6 @@
     </row>
     <row r="63" spans="2:26">
       <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -6799,8 +6731,6 @@
     </row>
     <row r="64" spans="2:26">
       <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -6826,8 +6756,6 @@
     </row>
     <row r="65" spans="2:26">
       <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -6853,8 +6781,6 @@
     </row>
     <row r="66" spans="2:26">
       <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -6880,8 +6806,6 @@
     </row>
     <row r="67" spans="2:26">
       <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -6907,8 +6831,6 @@
     </row>
     <row r="68" spans="2:26">
       <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -6934,8 +6856,6 @@
     </row>
     <row r="69" spans="2:26">
       <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -6961,8 +6881,6 @@
     </row>
     <row r="70" spans="2:26">
       <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -6988,8 +6906,6 @@
     </row>
     <row r="71" spans="2:26">
       <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -7015,8 +6931,6 @@
     </row>
     <row r="72" spans="2:26">
       <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -7042,8 +6956,6 @@
     </row>
     <row r="73" spans="2:26">
       <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -7069,8 +6981,6 @@
     </row>
     <row r="74" spans="2:26">
       <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -7096,8 +7006,6 @@
     </row>
     <row r="75" spans="2:26">
       <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -7123,8 +7031,6 @@
     </row>
     <row r="76" spans="2:26">
       <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -7150,8 +7056,6 @@
     </row>
     <row r="77" spans="2:26">
       <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -7177,8 +7081,6 @@
     </row>
     <row r="78" spans="2:26">
       <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -7204,8 +7106,6 @@
     </row>
     <row r="79" spans="2:26">
       <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -7231,8 +7131,6 @@
     </row>
     <row r="80" spans="2:26">
       <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -7258,8 +7156,6 @@
     </row>
     <row r="81" spans="2:26">
       <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -7285,8 +7181,6 @@
     </row>
     <row r="82" spans="2:26">
       <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -7312,8 +7206,6 @@
     </row>
     <row r="83" spans="2:26">
       <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -7339,8 +7231,6 @@
     </row>
     <row r="84" spans="2:26">
       <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -7366,8 +7256,6 @@
     </row>
     <row r="85" spans="2:26">
       <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -7393,8 +7281,6 @@
     </row>
     <row r="86" spans="2:26">
       <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -7420,8 +7306,6 @@
     </row>
     <row r="87" spans="2:26">
       <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -7447,8 +7331,6 @@
     </row>
     <row r="88" spans="2:26">
       <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -7474,8 +7356,6 @@
     </row>
     <row r="89" spans="2:26">
       <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -7501,8 +7381,6 @@
     </row>
     <row r="90" spans="2:26">
       <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -7528,8 +7406,6 @@
     </row>
     <row r="91" spans="2:26">
       <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -7555,8 +7431,6 @@
     </row>
     <row r="92" spans="2:26">
       <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -7582,8 +7456,6 @@
     </row>
     <row r="93" spans="2:26">
       <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -7609,8 +7481,6 @@
     </row>
     <row r="94" spans="2:26">
       <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -7636,8 +7506,6 @@
     </row>
     <row r="95" spans="2:26">
       <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -7663,8 +7531,6 @@
     </row>
     <row r="96" spans="2:26">
       <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -7690,8 +7556,6 @@
     </row>
     <row r="97" spans="2:26">
       <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -7717,8 +7581,6 @@
     </row>
     <row r="98" spans="2:26">
       <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -7744,8 +7606,6 @@
     </row>
     <row r="99" spans="2:26">
       <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -7771,8 +7631,6 @@
     </row>
     <row r="100" spans="2:26">
       <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -7798,8 +7656,6 @@
     </row>
     <row r="101" spans="2:26">
       <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -7825,8 +7681,6 @@
     </row>
     <row r="102" spans="2:26">
       <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -7852,8 +7706,6 @@
     </row>
     <row r="103" spans="2:26">
       <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -7879,8 +7731,6 @@
     </row>
     <row r="104" spans="2:26">
       <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -7906,8 +7756,6 @@
     </row>
     <row r="105" spans="2:26">
       <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -7933,8 +7781,6 @@
     </row>
     <row r="106" spans="2:26">
       <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -7960,8 +7806,6 @@
     </row>
     <row r="107" spans="2:26">
       <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -7987,8 +7831,6 @@
     </row>
     <row r="108" spans="2:26">
       <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -8014,8 +7856,6 @@
     </row>
     <row r="109" spans="2:26">
       <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -8041,8 +7881,6 @@
     </row>
     <row r="110" spans="2:26">
       <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -8068,8 +7906,6 @@
     </row>
     <row r="111" spans="2:26">
       <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -8095,8 +7931,6 @@
     </row>
     <row r="112" spans="2:26">
       <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
@@ -8122,8 +7956,6 @@
     </row>
     <row r="113" spans="2:26">
       <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -8149,8 +7981,6 @@
     </row>
     <row r="114" spans="2:26">
       <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -8176,8 +8006,6 @@
     </row>
     <row r="115" spans="2:26">
       <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -8203,8 +8031,6 @@
     </row>
     <row r="116" spans="2:26">
       <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -8230,8 +8056,6 @@
     </row>
     <row r="117" spans="2:26">
       <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -8257,8 +8081,6 @@
     </row>
     <row r="118" spans="2:26">
       <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -8284,8 +8106,6 @@
     </row>
     <row r="119" spans="2:26">
       <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -8311,8 +8131,6 @@
     </row>
     <row r="120" spans="2:26">
       <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -8338,8 +8156,6 @@
     </row>
     <row r="121" spans="2:26">
       <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -8365,8 +8181,6 @@
     </row>
     <row r="122" spans="2:26">
       <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -8392,8 +8206,6 @@
     </row>
     <row r="123" spans="2:26">
       <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -8419,8 +8231,6 @@
     </row>
     <row r="124" spans="2:26">
       <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -8446,8 +8256,6 @@
     </row>
     <row r="125" spans="2:26">
       <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -8473,8 +8281,6 @@
     </row>
     <row r="126" spans="2:26">
       <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -8500,8 +8306,6 @@
     </row>
     <row r="127" spans="2:26">
       <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
@@ -8527,8 +8331,6 @@
     </row>
     <row r="128" spans="2:26">
       <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -8554,8 +8356,6 @@
     </row>
     <row r="129" spans="2:26">
       <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
@@ -8581,8 +8381,6 @@
     </row>
     <row r="130" spans="2:26">
       <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -8608,8 +8406,6 @@
     </row>
     <row r="131" spans="2:26">
       <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -8635,8 +8431,6 @@
     </row>
     <row r="132" spans="2:26">
       <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
@@ -8662,8 +8456,6 @@
     </row>
     <row r="133" spans="2:26">
       <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
@@ -8689,8 +8481,6 @@
     </row>
     <row r="134" spans="2:26">
       <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -8716,8 +8506,6 @@
     </row>
     <row r="135" spans="2:26">
       <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -8743,8 +8531,6 @@
     </row>
     <row r="136" spans="2:26">
       <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -8770,8 +8556,6 @@
     </row>
     <row r="137" spans="2:26">
       <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -8797,8 +8581,6 @@
     </row>
     <row r="138" spans="2:26">
       <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -8824,8 +8606,6 @@
     </row>
     <row r="139" spans="2:26">
       <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -8851,8 +8631,6 @@
     </row>
     <row r="140" spans="2:26">
       <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
@@ -8878,8 +8656,6 @@
     </row>
     <row r="141" spans="2:26">
       <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -8905,8 +8681,6 @@
     </row>
     <row r="142" spans="2:26">
       <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
@@ -8932,8 +8706,6 @@
     </row>
     <row r="143" spans="2:26">
       <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
@@ -8959,8 +8731,6 @@
     </row>
     <row r="144" spans="2:26">
       <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
@@ -8986,8 +8756,6 @@
     </row>
     <row r="145" spans="2:26">
       <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
@@ -9013,8 +8781,6 @@
     </row>
     <row r="146" spans="2:26">
       <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -9040,8 +8806,6 @@
     </row>
     <row r="147" spans="2:26">
       <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -9067,8 +8831,6 @@
     </row>
     <row r="148" spans="2:26">
       <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -9094,8 +8856,6 @@
     </row>
     <row r="149" spans="2:26">
       <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -9121,8 +8881,6 @@
     </row>
     <row r="150" spans="2:26">
       <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
@@ -9148,8 +8906,6 @@
     </row>
     <row r="151" spans="2:26">
       <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
@@ -9175,8 +8931,6 @@
     </row>
     <row r="152" spans="2:26">
       <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
@@ -9202,8 +8956,6 @@
     </row>
     <row r="153" spans="2:26">
       <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -9229,8 +8981,6 @@
     </row>
     <row r="154" spans="2:26">
       <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
@@ -9256,8 +9006,6 @@
     </row>
     <row r="155" spans="2:26">
       <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
@@ -9283,8 +9031,6 @@
     </row>
     <row r="156" spans="2:26">
       <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -9310,8 +9056,6 @@
     </row>
     <row r="157" spans="2:26">
       <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
@@ -9337,8 +9081,6 @@
     </row>
     <row r="158" spans="2:26">
       <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
@@ -9364,8 +9106,6 @@
     </row>
     <row r="159" spans="2:26">
       <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
@@ -9391,8 +9131,6 @@
     </row>
     <row r="160" spans="2:26">
       <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
@@ -9418,8 +9156,6 @@
     </row>
     <row r="161" spans="2:26">
       <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
@@ -9445,8 +9181,6 @@
     </row>
     <row r="162" spans="2:26">
       <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
@@ -9472,8 +9206,6 @@
     </row>
     <row r="163" spans="2:26">
       <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
@@ -9499,8 +9231,6 @@
     </row>
     <row r="164" spans="2:26">
       <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -9526,8 +9256,6 @@
     </row>
     <row r="165" spans="2:26">
       <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -9553,8 +9281,6 @@
     </row>
     <row r="166" spans="2:26">
       <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
@@ -9580,8 +9306,6 @@
     </row>
     <row r="167" spans="2:26">
       <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
@@ -9607,8 +9331,6 @@
     </row>
     <row r="168" spans="2:26">
       <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
@@ -9634,8 +9356,6 @@
     </row>
     <row r="169" spans="2:26">
       <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
@@ -9661,8 +9381,6 @@
     </row>
     <row r="170" spans="2:26">
       <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
@@ -9688,8 +9406,6 @@
     </row>
     <row r="171" spans="2:26">
       <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
@@ -9715,8 +9431,6 @@
     </row>
     <row r="172" spans="2:26">
       <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
@@ -9742,8 +9456,6 @@
     </row>
     <row r="173" spans="2:26">
       <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
@@ -9769,8 +9481,6 @@
     </row>
     <row r="174" spans="2:26">
       <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
@@ -9796,8 +9506,6 @@
     </row>
     <row r="175" spans="2:26">
       <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
@@ -9823,8 +9531,6 @@
     </row>
     <row r="176" spans="2:26">
       <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
@@ -9850,8 +9556,6 @@
     </row>
     <row r="177" spans="2:26">
       <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
@@ -9877,8 +9581,6 @@
     </row>
     <row r="178" spans="2:26">
       <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -9904,8 +9606,6 @@
     </row>
     <row r="179" spans="2:26">
       <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
@@ -9931,8 +9631,6 @@
     </row>
     <row r="180" spans="2:26">
       <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
@@ -9958,8 +9656,6 @@
     </row>
     <row r="181" spans="2:26">
       <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
@@ -9985,8 +9681,6 @@
     </row>
     <row r="182" spans="2:26">
       <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
@@ -10012,8 +9706,6 @@
     </row>
     <row r="183" spans="2:26">
       <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
@@ -10039,8 +9731,6 @@
     </row>
     <row r="184" spans="2:26">
       <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
@@ -10066,8 +9756,6 @@
     </row>
     <row r="185" spans="2:26">
       <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
@@ -10093,8 +9781,6 @@
     </row>
     <row r="186" spans="2:26">
       <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
@@ -10120,8 +9806,6 @@
     </row>
     <row r="187" spans="2:26">
       <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
@@ -10147,8 +9831,6 @@
     </row>
     <row r="188" spans="2:26">
       <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -10174,8 +9856,6 @@
     </row>
     <row r="189" spans="2:26">
       <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
@@ -10201,8 +9881,6 @@
     </row>
     <row r="190" spans="2:26">
       <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
@@ -10228,8 +9906,6 @@
     </row>
     <row r="191" spans="2:26">
       <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
@@ -10255,8 +9931,6 @@
     </row>
     <row r="192" spans="2:26">
       <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -10282,8 +9956,6 @@
     </row>
     <row r="193" spans="2:26">
       <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
@@ -10309,8 +9981,6 @@
     </row>
     <row r="194" spans="2:26">
       <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
@@ -10336,8 +10006,6 @@
     </row>
     <row r="195" spans="2:26">
       <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
@@ -10363,8 +10031,6 @@
     </row>
     <row r="196" spans="2:26">
       <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
@@ -10390,8 +10056,6 @@
     </row>
     <row r="197" spans="2:26">
       <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -10417,8 +10081,6 @@
     </row>
     <row r="198" spans="2:26">
       <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
@@ -10444,8 +10106,6 @@
     </row>
     <row r="199" spans="2:26">
       <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
@@ -10471,8 +10131,6 @@
     </row>
     <row r="200" spans="2:26">
       <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
@@ -10498,8 +10156,6 @@
     </row>
     <row r="201" spans="2:26">
       <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
@@ -10525,8 +10181,6 @@
     </row>
     <row r="202" spans="2:26">
       <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -10552,8 +10206,6 @@
     </row>
     <row r="203" spans="2:26">
       <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
@@ -10579,8 +10231,6 @@
     </row>
     <row r="204" spans="2:26">
       <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -10606,8 +10256,6 @@
     </row>
     <row r="205" spans="2:26">
       <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -10633,8 +10281,6 @@
     </row>
     <row r="206" spans="2:26">
       <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
@@ -10660,8 +10306,6 @@
     </row>
     <row r="207" spans="2:26">
       <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
@@ -10687,8 +10331,6 @@
     </row>
     <row r="208" spans="2:26">
       <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
@@ -10714,8 +10356,6 @@
     </row>
     <row r="209" spans="2:26">
       <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
@@ -10741,8 +10381,6 @@
     </row>
     <row r="210" spans="2:26">
       <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
@@ -10768,8 +10406,6 @@
     </row>
     <row r="211" spans="2:26">
       <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -10795,8 +10431,6 @@
     </row>
     <row r="212" spans="2:26">
       <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
@@ -10822,8 +10456,6 @@
     </row>
     <row r="213" spans="2:26">
       <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
@@ -10849,8 +10481,6 @@
     </row>
     <row r="214" spans="2:26">
       <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
@@ -10876,8 +10506,6 @@
     </row>
     <row r="215" spans="2:26">
       <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
@@ -10903,8 +10531,6 @@
     </row>
     <row r="216" spans="2:26">
       <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
@@ -10930,8 +10556,6 @@
     </row>
     <row r="217" spans="2:26">
       <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
@@ -10957,8 +10581,6 @@
     </row>
     <row r="218" spans="2:26">
       <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -10984,8 +10606,6 @@
     </row>
     <row r="219" spans="2:26">
       <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
@@ -11011,8 +10631,6 @@
     </row>
     <row r="220" spans="2:26">
       <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
@@ -11038,8 +10656,6 @@
     </row>
     <row r="221" spans="2:26">
       <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
@@ -11065,8 +10681,6 @@
     </row>
     <row r="222" spans="2:26">
       <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
@@ -11092,8 +10706,6 @@
     </row>
     <row r="223" spans="2:26">
       <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -11119,8 +10731,6 @@
     </row>
     <row r="224" spans="2:26">
       <c r="B224" s="6"/>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -11146,8 +10756,6 @@
     </row>
     <row r="225" spans="2:26">
       <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
@@ -11173,8 +10781,6 @@
     </row>
     <row r="226" spans="2:26">
       <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
@@ -11200,8 +10806,6 @@
     </row>
     <row r="227" spans="2:26">
       <c r="B227" s="6"/>
-      <c r="C227" s="6"/>
-      <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
@@ -11227,8 +10831,6 @@
     </row>
     <row r="228" spans="2:26">
       <c r="B228" s="6"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
@@ -11254,8 +10856,6 @@
     </row>
     <row r="229" spans="2:26">
       <c r="B229" s="6"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
@@ -11281,8 +10881,6 @@
     </row>
     <row r="230" spans="2:26">
       <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
@@ -11308,8 +10906,6 @@
     </row>
     <row r="231" spans="2:26">
       <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
@@ -11335,8 +10931,6 @@
     </row>
     <row r="232" spans="2:26">
       <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
@@ -11362,8 +10956,6 @@
     </row>
     <row r="233" spans="2:26">
       <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
@@ -11389,8 +10981,6 @@
     </row>
     <row r="234" spans="2:26">
       <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
@@ -11416,8 +11006,6 @@
     </row>
     <row r="235" spans="2:26">
       <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
@@ -11443,8 +11031,6 @@
     </row>
     <row r="236" spans="2:26">
       <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
@@ -11470,8 +11056,6 @@
     </row>
     <row r="237" spans="2:26">
       <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
@@ -11497,8 +11081,6 @@
     </row>
     <row r="238" spans="2:26">
       <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
@@ -11524,8 +11106,6 @@
     </row>
     <row r="239" spans="2:26">
       <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
@@ -11551,8 +11131,6 @@
     </row>
     <row r="240" spans="2:26">
       <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
@@ -11578,8 +11156,6 @@
     </row>
     <row r="241" spans="2:26">
       <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
@@ -11605,8 +11181,6 @@
     </row>
     <row r="242" spans="2:26">
       <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
@@ -11632,8 +11206,6 @@
     </row>
     <row r="243" spans="2:26">
       <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
@@ -11659,8 +11231,6 @@
     </row>
     <row r="244" spans="2:26">
       <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
@@ -11686,8 +11256,6 @@
     </row>
     <row r="245" spans="2:26">
       <c r="B245" s="6"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
@@ -11713,8 +11281,6 @@
     </row>
     <row r="246" spans="2:26">
       <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
@@ -11740,8 +11306,6 @@
     </row>
     <row r="247" spans="2:26">
       <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
@@ -11767,8 +11331,6 @@
     </row>
     <row r="248" spans="2:26">
       <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
@@ -11794,8 +11356,6 @@
     </row>
     <row r="249" spans="2:26">
       <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
@@ -11821,8 +11381,6 @@
     </row>
     <row r="250" spans="2:26">
       <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
@@ -11848,8 +11406,6 @@
     </row>
     <row r="251" spans="2:26">
       <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
@@ -11875,8 +11431,6 @@
     </row>
     <row r="252" spans="2:26">
       <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
@@ -11902,8 +11456,6 @@
     </row>
     <row r="253" spans="2:26">
       <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
@@ -11929,8 +11481,6 @@
     </row>
     <row r="254" spans="2:26">
       <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
@@ -11956,8 +11506,6 @@
     </row>
     <row r="255" spans="2:26">
       <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
@@ -11983,8 +11531,6 @@
     </row>
     <row r="256" spans="2:26">
       <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
@@ -12010,8 +11556,6 @@
     </row>
     <row r="257" spans="2:26">
       <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
@@ -12037,8 +11581,6 @@
     </row>
     <row r="258" spans="2:26">
       <c r="B258" s="6"/>
-      <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
@@ -12064,8 +11606,6 @@
     </row>
     <row r="259" spans="2:26">
       <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
@@ -12091,8 +11631,6 @@
     </row>
     <row r="260" spans="2:26">
       <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
@@ -12118,8 +11656,6 @@
     </row>
     <row r="261" spans="2:26">
       <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
@@ -12145,8 +11681,6 @@
     </row>
     <row r="262" spans="2:26">
       <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
@@ -12172,8 +11706,6 @@
     </row>
     <row r="263" spans="2:26">
       <c r="B263" s="6"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
@@ -12199,8 +11731,6 @@
     </row>
     <row r="264" spans="2:26">
       <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
@@ -12226,8 +11756,6 @@
     </row>
     <row r="265" spans="2:26">
       <c r="B265" s="6"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
@@ -12253,8 +11781,6 @@
     </row>
     <row r="266" spans="2:26">
       <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
@@ -12280,8 +11806,6 @@
     </row>
     <row r="267" spans="2:26">
       <c r="B267" s="6"/>
-      <c r="C267" s="6"/>
-      <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
@@ -12307,8 +11831,6 @@
     </row>
     <row r="268" spans="2:26">
       <c r="B268" s="6"/>
-      <c r="C268" s="6"/>
-      <c r="D268" s="6"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
@@ -12334,8 +11856,6 @@
     </row>
     <row r="269" spans="2:26">
       <c r="B269" s="6"/>
-      <c r="C269" s="6"/>
-      <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
@@ -12361,8 +11881,6 @@
     </row>
     <row r="270" spans="2:26">
       <c r="B270" s="6"/>
-      <c r="C270" s="6"/>
-      <c r="D270" s="6"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
@@ -12388,8 +11906,6 @@
     </row>
     <row r="271" spans="2:26">
       <c r="B271" s="6"/>
-      <c r="C271" s="6"/>
-      <c r="D271" s="6"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
@@ -12415,8 +11931,6 @@
     </row>
     <row r="272" spans="2:26">
       <c r="B272" s="6"/>
-      <c r="C272" s="6"/>
-      <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -12442,8 +11956,6 @@
     </row>
     <row r="273" spans="2:26">
       <c r="B273" s="6"/>
-      <c r="C273" s="6"/>
-      <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
@@ -12469,8 +11981,6 @@
     </row>
     <row r="274" spans="2:26">
       <c r="B274" s="6"/>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6"/>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
@@ -12496,8 +12006,6 @@
     </row>
     <row r="275" spans="2:26">
       <c r="B275" s="6"/>
-      <c r="C275" s="6"/>
-      <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
@@ -12523,8 +12031,6 @@
     </row>
     <row r="276" spans="2:26">
       <c r="B276" s="6"/>
-      <c r="C276" s="6"/>
-      <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
@@ -12550,8 +12056,6 @@
     </row>
     <row r="277" spans="2:26">
       <c r="B277" s="6"/>
-      <c r="C277" s="6"/>
-      <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
@@ -12577,8 +12081,6 @@
     </row>
     <row r="278" spans="2:26">
       <c r="B278" s="6"/>
-      <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
@@ -12604,8 +12106,6 @@
     </row>
     <row r="279" spans="2:26">
       <c r="B279" s="6"/>
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
@@ -12631,8 +12131,6 @@
     </row>
     <row r="280" spans="2:26">
       <c r="B280" s="6"/>
-      <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
@@ -12658,8 +12156,6 @@
     </row>
     <row r="281" spans="2:26">
       <c r="B281" s="6"/>
-      <c r="C281" s="6"/>
-      <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
@@ -12685,8 +12181,6 @@
     </row>
     <row r="282" spans="2:26">
       <c r="B282" s="6"/>
-      <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
@@ -12712,8 +12206,6 @@
     </row>
     <row r="283" spans="2:26">
       <c r="B283" s="6"/>
-      <c r="C283" s="6"/>
-      <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
@@ -12739,8 +12231,6 @@
     </row>
     <row r="284" spans="2:26">
       <c r="B284" s="6"/>
-      <c r="C284" s="6"/>
-      <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
@@ -12766,8 +12256,6 @@
     </row>
     <row r="285" spans="2:26">
       <c r="B285" s="6"/>
-      <c r="C285" s="6"/>
-      <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
@@ -12793,8 +12281,6 @@
     </row>
     <row r="286" spans="2:26">
       <c r="B286" s="6"/>
-      <c r="C286" s="6"/>
-      <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
@@ -12820,8 +12306,6 @@
     </row>
     <row r="287" spans="2:26">
       <c r="B287" s="6"/>
-      <c r="C287" s="6"/>
-      <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
@@ -12847,8 +12331,6 @@
     </row>
     <row r="288" spans="2:26">
       <c r="B288" s="6"/>
-      <c r="C288" s="6"/>
-      <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
@@ -12874,8 +12356,6 @@
     </row>
     <row r="289" spans="2:26">
       <c r="B289" s="6"/>
-      <c r="C289" s="6"/>
-      <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
@@ -12901,8 +12381,6 @@
     </row>
     <row r="290" spans="2:26">
       <c r="B290" s="6"/>
-      <c r="C290" s="6"/>
-      <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
@@ -12928,8 +12406,6 @@
     </row>
     <row r="291" spans="2:26">
       <c r="B291" s="6"/>
-      <c r="C291" s="6"/>
-      <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
@@ -12955,8 +12431,6 @@
     </row>
     <row r="292" spans="2:26">
       <c r="B292" s="6"/>
-      <c r="C292" s="6"/>
-      <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
@@ -12982,8 +12456,6 @@
     </row>
     <row r="293" spans="2:26">
       <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
@@ -13009,8 +12481,6 @@
     </row>
     <row r="294" spans="2:26">
       <c r="B294" s="6"/>
-      <c r="C294" s="6"/>
-      <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
@@ -13036,8 +12506,6 @@
     </row>
     <row r="295" spans="2:26">
       <c r="B295" s="6"/>
-      <c r="C295" s="6"/>
-      <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
@@ -13063,8 +12531,6 @@
     </row>
     <row r="296" spans="2:26">
       <c r="B296" s="6"/>
-      <c r="C296" s="6"/>
-      <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
@@ -13090,8 +12556,6 @@
     </row>
     <row r="297" spans="2:26">
       <c r="B297" s="6"/>
-      <c r="C297" s="6"/>
-      <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
@@ -13117,8 +12581,6 @@
     </row>
     <row r="298" spans="2:26">
       <c r="B298" s="6"/>
-      <c r="C298" s="6"/>
-      <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
@@ -13144,8 +12606,6 @@
     </row>
     <row r="299" spans="2:26">
       <c r="B299" s="6"/>
-      <c r="C299" s="6"/>
-      <c r="D299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
@@ -13171,8 +12631,6 @@
     </row>
     <row r="300" spans="2:26">
       <c r="B300" s="6"/>
-      <c r="C300" s="6"/>
-      <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
@@ -13198,8 +12656,6 @@
     </row>
     <row r="301" spans="2:26">
       <c r="B301" s="6"/>
-      <c r="C301" s="6"/>
-      <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
@@ -13225,8 +12681,6 @@
     </row>
     <row r="302" spans="2:26">
       <c r="B302" s="6"/>
-      <c r="C302" s="6"/>
-      <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
@@ -13252,8 +12706,6 @@
     </row>
     <row r="303" spans="2:26">
       <c r="B303" s="6"/>
-      <c r="C303" s="6"/>
-      <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
@@ -13279,8 +12731,6 @@
     </row>
     <row r="304" spans="2:26">
       <c r="B304" s="6"/>
-      <c r="C304" s="6"/>
-      <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
@@ -13306,8 +12756,6 @@
     </row>
     <row r="305" spans="2:26">
       <c r="B305" s="6"/>
-      <c r="C305" s="6"/>
-      <c r="D305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
@@ -13333,8 +12781,6 @@
     </row>
     <row r="306" spans="2:26">
       <c r="B306" s="6"/>
-      <c r="C306" s="6"/>
-      <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
@@ -13360,8 +12806,6 @@
     </row>
     <row r="307" spans="2:26">
       <c r="B307" s="6"/>
-      <c r="C307" s="6"/>
-      <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
@@ -13387,8 +12831,6 @@
     </row>
     <row r="308" spans="2:26">
       <c r="B308" s="6"/>
-      <c r="C308" s="6"/>
-      <c r="D308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
@@ -13414,8 +12856,6 @@
     </row>
     <row r="309" spans="2:26">
       <c r="B309" s="6"/>
-      <c r="C309" s="6"/>
-      <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
@@ -13441,8 +12881,6 @@
     </row>
     <row r="310" spans="2:26">
       <c r="B310" s="6"/>
-      <c r="C310" s="6"/>
-      <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
@@ -13468,8 +12906,6 @@
     </row>
     <row r="311" spans="2:26">
       <c r="B311" s="6"/>
-      <c r="C311" s="6"/>
-      <c r="D311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
@@ -13495,8 +12931,6 @@
     </row>
     <row r="312" spans="2:26">
       <c r="B312" s="6"/>
-      <c r="C312" s="6"/>
-      <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
@@ -13522,8 +12956,6 @@
     </row>
     <row r="313" spans="2:26">
       <c r="B313" s="6"/>
-      <c r="C313" s="6"/>
-      <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
@@ -13549,8 +12981,6 @@
     </row>
     <row r="314" spans="2:26">
       <c r="B314" s="6"/>
-      <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
@@ -13576,8 +13006,6 @@
     </row>
     <row r="315" spans="2:26">
       <c r="B315" s="6"/>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
@@ -13603,8 +13031,6 @@
     </row>
     <row r="316" spans="2:26">
       <c r="B316" s="6"/>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
@@ -13630,8 +13056,6 @@
     </row>
     <row r="317" spans="2:26">
       <c r="B317" s="6"/>
-      <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -13657,8 +13081,6 @@
     </row>
     <row r="318" spans="2:26">
       <c r="B318" s="6"/>
-      <c r="C318" s="6"/>
-      <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
@@ -13684,8 +13106,6 @@
     </row>
     <row r="319" spans="2:26">
       <c r="B319" s="6"/>
-      <c r="C319" s="6"/>
-      <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
@@ -13711,8 +13131,6 @@
     </row>
     <row r="320" spans="2:26">
       <c r="B320" s="6"/>
-      <c r="C320" s="6"/>
-      <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
@@ -13738,8 +13156,6 @@
     </row>
     <row r="321" spans="2:26">
       <c r="B321" s="6"/>
-      <c r="C321" s="6"/>
-      <c r="D321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
@@ -13765,8 +13181,6 @@
     </row>
     <row r="322" spans="2:26">
       <c r="B322" s="6"/>
-      <c r="C322" s="6"/>
-      <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
@@ -13792,8 +13206,6 @@
     </row>
     <row r="323" spans="2:26">
       <c r="B323" s="6"/>
-      <c r="C323" s="6"/>
-      <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
@@ -13819,8 +13231,6 @@
     </row>
     <row r="324" spans="2:26">
       <c r="B324" s="6"/>
-      <c r="C324" s="6"/>
-      <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
@@ -13846,8 +13256,6 @@
     </row>
     <row r="325" spans="2:26">
       <c r="B325" s="6"/>
-      <c r="C325" s="6"/>
-      <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
@@ -13873,8 +13281,6 @@
     </row>
     <row r="326" spans="2:26">
       <c r="B326" s="6"/>
-      <c r="C326" s="6"/>
-      <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
@@ -13900,8 +13306,6 @@
     </row>
     <row r="327" spans="2:26">
       <c r="B327" s="6"/>
-      <c r="C327" s="6"/>
-      <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
@@ -13927,8 +13331,6 @@
     </row>
     <row r="328" spans="2:26">
       <c r="B328" s="6"/>
-      <c r="C328" s="6"/>
-      <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
@@ -13954,8 +13356,6 @@
     </row>
     <row r="329" spans="2:26">
       <c r="B329" s="6"/>
-      <c r="C329" s="6"/>
-      <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
@@ -13981,8 +13381,6 @@
     </row>
     <row r="330" spans="2:26">
       <c r="B330" s="6"/>
-      <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
       <c r="G330" s="6"/>
@@ -14008,8 +13406,6 @@
     </row>
     <row r="331" spans="2:26">
       <c r="B331" s="6"/>
-      <c r="C331" s="6"/>
-      <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
@@ -14035,8 +13431,6 @@
     </row>
     <row r="332" spans="2:26">
       <c r="B332" s="6"/>
-      <c r="C332" s="6"/>
-      <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
@@ -14062,8 +13456,6 @@
     </row>
     <row r="333" spans="2:26">
       <c r="B333" s="6"/>
-      <c r="C333" s="6"/>
-      <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
@@ -14089,8 +13481,6 @@
     </row>
     <row r="334" spans="2:26">
       <c r="B334" s="6"/>
-      <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
       <c r="G334" s="6"/>
@@ -14116,8 +13506,6 @@
     </row>
     <row r="335" spans="2:26">
       <c r="B335" s="6"/>
-      <c r="C335" s="6"/>
-      <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
@@ -14143,8 +13531,6 @@
     </row>
     <row r="336" spans="2:26">
       <c r="B336" s="6"/>
-      <c r="C336" s="6"/>
-      <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
@@ -14170,8 +13556,6 @@
     </row>
     <row r="337" spans="2:26">
       <c r="B337" s="6"/>
-      <c r="C337" s="6"/>
-      <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
@@ -14197,8 +13581,6 @@
     </row>
     <row r="338" spans="2:26">
       <c r="B338" s="6"/>
-      <c r="C338" s="6"/>
-      <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
       <c r="G338" s="6"/>
@@ -14224,8 +13606,6 @@
     </row>
     <row r="339" spans="2:26">
       <c r="B339" s="6"/>
-      <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
@@ -14251,8 +13631,6 @@
     </row>
     <row r="340" spans="2:26">
       <c r="B340" s="6"/>
-      <c r="C340" s="6"/>
-      <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
@@ -14278,8 +13656,6 @@
     </row>
     <row r="341" spans="2:26">
       <c r="B341" s="6"/>
-      <c r="C341" s="6"/>
-      <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
@@ -14305,8 +13681,6 @@
     </row>
     <row r="342" spans="2:26">
       <c r="B342" s="6"/>
-      <c r="C342" s="6"/>
-      <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
       <c r="G342" s="6"/>
@@ -14332,8 +13706,6 @@
     </row>
     <row r="343" spans="2:26">
       <c r="B343" s="6"/>
-      <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
@@ -14359,8 +13731,6 @@
     </row>
     <row r="344" spans="2:26">
       <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
-      <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" s="6"/>
@@ -14386,8 +13756,6 @@
     </row>
     <row r="345" spans="2:26">
       <c r="B345" s="6"/>
-      <c r="C345" s="6"/>
-      <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
@@ -14413,8 +13781,6 @@
     </row>
     <row r="346" spans="2:26">
       <c r="B346" s="6"/>
-      <c r="C346" s="6"/>
-      <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
@@ -14440,8 +13806,6 @@
     </row>
     <row r="347" spans="2:26">
       <c r="B347" s="6"/>
-      <c r="C347" s="6"/>
-      <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
@@ -14467,8 +13831,6 @@
     </row>
     <row r="348" spans="2:26">
       <c r="B348" s="6"/>
-      <c r="C348" s="6"/>
-      <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
@@ -14494,8 +13856,6 @@
     </row>
     <row r="349" spans="2:26">
       <c r="B349" s="6"/>
-      <c r="C349" s="6"/>
-      <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
@@ -14521,8 +13881,6 @@
     </row>
     <row r="350" spans="2:26">
       <c r="B350" s="6"/>
-      <c r="C350" s="6"/>
-      <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
       <c r="G350" s="6"/>
@@ -14548,8 +13906,6 @@
     </row>
     <row r="351" spans="2:26">
       <c r="B351" s="6"/>
-      <c r="C351" s="6"/>
-      <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
@@ -14575,8 +13931,6 @@
     </row>
     <row r="352" spans="2:26">
       <c r="B352" s="6"/>
-      <c r="C352" s="6"/>
-      <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
@@ -14602,8 +13956,6 @@
     </row>
     <row r="353" spans="2:26">
       <c r="B353" s="6"/>
-      <c r="C353" s="6"/>
-      <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
@@ -14629,8 +13981,6 @@
     </row>
     <row r="354" spans="2:26">
       <c r="B354" s="6"/>
-      <c r="C354" s="6"/>
-      <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
@@ -14656,8 +14006,6 @@
     </row>
     <row r="355" spans="2:26">
       <c r="B355" s="6"/>
-      <c r="C355" s="6"/>
-      <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
@@ -14683,8 +14031,6 @@
     </row>
     <row r="356" spans="2:26">
       <c r="B356" s="6"/>
-      <c r="C356" s="6"/>
-      <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
@@ -14710,8 +14056,6 @@
     </row>
     <row r="357" spans="2:26">
       <c r="B357" s="6"/>
-      <c r="C357" s="6"/>
-      <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
@@ -14737,8 +14081,6 @@
     </row>
     <row r="358" spans="2:26">
       <c r="B358" s="6"/>
-      <c r="C358" s="6"/>
-      <c r="D358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
       <c r="G358" s="6"/>
@@ -14764,8 +14106,6 @@
     </row>
     <row r="359" spans="2:26">
       <c r="B359" s="6"/>
-      <c r="C359" s="6"/>
-      <c r="D359" s="6"/>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
@@ -14791,8 +14131,6 @@
     </row>
     <row r="360" spans="2:26">
       <c r="B360" s="6"/>
-      <c r="C360" s="6"/>
-      <c r="D360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
       <c r="G360" s="6"/>
@@ -14818,8 +14156,6 @@
     </row>
     <row r="361" spans="2:26">
       <c r="B361" s="6"/>
-      <c r="C361" s="6"/>
-      <c r="D361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
@@ -14845,8 +14181,6 @@
     </row>
     <row r="362" spans="2:26">
       <c r="B362" s="6"/>
-      <c r="C362" s="6"/>
-      <c r="D362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
       <c r="G362" s="6"/>
@@ -14872,8 +14206,6 @@
     </row>
     <row r="363" spans="2:26">
       <c r="B363" s="6"/>
-      <c r="C363" s="6"/>
-      <c r="D363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
@@ -14899,8 +14231,6 @@
     </row>
     <row r="364" spans="2:26">
       <c r="B364" s="6"/>
-      <c r="C364" s="6"/>
-      <c r="D364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
@@ -14926,8 +14256,6 @@
     </row>
     <row r="365" spans="2:26">
       <c r="B365" s="6"/>
-      <c r="C365" s="6"/>
-      <c r="D365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
@@ -14953,8 +14281,6 @@
     </row>
     <row r="366" spans="2:26">
       <c r="B366" s="6"/>
-      <c r="C366" s="6"/>
-      <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
       <c r="G366" s="6"/>
@@ -14980,8 +14306,6 @@
     </row>
     <row r="367" spans="2:26">
       <c r="B367" s="6"/>
-      <c r="C367" s="6"/>
-      <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
@@ -15007,8 +14331,6 @@
     </row>
     <row r="368" spans="2:26">
       <c r="B368" s="6"/>
-      <c r="C368" s="6"/>
-      <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
@@ -15034,8 +14356,6 @@
     </row>
     <row r="369" spans="2:26">
       <c r="B369" s="6"/>
-      <c r="C369" s="6"/>
-      <c r="D369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
@@ -15061,8 +14381,6 @@
     </row>
     <row r="370" spans="2:26">
       <c r="B370" s="6"/>
-      <c r="C370" s="6"/>
-      <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
       <c r="G370" s="6"/>
@@ -15088,8 +14406,6 @@
     </row>
     <row r="371" spans="2:26">
       <c r="B371" s="6"/>
-      <c r="C371" s="6"/>
-      <c r="D371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
@@ -15115,8 +14431,6 @@
     </row>
     <row r="372" spans="2:26">
       <c r="B372" s="6"/>
-      <c r="C372" s="6"/>
-      <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
       <c r="G372" s="6"/>
@@ -15142,8 +14456,6 @@
     </row>
     <row r="373" spans="2:26">
       <c r="B373" s="6"/>
-      <c r="C373" s="6"/>
-      <c r="D373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
@@ -15169,8 +14481,6 @@
     </row>
     <row r="374" spans="2:26">
       <c r="B374" s="6"/>
-      <c r="C374" s="6"/>
-      <c r="D374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
       <c r="G374" s="6"/>
@@ -15196,8 +14506,6 @@
     </row>
     <row r="375" spans="2:26">
       <c r="B375" s="6"/>
-      <c r="C375" s="6"/>
-      <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
@@ -15223,8 +14531,6 @@
     </row>
     <row r="376" spans="2:26">
       <c r="B376" s="6"/>
-      <c r="C376" s="6"/>
-      <c r="D376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
       <c r="G376" s="6"/>
@@ -15250,8 +14556,6 @@
     </row>
     <row r="377" spans="2:26">
       <c r="B377" s="6"/>
-      <c r="C377" s="6"/>
-      <c r="D377" s="6"/>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
@@ -15277,8 +14581,6 @@
     </row>
     <row r="378" spans="2:26">
       <c r="B378" s="6"/>
-      <c r="C378" s="6"/>
-      <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" s="6"/>
@@ -15304,8 +14606,6 @@
     </row>
     <row r="379" spans="2:26">
       <c r="B379" s="6"/>
-      <c r="C379" s="6"/>
-      <c r="D379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
@@ -15331,8 +14631,6 @@
     </row>
     <row r="380" spans="2:26">
       <c r="B380" s="6"/>
-      <c r="C380" s="6"/>
-      <c r="D380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
       <c r="G380" s="6"/>
@@ -15358,8 +14656,6 @@
     </row>
     <row r="381" spans="2:26">
       <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
-      <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
@@ -15385,8 +14681,6 @@
     </row>
     <row r="382" spans="2:26">
       <c r="B382" s="6"/>
-      <c r="C382" s="6"/>
-      <c r="D382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
       <c r="G382" s="6"/>
@@ -15412,8 +14706,6 @@
     </row>
     <row r="383" spans="2:26">
       <c r="B383" s="6"/>
-      <c r="C383" s="6"/>
-      <c r="D383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
@@ -15439,8 +14731,6 @@
     </row>
     <row r="384" spans="2:26">
       <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
-      <c r="D384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
       <c r="G384" s="6"/>
@@ -15466,8 +14756,6 @@
     </row>
     <row r="385" spans="2:26">
       <c r="B385" s="6"/>
-      <c r="C385" s="6"/>
-      <c r="D385" s="6"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
@@ -15493,8 +14781,6 @@
     </row>
     <row r="386" spans="2:26">
       <c r="B386" s="6"/>
-      <c r="C386" s="6"/>
-      <c r="D386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" s="6"/>
@@ -15520,8 +14806,6 @@
     </row>
     <row r="387" spans="2:26">
       <c r="B387" s="6"/>
-      <c r="C387" s="6"/>
-      <c r="D387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
       <c r="G387" s="6"/>
@@ -15547,8 +14831,6 @@
     </row>
     <row r="388" spans="2:26">
       <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
-      <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" s="6"/>
@@ -15574,8 +14856,6 @@
     </row>
     <row r="389" spans="2:26">
       <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
-      <c r="D389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
       <c r="G389" s="6"/>
@@ -15601,8 +14881,6 @@
     </row>
     <row r="390" spans="2:26">
       <c r="B390" s="6"/>
-      <c r="C390" s="6"/>
-      <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
       <c r="G390" s="6"/>
@@ -15628,8 +14906,6 @@
     </row>
     <row r="391" spans="2:26">
       <c r="B391" s="6"/>
-      <c r="C391" s="6"/>
-      <c r="D391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
@@ -15655,8 +14931,6 @@
     </row>
     <row r="392" spans="2:26">
       <c r="B392" s="6"/>
-      <c r="C392" s="6"/>
-      <c r="D392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
       <c r="G392" s="6"/>
@@ -15682,8 +14956,6 @@
     </row>
     <row r="393" spans="2:26">
       <c r="B393" s="6"/>
-      <c r="C393" s="6"/>
-      <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
@@ -15709,8 +14981,6 @@
     </row>
     <row r="394" spans="2:26">
       <c r="B394" s="6"/>
-      <c r="C394" s="6"/>
-      <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
@@ -15736,8 +15006,6 @@
     </row>
     <row r="395" spans="2:26">
       <c r="B395" s="6"/>
-      <c r="C395" s="6"/>
-      <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
       <c r="G395" s="6"/>
@@ -15763,8 +15031,6 @@
     </row>
     <row r="396" spans="2:26">
       <c r="B396" s="6"/>
-      <c r="C396" s="6"/>
-      <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
       <c r="G396" s="6"/>
@@ -15790,8 +15056,6 @@
     </row>
     <row r="397" spans="2:26">
       <c r="B397" s="6"/>
-      <c r="C397" s="6"/>
-      <c r="D397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
       <c r="G397" s="6"/>
@@ -15817,8 +15081,6 @@
     </row>
     <row r="398" spans="2:26">
       <c r="B398" s="6"/>
-      <c r="C398" s="6"/>
-      <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
       <c r="G398" s="6"/>
@@ -15844,8 +15106,6 @@
     </row>
     <row r="399" spans="2:26">
       <c r="B399" s="6"/>
-      <c r="C399" s="6"/>
-      <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
       <c r="G399" s="6"/>
@@ -15871,8 +15131,6 @@
     </row>
     <row r="400" spans="2:26">
       <c r="B400" s="6"/>
-      <c r="C400" s="6"/>
-      <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
       <c r="G400" s="6"/>
@@ -15898,8 +15156,6 @@
     </row>
     <row r="401" spans="2:26">
       <c r="B401" s="6"/>
-      <c r="C401" s="6"/>
-      <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
       <c r="G401" s="6"/>
@@ -15925,8 +15181,6 @@
     </row>
     <row r="402" spans="2:26">
       <c r="B402" s="6"/>
-      <c r="C402" s="6"/>
-      <c r="D402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
       <c r="G402" s="6"/>
@@ -15952,8 +15206,6 @@
     </row>
     <row r="403" spans="2:26">
       <c r="B403" s="6"/>
-      <c r="C403" s="6"/>
-      <c r="D403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
       <c r="G403" s="6"/>
@@ -15979,8 +15231,6 @@
     </row>
     <row r="404" spans="2:26">
       <c r="B404" s="6"/>
-      <c r="C404" s="6"/>
-      <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
       <c r="G404" s="6"/>
@@ -16006,8 +15256,6 @@
     </row>
     <row r="405" spans="2:26">
       <c r="B405" s="6"/>
-      <c r="C405" s="6"/>
-      <c r="D405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
       <c r="G405" s="6"/>
@@ -16033,8 +15281,6 @@
     </row>
     <row r="406" spans="2:26">
       <c r="B406" s="6"/>
-      <c r="C406" s="6"/>
-      <c r="D406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
       <c r="G406" s="6"/>
@@ -16060,8 +15306,6 @@
     </row>
     <row r="407" spans="2:26">
       <c r="B407" s="6"/>
-      <c r="C407" s="6"/>
-      <c r="D407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
@@ -16087,8 +15331,6 @@
     </row>
     <row r="408" spans="2:26">
       <c r="B408" s="6"/>
-      <c r="C408" s="6"/>
-      <c r="D408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
       <c r="G408" s="6"/>
@@ -16114,8 +15356,6 @@
     </row>
     <row r="409" spans="2:26">
       <c r="B409" s="6"/>
-      <c r="C409" s="6"/>
-      <c r="D409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
       <c r="G409" s="6"/>
@@ -16141,8 +15381,6 @@
     </row>
     <row r="410" spans="2:26">
       <c r="B410" s="6"/>
-      <c r="C410" s="6"/>
-      <c r="D410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
       <c r="G410" s="6"/>
@@ -16168,8 +15406,6 @@
     </row>
     <row r="411" spans="2:26">
       <c r="B411" s="6"/>
-      <c r="C411" s="6"/>
-      <c r="D411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
       <c r="G411" s="6"/>
@@ -16195,8 +15431,6 @@
     </row>
     <row r="412" spans="2:26">
       <c r="B412" s="6"/>
-      <c r="C412" s="6"/>
-      <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
       <c r="G412" s="6"/>
@@ -16222,8 +15456,6 @@
     </row>
     <row r="413" spans="2:26">
       <c r="B413" s="6"/>
-      <c r="C413" s="6"/>
-      <c r="D413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
       <c r="G413" s="6"/>
@@ -16249,8 +15481,6 @@
     </row>
     <row r="414" spans="2:26">
       <c r="B414" s="6"/>
-      <c r="C414" s="6"/>
-      <c r="D414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
       <c r="G414" s="6"/>
@@ -16276,8 +15506,6 @@
     </row>
     <row r="415" spans="2:26">
       <c r="B415" s="6"/>
-      <c r="C415" s="6"/>
-      <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
       <c r="G415" s="6"/>
@@ -16303,8 +15531,6 @@
     </row>
     <row r="416" spans="2:26">
       <c r="B416" s="6"/>
-      <c r="C416" s="6"/>
-      <c r="D416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
       <c r="G416" s="6"/>
@@ -16330,8 +15556,6 @@
     </row>
     <row r="417" spans="2:26">
       <c r="B417" s="6"/>
-      <c r="C417" s="6"/>
-      <c r="D417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
       <c r="G417" s="6"/>
@@ -16357,8 +15581,6 @@
     </row>
     <row r="418" spans="2:26">
       <c r="B418" s="6"/>
-      <c r="C418" s="6"/>
-      <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
       <c r="G418" s="6"/>
@@ -16384,8 +15606,6 @@
     </row>
     <row r="419" spans="2:26">
       <c r="B419" s="6"/>
-      <c r="C419" s="6"/>
-      <c r="D419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
       <c r="G419" s="6"/>
@@ -16411,8 +15631,6 @@
     </row>
     <row r="420" spans="2:26">
       <c r="B420" s="6"/>
-      <c r="C420" s="6"/>
-      <c r="D420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
       <c r="G420" s="6"/>
@@ -16438,8 +15656,6 @@
     </row>
     <row r="421" spans="2:26">
       <c r="B421" s="6"/>
-      <c r="C421" s="6"/>
-      <c r="D421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
@@ -16465,8 +15681,6 @@
     </row>
     <row r="422" spans="2:26">
       <c r="B422" s="6"/>
-      <c r="C422" s="6"/>
-      <c r="D422" s="6"/>
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
@@ -16492,8 +15706,6 @@
     </row>
     <row r="423" spans="2:26">
       <c r="B423" s="6"/>
-      <c r="C423" s="6"/>
-      <c r="D423" s="6"/>
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
       <c r="G423" s="6"/>
@@ -16519,8 +15731,6 @@
     </row>
     <row r="424" spans="2:26">
       <c r="B424" s="6"/>
-      <c r="C424" s="6"/>
-      <c r="D424" s="6"/>
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
       <c r="G424" s="6"/>
@@ -16546,8 +15756,6 @@
     </row>
     <row r="425" spans="2:26">
       <c r="B425" s="6"/>
-      <c r="C425" s="6"/>
-      <c r="D425" s="6"/>
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
@@ -16573,8 +15781,6 @@
     </row>
     <row r="426" spans="2:26">
       <c r="B426" s="6"/>
-      <c r="C426" s="6"/>
-      <c r="D426" s="6"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
       <c r="G426" s="6"/>
@@ -16600,8 +15806,6 @@
     </row>
     <row r="427" spans="2:26">
       <c r="B427" s="6"/>
-      <c r="C427" s="6"/>
-      <c r="D427" s="6"/>
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
       <c r="G427" s="6"/>
@@ -16627,8 +15831,6 @@
     </row>
     <row r="428" spans="2:26">
       <c r="B428" s="6"/>
-      <c r="C428" s="6"/>
-      <c r="D428" s="6"/>
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
       <c r="G428" s="6"/>
@@ -16654,8 +15856,6 @@
     </row>
     <row r="429" spans="2:26">
       <c r="B429" s="6"/>
-      <c r="C429" s="6"/>
-      <c r="D429" s="6"/>
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
       <c r="G429" s="6"/>
@@ -16681,8 +15881,6 @@
     </row>
     <row r="430" spans="2:26">
       <c r="B430" s="6"/>
-      <c r="C430" s="6"/>
-      <c r="D430" s="6"/>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
       <c r="G430" s="6"/>
@@ -16708,8 +15906,6 @@
     </row>
     <row r="431" spans="2:26">
       <c r="B431" s="6"/>
-      <c r="C431" s="6"/>
-      <c r="D431" s="6"/>
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
       <c r="G431" s="6"/>
@@ -16735,8 +15931,6 @@
     </row>
     <row r="432" spans="2:26">
       <c r="B432" s="6"/>
-      <c r="C432" s="6"/>
-      <c r="D432" s="6"/>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
       <c r="G432" s="6"/>
@@ -16762,8 +15956,6 @@
     </row>
     <row r="433" spans="2:26">
       <c r="B433" s="6"/>
-      <c r="C433" s="6"/>
-      <c r="D433" s="6"/>
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
       <c r="G433" s="6"/>
@@ -16789,8 +15981,6 @@
     </row>
     <row r="434" spans="2:26">
       <c r="B434" s="6"/>
-      <c r="C434" s="6"/>
-      <c r="D434" s="6"/>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
       <c r="G434" s="6"/>
@@ -16816,8 +16006,6 @@
     </row>
     <row r="435" spans="2:26">
       <c r="B435" s="6"/>
-      <c r="C435" s="6"/>
-      <c r="D435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
       <c r="G435" s="6"/>
@@ -16843,8 +16031,6 @@
     </row>
     <row r="436" spans="2:26">
       <c r="B436" s="6"/>
-      <c r="C436" s="6"/>
-      <c r="D436" s="6"/>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
       <c r="G436" s="6"/>
@@ -16870,8 +16056,6 @@
     </row>
     <row r="437" spans="2:26">
       <c r="B437" s="6"/>
-      <c r="C437" s="6"/>
-      <c r="D437" s="6"/>
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
       <c r="G437" s="6"/>
@@ -16897,8 +16081,6 @@
     </row>
     <row r="438" spans="2:26">
       <c r="B438" s="6"/>
-      <c r="C438" s="6"/>
-      <c r="D438" s="6"/>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
       <c r="G438" s="6"/>
@@ -16924,8 +16106,6 @@
     </row>
     <row r="439" spans="2:26">
       <c r="B439" s="6"/>
-      <c r="C439" s="6"/>
-      <c r="D439" s="6"/>
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
       <c r="G439" s="6"/>
@@ -16951,8 +16131,6 @@
     </row>
     <row r="440" spans="2:26">
       <c r="B440" s="6"/>
-      <c r="C440" s="6"/>
-      <c r="D440" s="6"/>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
       <c r="G440" s="6"/>
@@ -16978,8 +16156,6 @@
     </row>
     <row r="441" spans="2:26">
       <c r="B441" s="6"/>
-      <c r="C441" s="6"/>
-      <c r="D441" s="6"/>
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
       <c r="G441" s="6"/>
@@ -17005,8 +16181,6 @@
     </row>
     <row r="442" spans="2:26">
       <c r="B442" s="6"/>
-      <c r="C442" s="6"/>
-      <c r="D442" s="6"/>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
       <c r="G442" s="6"/>
@@ -17032,8 +16206,6 @@
     </row>
     <row r="443" spans="2:26">
       <c r="B443" s="6"/>
-      <c r="C443" s="6"/>
-      <c r="D443" s="6"/>
       <c r="E443" s="6"/>
       <c r="F443" s="6"/>
       <c r="G443" s="6"/>
@@ -17059,8 +16231,6 @@
     </row>
     <row r="444" spans="2:26">
       <c r="B444" s="6"/>
-      <c r="C444" s="6"/>
-      <c r="D444" s="6"/>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
       <c r="G444" s="6"/>
@@ -17086,8 +16256,6 @@
     </row>
     <row r="445" spans="2:26">
       <c r="B445" s="6"/>
-      <c r="C445" s="6"/>
-      <c r="D445" s="6"/>
       <c r="E445" s="6"/>
       <c r="F445" s="6"/>
       <c r="G445" s="6"/>
@@ -17113,8 +16281,6 @@
     </row>
     <row r="446" spans="2:26">
       <c r="B446" s="6"/>
-      <c r="C446" s="6"/>
-      <c r="D446" s="6"/>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
@@ -17140,8 +16306,6 @@
     </row>
     <row r="447" spans="2:26">
       <c r="B447" s="6"/>
-      <c r="C447" s="6"/>
-      <c r="D447" s="6"/>
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
       <c r="G447" s="6"/>
@@ -17167,8 +16331,6 @@
     </row>
     <row r="448" spans="2:26">
       <c r="B448" s="6"/>
-      <c r="C448" s="6"/>
-      <c r="D448" s="6"/>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
       <c r="G448" s="6"/>
@@ -17194,8 +16356,6 @@
     </row>
     <row r="449" spans="2:26">
       <c r="B449" s="6"/>
-      <c r="C449" s="6"/>
-      <c r="D449" s="6"/>
       <c r="E449" s="6"/>
       <c r="F449" s="6"/>
       <c r="G449" s="6"/>
@@ -17221,8 +16381,6 @@
     </row>
     <row r="450" spans="2:26">
       <c r="B450" s="6"/>
-      <c r="C450" s="6"/>
-      <c r="D450" s="6"/>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
       <c r="G450" s="6"/>
@@ -17248,8 +16406,6 @@
     </row>
     <row r="451" spans="2:26">
       <c r="B451" s="6"/>
-      <c r="C451" s="6"/>
-      <c r="D451" s="6"/>
       <c r="E451" s="6"/>
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
@@ -17275,8 +16431,6 @@
     </row>
     <row r="452" spans="2:26">
       <c r="B452" s="6"/>
-      <c r="C452" s="6"/>
-      <c r="D452" s="6"/>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
       <c r="G452" s="6"/>
@@ -17302,8 +16456,6 @@
     </row>
     <row r="453" spans="2:26">
       <c r="B453" s="6"/>
-      <c r="C453" s="6"/>
-      <c r="D453" s="6"/>
       <c r="E453" s="6"/>
       <c r="F453" s="6"/>
       <c r="G453" s="6"/>
@@ -17329,8 +16481,6 @@
     </row>
     <row r="454" spans="2:26">
       <c r="B454" s="6"/>
-      <c r="C454" s="6"/>
-      <c r="D454" s="6"/>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
       <c r="G454" s="6"/>
@@ -17356,8 +16506,6 @@
     </row>
     <row r="455" spans="2:26">
       <c r="B455" s="6"/>
-      <c r="C455" s="6"/>
-      <c r="D455" s="6"/>
       <c r="E455" s="6"/>
       <c r="F455" s="6"/>
       <c r="G455" s="6"/>
@@ -17383,8 +16531,6 @@
     </row>
     <row r="456" spans="2:26">
       <c r="B456" s="6"/>
-      <c r="C456" s="6"/>
-      <c r="D456" s="6"/>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
       <c r="G456" s="6"/>
@@ -17410,8 +16556,6 @@
     </row>
     <row r="457" spans="2:26">
       <c r="B457" s="6"/>
-      <c r="C457" s="6"/>
-      <c r="D457" s="6"/>
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
@@ -17437,8 +16581,6 @@
     </row>
     <row r="458" spans="2:26">
       <c r="B458" s="6"/>
-      <c r="C458" s="6"/>
-      <c r="D458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
       <c r="G458" s="6"/>
@@ -17464,8 +16606,6 @@
     </row>
     <row r="459" spans="2:26">
       <c r="B459" s="6"/>
-      <c r="C459" s="6"/>
-      <c r="D459" s="6"/>
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
       <c r="G459" s="6"/>
@@ -17491,8 +16631,6 @@
     </row>
     <row r="460" spans="2:26">
       <c r="B460" s="6"/>
-      <c r="C460" s="6"/>
-      <c r="D460" s="6"/>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
       <c r="G460" s="6"/>
@@ -17518,8 +16656,6 @@
     </row>
     <row r="461" spans="2:26">
       <c r="B461" s="6"/>
-      <c r="C461" s="6"/>
-      <c r="D461" s="6"/>
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
       <c r="G461" s="6"/>
@@ -17545,8 +16681,6 @@
     </row>
     <row r="462" spans="2:26">
       <c r="B462" s="6"/>
-      <c r="C462" s="6"/>
-      <c r="D462" s="6"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
       <c r="G462" s="6"/>
@@ -17572,8 +16706,6 @@
     </row>
     <row r="463" spans="2:26">
       <c r="B463" s="6"/>
-      <c r="C463" s="6"/>
-      <c r="D463" s="6"/>
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
       <c r="G463" s="6"/>
@@ -17599,8 +16731,6 @@
     </row>
     <row r="464" spans="2:26">
       <c r="B464" s="6"/>
-      <c r="C464" s="6"/>
-      <c r="D464" s="6"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
       <c r="G464" s="6"/>
@@ -17626,8 +16756,6 @@
     </row>
     <row r="465" spans="2:26">
       <c r="B465" s="6"/>
-      <c r="C465" s="6"/>
-      <c r="D465" s="6"/>
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
       <c r="G465" s="6"/>
@@ -17653,8 +16781,6 @@
     </row>
     <row r="466" spans="2:26">
       <c r="B466" s="6"/>
-      <c r="C466" s="6"/>
-      <c r="D466" s="6"/>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
       <c r="G466" s="6"/>
@@ -17680,8 +16806,6 @@
     </row>
     <row r="467" spans="2:26">
       <c r="B467" s="6"/>
-      <c r="C467" s="6"/>
-      <c r="D467" s="6"/>
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
@@ -17707,8 +16831,6 @@
     </row>
     <row r="468" spans="2:26">
       <c r="B468" s="6"/>
-      <c r="C468" s="6"/>
-      <c r="D468" s="6"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
@@ -17734,8 +16856,6 @@
     </row>
     <row r="469" spans="2:26">
       <c r="B469" s="6"/>
-      <c r="C469" s="6"/>
-      <c r="D469" s="6"/>
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
@@ -17761,8 +16881,6 @@
     </row>
     <row r="470" spans="2:26">
       <c r="B470" s="6"/>
-      <c r="C470" s="6"/>
-      <c r="D470" s="6"/>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
       <c r="G470" s="6"/>
@@ -17788,8 +16906,6 @@
     </row>
     <row r="471" spans="2:26">
       <c r="B471" s="6"/>
-      <c r="C471" s="6"/>
-      <c r="D471" s="6"/>
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
       <c r="G471" s="6"/>
@@ -17815,8 +16931,6 @@
     </row>
     <row r="472" spans="2:26">
       <c r="B472" s="6"/>
-      <c r="C472" s="6"/>
-      <c r="D472" s="6"/>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
       <c r="G472" s="6"/>
@@ -18297,7 +17411,7 @@
   <sheetPr/>
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -18333,7 +17447,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="2">
         <f>SUM(交易计划及执行表!N6:N11)</f>
-        <v>841.132859999999</v>
+        <v>841.132859999998</v>
       </c>
       <c r="F2" s="3"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -4427,7 +4427,7 @@
   <sheetPr/>
   <dimension ref="A1:BP552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -17411,8 +17411,8 @@
   <sheetPr/>
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4" outlineLevelRow="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -4427,12 +4427,12 @@
   <sheetPr/>
   <dimension ref="A1:BP552"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="C6 B24 B16"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -5303,9 +5303,16 @@
         <f t="shared" si="0"/>
         <v>2842</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="J11" s="23">
+        <v>29.7</v>
+      </c>
+      <c r="K11" s="23">
+        <v>27.69</v>
+      </c>
+      <c r="L11" s="42">
+        <f>(J11-E11)/(J11-K11)</f>
+        <v>0.661691542288557</v>
+      </c>
       <c r="M11" s="52">
         <v>26.31</v>
       </c>
@@ -17411,7 +17418,7 @@
   <sheetPr/>
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4432,7 +4432,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -905,10 +905,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1015,9 +1015,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1031,7 +1037,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1045,7 +1098,52 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1060,107 +1158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,13 +1238,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,13 +1304,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,103 +1346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,19 +1370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,13 +1388,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1484,65 +1484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1554,6 +1495,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1575,9 +1534,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1586,148 +1586,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1738,7 +1738,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1756,7 +1756,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1831,22 +1831,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1855,7 +1855,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1900,25 +1900,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1942,7 +1942,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2118,10 +2118,9 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="交易计划及执行表"/>
-      <sheetName val="交易水平监控表"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="4">
           <cell r="A4" t="str">
             <v>000001</v>
@@ -2161,108 +2160,109 @@
           <cell r="L4">
             <v>0.445283833369307</v>
           </cell>
+          <cell r="M4">
+            <v>20.79</v>
+          </cell>
+          <cell r="N4">
+            <v>29.8</v>
+          </cell>
+          <cell r="O4">
+            <v>21.88</v>
+          </cell>
+          <cell r="P4">
+            <v>26.5</v>
+          </cell>
+          <cell r="Q4">
+            <v>22.1</v>
+          </cell>
+          <cell r="R4">
+            <v>26.4</v>
+          </cell>
+          <cell r="S4">
+            <v>24</v>
+          </cell>
+          <cell r="T4">
+            <v>26.2</v>
+          </cell>
+          <cell r="U4">
+            <v>24.52</v>
+          </cell>
+          <cell r="V4" t="str">
+            <v>26.96</v>
+          </cell>
+          <cell r="W4" t="str">
+            <v>24.74</v>
+          </cell>
+          <cell r="X4" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Y4">
+            <v>0.551262680768401</v>
+          </cell>
+          <cell r="Z4">
+            <v>0.265771812080537</v>
+          </cell>
+          <cell r="AA4">
+            <v>0.166037735849057</v>
+          </cell>
+          <cell r="AB4">
+            <v>0.0909090909090909</v>
+          </cell>
+          <cell r="AC4">
+            <v>0.0641221374045801</v>
+          </cell>
+          <cell r="AD4">
+            <v>0.0823442136498517</v>
+          </cell>
+          <cell r="AE4" t="str">
+            <v>5T</v>
+          </cell>
+          <cell r="AF4" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
         </row>
         <row r="4">
-          <cell r="N4">
-            <v>20.79</v>
-          </cell>
-          <cell r="O4">
-            <v>29.8</v>
-          </cell>
-          <cell r="P4">
-            <v>21.88</v>
-          </cell>
-          <cell r="Q4">
-            <v>26.5</v>
-          </cell>
-          <cell r="R4">
-            <v>22.1</v>
-          </cell>
-          <cell r="S4">
-            <v>26.4</v>
-          </cell>
-          <cell r="T4">
-            <v>24</v>
-          </cell>
-          <cell r="U4">
+          <cell r="BG4">
+            <v>28.15</v>
+          </cell>
+          <cell r="BH4">
+            <v>21.87</v>
+          </cell>
+          <cell r="BI4">
+            <v>6.28</v>
+          </cell>
+          <cell r="BJ4">
             <v>26.2</v>
           </cell>
-          <cell r="V4">
-            <v>24.52</v>
-          </cell>
-          <cell r="W4" t="str">
-            <v>26.96</v>
-          </cell>
-          <cell r="X4" t="str">
-            <v>24.74</v>
-          </cell>
-          <cell r="Y4" t="str">
-            <v>24w</v>
-          </cell>
-          <cell r="Z4">
-            <v>0.551262680768401</v>
-          </cell>
-          <cell r="AA4">
-            <v>0.265771812080537</v>
-          </cell>
-          <cell r="AB4">
-            <v>0.166037735849057</v>
-          </cell>
-          <cell r="AC4">
-            <v>0.0909090909090909</v>
-          </cell>
-          <cell r="AD4">
-            <v>0.0641221374045801</v>
-          </cell>
-          <cell r="AE4">
-            <v>0.0823442136498517</v>
-          </cell>
-          <cell r="AF4" t="str">
-            <v>5T</v>
-          </cell>
-          <cell r="AG4" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="AL4">
-            <v>28.15</v>
-          </cell>
-          <cell r="AM4">
-            <v>21.87</v>
-          </cell>
-          <cell r="AN4">
-            <v>6.28</v>
-          </cell>
-          <cell r="AO4">
-            <v>26.2</v>
-          </cell>
-          <cell r="AP4">
+          <cell r="BK4">
             <v>24.68</v>
           </cell>
-          <cell r="AQ4">
+          <cell r="BL4">
             <v>32.49</v>
           </cell>
-          <cell r="AR4">
+          <cell r="BM4">
             <v>152</v>
           </cell>
-          <cell r="AS4">
+          <cell r="BN4">
             <v>100</v>
           </cell>
-          <cell r="AT4">
+          <cell r="BO4">
             <v>4.13815789473685</v>
           </cell>
-          <cell r="AU4">
+          <cell r="BP4">
             <v>0.0580152671755725</v>
           </cell>
-          <cell r="AV4">
+          <cell r="BQ4">
             <v>0.240076335877863</v>
           </cell>
-          <cell r="AW4">
+          <cell r="BR4">
             <v>150.88</v>
           </cell>
-          <cell r="AX4" t="str">
+          <cell r="BS4" t="str">
             <v>不宜入场</v>
+          </cell>
+          <cell r="BT4" t="str">
+            <v>已执行</v>
           </cell>
         </row>
         <row r="5">
@@ -2304,97 +2304,163 @@
           <cell r="L5">
             <v>0.240657361548852</v>
           </cell>
+          <cell r="M5">
+            <v>30.78</v>
+          </cell>
+          <cell r="N5">
+            <v>35</v>
+          </cell>
+          <cell r="O5">
+            <v>31.27</v>
+          </cell>
+          <cell r="P5">
+            <v>34.82</v>
+          </cell>
+          <cell r="Q5">
+            <v>32.12</v>
+          </cell>
+          <cell r="R5">
+            <v>34.11</v>
+          </cell>
+          <cell r="S5">
+            <v>32.53</v>
+          </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>30.78</v>
-          </cell>
-          <cell r="O5">
-            <v>35</v>
-          </cell>
-          <cell r="P5">
-            <v>31.27</v>
-          </cell>
-          <cell r="Q5">
-            <v>34.82</v>
-          </cell>
-          <cell r="R5">
-            <v>32.12</v>
-          </cell>
-          <cell r="S5">
-            <v>34.11</v>
-          </cell>
-          <cell r="T5">
-            <v>32.53</v>
+          <cell r="X5" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Y5">
+            <v>0.307068887888339</v>
+          </cell>
+          <cell r="Z5">
+            <v>0.106571428571429</v>
+          </cell>
+          <cell r="AA5">
+            <v>0.077541642734061</v>
+          </cell>
+          <cell r="AB5">
+            <v>0.0463207270595133</v>
+          </cell>
+          <cell r="AC5" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="Y5" t="str">
-            <v>24w</v>
-          </cell>
-          <cell r="Z5">
-            <v>0.307068887888339</v>
-          </cell>
-          <cell r="AA5">
-            <v>0.106571428571429</v>
-          </cell>
-          <cell r="AB5">
-            <v>0.077541642734061</v>
-          </cell>
-          <cell r="AC5">
-            <v>0.0463207270595133</v>
-          </cell>
-          <cell r="AD5" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AE5" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF5" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="AF5" t="str">
-            <v>4T</v>
-          </cell>
-          <cell r="AG5" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
+          <cell r="AH5" t="str">
+            <v>14.04</v>
+          </cell>
+          <cell r="AI5">
+            <v>0.0351</v>
+          </cell>
+          <cell r="AJ5">
+            <v>0.3603</v>
+          </cell>
+          <cell r="AK5">
+            <v>0.3371</v>
+          </cell>
+          <cell r="AL5">
+            <v>0.2435</v>
+          </cell>
+          <cell r="AM5">
+            <v>0.263</v>
+          </cell>
+          <cell r="AN5">
+            <v>0.003</v>
+          </cell>
+          <cell r="AO5">
+            <v>0.0758</v>
+          </cell>
+          <cell r="AP5">
+            <v>-0.2476</v>
+          </cell>
+          <cell r="AQ5">
+            <v>0.0073</v>
+          </cell>
+          <cell r="AR5">
+            <v>0.2143</v>
+          </cell>
+          <cell r="AS5">
+            <v>0.156</v>
+          </cell>
+          <cell r="AT5">
+            <v>0.1125</v>
+          </cell>
+          <cell r="AU5">
+            <v>0.2584</v>
+          </cell>
+          <cell r="AV5">
+            <v>-0.0411</v>
+          </cell>
+          <cell r="AW5">
+            <v>0.0156</v>
+          </cell>
+          <cell r="AX5">
+            <v>-0.167</v>
+          </cell>
+          <cell r="AY5">
+            <v>0.4704</v>
+          </cell>
+          <cell r="AZ5">
+            <v>0.4673</v>
+          </cell>
+          <cell r="BA5">
+            <v>0.4797</v>
+          </cell>
+          <cell r="BB5">
+            <v>0.4796</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="AL5">
+          <cell r="BG5">
             <v>35.48</v>
           </cell>
-          <cell r="AM5">
+          <cell r="BH5">
             <v>31.36</v>
           </cell>
-          <cell r="AN5">
+          <cell r="BI5">
             <v>4.12</v>
           </cell>
-          <cell r="AO5">
+          <cell r="BJ5">
             <v>34.12</v>
           </cell>
-          <cell r="AP5">
+          <cell r="BK5">
             <v>32.53</v>
           </cell>
-          <cell r="AQ5">
+          <cell r="BL5">
             <v>39.33</v>
           </cell>
-          <cell r="AR5">
+          <cell r="BM5">
             <v>159</v>
           </cell>
-          <cell r="AS5">
+          <cell r="BN5">
             <v>100</v>
           </cell>
-          <cell r="AT5">
+          <cell r="BO5">
             <v>3.27672955974844</v>
           </cell>
-          <cell r="AU5">
+          <cell r="BP5">
             <v>0.0466002344665884</v>
           </cell>
-          <cell r="AV5">
+          <cell r="BQ5">
             <v>0.152696365767878</v>
           </cell>
-          <cell r="AW5">
+          <cell r="BR5">
             <v>37.41</v>
           </cell>
-          <cell r="AX5" t="str">
+          <cell r="BS5" t="str">
             <v>可以</v>
+          </cell>
+          <cell r="BT5" t="str">
+            <v>已执行</v>
           </cell>
         </row>
         <row r="6">
@@ -2436,97 +2502,163 @@
           <cell r="L6">
             <v>0.215180722891566</v>
           </cell>
+          <cell r="M6">
+            <v>28.42</v>
+          </cell>
+          <cell r="N6">
+            <v>34.7</v>
+          </cell>
+          <cell r="O6">
+            <v>29</v>
+          </cell>
+          <cell r="P6">
+            <v>35.27</v>
+          </cell>
+          <cell r="Q6">
+            <v>30.89</v>
+          </cell>
+          <cell r="R6">
+            <v>34.66</v>
+          </cell>
+          <cell r="S6">
+            <v>32.59</v>
+          </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>28.42</v>
-          </cell>
-          <cell r="O6">
-            <v>34.7</v>
-          </cell>
-          <cell r="P6">
-            <v>29</v>
-          </cell>
-          <cell r="Q6">
-            <v>35.27</v>
-          </cell>
-          <cell r="R6">
-            <v>30.89</v>
-          </cell>
-          <cell r="S6">
-            <v>34.66</v>
-          </cell>
-          <cell r="T6">
-            <v>32.59</v>
+          <cell r="X6" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y6">
+            <v>0.315180722891566</v>
+          </cell>
+          <cell r="Z6">
+            <v>0.164265129682997</v>
+          </cell>
+          <cell r="AA6">
+            <v>0.124184859654097</v>
+          </cell>
+          <cell r="AB6">
+            <v>0.0597230236583957</v>
+          </cell>
+          <cell r="AC6" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="Y6" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z6">
-            <v>0.315180722891566</v>
-          </cell>
-          <cell r="AA6">
-            <v>0.164265129682997</v>
-          </cell>
-          <cell r="AB6">
-            <v>0.124184859654097</v>
-          </cell>
-          <cell r="AC6">
-            <v>0.0597230236583957</v>
-          </cell>
-          <cell r="AD6" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AE6" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF6" t="str">
+            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="AF6" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG6" t="str">
-            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
+          <cell r="AH6" t="str">
+            <v>1.22</v>
+          </cell>
+          <cell r="AI6" t="str">
+            <v>76.43%</v>
+          </cell>
+          <cell r="AJ6" t="str">
+            <v>213.97%</v>
+          </cell>
+          <cell r="AK6" t="str">
+            <v>-18.38%</v>
+          </cell>
+          <cell r="AL6" t="str">
+            <v>-27.36%</v>
+          </cell>
+          <cell r="AM6" t="str">
+            <v>41.62%</v>
+          </cell>
+          <cell r="AN6" t="str">
+            <v>10.87%</v>
+          </cell>
+          <cell r="AO6" t="str">
+            <v>-28.84%</v>
+          </cell>
+          <cell r="AP6" t="str">
+            <v>-61.45%</v>
+          </cell>
+          <cell r="AQ6" t="str">
+            <v>22.84%</v>
+          </cell>
+          <cell r="AR6" t="str">
+            <v>91.86%</v>
+          </cell>
+          <cell r="AS6" t="str">
+            <v>36.42%</v>
+          </cell>
+          <cell r="AT6" t="str">
+            <v>23.26%</v>
+          </cell>
+          <cell r="AU6">
+            <v>0.0455</v>
+          </cell>
+          <cell r="AV6">
+            <v>-0.0116</v>
+          </cell>
+          <cell r="AW6">
+            <v>0.1549</v>
+          </cell>
+          <cell r="AX6">
+            <v>-0.1474</v>
+          </cell>
+          <cell r="AY6">
+            <v>0.2133</v>
+          </cell>
+          <cell r="AZ6">
+            <v>0.1848</v>
+          </cell>
+          <cell r="BA6">
+            <v>0.1718</v>
+          </cell>
+          <cell r="BB6">
+            <v>0.1605</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="AL6">
+          <cell r="BG6">
             <v>36.21</v>
           </cell>
-          <cell r="AM6">
+          <cell r="BH6">
             <v>27.35</v>
           </cell>
-          <cell r="AN6">
+          <cell r="BI6">
             <v>8.86</v>
           </cell>
-          <cell r="AO6">
+          <cell r="BJ6">
             <v>32.65</v>
           </cell>
-          <cell r="AP6">
+          <cell r="BK6">
             <v>30.89</v>
           </cell>
-          <cell r="AQ6">
+          <cell r="BL6">
             <v>36.22</v>
           </cell>
-          <cell r="AR6">
+          <cell r="BM6">
             <v>176</v>
           </cell>
-          <cell r="AS6">
+          <cell r="BN6">
             <v>100</v>
           </cell>
-          <cell r="AT6">
+          <cell r="BO6">
             <v>2.02840909090909</v>
           </cell>
-          <cell r="AU6">
+          <cell r="BP6">
             <v>0.0539050535987748</v>
           </cell>
-          <cell r="AV6">
+          <cell r="BQ6">
             <v>0.109341500765697</v>
           </cell>
-          <cell r="AW6">
+          <cell r="BR6">
             <v>28.82</v>
           </cell>
-          <cell r="AX6" t="str">
+          <cell r="BS6" t="str">
             <v>可以</v>
+          </cell>
+          <cell r="BT6" t="str">
+            <v>已执行</v>
           </cell>
         </row>
         <row r="7">
@@ -2568,88 +2700,163 @@
           <cell r="L7">
             <v>0.234023701406579</v>
           </cell>
+          <cell r="M7">
+            <v>60.05</v>
+          </cell>
+          <cell r="N7">
+            <v>74.75</v>
+          </cell>
+          <cell r="O7">
+            <v>65.5</v>
+          </cell>
+          <cell r="P7">
+            <v>70.98</v>
+          </cell>
+          <cell r="Q7">
+            <v>66.88</v>
+          </cell>
+          <cell r="R7">
+            <v>77.98</v>
+          </cell>
+          <cell r="S7">
+            <v>71.58</v>
+          </cell>
+          <cell r="T7">
+            <v>77.98</v>
+          </cell>
         </row>
         <row r="7">
-          <cell r="N7">
-            <v>60.05</v>
-          </cell>
-          <cell r="O7">
-            <v>74.75</v>
-          </cell>
-          <cell r="P7">
-            <v>65.5</v>
-          </cell>
-          <cell r="Q7">
-            <v>70.98</v>
-          </cell>
-          <cell r="R7">
-            <v>66.88</v>
+          <cell r="X7" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.33492081072101</v>
+          </cell>
+          <cell r="Z7">
+            <v>0.123745819397993</v>
+          </cell>
+          <cell r="AA7">
+            <v>0.0577627500704425</v>
+          </cell>
+          <cell r="AB7">
+            <v>0.0820723262374969</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="Y7" t="str">
-            <v>12w</v>
-          </cell>
-          <cell r="Z7">
-            <v>0.33492081072101</v>
-          </cell>
-          <cell r="AA7">
-            <v>0.123745819397993</v>
-          </cell>
-          <cell r="AB7">
-            <v>0.0577627500704425</v>
-          </cell>
-          <cell r="AC7" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AE7" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF7" t="str">
+            <v>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="AF7" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG7" t="str">
-            <v>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</v>
+          <cell r="AH7">
+            <v>10.35</v>
+          </cell>
+          <cell r="AI7" t="str">
+            <v>1018.94%</v>
+          </cell>
+          <cell r="AJ7" t="str">
+            <v>1628.25%</v>
+          </cell>
+          <cell r="AK7" t="str">
+            <v>195.29%</v>
+          </cell>
+          <cell r="AL7" t="str">
+            <v>187.08%</v>
+          </cell>
+          <cell r="AM7" t="str">
+            <v>-27.60%</v>
+          </cell>
+          <cell r="AN7" t="str">
+            <v>203.68%</v>
+          </cell>
+          <cell r="AO7" t="str">
+            <v>-30.01%</v>
+          </cell>
+          <cell r="AP7" t="str">
+            <v>79.80%</v>
+          </cell>
+          <cell r="AQ7" t="str">
+            <v>346.57%</v>
+          </cell>
+          <cell r="AR7" t="str">
+            <v>1325.86%</v>
+          </cell>
+          <cell r="AS7" t="str">
+            <v>185.25%</v>
+          </cell>
+          <cell r="AT7" t="str">
+            <v>196.14%</v>
+          </cell>
+          <cell r="AU7" t="str">
+            <v>62.35%</v>
+          </cell>
+          <cell r="AV7" t="str">
+            <v>74.09%</v>
+          </cell>
+          <cell r="AW7" t="str">
+            <v>-43.96%</v>
+          </cell>
+          <cell r="AX7" t="str">
+            <v>97.62%</v>
+          </cell>
+          <cell r="AY7" t="str">
+            <v>78.21%</v>
+          </cell>
+          <cell r="AZ7" t="str">
+            <v>76.66%</v>
+          </cell>
+          <cell r="BA7">
+            <v>0.7636</v>
+          </cell>
+          <cell r="BB7">
+            <v>0.7607</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="AL7">
+          <cell r="BG7">
             <v>75.02</v>
           </cell>
-          <cell r="AM7">
+          <cell r="BH7">
             <v>62.33</v>
           </cell>
-          <cell r="AN7">
+          <cell r="BI7">
             <v>12.69</v>
           </cell>
-          <cell r="AO7">
+          <cell r="BJ7">
             <v>70.98</v>
           </cell>
-          <cell r="AP7">
+          <cell r="BK7">
             <v>66.88</v>
           </cell>
-          <cell r="AQ7">
+          <cell r="BL7">
             <v>84.94</v>
           </cell>
-          <cell r="AR7">
+          <cell r="BM7">
             <v>410.000000000001</v>
           </cell>
-          <cell r="AS7">
+          <cell r="BN7">
             <v>0</v>
           </cell>
-          <cell r="AT7">
+          <cell r="BO7">
             <v>3.40487804878048</v>
           </cell>
-          <cell r="AU7">
+          <cell r="BP7">
             <v>0.0577627500704425</v>
           </cell>
-          <cell r="AV7">
+          <cell r="BQ7">
             <v>0.196675119752043</v>
           </cell>
-          <cell r="AW7">
+          <cell r="BR7">
             <v>6.49</v>
           </cell>
-          <cell r="AX7" t="str">
+          <cell r="BS7" t="str">
             <v>可以</v>
+          </cell>
+          <cell r="BT7" t="str">
+            <v>已执行</v>
           </cell>
         </row>
         <row r="8">
@@ -2688,91 +2895,92 @@
           <cell r="L8">
             <v>0.387835051546392</v>
           </cell>
+          <cell r="M8">
+            <v>24.11</v>
+          </cell>
+          <cell r="N8">
+            <v>38.16</v>
+          </cell>
+          <cell r="O8">
+            <v>25.12</v>
+          </cell>
+          <cell r="P8">
+            <v>30.9</v>
+          </cell>
+          <cell r="Q8">
+            <v>29.2</v>
+          </cell>
         </row>
         <row r="8">
-          <cell r="N8">
-            <v>24.11</v>
-          </cell>
-          <cell r="O8">
-            <v>38.16</v>
-          </cell>
-          <cell r="P8">
-            <v>25.12</v>
-          </cell>
-          <cell r="Q8">
-            <v>30.9</v>
-          </cell>
-          <cell r="R8">
-            <v>29.2</v>
+          <cell r="X8" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Y8">
+            <v>0.502886597938144</v>
+          </cell>
+          <cell r="Z8">
+            <v>0.341719077568134</v>
+          </cell>
+          <cell r="AA8">
+            <v>0.0550161812297734</v>
+          </cell>
+          <cell r="AB8" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AC8" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="Y8" t="str">
-            <v>24w</v>
-          </cell>
-          <cell r="Z8">
-            <v>0.502886597938144</v>
-          </cell>
-          <cell r="AA8">
-            <v>0.341719077568134</v>
-          </cell>
-          <cell r="AB8">
-            <v>0.0550161812297734</v>
-          </cell>
-          <cell r="AC8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="AD8" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AE8" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF8" t="str">
+            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="AF8" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG8" t="str">
-            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AL8">
+          <cell r="BG8">
             <v>32.43</v>
           </cell>
-          <cell r="AM8">
+          <cell r="BH8">
             <v>26.16</v>
           </cell>
-          <cell r="AN8">
+          <cell r="BI8">
             <v>6.27</v>
           </cell>
-          <cell r="AO8">
+          <cell r="BJ8">
             <v>30.66</v>
           </cell>
-          <cell r="AP8">
+          <cell r="BK8">
             <v>29.35</v>
           </cell>
-          <cell r="AQ8">
+          <cell r="BL8">
             <v>38.71</v>
           </cell>
-          <cell r="AR8">
+          <cell r="BM8">
             <v>131</v>
           </cell>
-          <cell r="AS8">
+          <cell r="BN8">
             <v>200</v>
           </cell>
-          <cell r="AT8">
+          <cell r="BO8">
             <v>6.14503816793894</v>
           </cell>
-          <cell r="AU8">
+          <cell r="BP8">
             <v>0.042726679712981</v>
           </cell>
-          <cell r="AV8">
+          <cell r="BQ8">
             <v>0.262557077625571</v>
           </cell>
-          <cell r="AW8">
+          <cell r="BR8">
             <v>38.46</v>
           </cell>
-          <cell r="AX8" t="str">
+          <cell r="BS8" t="str">
             <v>不宜入场</v>
+          </cell>
+          <cell r="BT8" t="str">
+            <v>已执行</v>
           </cell>
         </row>
         <row r="9">
@@ -2811,94 +3019,163 @@
           <cell r="L9">
             <v>0.0923606762680026</v>
           </cell>
+          <cell r="M9">
+            <v>20.63</v>
+          </cell>
+          <cell r="N9">
+            <v>25.66</v>
+          </cell>
+          <cell r="O9">
+            <v>21.46</v>
+          </cell>
+          <cell r="P9">
+            <v>28.89</v>
+          </cell>
+          <cell r="Q9">
+            <v>24.22</v>
+          </cell>
+          <cell r="R9">
+            <v>29.7</v>
+          </cell>
+          <cell r="S9">
+            <v>27.72</v>
+          </cell>
         </row>
         <row r="9">
-          <cell r="N9">
-            <v>20.63</v>
-          </cell>
-          <cell r="O9">
-            <v>25.66</v>
-          </cell>
-          <cell r="P9">
-            <v>21.46</v>
-          </cell>
-          <cell r="Q9">
-            <v>28.89</v>
-          </cell>
-          <cell r="R9">
-            <v>24.22</v>
-          </cell>
-          <cell r="S9">
-            <v>29.7</v>
-          </cell>
-          <cell r="T9">
-            <v>27.72</v>
+          <cell r="X9" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y9">
+            <v>0.354101440200376</v>
+          </cell>
+          <cell r="Z9">
+            <v>0.163678877630553</v>
+          </cell>
+          <cell r="AA9">
+            <v>0.161647628937349</v>
+          </cell>
+          <cell r="AB9">
+            <v>0.0666666666666667</v>
+          </cell>
+          <cell r="AC9" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="Y9" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z9">
-            <v>0.354101440200376</v>
-          </cell>
-          <cell r="AA9">
-            <v>0.163678877630553</v>
-          </cell>
-          <cell r="AB9">
-            <v>0.161647628937349</v>
-          </cell>
-          <cell r="AC9">
-            <v>0.0666666666666667</v>
+          <cell r="AE9" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF9" t="str">
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="AF9" t="str">
-            <v>4T</v>
-          </cell>
-          <cell r="AG9" t="str">
-            <v>减少明显，空头几乎被榨干</v>
+          <cell r="AH9">
+            <v>6.25</v>
+          </cell>
+          <cell r="AI9">
+            <v>1.5016</v>
+          </cell>
+          <cell r="AJ9">
+            <v>5.5181</v>
+          </cell>
+          <cell r="AK9">
+            <v>3.3249</v>
+          </cell>
+          <cell r="AL9">
+            <v>1.8449</v>
+          </cell>
+          <cell r="AM9">
+            <v>0.3554</v>
+          </cell>
+          <cell r="AN9">
+            <v>0.2495</v>
+          </cell>
+          <cell r="AO9">
+            <v>0.1071</v>
+          </cell>
+          <cell r="AP9">
+            <v>-0.134</v>
+          </cell>
+          <cell r="AQ9">
+            <v>0.0437</v>
+          </cell>
+          <cell r="AR9">
+            <v>1.1403</v>
+          </cell>
+          <cell r="AS9">
+            <v>1.4349</v>
+          </cell>
+          <cell r="AT9">
+            <v>1.2425</v>
+          </cell>
+          <cell r="AU9">
+            <v>0.2131</v>
+          </cell>
+          <cell r="AV9">
+            <v>0.2062</v>
+          </cell>
+          <cell r="AW9">
+            <v>0.334</v>
+          </cell>
+          <cell r="AX9">
+            <v>0.0105</v>
+          </cell>
+          <cell r="AY9">
+            <v>0.3392</v>
+          </cell>
+          <cell r="AZ9">
+            <v>0.3777</v>
+          </cell>
+          <cell r="BA9">
+            <v>0.3722</v>
+          </cell>
+          <cell r="BB9">
+            <v>0.3621</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="AL9">
+          <cell r="BG9">
             <v>31.18</v>
           </cell>
-          <cell r="AM9">
+          <cell r="BH9">
             <v>21.1</v>
           </cell>
-          <cell r="AN9">
+          <cell r="BI9">
             <v>10.08</v>
           </cell>
-          <cell r="AO9">
+          <cell r="BJ9">
             <v>29.77</v>
           </cell>
-          <cell r="AP9">
+          <cell r="BK9">
             <v>27.72</v>
           </cell>
-          <cell r="AQ9">
+          <cell r="BL9">
             <v>34.93</v>
           </cell>
-          <cell r="AR9">
+          <cell r="BM9">
             <v>205</v>
           </cell>
-          <cell r="AS9">
+          <cell r="BN9">
             <v>100</v>
           </cell>
-          <cell r="AT9">
+          <cell r="BO9">
             <v>2.51707317073171</v>
           </cell>
-          <cell r="AU9">
+          <cell r="BP9">
             <v>0.0688612697346322</v>
           </cell>
-          <cell r="AV9">
+          <cell r="BQ9">
             <v>0.173328854551562</v>
           </cell>
-          <cell r="AW9">
+          <cell r="BR9">
             <v>17.95</v>
           </cell>
-          <cell r="AX9" t="str">
+          <cell r="BS9" t="str">
             <v>可以</v>
+          </cell>
+          <cell r="BT9" t="str">
+            <v>已执行</v>
           </cell>
         </row>
         <row r="10">
@@ -2937,453 +3214,1580 @@
           <cell r="L10">
             <v>0.123498498498498</v>
           </cell>
+          <cell r="M10">
+            <v>18.5</v>
+          </cell>
+          <cell r="N10">
+            <v>22.39</v>
+          </cell>
+          <cell r="O10">
+            <v>18.85</v>
+          </cell>
+          <cell r="P10">
+            <v>23.56</v>
+          </cell>
+          <cell r="Q10">
+            <v>20.89</v>
+          </cell>
+          <cell r="R10">
+            <v>24.3</v>
+          </cell>
+          <cell r="S10">
+            <v>22.26</v>
+          </cell>
         </row>
         <row r="10">
-          <cell r="N10">
-            <v>18.5</v>
-          </cell>
-          <cell r="O10">
-            <v>22.39</v>
-          </cell>
-          <cell r="P10">
-            <v>18.85</v>
-          </cell>
-          <cell r="Q10">
-            <v>23.56</v>
-          </cell>
-          <cell r="R10">
-            <v>20.89</v>
-          </cell>
-          <cell r="S10">
-            <v>23.49</v>
-          </cell>
-          <cell r="T10">
-            <v>22.12</v>
+          <cell r="X10" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Y10">
+            <v>0.305555555555556</v>
+          </cell>
+          <cell r="Z10">
+            <v>0.158106297454221</v>
+          </cell>
+          <cell r="AA10">
+            <v>0.113327674023769</v>
+          </cell>
+          <cell r="AB10">
+            <v>0.0839506172839506</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="Y10" t="str">
-            <v>12w</v>
-          </cell>
-          <cell r="Z10">
-            <v>0.305555555555556</v>
-          </cell>
-          <cell r="AA10">
-            <v>0.158106297454221</v>
-          </cell>
-          <cell r="AB10">
-            <v>0.113327674023769</v>
-          </cell>
-          <cell r="AC10">
-            <v>0.0583226905065984</v>
+          <cell r="AE10" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF10" t="str">
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="AF10" t="str">
-            <v>4T</v>
-          </cell>
-          <cell r="AG10" t="str">
-            <v>减少明显，空头几乎被榨干</v>
+          <cell r="AH10">
+            <v>0.77</v>
+          </cell>
+          <cell r="AI10" t="str">
+            <v>-30.59%</v>
+          </cell>
+          <cell r="AJ10" t="str">
+            <v>12.50%</v>
+          </cell>
+          <cell r="AK10" t="str">
+            <v>32.53%</v>
+          </cell>
+          <cell r="AL10" t="str">
+            <v>57.14%</v>
+          </cell>
+          <cell r="AM10">
+            <v>2.6193</v>
+          </cell>
+          <cell r="AN10">
+            <v>0.0893</v>
+          </cell>
+          <cell r="AO10">
+            <v>-0.0175</v>
+          </cell>
+          <cell r="AP10">
+            <v>-0.2195</v>
+          </cell>
+          <cell r="AQ10">
+            <v>-0.0419</v>
+          </cell>
+          <cell r="AR10">
+            <v>0.1981</v>
+          </cell>
+          <cell r="AS10">
+            <v>0.198</v>
+          </cell>
+          <cell r="AT10">
+            <v>0.1998</v>
+          </cell>
+          <cell r="AU10">
+            <v>0.1893</v>
+          </cell>
+          <cell r="AV10">
+            <v>-0.0513</v>
+          </cell>
+          <cell r="AW10">
+            <v>0.0188</v>
+          </cell>
+          <cell r="AX10">
+            <v>0.0467</v>
+          </cell>
+          <cell r="AY10">
+            <v>0.2619</v>
+          </cell>
+          <cell r="AZ10">
+            <v>0.259</v>
+          </cell>
+          <cell r="BA10">
+            <v>0.2791</v>
+          </cell>
+          <cell r="BB10">
+            <v>0.1079</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="AL10">
+          <cell r="BG10">
             <v>25.59</v>
           </cell>
-          <cell r="AM10">
+          <cell r="BH10">
             <v>18.59</v>
           </cell>
-          <cell r="AN10">
+          <cell r="BI10">
             <v>7</v>
           </cell>
-          <cell r="AO10">
+          <cell r="BJ10">
             <v>24.28</v>
           </cell>
-          <cell r="AP10">
-            <v>23.09</v>
-          </cell>
-          <cell r="AQ10">
-            <v>26.77</v>
-          </cell>
-          <cell r="AR10">
-            <v>119</v>
-          </cell>
-          <cell r="AS10">
-            <v>200</v>
-          </cell>
-          <cell r="AT10">
-            <v>2.09243697478991</v>
-          </cell>
-          <cell r="AU10">
-            <v>0.049011532125206</v>
-          </cell>
-          <cell r="AV10">
-            <v>0.102553542009885</v>
-          </cell>
-          <cell r="AW10">
+          <cell r="BK10">
+            <v>22.26</v>
+          </cell>
+          <cell r="BL10">
+            <v>26.72</v>
+          </cell>
+          <cell r="BM10">
+            <v>202</v>
+          </cell>
+          <cell r="BN10">
+            <v>100</v>
+          </cell>
+          <cell r="BO10">
+            <v>1.20792079207921</v>
+          </cell>
+          <cell r="BP10">
+            <v>0.0831960461285008</v>
+          </cell>
+          <cell r="BQ10">
+            <v>0.100494233937397</v>
+          </cell>
+          <cell r="BR10">
             <v>56.67</v>
           </cell>
-          <cell r="AX10" t="str">
+          <cell r="BS10" t="str">
             <v>可以</v>
+          </cell>
+          <cell r="BT10" t="str">
+            <v>待执行
+(等待波动一周后)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>000021</v>
+            <v>000029</v>
           </cell>
           <cell r="B11">
-            <v>44531</v>
+            <v>44533</v>
           </cell>
           <cell r="C11" t="str">
-            <v>605028(世贸能源)</v>
+            <v>600392(盛和资源)</v>
           </cell>
           <cell r="D11">
-            <v>22.96</v>
+            <v>20.71</v>
           </cell>
           <cell r="E11">
-            <v>23.55</v>
+            <v>21.02</v>
           </cell>
           <cell r="F11">
-            <v>25.45</v>
+            <v>21.31</v>
           </cell>
         </row>
         <row r="11">
           <cell r="H11">
-            <v>25.7</v>
+            <v>22.29</v>
           </cell>
           <cell r="I11">
-            <v>16.52</v>
+            <v>7.66</v>
           </cell>
           <cell r="J11">
-            <v>33.51</v>
+            <v>29.28</v>
           </cell>
           <cell r="K11">
-            <v>0.555690072639225</v>
+            <v>1.90992167101828</v>
           </cell>
           <cell r="L11">
-            <v>0.233064756789018</v>
+            <v>0.238729508196721</v>
+          </cell>
+          <cell r="M11">
+            <v>18.34</v>
+          </cell>
+          <cell r="N11">
+            <v>21.65</v>
+          </cell>
+          <cell r="O11">
+            <v>18.61</v>
+          </cell>
+          <cell r="P11">
+            <v>21.14</v>
+          </cell>
+          <cell r="Q11">
+            <v>18.86</v>
+          </cell>
+          <cell r="R11">
+            <v>23.35</v>
+          </cell>
+          <cell r="S11">
+            <v>21.6</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="N11">
-            <v>19.92</v>
-          </cell>
-          <cell r="O11">
-            <v>26.6</v>
-          </cell>
-          <cell r="P11">
-            <v>20.5</v>
-          </cell>
-          <cell r="Q11">
-            <v>29.5</v>
-          </cell>
-          <cell r="R11">
-            <v>23.34</v>
-          </cell>
-          <cell r="S11">
-            <v>28.3</v>
-          </cell>
-          <cell r="T11">
-            <v>24.74</v>
-          </cell>
-          <cell r="U11">
-            <v>27.7</v>
-          </cell>
-          <cell r="V11">
-            <v>25</v>
-          </cell>
-          <cell r="W11">
-            <v>27.58</v>
-          </cell>
-          <cell r="X11">
-            <v>25.01</v>
-          </cell>
-          <cell r="Y11" t="str">
-            <v>16w</v>
+          <cell r="X11" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y11">
+            <v>0.373633879781421</v>
           </cell>
           <cell r="Z11">
-            <v>0.405550581915846</v>
+            <v>0.140415704387991</v>
           </cell>
           <cell r="AA11">
-            <v>0.229323308270677</v>
+            <v>0.107852412488174</v>
           </cell>
           <cell r="AB11">
-            <v>0.208813559322034</v>
-          </cell>
-          <cell r="AC11">
-            <v>0.125795053003534</v>
-          </cell>
-          <cell r="AD11">
-            <v>0.0974729241877256</v>
-          </cell>
-          <cell r="AE11">
-            <v>0.0931834662799129</v>
-          </cell>
-          <cell r="AF11" t="str">
-            <v>6T</v>
-          </cell>
-          <cell r="AG11" t="str">
-            <v>减少明显，空A头几乎被榨干</v>
+            <v>0.0749464668094218</v>
           </cell>
         </row>
         <row r="11">
+          <cell r="AE11" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF11" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AH11">
+            <v>8.51</v>
+          </cell>
+          <cell r="AI11">
+            <v>3.6019</v>
+          </cell>
+          <cell r="AJ11">
+            <v>16.933</v>
+          </cell>
+          <cell r="AK11">
+            <v>7.9794</v>
+          </cell>
           <cell r="AL11">
-            <v>29.7</v>
+            <v>3.2905</v>
           </cell>
           <cell r="AM11">
-            <v>21.86</v>
+            <v>1.3176</v>
           </cell>
           <cell r="AN11">
-            <v>7.84</v>
+            <v>0.0128</v>
           </cell>
           <cell r="AO11">
-            <v>27.58</v>
+            <v>-0.2701</v>
           </cell>
           <cell r="AP11">
-            <v>25.01</v>
+            <v>0.2668</v>
           </cell>
           <cell r="AQ11">
-            <v>35.47</v>
+            <v>0.0496</v>
           </cell>
           <cell r="AR11">
-            <v>257</v>
+            <v>0.7137</v>
           </cell>
           <cell r="AS11">
+            <v>0.3284</v>
+          </cell>
+          <cell r="AT11">
+            <v>0.4288</v>
+          </cell>
+          <cell r="AU11">
+            <v>0.52</v>
+          </cell>
+          <cell r="AV11">
+            <v>-0.119</v>
+          </cell>
+          <cell r="AW11">
+            <v>0.0208</v>
+          </cell>
+          <cell r="AX11">
+            <v>0.1948</v>
+          </cell>
+          <cell r="AY11">
+            <v>0.1781</v>
+          </cell>
+          <cell r="AZ11">
+            <v>0.2286</v>
+          </cell>
+          <cell r="BA11">
+            <v>0.2077</v>
+          </cell>
+          <cell r="BB11">
+            <v>0.1904</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="BG11">
+            <v>24.2</v>
+          </cell>
+          <cell r="BH11">
+            <v>18.22</v>
+          </cell>
+          <cell r="BI11">
+            <v>5.98</v>
+          </cell>
+          <cell r="BJ11">
+            <v>23.35</v>
+          </cell>
+          <cell r="BK11">
+            <v>21.6</v>
+          </cell>
+          <cell r="BL11">
+            <v>28.54</v>
+          </cell>
+          <cell r="BM11">
+            <v>175</v>
+          </cell>
+          <cell r="BN11">
             <v>100</v>
           </cell>
-          <cell r="AT11">
-            <v>3.07003891050584</v>
-          </cell>
-          <cell r="AU11">
-            <v>0.0931834662799129</v>
-          </cell>
-          <cell r="AV11">
-            <v>0.286076867295141</v>
-          </cell>
-          <cell r="AW11">
-            <v>22.12</v>
-          </cell>
-          <cell r="AX11" t="str">
+          <cell r="BO11">
+            <v>2.96571428571428</v>
+          </cell>
+          <cell r="BP11">
+            <v>0.0749464668094218</v>
+          </cell>
+          <cell r="BQ11">
+            <v>0.222269807280514</v>
+          </cell>
+          <cell r="BR11">
+            <v>39.84</v>
+          </cell>
+          <cell r="BS11" t="str">
             <v>可以</v>
+          </cell>
+          <cell r="BT11" t="str">
+            <v>执行中</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>000027</v>
+            <v>000031</v>
+          </cell>
+          <cell r="B12">
+            <v>44533</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>603203(快克股份)</v>
+          </cell>
+          <cell r="D12">
+            <v>30.42</v>
+          </cell>
+          <cell r="E12">
+            <v>32.04</v>
+          </cell>
+          <cell r="F12">
+            <v>36.43</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>39.7</v>
+          </cell>
+          <cell r="I12">
+            <v>18.82</v>
+          </cell>
+          <cell r="J12">
+            <v>41.66</v>
+          </cell>
+          <cell r="K12">
+            <v>1.10945802337938</v>
+          </cell>
+          <cell r="L12">
+            <v>0.0470475276044166</v>
+          </cell>
+          <cell r="M12">
+            <v>31.25</v>
+          </cell>
+          <cell r="N12">
+            <v>36.69</v>
+          </cell>
+          <cell r="O12">
+            <v>32.91</v>
+          </cell>
+          <cell r="P12">
+            <v>38.45</v>
+          </cell>
+          <cell r="Q12">
+            <v>36.04</v>
+          </cell>
+          <cell r="R12">
+            <v>41.38</v>
+          </cell>
+          <cell r="S12">
+            <v>38.36</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="X12" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y12">
+            <v>0.249879980796927</v>
+          </cell>
+          <cell r="Z12">
+            <v>0.103025347506132</v>
+          </cell>
+          <cell r="AA12">
+            <v>0.0626788036410924</v>
+          </cell>
+          <cell r="AB12">
+            <v>0.0729821169647173</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AE12" t="str">
+            <v>3T</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AH12">
+            <v>2.2</v>
+          </cell>
+          <cell r="AI12">
+            <v>0.0112</v>
+          </cell>
+          <cell r="AJ12">
+            <v>0.8116</v>
+          </cell>
+          <cell r="AK12">
+            <v>0.7087</v>
+          </cell>
+          <cell r="AL12">
+            <v>0.7083</v>
+          </cell>
+          <cell r="AM12">
+            <v>0.006</v>
+          </cell>
+          <cell r="AN12">
+            <v>0.3442</v>
+          </cell>
+          <cell r="AO12">
+            <v>0.247</v>
+          </cell>
+          <cell r="AP12">
+            <v>0.0127</v>
+          </cell>
+          <cell r="AQ12">
+            <v>0.1618</v>
+          </cell>
+          <cell r="AR12">
+            <v>1.016</v>
+          </cell>
+          <cell r="AS12">
+            <v>0.5767</v>
+          </cell>
+          <cell r="AT12">
+            <v>0.477</v>
+          </cell>
+          <cell r="AU12">
+            <v>0.4664</v>
+          </cell>
+          <cell r="AV12">
+            <v>-0.1139</v>
+          </cell>
+          <cell r="AW12">
+            <v>-0.0272</v>
+          </cell>
+          <cell r="AX12">
+            <v>0.0402</v>
+          </cell>
+          <cell r="AY12">
+            <v>0.5316</v>
+          </cell>
+          <cell r="AZ12">
+            <v>0.5499</v>
+          </cell>
+          <cell r="BA12">
+            <v>0.5374</v>
+          </cell>
+          <cell r="BB12">
+            <v>0.5361</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="BG12">
+            <v>42.71</v>
+          </cell>
+          <cell r="BH12">
+            <v>32.98</v>
+          </cell>
+          <cell r="BI12">
+            <v>9.73</v>
+          </cell>
+          <cell r="BJ12">
+            <v>40.42</v>
+          </cell>
+          <cell r="BK12">
+            <v>38.36</v>
+          </cell>
+          <cell r="BL12">
+            <v>42.87</v>
+          </cell>
+          <cell r="BM12">
+            <v>206</v>
+          </cell>
+          <cell r="BN12">
+            <v>100</v>
+          </cell>
+          <cell r="BO12">
+            <v>1.18932038834951</v>
+          </cell>
+          <cell r="BP12">
+            <v>0.0509648688767937</v>
+          </cell>
+          <cell r="BQ12">
+            <v>0.0606135576447302</v>
+          </cell>
+          <cell r="BR12">
+            <v>25.4</v>
+          </cell>
+          <cell r="BS12" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="BT12" t="str">
+            <v>执行中</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>000028</v>
+            <v>000032</v>
+          </cell>
+          <cell r="B13">
+            <v>44533</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>603010(万盛股份)</v>
+          </cell>
+          <cell r="D13">
+            <v>22.61</v>
+          </cell>
+          <cell r="E13">
+            <v>23.06</v>
+          </cell>
+          <cell r="F13">
+            <v>25.4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>27.76</v>
+          </cell>
+          <cell r="I13">
+            <v>14.46</v>
+          </cell>
+          <cell r="J13">
+            <v>31.94</v>
+          </cell>
+          <cell r="K13">
+            <v>0.919778699861687</v>
+          </cell>
+          <cell r="L13">
+            <v>0.130870381966187</v>
+          </cell>
+          <cell r="M13">
+            <v>20.63</v>
+          </cell>
+          <cell r="N13">
+            <v>25.66</v>
+          </cell>
+          <cell r="O13">
+            <v>21.46</v>
+          </cell>
+          <cell r="P13">
+            <v>28.89</v>
+          </cell>
+          <cell r="Q13">
+            <v>24.22</v>
+          </cell>
+          <cell r="R13">
+            <v>30.32</v>
+          </cell>
+          <cell r="S13">
+            <v>27.44</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="X13" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y13">
+            <v>0.354101440200376</v>
+          </cell>
+          <cell r="Z13">
+            <v>0.163678877630553</v>
+          </cell>
+          <cell r="AA13">
+            <v>0.161647628937349</v>
+          </cell>
+          <cell r="AB13">
+            <v>0.0949868073878628</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AE13" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF13" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AH13">
+            <v>6.25</v>
+          </cell>
+          <cell r="AI13">
+            <v>1.5016</v>
+          </cell>
+          <cell r="AJ13">
+            <v>5.5181</v>
+          </cell>
+          <cell r="AK13">
+            <v>3.3249</v>
+          </cell>
+          <cell r="AL13">
+            <v>1.8449</v>
+          </cell>
+          <cell r="AM13">
+            <v>0.3554</v>
+          </cell>
+          <cell r="AN13">
+            <v>0.2495</v>
+          </cell>
+          <cell r="AO13">
+            <v>0.1071</v>
+          </cell>
+          <cell r="AP13">
+            <v>-0.134</v>
+          </cell>
+          <cell r="AQ13">
+            <v>0.0437</v>
+          </cell>
+          <cell r="AR13">
+            <v>1.1403</v>
+          </cell>
+          <cell r="AS13">
+            <v>1.4349</v>
+          </cell>
+          <cell r="AT13">
+            <v>1.2425</v>
+          </cell>
+          <cell r="AU13">
+            <v>0.2131</v>
+          </cell>
+          <cell r="AV13">
+            <v>0.2062</v>
+          </cell>
+          <cell r="AW13">
+            <v>0.334</v>
+          </cell>
+          <cell r="AX13">
+            <v>0.0105</v>
+          </cell>
+          <cell r="AY13">
+            <v>0.3392</v>
+          </cell>
+          <cell r="AZ13">
+            <v>0.3777</v>
+          </cell>
+          <cell r="BA13">
+            <v>0.3722</v>
+          </cell>
+          <cell r="BB13">
+            <v>0.3621</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="BG13">
+            <v>31.21</v>
+          </cell>
+          <cell r="BH13">
+            <v>22.41</v>
+          </cell>
+          <cell r="BI13">
+            <v>8.8</v>
+          </cell>
+          <cell r="BJ13">
+            <v>30.32</v>
+          </cell>
+          <cell r="BK13">
+            <v>27.44</v>
+          </cell>
+          <cell r="BL13">
+            <v>35.16</v>
+          </cell>
+          <cell r="BM13">
+            <v>288</v>
+          </cell>
+          <cell r="BN13">
+            <v>100</v>
+          </cell>
+          <cell r="BO13">
+            <v>1.68055555555555</v>
+          </cell>
+          <cell r="BP13">
+            <v>0.0949868073878628</v>
+          </cell>
+          <cell r="BQ13">
+            <v>0.159630606860158</v>
+          </cell>
+          <cell r="BR13">
+            <v>17.95</v>
+          </cell>
+          <cell r="BS13" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="BT13" t="str">
+            <v>待执行
+(等待波动一周后)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>000029</v>
+            <v>000033</v>
+          </cell>
+          <cell r="B14">
+            <v>44533</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>600111(北方稀土)</v>
+          </cell>
+          <cell r="D14">
+            <v>37.56</v>
+          </cell>
+          <cell r="E14">
+            <v>40.82</v>
+          </cell>
+          <cell r="F14">
+            <v>49.41</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>53.96</v>
+          </cell>
+          <cell r="I14">
+            <v>9.87</v>
+          </cell>
+          <cell r="J14">
+            <v>62.1</v>
+          </cell>
+          <cell r="K14">
+            <v>4.46707193515704</v>
+          </cell>
+          <cell r="L14">
+            <v>0.131078904991948</v>
+          </cell>
+          <cell r="M14">
+            <v>40.92</v>
+          </cell>
+          <cell r="N14">
+            <v>55</v>
+          </cell>
+          <cell r="O14">
+            <v>43.54</v>
+          </cell>
+          <cell r="P14">
+            <v>51.15</v>
+          </cell>
+          <cell r="Q14">
+            <v>44.98</v>
+          </cell>
+          <cell r="R14">
+            <v>57.34</v>
+          </cell>
+          <cell r="S14">
+            <v>52.29</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="X14" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y14">
+            <v>0.341062801932367</v>
+          </cell>
+          <cell r="Z14">
+            <v>0.208363636363636</v>
+          </cell>
+          <cell r="AA14">
+            <v>0.120625610948192</v>
+          </cell>
+          <cell r="AB14">
+            <v>0.0880711545169167</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AE14" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF14" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AH14">
+            <v>34.76</v>
+          </cell>
+          <cell r="AI14">
+            <v>0.4151</v>
+          </cell>
+          <cell r="AJ14">
+            <v>4.3101</v>
+          </cell>
+          <cell r="AK14">
+            <v>5.7893</v>
+          </cell>
+          <cell r="AL14">
+            <v>5.2189</v>
+          </cell>
+          <cell r="AM14">
+            <v>0.5076</v>
+          </cell>
+          <cell r="AN14">
+            <v>1.5097</v>
+          </cell>
+          <cell r="AO14">
+            <v>0.5596</v>
+          </cell>
+          <cell r="AP14">
+            <v>-0.084</v>
+          </cell>
+          <cell r="AQ14">
+            <v>0.1501</v>
+          </cell>
+          <cell r="AR14">
+            <v>0.3924</v>
+          </cell>
+          <cell r="AS14">
+            <v>0.602</v>
+          </cell>
+          <cell r="AT14">
+            <v>0.755</v>
+          </cell>
+          <cell r="AU14">
+            <v>0.9365</v>
+          </cell>
+          <cell r="AV14">
+            <v>-0.3372</v>
+          </cell>
+          <cell r="AW14">
+            <v>0.7463</v>
+          </cell>
+          <cell r="AX14">
+            <v>-0.1096</v>
+          </cell>
+          <cell r="AY14">
+            <v>0.1174</v>
+          </cell>
+          <cell r="AZ14">
+            <v>0.2187</v>
+          </cell>
+          <cell r="BA14">
+            <v>0.2433</v>
+          </cell>
+          <cell r="BB14">
+            <v>0.2275</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="BI14">
+            <v>0</v>
+          </cell>
+          <cell r="BJ14">
+            <v>57.34</v>
+          </cell>
+          <cell r="BK14">
+            <v>52.29</v>
+          </cell>
+          <cell r="BL14">
+            <v>65.25</v>
+          </cell>
+          <cell r="BM14">
+            <v>505</v>
+          </cell>
+          <cell r="BN14">
+            <v>0</v>
+          </cell>
+          <cell r="BO14">
+            <v>1.56633663366336</v>
+          </cell>
+          <cell r="BP14">
+            <v>0.0880711545169167</v>
+          </cell>
+          <cell r="BQ14">
+            <v>0.137949075688873</v>
+          </cell>
+          <cell r="BR14">
+            <v>56.78</v>
+          </cell>
+          <cell r="BS14" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="BT14" t="str">
+            <v>待执行
+(等待波动一周后)</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>000030</v>
+            <v>000034</v>
+          </cell>
+          <cell r="B15">
+            <v>44533</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>000831(五矿稀土)</v>
+          </cell>
+          <cell r="D15">
+            <v>32.83</v>
+          </cell>
+          <cell r="E15">
+            <v>35.44</v>
+          </cell>
+          <cell r="F15">
+            <v>41.78</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15">
+            <v>48.86</v>
+          </cell>
+          <cell r="I15">
+            <v>11.48</v>
+          </cell>
+          <cell r="J15">
+            <v>59.8</v>
+          </cell>
+          <cell r="K15">
+            <v>3.25609756097561</v>
+          </cell>
+          <cell r="L15">
+            <v>0.182943143812709</v>
+          </cell>
+          <cell r="M15">
+            <v>33.16</v>
+          </cell>
+          <cell r="N15">
+            <v>41.67</v>
+          </cell>
+          <cell r="O15">
+            <v>34.71</v>
+          </cell>
+          <cell r="P15">
+            <v>41.9</v>
+          </cell>
+          <cell r="Q15">
+            <v>37.47</v>
+          </cell>
+          <cell r="R15">
+            <v>47.34</v>
+          </cell>
+          <cell r="S15">
+            <v>42.8</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="X15" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y15">
+            <v>0.445484949832776</v>
+          </cell>
+          <cell r="Z15">
+            <v>0.16702663786897</v>
+          </cell>
+          <cell r="AA15">
+            <v>0.105727923627685</v>
+          </cell>
+          <cell r="AB15">
+            <v>0.0959019856358261</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AE15" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF15" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AH15">
+            <v>2.07</v>
+          </cell>
+          <cell r="AI15">
+            <v>2.0414</v>
+          </cell>
+          <cell r="AJ15">
+            <v>7.8404</v>
+          </cell>
+          <cell r="AK15">
+            <v>0.0573</v>
+          </cell>
+          <cell r="AL15">
+            <v>0.4733</v>
+          </cell>
+          <cell r="AM15">
+            <v>6.5677</v>
+          </cell>
+          <cell r="AN15">
+            <v>-0.3008</v>
+          </cell>
+          <cell r="AO15">
+            <v>-0.2734</v>
+          </cell>
+          <cell r="AP15">
+            <v>-0.5858</v>
+          </cell>
+          <cell r="AQ15">
+            <v>-0.1511</v>
+          </cell>
+          <cell r="AR15">
+            <v>1.1435</v>
+          </cell>
+          <cell r="AS15">
+            <v>1.059</v>
+          </cell>
+          <cell r="AT15">
+            <v>0.7237</v>
+          </cell>
+          <cell r="AU15">
+            <v>0.0276</v>
+          </cell>
+          <cell r="AV15">
+            <v>0.2692</v>
+          </cell>
+          <cell r="AW15">
+            <v>-0.1848</v>
+          </cell>
+          <cell r="AX15">
+            <v>0.2588</v>
+          </cell>
+          <cell r="AY15">
+            <v>0.1894</v>
+          </cell>
+          <cell r="AZ15">
+            <v>0.1883</v>
+          </cell>
+          <cell r="BA15">
+            <v>0.1993</v>
+          </cell>
+          <cell r="BB15">
+            <v>0.0681</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="BI15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="BM15">
+            <v>0</v>
+          </cell>
+          <cell r="BN15" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BO15" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BP15" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BQ15" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="BT15" t="str">
+            <v>待执行
+(等待波动一周后)</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>000031</v>
+            <v>000035</v>
+          </cell>
+          <cell r="B16">
+            <v>44533</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>002585(双星新材)</v>
+          </cell>
+          <cell r="D16">
+            <v>20.45</v>
+          </cell>
+          <cell r="E16">
+            <v>22.14</v>
+          </cell>
+          <cell r="F16">
+            <v>25.99</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16">
+            <v>27.05</v>
+          </cell>
+          <cell r="I16">
+            <v>7.98</v>
+          </cell>
+          <cell r="J16">
+            <v>30.1</v>
+          </cell>
+          <cell r="K16">
+            <v>2.38972431077694</v>
+          </cell>
+          <cell r="L16">
+            <v>0.101328903654485</v>
+          </cell>
+          <cell r="M16">
+            <v>21.96</v>
+          </cell>
+          <cell r="N16">
+            <v>28.5</v>
+          </cell>
+          <cell r="O16">
+            <v>25.47</v>
+          </cell>
+          <cell r="P16">
+            <v>28.82</v>
+          </cell>
+          <cell r="Q16">
+            <v>26.31</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="X16" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y16">
+            <v>0.270431893687708</v>
+          </cell>
+          <cell r="Z16">
+            <v>0.106315789473684</v>
+          </cell>
+          <cell r="AA16">
+            <v>0.0870922970159612</v>
+          </cell>
+          <cell r="AB16" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AE16" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF16" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AH16">
+            <v>9.73</v>
+          </cell>
+          <cell r="AI16">
+            <v>3.1533</v>
+          </cell>
+          <cell r="AJ16">
+            <v>2.152</v>
+          </cell>
+          <cell r="AK16">
+            <v>1.6028</v>
+          </cell>
+          <cell r="AL16">
+            <v>1.161</v>
+          </cell>
+          <cell r="AM16">
+            <v>0.2365</v>
+          </cell>
+          <cell r="AN16">
+            <v>0.0229</v>
+          </cell>
+          <cell r="AO16">
+            <v>0.1857</v>
+          </cell>
+          <cell r="AP16">
+            <v>0.1281</v>
+          </cell>
+          <cell r="AQ16">
+            <v>0.1124</v>
+          </cell>
+          <cell r="AR16">
+            <v>0.3139</v>
+          </cell>
+          <cell r="AS16">
+            <v>0.0935</v>
+          </cell>
+          <cell r="AT16">
+            <v>0.1211</v>
+          </cell>
+          <cell r="AU16">
+            <v>-0.3125</v>
+          </cell>
+          <cell r="AV16">
+            <v>0.2292</v>
+          </cell>
+          <cell r="AW16">
+            <v>0.1278</v>
+          </cell>
+          <cell r="AX16">
+            <v>0.2239</v>
+          </cell>
+          <cell r="AY16">
+            <v>0.2428</v>
+          </cell>
+          <cell r="AZ16">
+            <v>0.3271</v>
+          </cell>
+          <cell r="BA16">
+            <v>0.347</v>
+          </cell>
+          <cell r="BB16">
+            <v>0.3263</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="BG16">
+            <v>30.41</v>
+          </cell>
+          <cell r="BH16">
+            <v>22.76</v>
+          </cell>
+          <cell r="BI16">
+            <v>7.65</v>
+          </cell>
+          <cell r="BJ16">
+            <v>28.82</v>
+          </cell>
+          <cell r="BK16">
+            <v>26.31</v>
+          </cell>
+          <cell r="BL16">
+            <v>32.36</v>
+          </cell>
+          <cell r="BM16">
+            <v>251</v>
+          </cell>
+          <cell r="BN16">
+            <v>100</v>
+          </cell>
+          <cell r="BO16">
+            <v>1.41035856573705</v>
+          </cell>
+          <cell r="BP16">
+            <v>0.0870922970159612</v>
+          </cell>
+          <cell r="BQ16">
+            <v>0.122831367106176</v>
+          </cell>
+          <cell r="BR16">
+            <v>25.15</v>
+          </cell>
+          <cell r="BS16" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="BT16" t="str">
+            <v>已执行</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>000032</v>
+            <v>000036</v>
+          </cell>
+          <cell r="B17">
+            <v>44534</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>600399(抚顺特钢)</v>
+          </cell>
+          <cell r="D17">
+            <v>20.1</v>
+          </cell>
+          <cell r="E17">
+            <v>21.01</v>
+          </cell>
+          <cell r="F17">
+            <v>23.24</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17">
+            <v>24.5</v>
+          </cell>
+          <cell r="I17">
+            <v>9.18</v>
+          </cell>
+          <cell r="J17">
+            <v>29.3</v>
+          </cell>
+          <cell r="K17">
+            <v>1.66884531590414</v>
+          </cell>
+          <cell r="L17">
+            <v>0.16382252559727</v>
+          </cell>
+          <cell r="M17">
+            <v>19.05</v>
+          </cell>
+          <cell r="N17">
+            <v>22.91</v>
+          </cell>
+          <cell r="O17">
+            <v>19.73</v>
+          </cell>
+          <cell r="P17">
+            <v>26.45</v>
+          </cell>
+          <cell r="Q17">
+            <v>22.8</v>
+          </cell>
+          <cell r="R17">
+            <v>25.95</v>
+          </cell>
+          <cell r="S17">
+            <v>23.58</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="X17" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.349829351535836</v>
+          </cell>
+          <cell r="Z17">
+            <v>0.138804015713662</v>
+          </cell>
+          <cell r="AA17">
+            <v>0.137996219281663</v>
+          </cell>
+          <cell r="AB17">
+            <v>0.0913294797687862</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AE17" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AF17" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="BG17">
+            <v>27.49</v>
+          </cell>
+          <cell r="BH17">
+            <v>19.96</v>
+          </cell>
+          <cell r="BI17">
+            <v>7.53</v>
+          </cell>
+          <cell r="BJ17">
+            <v>25.95</v>
+          </cell>
+          <cell r="BK17">
+            <v>23.58</v>
+          </cell>
+          <cell r="BL17">
+            <v>29.66</v>
+          </cell>
+          <cell r="BM17">
+            <v>237</v>
+          </cell>
+          <cell r="BN17">
+            <v>100</v>
+          </cell>
+          <cell r="BO17">
+            <v>1.56540084388186</v>
+          </cell>
+          <cell r="BP17">
+            <v>0.0913294797687862</v>
+          </cell>
+          <cell r="BQ17">
+            <v>0.142967244701349</v>
+          </cell>
+          <cell r="BR17">
+            <v>26.15</v>
+          </cell>
+          <cell r="BS17" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="BT17" t="str">
+            <v>待执行
+(等待波动一周后)</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>000033</v>
+            <v>000037</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>000034</v>
+            <v>000038</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>000035</v>
+            <v>000039</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>000036</v>
+            <v>000040</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>000037</v>
+            <v>000041</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>000038</v>
+            <v>000042</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>000039</v>
+            <v>000043</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>000040</v>
+            <v>000044</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>000041</v>
+            <v>000045</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>000042</v>
+            <v>000046</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>000043</v>
+            <v>000047</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>000044</v>
+            <v>000048</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>000045</v>
+            <v>000049</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>000046</v>
+            <v>000050</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>000047</v>
+            <v>000051</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>000048</v>
+            <v>000052</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>000049</v>
+            <v>000053</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>000050</v>
+            <v>000054</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>000051</v>
+            <v>000055</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>000052</v>
+            <v>000056</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>000053</v>
+            <v>000057</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>000054</v>
+            <v>000058</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>000055</v>
+            <v>000059</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>000056</v>
+            <v>000060</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>000057</v>
+            <v>000061</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>000058</v>
+            <v>000062</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>000059</v>
+            <v>000063</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>000060</v>
+            <v>000064</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>000061</v>
+            <v>000065</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>000062</v>
+            <v>000066</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>000063</v>
+            <v>000067</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>000064</v>
+            <v>000068</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>000065</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>000066</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>000067</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
             <v>000069</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4428,11 +5832,11 @@
   <dimension ref="A1:BP552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -4802,7 +6206,7 @@
         <v>-1.25900000000001</v>
       </c>
       <c r="Z4" s="65">
-        <f>(P4-E4)/VLOOKUP(B4,[1]交易计划及执行表!$A$4:$AX$1000,40,FALSE)</f>
+        <f>(P4-E4)/VLOOKUP(B4,[1]交易计划及执行表!$A$4:$BT$1000,61,FALSE)</f>
         <v>-0.208598726114649</v>
       </c>
       <c r="AA4" s="71" t="s">
@@ -4903,7 +6307,7 @@
       </c>
       <c r="Y5" s="70"/>
       <c r="Z5" s="65">
-        <f>(P5-E4)/VLOOKUP(B4,[1]交易计划及执行表!$A$4:$AX$1000,40,FALSE)</f>
+        <f>(P5-E4)/VLOOKUP(B5,[1]交易计划及执行表!$A$4:$BT$1000,61,FALSE)</f>
         <v>0.238853503184713</v>
       </c>
       <c r="AA5" s="71"/>
@@ -4946,7 +6350,7 @@
         <v>33.1</v>
       </c>
       <c r="L6" s="40">
-        <f>(J6-E6)/(J6-K6)</f>
+        <f t="shared" ref="L6:L11" si="1">(J6-E6)/(J6-K6)</f>
         <v>0.721238938053099</v>
       </c>
       <c r="M6" s="52">
@@ -5007,7 +6411,7 @@
         <v>32.49</v>
       </c>
       <c r="L7" s="40">
-        <f>(J7-E7)/(J7-K7)</f>
+        <f t="shared" si="1"/>
         <v>0.851063829787233</v>
       </c>
       <c r="M7" s="52">
@@ -5067,7 +6471,7 @@
         <v>70.4</v>
       </c>
       <c r="L8" s="40">
-        <f>(J8-E8)/(J8-K8)</f>
+        <f t="shared" si="1"/>
         <v>0.592682926829271</v>
       </c>
       <c r="M8" s="52">
@@ -5129,7 +6533,7 @@
         <v>29.33</v>
       </c>
       <c r="L9" s="42">
-        <f>(J9-E9)/(J9-K9)</f>
+        <f t="shared" si="1"/>
         <v>0.129496402877698</v>
       </c>
       <c r="M9" s="54"/>
@@ -5175,7 +6579,7 @@
         <v>-52.0760799999998</v>
       </c>
       <c r="Z9" s="42">
-        <f>(P9-E9)/VLOOKUP(B9,[1]交易计划及执行表!$A$8:$AX$1000,40,FALSE)</f>
+        <f>(P9-E9)/VLOOKUP(B9,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
         <v>-0.0622009569377991</v>
       </c>
       <c r="AA9" s="76" t="s">
@@ -5220,7 +6624,7 @@
         <v>28.81</v>
       </c>
       <c r="L10" s="42">
-        <f>(J10-E10)/(J10-K10)</f>
+        <f t="shared" si="1"/>
         <v>0.337748344370862</v>
       </c>
       <c r="M10" s="54"/>
@@ -5266,7 +6670,7 @@
         <v>-210.84262</v>
       </c>
       <c r="Z10" s="42">
-        <f>(P10-E10)/VLOOKUP(B10,[1]交易计划及执行表!$A$8:$AX$1000,40,FALSE)</f>
+        <f>(P10-E10)/VLOOKUP(B10,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
         <v>-0.196428571428571</v>
       </c>
       <c r="AA10" s="77" t="s">
@@ -5310,7 +6714,7 @@
         <v>27.69</v>
       </c>
       <c r="L11" s="42">
-        <f>(J11-E11)/(J11-K11)</f>
+        <f t="shared" si="1"/>
         <v>0.661691542288557</v>
       </c>
       <c r="M11" s="52">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>交易计划执行结果编码</t>
   </si>
@@ -726,6 +726,9 @@
     <t>002932(明德生物)</t>
   </si>
   <si>
+    <t>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</t>
+  </si>
+  <si>
     <t>JG_0000006</t>
   </si>
   <si>
@@ -799,6 +802,20 @@
         <charset val="134"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</t>
     </r>
   </si>
   <si>
@@ -1731,7 +1748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1957,13 +1974,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5836,7 +5856,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -5912,35 +5932,35 @@
       <c r="AG1" s="66"/>
       <c r="AH1" s="66"/>
       <c r="AI1" s="66"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="80"/>
+      <c r="BO1" s="80"/>
+      <c r="BP1" s="80"/>
     </row>
     <row r="2" ht="23.6" spans="1:68">
       <c r="A2" s="9"/>
@@ -6024,35 +6044,35 @@
       <c r="AG2" s="66"/>
       <c r="AH2" s="66"/>
       <c r="AI2" s="66"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="79"/>
-      <c r="BD2" s="79"/>
-      <c r="BE2" s="79"/>
-      <c r="BF2" s="79"/>
-      <c r="BG2" s="79"/>
-      <c r="BH2" s="79"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="79"/>
-      <c r="BP2" s="79"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+      <c r="AW2" s="80"/>
+      <c r="AX2" s="80"/>
+      <c r="AY2" s="80"/>
+      <c r="AZ2" s="80"/>
+      <c r="BB2" s="80"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="80"/>
+      <c r="BE2" s="80"/>
+      <c r="BF2" s="80"/>
+      <c r="BG2" s="80"/>
+      <c r="BH2" s="80"/>
+      <c r="BJ2" s="80"/>
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="80"/>
+      <c r="BM2" s="80"/>
+      <c r="BN2" s="80"/>
+      <c r="BO2" s="80"/>
+      <c r="BP2" s="80"/>
     </row>
     <row r="3" ht="23.6" spans="1:68">
       <c r="A3" s="16"/>
@@ -6094,41 +6114,41 @@
       <c r="AG3" s="66"/>
       <c r="AH3" s="66"/>
       <c r="AI3" s="66"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="79"/>
-      <c r="AT3" s="79"/>
-      <c r="AU3" s="79"/>
-      <c r="AV3" s="79"/>
-      <c r="AW3" s="79"/>
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
-      <c r="BE3" s="79"/>
-      <c r="BF3" s="79"/>
-      <c r="BG3" s="79"/>
-      <c r="BH3" s="79"/>
-      <c r="BJ3" s="79"/>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="79"/>
-      <c r="BN3" s="79"/>
-      <c r="BO3" s="79"/>
-      <c r="BP3" s="79"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AT3" s="80"/>
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BJ3" s="80"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="80"/>
+      <c r="BM3" s="80"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="80"/>
+      <c r="BP3" s="80"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="23.6" spans="1:68">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="82" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -6213,48 +6233,48 @@
         <v>35</v>
       </c>
       <c r="AB4" s="72"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AK4" s="80"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="80"/>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="80"/>
-      <c r="BM4" s="80"/>
-      <c r="BN4" s="80"/>
-      <c r="BO4" s="80"/>
-      <c r="BP4" s="80"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="81"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="81"/>
+      <c r="BO4" s="81"/>
+      <c r="BP4" s="81"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="13" spans="1:28">
       <c r="A5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="82" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="21"/>
@@ -6317,7 +6337,7 @@
       <c r="A6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="83" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -6378,7 +6398,7 @@
       <c r="A7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="83" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -6435,11 +6455,11 @@
       <c r="Z7" s="40"/>
       <c r="AB7" s="74"/>
     </row>
-    <row r="8" s="4" customFormat="1" ht="13" spans="1:28">
+    <row r="8" s="4" customFormat="1" ht="36" spans="1:28">
       <c r="A8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="83" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -6493,18 +6513,20 @@
       <c r="X8" s="38"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="42"/>
-      <c r="AA8" s="75"/>
+      <c r="AA8" s="75" t="s">
+        <v>46</v>
+      </c>
       <c r="AB8" s="73"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="24" spans="1:28">
       <c r="A9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="83" t="s">
         <v>47</v>
       </c>
+      <c r="B9" s="84" t="s">
+        <v>48</v>
+      </c>
       <c r="C9" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="26">
         <v>44524</v>
@@ -6583,19 +6605,19 @@
         <v>-0.0622009569377991</v>
       </c>
       <c r="AA9" s="76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB9" s="73"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="13" spans="1:28">
       <c r="A10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="83" t="s">
         <v>51</v>
       </c>
+      <c r="B10" s="84" t="s">
+        <v>52</v>
+      </c>
       <c r="C10" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="24">
         <v>44530</v>
@@ -6674,19 +6696,19 @@
         <v>-0.196428571428571</v>
       </c>
       <c r="AA10" s="77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB10" s="74"/>
     </row>
-    <row r="11" ht="13" spans="1:27">
+    <row r="11" ht="37" spans="1:27">
       <c r="A11" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="82" t="s">
         <v>55</v>
       </c>
+      <c r="B11" s="83" t="s">
+        <v>56</v>
+      </c>
       <c r="C11" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="24">
         <v>44536</v>
@@ -6736,17 +6758,19 @@
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
-      <c r="AA11" s="5"/>
+      <c r="AA11" s="78" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" ht="13" spans="1:27">
       <c r="A12" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -6775,10 +6799,10 @@
     </row>
     <row r="13" ht="13" spans="1:27">
       <c r="A13" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -6808,10 +6832,10 @@
     </row>
     <row r="14" ht="13" spans="1:27">
       <c r="A14" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -6841,10 +6865,10 @@
     </row>
     <row r="15" ht="13" spans="1:27">
       <c r="A15" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="82" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -6874,10 +6898,10 @@
     </row>
     <row r="16" ht="13" spans="1:27">
       <c r="A16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -6907,10 +6931,10 @@
     </row>
     <row r="17" ht="13" spans="1:27">
       <c r="A17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="82" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>71</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -6940,10 +6964,10 @@
     </row>
     <row r="18" ht="13" spans="1:27">
       <c r="A18" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>73</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -6973,10 +6997,10 @@
     </row>
     <row r="19" ht="13" spans="1:27">
       <c r="A19" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>75</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -7006,10 +7030,10 @@
     </row>
     <row r="20" ht="13" spans="1:27">
       <c r="A20" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>77</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -18837,22 +18861,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="CU1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -751,12 +751,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1748,7 +1742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1979,9 +1973,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5852,11 +5843,11 @@
   <dimension ref="A1:BP552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
+      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -5932,35 +5923,35 @@
       <c r="AG1" s="66"/>
       <c r="AH1" s="66"/>
       <c r="AI1" s="66"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="80"/>
-      <c r="BN1" s="80"/>
-      <c r="BO1" s="80"/>
-      <c r="BP1" s="80"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="79"/>
+      <c r="BM1" s="79"/>
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="79"/>
     </row>
     <row r="2" ht="23.6" spans="1:68">
       <c r="A2" s="9"/>
@@ -6044,35 +6035,35 @@
       <c r="AG2" s="66"/>
       <c r="AH2" s="66"/>
       <c r="AI2" s="66"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="80"/>
-      <c r="BB2" s="80"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="80"/>
-      <c r="BG2" s="80"/>
-      <c r="BH2" s="80"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="80"/>
-      <c r="BN2" s="80"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="80"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="79"/>
+      <c r="BF2" s="79"/>
+      <c r="BG2" s="79"/>
+      <c r="BH2" s="79"/>
+      <c r="BJ2" s="79"/>
+      <c r="BK2" s="79"/>
+      <c r="BL2" s="79"/>
+      <c r="BM2" s="79"/>
+      <c r="BN2" s="79"/>
+      <c r="BO2" s="79"/>
+      <c r="BP2" s="79"/>
     </row>
     <row r="3" ht="23.6" spans="1:68">
       <c r="A3" s="16"/>
@@ -6114,41 +6105,41 @@
       <c r="AG3" s="66"/>
       <c r="AH3" s="66"/>
       <c r="AI3" s="66"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="80"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AT3" s="80"/>
-      <c r="AU3" s="80"/>
-      <c r="AV3" s="80"/>
-      <c r="AW3" s="80"/>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="80"/>
-      <c r="AZ3" s="80"/>
-      <c r="BB3" s="80"/>
-      <c r="BC3" s="80"/>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="80"/>
-      <c r="BG3" s="80"/>
-      <c r="BH3" s="80"/>
-      <c r="BJ3" s="80"/>
-      <c r="BK3" s="80"/>
-      <c r="BL3" s="80"/>
-      <c r="BM3" s="80"/>
-      <c r="BN3" s="80"/>
-      <c r="BO3" s="80"/>
-      <c r="BP3" s="80"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="79"/>
+      <c r="AR3" s="79"/>
+      <c r="AT3" s="79"/>
+      <c r="AU3" s="79"/>
+      <c r="AV3" s="79"/>
+      <c r="AW3" s="79"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="79"/>
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="79"/>
+      <c r="BD3" s="79"/>
+      <c r="BE3" s="79"/>
+      <c r="BF3" s="79"/>
+      <c r="BG3" s="79"/>
+      <c r="BH3" s="79"/>
+      <c r="BJ3" s="79"/>
+      <c r="BK3" s="79"/>
+      <c r="BL3" s="79"/>
+      <c r="BM3" s="79"/>
+      <c r="BN3" s="79"/>
+      <c r="BO3" s="79"/>
+      <c r="BP3" s="79"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="23.6" spans="1:68">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -6233,48 +6224,48 @@
         <v>35</v>
       </c>
       <c r="AB4" s="72"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="81"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="81"/>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="81"/>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="81"/>
-      <c r="BO4" s="81"/>
-      <c r="BP4" s="81"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="80"/>
+      <c r="BN4" s="80"/>
+      <c r="BO4" s="80"/>
+      <c r="BP4" s="80"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="13" spans="1:28">
       <c r="A5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="21"/>
@@ -6337,7 +6328,7 @@
       <c r="A6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="82" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -6398,7 +6389,7 @@
       <c r="A7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="82" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -6459,7 +6450,7 @@
       <c r="A8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="82" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -6522,7 +6513,7 @@
       <c r="A9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="83" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -6613,7 +6604,7 @@
       <c r="A10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="83" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="29" t="s">
@@ -6704,7 +6695,7 @@
       <c r="A11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="82" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="30" t="s">
@@ -6758,7 +6749,7 @@
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
-      <c r="AA11" s="78" t="s">
+      <c r="AA11" s="77" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6766,7 +6757,7 @@
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="82" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -6801,7 +6792,7 @@
       <c r="A13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="82" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="23"/>
@@ -6834,7 +6825,7 @@
       <c r="A14" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="82" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="23"/>
@@ -6867,7 +6858,7 @@
       <c r="A15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="82" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="23"/>
@@ -6900,7 +6891,7 @@
       <c r="A16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="82" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="23"/>
@@ -6933,7 +6924,7 @@
       <c r="A17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="82" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="23"/>
@@ -6966,7 +6957,7 @@
       <c r="A18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="82" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="23"/>
@@ -6999,7 +6990,7 @@
       <c r="A19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="82" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="23"/>
@@ -7032,7 +7023,7 @@
       <c r="A20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="82" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="23"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -751,6 +751,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -800,6 +806,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -919,9 +931,9 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1027,61 +1039,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1093,61 +1060,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1169,9 +1083,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1249,7 +1261,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,43 +1309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,13 +1327,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,42 +1363,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1381,19 +1375,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,31 +1405,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,17 +1507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1513,8 +1519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,6 +1544,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1569,26 +1590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1597,148 +1609,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3263,6 +3275,9 @@
           <cell r="AB10">
             <v>0.0839506172839506</v>
           </cell>
+          <cell r="AC10" t="e">
+            <v>#DIV/0!</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="AE10" t="str">
@@ -3339,13 +3354,13 @@
         </row>
         <row r="10">
           <cell r="BG10">
-            <v>25.59</v>
+            <v>25.31</v>
           </cell>
           <cell r="BH10">
-            <v>18.59</v>
+            <v>19.08</v>
           </cell>
           <cell r="BI10">
-            <v>7</v>
+            <v>6.23</v>
           </cell>
           <cell r="BJ10">
             <v>24.28</v>
@@ -3378,8 +3393,7 @@
             <v>可以</v>
           </cell>
           <cell r="BT10" t="str">
-            <v>待执行
-(等待波动一周后)</v>
+            <v>执行中</v>
           </cell>
         </row>
         <row r="11">
@@ -3439,6 +3453,12 @@
           <cell r="S11">
             <v>21.6</v>
           </cell>
+          <cell r="T11">
+            <v>23.05</v>
+          </cell>
+          <cell r="U11">
+            <v>21.87</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="X11" t="str">
@@ -3456,6 +3476,9 @@
           <cell r="AB11">
             <v>0.0749464668094218</v>
           </cell>
+          <cell r="AC11">
+            <v>0.0511930585683297</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="AE11" t="str">
@@ -3541,28 +3564,28 @@
             <v>5.98</v>
           </cell>
           <cell r="BJ11">
-            <v>23.35</v>
+            <v>23.05</v>
           </cell>
           <cell r="BK11">
-            <v>21.6</v>
+            <v>21.87</v>
           </cell>
           <cell r="BL11">
             <v>28.54</v>
           </cell>
           <cell r="BM11">
-            <v>175</v>
+            <v>118</v>
           </cell>
           <cell r="BN11">
-            <v>100</v>
+            <v>200</v>
           </cell>
           <cell r="BO11">
-            <v>2.96571428571428</v>
+            <v>4.65254237288136</v>
           </cell>
           <cell r="BP11">
-            <v>0.0749464668094218</v>
+            <v>0.0511930585683297</v>
           </cell>
           <cell r="BQ11">
-            <v>0.222269807280514</v>
+            <v>0.238177874186551</v>
           </cell>
           <cell r="BR11">
             <v>39.84</v>
@@ -3629,7 +3652,7 @@
             <v>41.38</v>
           </cell>
           <cell r="S12">
-            <v>38.36</v>
+            <v>37.94</v>
           </cell>
         </row>
         <row r="12">
@@ -3646,7 +3669,7 @@
             <v>0.0626788036410924</v>
           </cell>
           <cell r="AB12">
-            <v>0.0729821169647173</v>
+            <v>0.0831319478008701</v>
           </cell>
         </row>
         <row r="12">
@@ -3733,22 +3756,22 @@
             <v>40.42</v>
           </cell>
           <cell r="BK12">
-            <v>38.36</v>
+            <v>37.94</v>
           </cell>
           <cell r="BL12">
             <v>42.87</v>
           </cell>
           <cell r="BM12">
-            <v>206</v>
+            <v>248</v>
           </cell>
           <cell r="BN12">
             <v>100</v>
           </cell>
           <cell r="BO12">
-            <v>1.18932038834951</v>
+            <v>0.987903225806448</v>
           </cell>
           <cell r="BP12">
-            <v>0.0509648688767937</v>
+            <v>0.0613557644730332</v>
           </cell>
           <cell r="BQ12">
             <v>0.0606135576447302</v>
@@ -3757,10 +3780,11 @@
             <v>25.4</v>
           </cell>
           <cell r="BS12" t="str">
-            <v>可以</v>
+            <v>不宜入场
+(等待波动一周后)</v>
           </cell>
           <cell r="BT12" t="str">
-            <v>执行中</v>
+            <v>待执行</v>
           </cell>
         </row>
         <row r="13">
@@ -3949,11 +3973,11 @@
             <v>17.95</v>
           </cell>
           <cell r="BS13" t="str">
-            <v>可以</v>
+            <v>不宜入场
+(等待波动一周后)</v>
           </cell>
           <cell r="BT13" t="str">
-            <v>待执行
-(等待波动一周后)</v>
+            <v>待执行</v>
           </cell>
         </row>
         <row r="14">
@@ -4105,29 +4129,35 @@
           </cell>
         </row>
         <row r="14">
+          <cell r="BG14">
+            <v>60.39</v>
+          </cell>
+          <cell r="BH14">
+            <v>42.1</v>
+          </cell>
           <cell r="BI14">
-            <v>0</v>
+            <v>18.29</v>
           </cell>
           <cell r="BJ14">
             <v>57.34</v>
           </cell>
           <cell r="BK14">
-            <v>52.29</v>
+            <v>52</v>
           </cell>
           <cell r="BL14">
             <v>65.25</v>
           </cell>
           <cell r="BM14">
-            <v>505</v>
+            <v>534</v>
           </cell>
           <cell r="BN14">
             <v>0</v>
           </cell>
           <cell r="BO14">
-            <v>1.56633663366336</v>
+            <v>1.4812734082397</v>
           </cell>
           <cell r="BP14">
-            <v>0.0880711545169167</v>
+            <v>0.0931287059644228</v>
           </cell>
           <cell r="BQ14">
             <v>0.137949075688873</v>
@@ -4139,66 +4169,59 @@
             <v>可以</v>
           </cell>
           <cell r="BT14" t="str">
-            <v>待执行
-(等待波动一周后)</v>
+            <v>执行中</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>000034</v>
+            <v>000035</v>
           </cell>
           <cell r="B15">
             <v>44533</v>
           </cell>
           <cell r="C15" t="str">
-            <v>000831(五矿稀土)</v>
+            <v>002585(双星新材)</v>
           </cell>
           <cell r="D15">
-            <v>32.83</v>
+            <v>20.45</v>
           </cell>
           <cell r="E15">
-            <v>35.44</v>
+            <v>22.14</v>
           </cell>
           <cell r="F15">
-            <v>41.78</v>
+            <v>25.99</v>
           </cell>
         </row>
         <row r="15">
           <cell r="H15">
-            <v>48.86</v>
+            <v>27.05</v>
           </cell>
           <cell r="I15">
-            <v>11.48</v>
+            <v>7.98</v>
           </cell>
           <cell r="J15">
-            <v>59.8</v>
+            <v>30.1</v>
           </cell>
           <cell r="K15">
-            <v>3.25609756097561</v>
+            <v>2.38972431077694</v>
           </cell>
           <cell r="L15">
-            <v>0.182943143812709</v>
+            <v>0.101328903654485</v>
           </cell>
           <cell r="M15">
-            <v>33.16</v>
+            <v>21.96</v>
           </cell>
           <cell r="N15">
-            <v>41.67</v>
+            <v>28.5</v>
           </cell>
           <cell r="O15">
-            <v>34.71</v>
+            <v>25.47</v>
           </cell>
           <cell r="P15">
-            <v>41.9</v>
+            <v>28.82</v>
           </cell>
           <cell r="Q15">
-            <v>37.47</v>
-          </cell>
-          <cell r="R15">
-            <v>47.34</v>
-          </cell>
-          <cell r="S15">
-            <v>42.8</v>
+            <v>26.31</v>
           </cell>
         </row>
         <row r="15">
@@ -4206,21 +4229,21 @@
             <v>8w</v>
           </cell>
           <cell r="Y15">
-            <v>0.445484949832776</v>
+            <v>0.270431893687708</v>
           </cell>
           <cell r="Z15">
-            <v>0.16702663786897</v>
+            <v>0.106315789473684</v>
           </cell>
           <cell r="AA15">
-            <v>0.105727923627685</v>
-          </cell>
-          <cell r="AB15">
-            <v>0.0959019856358261</v>
+            <v>0.0870922970159612</v>
+          </cell>
+          <cell r="AB15" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="15">
           <cell r="AE15" t="str">
-            <v>4T</v>
+            <v>3T</v>
           </cell>
           <cell r="AF15" t="str">
             <v>减少明显，空头几乎被榨干</v>
@@ -4228,573 +4251,823 @@
         </row>
         <row r="15">
           <cell r="AH15">
-            <v>2.07</v>
+            <v>9.73</v>
           </cell>
           <cell r="AI15">
-            <v>2.0414</v>
+            <v>3.1533</v>
           </cell>
           <cell r="AJ15">
-            <v>7.8404</v>
+            <v>2.152</v>
           </cell>
           <cell r="AK15">
-            <v>0.0573</v>
+            <v>1.6028</v>
           </cell>
           <cell r="AL15">
-            <v>0.4733</v>
+            <v>1.161</v>
           </cell>
           <cell r="AM15">
-            <v>6.5677</v>
+            <v>0.2365</v>
           </cell>
           <cell r="AN15">
-            <v>-0.3008</v>
+            <v>0.0229</v>
           </cell>
           <cell r="AO15">
-            <v>-0.2734</v>
+            <v>0.1857</v>
           </cell>
           <cell r="AP15">
-            <v>-0.5858</v>
+            <v>0.1281</v>
           </cell>
           <cell r="AQ15">
-            <v>-0.1511</v>
+            <v>0.1124</v>
           </cell>
           <cell r="AR15">
-            <v>1.1435</v>
+            <v>0.3139</v>
           </cell>
           <cell r="AS15">
-            <v>1.059</v>
+            <v>0.0935</v>
           </cell>
           <cell r="AT15">
-            <v>0.7237</v>
+            <v>0.1211</v>
           </cell>
           <cell r="AU15">
-            <v>0.0276</v>
+            <v>-0.3125</v>
           </cell>
           <cell r="AV15">
-            <v>0.2692</v>
+            <v>0.2292</v>
           </cell>
           <cell r="AW15">
-            <v>-0.1848</v>
+            <v>0.1278</v>
           </cell>
           <cell r="AX15">
-            <v>0.2588</v>
+            <v>0.2239</v>
           </cell>
           <cell r="AY15">
-            <v>0.1894</v>
+            <v>0.2428</v>
           </cell>
           <cell r="AZ15">
-            <v>0.1883</v>
+            <v>0.3271</v>
           </cell>
           <cell r="BA15">
-            <v>0.1993</v>
+            <v>0.347</v>
           </cell>
           <cell r="BB15">
-            <v>0.0681</v>
+            <v>0.3263</v>
           </cell>
         </row>
         <row r="15">
+          <cell r="BG15">
+            <v>30.41</v>
+          </cell>
+          <cell r="BH15">
+            <v>22.76</v>
+          </cell>
           <cell r="BI15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
+            <v>7.65</v>
+          </cell>
+          <cell r="BJ15">
+            <v>28.82</v>
+          </cell>
+          <cell r="BK15">
+            <v>26.31</v>
+          </cell>
+          <cell r="BL15">
+            <v>32.36</v>
+          </cell>
           <cell r="BM15">
-            <v>0</v>
-          </cell>
-          <cell r="BN15" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="BO15" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="BP15" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="BQ15" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="15">
+            <v>251</v>
+          </cell>
+          <cell r="BN15">
+            <v>100</v>
+          </cell>
+          <cell r="BO15">
+            <v>1.41035856573705</v>
+          </cell>
+          <cell r="BP15">
+            <v>0.0870922970159612</v>
+          </cell>
+          <cell r="BQ15">
+            <v>0.122831367106176</v>
+          </cell>
+          <cell r="BR15">
+            <v>25.15</v>
+          </cell>
+          <cell r="BS15" t="str">
+            <v>可以</v>
+          </cell>
           <cell r="BT15" t="str">
-            <v>待执行
-(等待波动一周后)</v>
+            <v>已执行</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>000035</v>
+            <v>000036</v>
           </cell>
           <cell r="B16">
-            <v>44533</v>
+            <v>44534</v>
           </cell>
           <cell r="C16" t="str">
-            <v>002585(双星新材)</v>
+            <v>600399(抚顺特钢)</v>
           </cell>
           <cell r="D16">
-            <v>20.45</v>
+            <v>20.1</v>
           </cell>
           <cell r="E16">
-            <v>22.14</v>
+            <v>21.01</v>
           </cell>
           <cell r="F16">
-            <v>25.99</v>
+            <v>23.24</v>
           </cell>
         </row>
         <row r="16">
           <cell r="H16">
-            <v>27.05</v>
+            <v>24.5</v>
           </cell>
           <cell r="I16">
-            <v>7.98</v>
+            <v>9.18</v>
           </cell>
           <cell r="J16">
-            <v>30.1</v>
+            <v>29.3</v>
           </cell>
           <cell r="K16">
-            <v>2.38972431077694</v>
+            <v>1.66884531590414</v>
           </cell>
           <cell r="L16">
-            <v>0.101328903654485</v>
+            <v>0.16382252559727</v>
           </cell>
           <cell r="M16">
-            <v>21.96</v>
+            <v>19.05</v>
           </cell>
           <cell r="N16">
-            <v>28.5</v>
+            <v>22.91</v>
           </cell>
           <cell r="O16">
-            <v>25.47</v>
+            <v>19.73</v>
           </cell>
           <cell r="P16">
-            <v>28.82</v>
+            <v>26.45</v>
           </cell>
           <cell r="Q16">
-            <v>26.31</v>
+            <v>22.8</v>
+          </cell>
+          <cell r="R16">
+            <v>25.95</v>
+          </cell>
+          <cell r="S16">
+            <v>23.28</v>
           </cell>
         </row>
         <row r="16">
           <cell r="X16" t="str">
-            <v>8w</v>
+            <v>12w</v>
           </cell>
           <cell r="Y16">
-            <v>0.270431893687708</v>
+            <v>0.349829351535836</v>
           </cell>
           <cell r="Z16">
-            <v>0.106315789473684</v>
+            <v>0.138804015713662</v>
           </cell>
           <cell r="AA16">
-            <v>0.0870922970159612</v>
-          </cell>
-          <cell r="AB16" t="e">
-            <v>#DIV/0!</v>
+            <v>0.137996219281663</v>
+          </cell>
+          <cell r="AB16">
+            <v>0.102890173410405</v>
           </cell>
         </row>
         <row r="16">
           <cell r="AE16" t="str">
-            <v>3T</v>
+            <v>4T</v>
           </cell>
           <cell r="AF16" t="str">
             <v>减少明显，空头几乎被榨干</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="AH16">
-            <v>9.73</v>
-          </cell>
-          <cell r="AI16">
-            <v>3.1533</v>
-          </cell>
-          <cell r="AJ16">
-            <v>2.152</v>
-          </cell>
-          <cell r="AK16">
-            <v>1.6028</v>
-          </cell>
-          <cell r="AL16">
-            <v>1.161</v>
-          </cell>
-          <cell r="AM16">
-            <v>0.2365</v>
-          </cell>
-          <cell r="AN16">
-            <v>0.0229</v>
-          </cell>
-          <cell r="AO16">
-            <v>0.1857</v>
-          </cell>
-          <cell r="AP16">
-            <v>0.1281</v>
-          </cell>
-          <cell r="AQ16">
-            <v>0.1124</v>
-          </cell>
-          <cell r="AR16">
-            <v>0.3139</v>
-          </cell>
-          <cell r="AS16">
-            <v>0.0935</v>
-          </cell>
-          <cell r="AT16">
-            <v>0.1211</v>
-          </cell>
-          <cell r="AU16">
-            <v>-0.3125</v>
-          </cell>
-          <cell r="AV16">
-            <v>0.2292</v>
-          </cell>
-          <cell r="AW16">
-            <v>0.1278</v>
-          </cell>
-          <cell r="AX16">
-            <v>0.2239</v>
-          </cell>
-          <cell r="AY16">
-            <v>0.2428</v>
-          </cell>
-          <cell r="AZ16">
-            <v>0.3271</v>
-          </cell>
-          <cell r="BA16">
-            <v>0.347</v>
-          </cell>
-          <cell r="BB16">
-            <v>0.3263</v>
           </cell>
         </row>
         <row r="16">
           <cell r="BG16">
-            <v>30.41</v>
+            <v>27.49</v>
           </cell>
           <cell r="BH16">
-            <v>22.76</v>
+            <v>19.96</v>
           </cell>
           <cell r="BI16">
-            <v>7.65</v>
+            <v>7.53</v>
           </cell>
           <cell r="BJ16">
-            <v>28.82</v>
+            <v>25.95</v>
           </cell>
           <cell r="BK16">
-            <v>26.31</v>
+            <v>23.28</v>
           </cell>
           <cell r="BL16">
-            <v>32.36</v>
+            <v>27.59</v>
           </cell>
           <cell r="BM16">
-            <v>251</v>
+            <v>267</v>
           </cell>
           <cell r="BN16">
             <v>100</v>
           </cell>
           <cell r="BO16">
-            <v>1.41035856573705</v>
+            <v>0.614232209737828</v>
           </cell>
           <cell r="BP16">
-            <v>0.0870922970159612</v>
+            <v>0.102890173410405</v>
           </cell>
           <cell r="BQ16">
-            <v>0.122831367106176</v>
+            <v>0.0631984585741811</v>
           </cell>
           <cell r="BR16">
-            <v>25.15</v>
+            <v>26.15</v>
           </cell>
           <cell r="BS16" t="str">
-            <v>可以</v>
+            <v>暂不宜入场
+(等待波动一周后)</v>
           </cell>
           <cell r="BT16" t="str">
-            <v>已执行</v>
+            <v>待执行</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>000036</v>
+            <v>000037</v>
           </cell>
           <cell r="B17">
-            <v>44534</v>
+            <v>44536</v>
           </cell>
           <cell r="C17" t="str">
-            <v>600399(抚顺特钢)</v>
+            <v>600779(水井坊)</v>
           </cell>
           <cell r="D17">
-            <v>20.1</v>
+            <v>116.99</v>
           </cell>
           <cell r="E17">
-            <v>21.01</v>
+            <v>121.14</v>
           </cell>
           <cell r="F17">
-            <v>23.24</v>
+            <v>130.03</v>
           </cell>
         </row>
         <row r="17">
           <cell r="H17">
-            <v>24.5</v>
+            <v>139.91</v>
           </cell>
           <cell r="I17">
-            <v>9.18</v>
+            <v>59.28</v>
           </cell>
           <cell r="J17">
-            <v>29.3</v>
+            <v>160.57</v>
           </cell>
           <cell r="K17">
-            <v>1.66884531590414</v>
+            <v>1.36015519568151</v>
           </cell>
           <cell r="L17">
-            <v>0.16382252559727</v>
+            <v>0.128666625147911</v>
           </cell>
           <cell r="M17">
-            <v>19.05</v>
+            <v>93.58</v>
           </cell>
           <cell r="N17">
-            <v>22.91</v>
+            <v>136.67</v>
           </cell>
           <cell r="O17">
-            <v>19.73</v>
+            <v>113.77</v>
           </cell>
           <cell r="P17">
-            <v>26.45</v>
+            <v>147.3</v>
           </cell>
           <cell r="Q17">
-            <v>22.8</v>
+            <v>124</v>
           </cell>
           <cell r="R17">
-            <v>25.95</v>
+            <v>139.93</v>
           </cell>
           <cell r="S17">
-            <v>23.58</v>
+            <v>124.71</v>
+          </cell>
+          <cell r="T17">
+            <v>134.81</v>
+          </cell>
+          <cell r="U17">
+            <v>128.2</v>
           </cell>
         </row>
         <row r="17">
           <cell r="X17" t="str">
-            <v>12w</v>
+            <v>20w</v>
           </cell>
           <cell r="Y17">
-            <v>0.349829351535836</v>
+            <v>0.417201220651429</v>
           </cell>
           <cell r="Z17">
-            <v>0.138804015713662</v>
+            <v>0.167556888856369</v>
           </cell>
           <cell r="AA17">
-            <v>0.137996219281663</v>
+            <v>0.158180583842498</v>
           </cell>
           <cell r="AB17">
-            <v>0.0913294797687862</v>
+            <v>0.10876867004931</v>
+          </cell>
+          <cell r="AC17">
+            <v>0.0490319709220385</v>
           </cell>
         </row>
         <row r="17">
           <cell r="AE17" t="str">
-            <v>4T</v>
+            <v>5T</v>
           </cell>
           <cell r="AF17" t="str">
             <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AH17">
+            <v>10</v>
+          </cell>
+          <cell r="AI17">
+            <v>-0.1149</v>
+          </cell>
+          <cell r="AJ17">
+            <v>1.1966</v>
+          </cell>
+          <cell r="AK17">
+            <v>2.6601</v>
+          </cell>
+          <cell r="AL17">
+            <v>0.9935</v>
+          </cell>
+          <cell r="AM17">
+            <v>-0.4244</v>
+          </cell>
+          <cell r="AN17">
+            <v>0.8275</v>
+          </cell>
+          <cell r="AO17">
+            <v>-1.1004</v>
+          </cell>
+          <cell r="AP17">
+            <v>15.79</v>
+          </cell>
+          <cell r="AQ17">
+            <v>-0.1106</v>
+          </cell>
+          <cell r="AR17">
+            <v>0.756</v>
+          </cell>
+          <cell r="AS17">
+            <v>1.1246</v>
+          </cell>
+          <cell r="AT17">
+            <v>0.64</v>
+          </cell>
+          <cell r="AU17">
+            <v>-0.1855</v>
+          </cell>
+          <cell r="AV17">
+            <v>0.1135</v>
+          </cell>
+          <cell r="AW17">
+            <v>-0.5985</v>
+          </cell>
+          <cell r="AX17">
+            <v>2.7082</v>
+          </cell>
+          <cell r="AY17">
+            <v>0.8544</v>
+          </cell>
+          <cell r="AZ17">
+            <v>0.8505</v>
+          </cell>
+          <cell r="BA17">
+            <v>0.8349</v>
+          </cell>
+          <cell r="BB17">
+            <v>0.8576</v>
           </cell>
         </row>
         <row r="17">
           <cell r="BG17">
-            <v>27.49</v>
+            <v>146.55</v>
           </cell>
           <cell r="BH17">
-            <v>19.96</v>
+            <v>117.44</v>
           </cell>
           <cell r="BI17">
-            <v>7.53</v>
+            <v>29.11</v>
           </cell>
           <cell r="BJ17">
-            <v>25.95</v>
+            <v>143.8</v>
           </cell>
           <cell r="BK17">
-            <v>23.58</v>
+            <v>134.79</v>
           </cell>
           <cell r="BL17">
-            <v>29.66</v>
+            <v>158.42</v>
           </cell>
           <cell r="BM17">
-            <v>237</v>
+            <v>901.000000000002</v>
           </cell>
           <cell r="BN17">
-            <v>100</v>
+            <v>0</v>
           </cell>
           <cell r="BO17">
-            <v>1.56540084388186</v>
+            <v>1.62264150943396</v>
           </cell>
           <cell r="BP17">
-            <v>0.0913294797687862</v>
+            <v>0.0626564673157164</v>
           </cell>
           <cell r="BQ17">
-            <v>0.142967244701349</v>
+            <v>0.101668984700973</v>
           </cell>
           <cell r="BR17">
-            <v>26.15</v>
+            <v>55.79</v>
           </cell>
           <cell r="BS17" t="str">
             <v>可以</v>
           </cell>
           <cell r="BT17" t="str">
-            <v>待执行
-(等待波动一周后)</v>
+            <v>执行中</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>000037</v>
+            <v>000038</v>
+          </cell>
+          <cell r="B18">
+            <v>44536</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>600888(新疆众和)</v>
+          </cell>
+          <cell r="D18">
+            <v>7.83</v>
+          </cell>
+          <cell r="E18">
+            <v>8.24</v>
+          </cell>
+          <cell r="F18">
+            <v>9.27</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="H18">
+            <v>9.6</v>
+          </cell>
+          <cell r="I18">
+            <v>4.83</v>
+          </cell>
+          <cell r="J18">
+            <v>11.8</v>
+          </cell>
+          <cell r="K18">
+            <v>0.987577639751553</v>
+          </cell>
+          <cell r="L18">
+            <v>0.186440677966102</v>
+          </cell>
+          <cell r="M18">
+            <v>7.6</v>
+          </cell>
+          <cell r="N18">
+            <v>9.65</v>
+          </cell>
+          <cell r="O18">
+            <v>8.03</v>
+          </cell>
+          <cell r="P18">
+            <v>10.28</v>
+          </cell>
+          <cell r="Q18">
+            <v>9.41</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="X18" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y18">
+            <v>0.355932203389831</v>
+          </cell>
+          <cell r="Z18">
+            <v>0.167875647668394</v>
+          </cell>
+          <cell r="AA18">
+            <v>0.0846303501945525</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AE18" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF18" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="BG18">
+            <v>10.54</v>
+          </cell>
+          <cell r="BH18">
+            <v>8.35</v>
+          </cell>
+          <cell r="BI18">
+            <v>2.19</v>
+          </cell>
+          <cell r="BJ18">
+            <v>10.28</v>
+          </cell>
+          <cell r="BK18">
+            <v>9.41</v>
+          </cell>
+          <cell r="BL18">
+            <v>12</v>
+          </cell>
+          <cell r="BM18">
+            <v>86.9999999999999</v>
+          </cell>
+          <cell r="BN18">
+            <v>300</v>
+          </cell>
+          <cell r="BO18">
+            <v>1.97701149425288</v>
+          </cell>
+          <cell r="BP18">
+            <v>0.0846303501945525</v>
+          </cell>
+          <cell r="BQ18">
+            <v>0.167315175097276</v>
+          </cell>
+          <cell r="BR18">
+            <v>18.1</v>
+          </cell>
+          <cell r="BS18" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="BT18" t="str">
+            <v>执行中</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>000038</v>
+            <v>000039</v>
+          </cell>
+          <cell r="B19">
+            <v>44536</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>600955(维远股份)</v>
+          </cell>
+          <cell r="D19">
+            <v>44.31</v>
+          </cell>
+          <cell r="E19">
+            <v>44.7</v>
+          </cell>
+          <cell r="F19">
+            <v>46.27</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="H19">
+            <v>47.76</v>
+          </cell>
+          <cell r="I19">
+            <v>35.47</v>
+          </cell>
+          <cell r="J19">
+            <v>61.98</v>
+          </cell>
+          <cell r="K19">
+            <v>0.346489991542148</v>
+          </cell>
+          <cell r="L19">
+            <v>0.229428848015489</v>
+          </cell>
+          <cell r="M19">
+            <v>42.05</v>
+          </cell>
+          <cell r="N19">
+            <v>52.97</v>
+          </cell>
+          <cell r="O19">
+            <v>42.18</v>
+          </cell>
+          <cell r="P19">
+            <v>50.93</v>
+          </cell>
+          <cell r="Q19">
+            <v>46.13</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="X19" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Y19">
+            <v>0.321555340432398</v>
+          </cell>
+          <cell r="Z19">
+            <v>0.203700207664716</v>
+          </cell>
+          <cell r="AA19">
+            <v>0.0942470056940899</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AE19" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AF19" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="BG19">
+            <v>52.82</v>
+          </cell>
+          <cell r="BH19">
+            <v>40.96</v>
+          </cell>
+          <cell r="BI19">
+            <v>11.86</v>
+          </cell>
+          <cell r="BJ19">
+            <v>50.93</v>
+          </cell>
+          <cell r="BK19">
+            <v>46.13</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="BM19">
+            <v>480</v>
+          </cell>
+          <cell r="BN19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="BP19">
+            <v>0.0942470056940899</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="BR19">
+            <v>12</v>
+          </cell>
+          <cell r="BS19" t="str">
+            <v>暂不宜入场
+(等待波动一周后)</v>
+          </cell>
+          <cell r="BT19" t="str">
+            <v>待执行</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>000039</v>
+            <v>000040</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>000040</v>
+            <v>000041</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>000041</v>
+            <v>000042</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>000042</v>
+            <v>000043</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>000043</v>
+            <v>000044</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>000044</v>
+            <v>000045</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>000045</v>
+            <v>000046</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>000046</v>
+            <v>000047</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>000047</v>
+            <v>000048</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>000048</v>
+            <v>000049</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>000049</v>
+            <v>000050</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>000050</v>
+            <v>000051</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>000051</v>
+            <v>000052</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>000052</v>
+            <v>000053</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>000053</v>
+            <v>000054</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>000054</v>
+            <v>000055</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>000055</v>
+            <v>000056</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>000056</v>
+            <v>000057</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>000057</v>
+            <v>000058</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>000058</v>
+            <v>000059</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>000059</v>
+            <v>000060</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>000060</v>
+            <v>000061</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>000061</v>
+            <v>000062</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>000062</v>
+            <v>000063</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>000063</v>
+            <v>000064</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>000064</v>
+            <v>000065</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>000065</v>
+            <v>000066</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>000066</v>
+            <v>000067</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>000067</v>
+            <v>000068</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
             <v>000069</v>
           </cell>
         </row>
@@ -5843,11 +6116,11 @@
   <dimension ref="A1:BP552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6684,7 +6957,7 @@
       </c>
       <c r="Z10" s="42">
         <f>(P10-E10)/VLOOKUP(B10,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
-        <v>-0.196428571428571</v>
+        <v>-0.196428571428572</v>
       </c>
       <c r="AA10" s="77" t="s">
         <v>54</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -776,33 +776,7 @@
     <t>000035</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 002585(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双星新材</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t xml:space="preserve"> 002585(双星新材)</t>
   </si>
   <si>
     <r>
@@ -1006,6 +980,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1072,14 +1054,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1609,64 +1583,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1684,19 +1658,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1708,28 +1682,28 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1738,23 +1712,23 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1845,6 +1819,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1884,7 +1861,7 @@
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1944,7 +1921,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1953,10 +1930,10 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1968,10 +1945,10 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1980,22 +1957,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -6120,7 +6097,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6167,64 +6144,64 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="63" t="s">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="80"/>
+      <c r="BO1" s="80"/>
+      <c r="BP1" s="80"/>
     </row>
     <row r="2" ht="23.6" spans="1:68">
       <c r="A2" s="9"/>
@@ -6233,186 +6210,186 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="U2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="46" t="s">
+      <c r="W2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="64" t="s">
+      <c r="X2" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64" t="s">
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="67" t="s">
+      <c r="AA2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="79"/>
-      <c r="BD2" s="79"/>
-      <c r="BE2" s="79"/>
-      <c r="BF2" s="79"/>
-      <c r="BG2" s="79"/>
-      <c r="BH2" s="79"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="79"/>
-      <c r="BP2" s="79"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+      <c r="AW2" s="80"/>
+      <c r="AX2" s="80"/>
+      <c r="AY2" s="80"/>
+      <c r="AZ2" s="80"/>
+      <c r="BB2" s="80"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="80"/>
+      <c r="BE2" s="80"/>
+      <c r="BF2" s="80"/>
+      <c r="BG2" s="80"/>
+      <c r="BH2" s="80"/>
+      <c r="BJ2" s="80"/>
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="80"/>
+      <c r="BM2" s="80"/>
+      <c r="BN2" s="80"/>
+      <c r="BO2" s="80"/>
+      <c r="BP2" s="80"/>
     </row>
     <row r="3" ht="23.6" spans="1:68">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="64" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="64" t="s">
+      <c r="Y3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="79"/>
-      <c r="AT3" s="79"/>
-      <c r="AU3" s="79"/>
-      <c r="AV3" s="79"/>
-      <c r="AW3" s="79"/>
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
-      <c r="BE3" s="79"/>
-      <c r="BF3" s="79"/>
-      <c r="BG3" s="79"/>
-      <c r="BH3" s="79"/>
-      <c r="BJ3" s="79"/>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="79"/>
-      <c r="BN3" s="79"/>
-      <c r="BO3" s="79"/>
-      <c r="BP3" s="79"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AT3" s="80"/>
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="80"/>
+      <c r="BG3" s="80"/>
+      <c r="BH3" s="80"/>
+      <c r="BJ3" s="80"/>
+      <c r="BK3" s="80"/>
+      <c r="BL3" s="80"/>
+      <c r="BM3" s="80"/>
+      <c r="BN3" s="80"/>
+      <c r="BO3" s="80"/>
+      <c r="BP3" s="80"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="23.6" spans="1:68">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="82" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -6421,7 +6398,7 @@
       <c r="D4" s="22">
         <v>44523</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="34">
         <v>26.2</v>
       </c>
       <c r="F4" s="20">
@@ -6430,10 +6407,10 @@
       <c r="G4" s="20">
         <v>5</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="35">
         <v>0</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="34">
         <f>E4*F4+G4+H4</f>
         <v>5245</v>
       </c>
@@ -6443,116 +6420,116 @@
       <c r="K4" s="20">
         <v>25.21</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="40">
         <f>(J4-E4)/(J4-K4)</f>
         <v>0.232558139534884</v>
       </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49">
+      <c r="M4" s="49"/>
+      <c r="N4" s="50">
         <v>0</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="51">
         <v>44526</v>
       </c>
-      <c r="P4" s="51">
+      <c r="P4" s="52">
         <v>24.89</v>
       </c>
-      <c r="Q4" s="59">
+      <c r="Q4" s="60">
         <v>100</v>
       </c>
-      <c r="R4" s="51">
+      <c r="R4" s="52">
         <v>5</v>
       </c>
-      <c r="S4" s="60">
+      <c r="S4" s="61">
         <f>P4*Q4*0.001</f>
         <v>2.489</v>
       </c>
-      <c r="T4" s="38">
+      <c r="T4" s="39">
         <f>P4*Q4-R4-S4</f>
         <v>2481.511</v>
       </c>
-      <c r="U4" s="59">
+      <c r="U4" s="60">
         <v>27.43</v>
       </c>
-      <c r="V4" s="59">
+      <c r="V4" s="60">
         <v>24.74</v>
       </c>
-      <c r="W4" s="65">
+      <c r="W4" s="66">
         <f>(P4-V4)/(U4-V4)</f>
         <v>0.0557620817843874</v>
       </c>
-      <c r="X4" s="38">
+      <c r="X4" s="39">
         <f>T4-I4/2</f>
         <v>-140.989</v>
       </c>
-      <c r="Y4" s="70">
+      <c r="Y4" s="71">
         <f>X4+X5</f>
         <v>-1.25900000000001</v>
       </c>
-      <c r="Z4" s="65">
+      <c r="Z4" s="66">
         <f>(P4-E4)/VLOOKUP(B4,[1]交易计划及执行表!$A$4:$BT$1000,61,FALSE)</f>
         <v>-0.208598726114649</v>
       </c>
-      <c r="AA4" s="71" t="s">
+      <c r="AA4" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AK4" s="80"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="80"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="80"/>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="80"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="80"/>
-      <c r="BM4" s="80"/>
-      <c r="BN4" s="80"/>
-      <c r="BO4" s="80"/>
-      <c r="BP4" s="80"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="81"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="81"/>
+      <c r="BO4" s="81"/>
+      <c r="BP4" s="81"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="13" spans="1:28">
       <c r="A5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="82" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48">
+      <c r="L5" s="40"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49">
         <v>0</v>
       </c>
       <c r="O5" s="22">
@@ -6567,11 +6544,11 @@
       <c r="R5" s="20">
         <v>5</v>
       </c>
-      <c r="S5" s="60">
+      <c r="S5" s="61">
         <f>P5*Q5*0.001</f>
         <v>2.77</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5" s="39">
         <f>P5*Q5-R5-S5</f>
         <v>2762.23</v>
       </c>
@@ -6581,27 +6558,27 @@
       <c r="V5" s="20">
         <v>27.5</v>
       </c>
-      <c r="W5" s="65">
+      <c r="W5" s="66">
         <f>(P5-V5)/(U5-V5)</f>
         <v>0.166666666666666</v>
       </c>
-      <c r="X5" s="38">
+      <c r="X5" s="39">
         <f>T5-I4/2</f>
         <v>139.73</v>
       </c>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="65">
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="66">
         <f>(P5-E4)/VLOOKUP(B5,[1]交易计划及执行表!$A$4:$BT$1000,61,FALSE)</f>
         <v>0.238853503184713</v>
       </c>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="73"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="74"/>
     </row>
     <row r="6" s="5" customFormat="1" ht="13" spans="1:28">
       <c r="A6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="83" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -6610,59 +6587,59 @@
       <c r="D6" s="24">
         <v>44523</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="36">
         <v>33.73</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="36">
         <v>100</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="36">
         <v>5</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="37">
         <f>E6*F6*0.2/10000</f>
         <v>0.06746</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="38">
         <f t="shared" ref="I6:I11" si="0">E6*F6+G6+H6</f>
         <v>3378.06746</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="36">
         <v>35.36</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="36">
         <v>33.1</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="41">
         <f t="shared" ref="L6:L11" si="1">(J6-E6)/(J6-K6)</f>
         <v>0.721238938053099</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="53">
         <v>34.13</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="54">
         <f>(E6-M6)*F6+G6+H6+5</f>
         <v>-29.9325400000006</v>
       </c>
-      <c r="O6" s="35"/>
+      <c r="O6" s="36"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="38"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="39"/>
       <c r="U6" s="23"/>
       <c r="V6" s="23"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="38"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="39"/>
       <c r="Y6" s="23"/>
-      <c r="Z6" s="40"/>
-      <c r="AB6" s="74"/>
+      <c r="Z6" s="41"/>
+      <c r="AB6" s="75"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="13" spans="1:28">
       <c r="A7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="83" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -6671,59 +6648,59 @@
       <c r="D7" s="24">
         <v>44522</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="38">
         <v>32.7</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="36">
         <v>100</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="36">
         <v>5</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="37">
         <f>E7*F7*0.2/10000</f>
         <v>0.0654</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="38">
         <f t="shared" si="0"/>
         <v>3275.0654</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="38">
         <v>33.9</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="38">
         <v>32.49</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="41">
         <f t="shared" si="1"/>
         <v>0.851063829787233</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="53">
         <v>30.89</v>
       </c>
-      <c r="N7" s="53">
+      <c r="N7" s="54">
         <f>(E7-M7)*F7+G7+H7+5</f>
         <v>191.0654</v>
       </c>
-      <c r="O7" s="35"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="38"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="39"/>
       <c r="U7" s="23"/>
       <c r="V7" s="23"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="38"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="39"/>
       <c r="Y7" s="23"/>
-      <c r="Z7" s="40"/>
-      <c r="AB7" s="74"/>
+      <c r="Z7" s="41"/>
+      <c r="AB7" s="75"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="36" spans="1:28">
       <c r="A8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="83" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -6741,10 +6718,10 @@
       <c r="G8" s="27">
         <v>5</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="37">
         <v>0</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="38">
         <f t="shared" si="0"/>
         <v>7212</v>
       </c>
@@ -6754,14 +6731,14 @@
       <c r="K8" s="27">
         <v>70.4</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="41">
         <f t="shared" si="1"/>
         <v>0.592682926829271</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="53">
         <v>67.53</v>
       </c>
-      <c r="N8" s="53">
+      <c r="N8" s="54">
         <f>(E8-M8)*F8+G8+H8+5</f>
         <v>463.999999999999</v>
       </c>
@@ -6769,24 +6746,24 @@
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="38"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="39"/>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="38"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="39"/>
       <c r="Y8" s="27"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="75" t="s">
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" s="73"/>
+      <c r="AB8" s="74"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="24" spans="1:28">
       <c r="A9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="84" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -6804,11 +6781,11 @@
       <c r="G9" s="27">
         <v>5</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="39">
         <f>E9*F9*0.2/10000</f>
         <v>0.06108</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="42">
         <f t="shared" si="0"/>
         <v>3059.06108</v>
       </c>
@@ -6818,12 +6795,12 @@
       <c r="K9" s="27">
         <v>29.33</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="43">
         <f t="shared" si="1"/>
         <v>0.129496402877698</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="53">
+      <c r="M9" s="55"/>
+      <c r="N9" s="54">
         <v>0</v>
       </c>
       <c r="O9" s="26">
@@ -6838,11 +6815,11 @@
       <c r="R9" s="27">
         <v>5</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="42">
         <f>P9*Q9*0.001</f>
         <v>3.015</v>
       </c>
-      <c r="T9" s="38">
+      <c r="T9" s="39">
         <f>P9*Q9-R9-S9</f>
         <v>3006.985</v>
       </c>
@@ -6852,32 +6829,32 @@
       <c r="V9" s="27">
         <v>30.01</v>
       </c>
-      <c r="W9" s="65">
+      <c r="W9" s="66">
         <f>(P9-V9)/(U9-V9)</f>
         <v>0.205882352941172</v>
       </c>
-      <c r="X9" s="38">
+      <c r="X9" s="39">
         <f>T9-I9</f>
         <v>-52.0760799999998</v>
       </c>
-      <c r="Y9" s="38">
+      <c r="Y9" s="39">
         <f>T9-I9</f>
         <v>-52.0760799999998</v>
       </c>
-      <c r="Z9" s="42">
+      <c r="Z9" s="43">
         <f>(P9-E9)/VLOOKUP(B9,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
         <v>-0.0622009569377991</v>
       </c>
-      <c r="AA9" s="76" t="s">
+      <c r="AA9" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="AB9" s="73"/>
+      <c r="AB9" s="74"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="13" spans="1:28">
       <c r="A10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="84" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="29" t="s">
@@ -6895,11 +6872,11 @@
       <c r="G10" s="23">
         <v>5</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="39">
         <f>E10*F10*0.2/10000</f>
         <v>0.05962</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="42">
         <f t="shared" si="0"/>
         <v>2986.05962</v>
       </c>
@@ -6909,12 +6886,12 @@
       <c r="K10" s="23">
         <v>28.81</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="43">
         <f t="shared" si="1"/>
         <v>0.337748344370862</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="N10" s="53">
+      <c r="M10" s="55"/>
+      <c r="N10" s="54">
         <v>0</v>
       </c>
       <c r="O10" s="24">
@@ -6929,11 +6906,11 @@
       <c r="R10" s="23">
         <v>5</v>
       </c>
-      <c r="S10" s="61">
+      <c r="S10" s="62">
         <f>P10*Q10*0.001</f>
         <v>2.783</v>
       </c>
-      <c r="T10" s="38">
+      <c r="T10" s="39">
         <f>P10*Q10-R10-S10</f>
         <v>2775.217</v>
       </c>
@@ -6943,32 +6920,32 @@
       <c r="V10" s="23">
         <v>27.44</v>
       </c>
-      <c r="W10" s="65">
+      <c r="W10" s="66">
         <f>(P10-V10)/(U10-V10)</f>
         <v>0.406249999999998</v>
       </c>
-      <c r="X10" s="38">
+      <c r="X10" s="39">
         <f>T10-I10</f>
         <v>-210.84262</v>
       </c>
-      <c r="Y10" s="38">
+      <c r="Y10" s="39">
         <f>T10-I10</f>
         <v>-210.84262</v>
       </c>
-      <c r="Z10" s="42">
+      <c r="Z10" s="43">
         <f>(P10-E10)/VLOOKUP(B10,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
         <v>-0.196428571428572</v>
       </c>
-      <c r="AA10" s="77" t="s">
+      <c r="AA10" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="74"/>
+      <c r="AB10" s="75"/>
     </row>
     <row r="11" ht="37" spans="1:27">
       <c r="A11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="83" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="30" t="s">
@@ -6989,7 +6966,7 @@
       <c r="H11" s="23">
         <v>0</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="42">
         <f t="shared" si="0"/>
         <v>2842</v>
       </c>
@@ -6999,14 +6976,14 @@
       <c r="K11" s="23">
         <v>27.69</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="43">
         <f t="shared" si="1"/>
         <v>0.661691542288557</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="53">
         <v>26.31</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="54">
         <f>(E11-M11)*F11+G11+H11+5</f>
         <v>216</v>
       </c>
@@ -7014,7 +6991,7 @@
       <c r="P11" s="23"/>
       <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
-      <c r="S11" s="61"/>
+      <c r="S11" s="62"/>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
       <c r="V11" s="23"/>
@@ -7022,7 +6999,7 @@
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
-      <c r="AA11" s="77" t="s">
+      <c r="AA11" s="78" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7030,10 +7007,10 @@
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="23"/>
@@ -7045,13 +7022,13 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
-      <c r="S12" s="61"/>
+      <c r="S12" s="62"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
@@ -7065,7 +7042,7 @@
       <c r="A13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="83" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="23"/>
@@ -7078,13 +7055,13 @@
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
-      <c r="S13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="T13" s="23"/>
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
@@ -7098,7 +7075,7 @@
       <c r="A14" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="83" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="23"/>
@@ -7111,13 +7088,13 @@
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
-      <c r="S14" s="61"/>
+      <c r="S14" s="62"/>
       <c r="T14" s="23"/>
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
@@ -7131,7 +7108,7 @@
       <c r="A15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="83" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="23"/>
@@ -7144,13 +7121,13 @@
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
-      <c r="S15" s="61"/>
+      <c r="S15" s="62"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
@@ -7164,7 +7141,7 @@
       <c r="A16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="83" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="23"/>
@@ -7177,13 +7154,13 @@
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="23"/>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
-      <c r="S16" s="61"/>
+      <c r="S16" s="62"/>
       <c r="T16" s="23"/>
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
@@ -7197,7 +7174,7 @@
       <c r="A17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="83" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="23"/>
@@ -7210,13 +7187,13 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
-      <c r="S17" s="61"/>
+      <c r="S17" s="62"/>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
       <c r="V17" s="23"/>
@@ -7230,7 +7207,7 @@
       <c r="A18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="83" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="23"/>
@@ -7243,13 +7220,13 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
-      <c r="S18" s="61"/>
+      <c r="S18" s="62"/>
       <c r="T18" s="23"/>
       <c r="U18" s="23"/>
       <c r="V18" s="23"/>
@@ -7263,7 +7240,7 @@
       <c r="A19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="83" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="23"/>
@@ -7276,13 +7253,13 @@
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
-      <c r="S19" s="61"/>
+      <c r="S19" s="62"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
       <c r="V19" s="23"/>
@@ -7296,7 +7273,7 @@
       <c r="A20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="83" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="23"/>
@@ -7309,13 +7286,13 @@
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="61"/>
+      <c r="S20" s="62"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="23"/>
@@ -7336,13 +7313,13 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="62"/>
+      <c r="S21" s="63"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
@@ -7362,13 +7339,13 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="62"/>
+      <c r="S22" s="63"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
@@ -7388,13 +7365,13 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="62"/>
+      <c r="S23" s="63"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
@@ -7414,13 +7391,13 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="62"/>
+      <c r="S24" s="63"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
@@ -7440,13 +7417,13 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="62"/>
+      <c r="S25" s="63"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
@@ -7466,13 +7443,13 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="62"/>
+      <c r="S26" s="63"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
@@ -7492,13 +7469,13 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="62"/>
+      <c r="S27" s="63"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
@@ -7518,13 +7495,13 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="62"/>
+      <c r="S28" s="63"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
@@ -7544,13 +7521,13 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="62"/>
+      <c r="S29" s="63"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
@@ -7570,13 +7547,13 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="62"/>
+      <c r="S30" s="63"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
@@ -7596,13 +7573,13 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="62"/>
+      <c r="S31" s="63"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
@@ -7622,13 +7599,13 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="62"/>
+      <c r="S32" s="63"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
@@ -7648,13 +7625,13 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="62"/>
+      <c r="S33" s="63"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
@@ -7674,13 +7651,13 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="62"/>
+      <c r="S34" s="63"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
@@ -7700,13 +7677,13 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="62"/>
+      <c r="S35" s="63"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
@@ -7726,13 +7703,13 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="62"/>
+      <c r="S36" s="63"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
@@ -7752,13 +7729,13 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="62"/>
+      <c r="S37" s="63"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
@@ -7778,13 +7755,13 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="62"/>
+      <c r="S38" s="63"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
@@ -7804,13 +7781,13 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="62"/>
+      <c r="S39" s="63"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
@@ -7830,13 +7807,13 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="62"/>
+      <c r="S40" s="63"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
@@ -7856,13 +7833,13 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="62"/>
+      <c r="S41" s="63"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
@@ -7882,13 +7859,13 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="62"/>
+      <c r="S42" s="63"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
@@ -7908,13 +7885,13 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="62"/>
+      <c r="S43" s="63"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
@@ -7934,13 +7911,13 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="62"/>
+      <c r="S44" s="63"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
@@ -7960,13 +7937,13 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
-      <c r="S45" s="62"/>
+      <c r="S45" s="63"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -7986,13 +7963,13 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
-      <c r="S46" s="62"/>
+      <c r="S46" s="63"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
@@ -8012,13 +7989,13 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
-      <c r="S47" s="62"/>
+      <c r="S47" s="63"/>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
@@ -8038,13 +8015,13 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="62"/>
+      <c r="S48" s="63"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
@@ -8063,13 +8040,13 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="62"/>
+      <c r="S49" s="63"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
@@ -8088,13 +8065,13 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
-      <c r="S50" s="62"/>
+      <c r="S50" s="63"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
@@ -8113,13 +8090,13 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
-      <c r="S51" s="62"/>
+      <c r="S51" s="63"/>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
@@ -8138,13 +8115,13 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="62"/>
+      <c r="S52" s="63"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
@@ -8163,13 +8140,13 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
-      <c r="S53" s="62"/>
+      <c r="S53" s="63"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
@@ -8188,13 +8165,13 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
-      <c r="S54" s="62"/>
+      <c r="S54" s="63"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
@@ -8213,13 +8190,13 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
-      <c r="S55" s="62"/>
+      <c r="S55" s="63"/>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
@@ -8238,13 +8215,13 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="55"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="62"/>
+      <c r="S56" s="63"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
@@ -8263,13 +8240,13 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
-      <c r="S57" s="62"/>
+      <c r="S57" s="63"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
@@ -8288,13 +8265,13 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="55"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
-      <c r="S58" s="62"/>
+      <c r="S58" s="63"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
@@ -8313,13 +8290,13 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="55"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
-      <c r="S59" s="62"/>
+      <c r="S59" s="63"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
@@ -8338,13 +8315,13 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
-      <c r="S60" s="62"/>
+      <c r="S60" s="63"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
@@ -8363,13 +8340,13 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
-      <c r="S61" s="62"/>
+      <c r="S61" s="63"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
@@ -8388,13 +8365,13 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
-      <c r="S62" s="62"/>
+      <c r="S62" s="63"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
@@ -8413,13 +8390,13 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
-      <c r="S63" s="62"/>
+      <c r="S63" s="63"/>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
@@ -8438,13 +8415,13 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="56"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
-      <c r="S64" s="62"/>
+      <c r="S64" s="63"/>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
@@ -8463,13 +8440,13 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
-      <c r="S65" s="62"/>
+      <c r="S65" s="63"/>
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
@@ -8488,13 +8465,13 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
-      <c r="S66" s="62"/>
+      <c r="S66" s="63"/>
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
@@ -8513,13 +8490,13 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="55"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
-      <c r="S67" s="62"/>
+      <c r="S67" s="63"/>
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
@@ -8538,13 +8515,13 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
-      <c r="S68" s="62"/>
+      <c r="S68" s="63"/>
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
@@ -8563,13 +8540,13 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="55"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
-      <c r="S69" s="62"/>
+      <c r="S69" s="63"/>
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
@@ -8588,13 +8565,13 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="55"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
-      <c r="S70" s="62"/>
+      <c r="S70" s="63"/>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
@@ -8613,13 +8590,13 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="55"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
-      <c r="S71" s="62"/>
+      <c r="S71" s="63"/>
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
@@ -8638,13 +8615,13 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
-      <c r="S72" s="62"/>
+      <c r="S72" s="63"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
@@ -8663,13 +8640,13 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="56"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
-      <c r="S73" s="62"/>
+      <c r="S73" s="63"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
@@ -8688,13 +8665,13 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="55"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
-      <c r="S74" s="62"/>
+      <c r="S74" s="63"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
@@ -8713,13 +8690,13 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
-      <c r="S75" s="62"/>
+      <c r="S75" s="63"/>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
@@ -8738,13 +8715,13 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="55"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
-      <c r="S76" s="62"/>
+      <c r="S76" s="63"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
@@ -8763,13 +8740,13 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="55"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
-      <c r="S77" s="62"/>
+      <c r="S77" s="63"/>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
@@ -8788,13 +8765,13 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="55"/>
-      <c r="N78" s="55"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="56"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
-      <c r="S78" s="62"/>
+      <c r="S78" s="63"/>
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
@@ -8813,13 +8790,13 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="55"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
-      <c r="S79" s="62"/>
+      <c r="S79" s="63"/>
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
@@ -8838,13 +8815,13 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="55"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
-      <c r="S80" s="62"/>
+      <c r="S80" s="63"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
@@ -8863,13 +8840,13 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="55"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
-      <c r="S81" s="62"/>
+      <c r="S81" s="63"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
@@ -8888,13 +8865,13 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="55"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
-      <c r="S82" s="62"/>
+      <c r="S82" s="63"/>
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
@@ -8913,13 +8890,13 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
-      <c r="S83" s="62"/>
+      <c r="S83" s="63"/>
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
@@ -8938,13 +8915,13 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
-      <c r="S84" s="62"/>
+      <c r="S84" s="63"/>
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
@@ -8963,13 +8940,13 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="55"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
-      <c r="S85" s="62"/>
+      <c r="S85" s="63"/>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
@@ -8988,13 +8965,13 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="55"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
-      <c r="S86" s="62"/>
+      <c r="S86" s="63"/>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
@@ -9013,13 +8990,13 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="55"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
-      <c r="S87" s="62"/>
+      <c r="S87" s="63"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
@@ -9038,13 +9015,13 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="55"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
-      <c r="S88" s="62"/>
+      <c r="S88" s="63"/>
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
@@ -9063,13 +9040,13 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="55"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
-      <c r="S89" s="62"/>
+      <c r="S89" s="63"/>
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
@@ -9088,13 +9065,13 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="55"/>
-      <c r="N90" s="55"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
-      <c r="S90" s="62"/>
+      <c r="S90" s="63"/>
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
@@ -9113,13 +9090,13 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="55"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
-      <c r="S91" s="62"/>
+      <c r="S91" s="63"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
@@ -9138,13 +9115,13 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="55"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
-      <c r="S92" s="62"/>
+      <c r="S92" s="63"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
@@ -9163,13 +9140,13 @@
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
-      <c r="M93" s="55"/>
-      <c r="N93" s="55"/>
+      <c r="M93" s="56"/>
+      <c r="N93" s="56"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
-      <c r="S93" s="62"/>
+      <c r="S93" s="63"/>
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
@@ -9188,13 +9165,13 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="55"/>
-      <c r="N94" s="55"/>
+      <c r="M94" s="56"/>
+      <c r="N94" s="56"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
-      <c r="S94" s="62"/>
+      <c r="S94" s="63"/>
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
@@ -9213,13 +9190,13 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="55"/>
-      <c r="N95" s="55"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="56"/>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
-      <c r="S95" s="62"/>
+      <c r="S95" s="63"/>
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
@@ -9238,13 +9215,13 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="55"/>
-      <c r="N96" s="55"/>
+      <c r="M96" s="56"/>
+      <c r="N96" s="56"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
-      <c r="S96" s="62"/>
+      <c r="S96" s="63"/>
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
@@ -9263,13 +9240,13 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="55"/>
-      <c r="N97" s="55"/>
+      <c r="M97" s="56"/>
+      <c r="N97" s="56"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
-      <c r="S97" s="62"/>
+      <c r="S97" s="63"/>
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
@@ -9288,13 +9265,13 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="55"/>
+      <c r="M98" s="56"/>
+      <c r="N98" s="56"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
-      <c r="S98" s="62"/>
+      <c r="S98" s="63"/>
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
@@ -9313,13 +9290,13 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="55"/>
+      <c r="M99" s="56"/>
+      <c r="N99" s="56"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
-      <c r="S99" s="62"/>
+      <c r="S99" s="63"/>
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
@@ -9338,13 +9315,13 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
-      <c r="M100" s="55"/>
-      <c r="N100" s="55"/>
+      <c r="M100" s="56"/>
+      <c r="N100" s="56"/>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
-      <c r="S100" s="62"/>
+      <c r="S100" s="63"/>
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
@@ -9363,13 +9340,13 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
-      <c r="M101" s="55"/>
-      <c r="N101" s="55"/>
+      <c r="M101" s="56"/>
+      <c r="N101" s="56"/>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
-      <c r="S101" s="62"/>
+      <c r="S101" s="63"/>
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
@@ -9388,13 +9365,13 @@
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
-      <c r="M102" s="55"/>
-      <c r="N102" s="55"/>
+      <c r="M102" s="56"/>
+      <c r="N102" s="56"/>
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
-      <c r="S102" s="62"/>
+      <c r="S102" s="63"/>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
@@ -9413,13 +9390,13 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
-      <c r="M103" s="55"/>
-      <c r="N103" s="55"/>
+      <c r="M103" s="56"/>
+      <c r="N103" s="56"/>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
-      <c r="S103" s="62"/>
+      <c r="S103" s="63"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
@@ -9438,13 +9415,13 @@
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
-      <c r="M104" s="55"/>
-      <c r="N104" s="55"/>
+      <c r="M104" s="56"/>
+      <c r="N104" s="56"/>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
-      <c r="S104" s="62"/>
+      <c r="S104" s="63"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
@@ -9463,13 +9440,13 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
-      <c r="M105" s="55"/>
-      <c r="N105" s="55"/>
+      <c r="M105" s="56"/>
+      <c r="N105" s="56"/>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
-      <c r="S105" s="62"/>
+      <c r="S105" s="63"/>
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
@@ -9488,13 +9465,13 @@
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
-      <c r="M106" s="55"/>
-      <c r="N106" s="55"/>
+      <c r="M106" s="56"/>
+      <c r="N106" s="56"/>
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
-      <c r="S106" s="62"/>
+      <c r="S106" s="63"/>
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
@@ -9513,13 +9490,13 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
-      <c r="M107" s="55"/>
-      <c r="N107" s="55"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="56"/>
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
-      <c r="S107" s="62"/>
+      <c r="S107" s="63"/>
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
@@ -9538,13 +9515,13 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="55"/>
-      <c r="N108" s="55"/>
+      <c r="M108" s="56"/>
+      <c r="N108" s="56"/>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
-      <c r="S108" s="62"/>
+      <c r="S108" s="63"/>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
@@ -9563,13 +9540,13 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
-      <c r="M109" s="55"/>
-      <c r="N109" s="55"/>
+      <c r="M109" s="56"/>
+      <c r="N109" s="56"/>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
-      <c r="S109" s="62"/>
+      <c r="S109" s="63"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
       <c r="V109" s="6"/>
@@ -9588,13 +9565,13 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
-      <c r="M110" s="55"/>
-      <c r="N110" s="55"/>
+      <c r="M110" s="56"/>
+      <c r="N110" s="56"/>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
-      <c r="S110" s="62"/>
+      <c r="S110" s="63"/>
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
@@ -9613,13 +9590,13 @@
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
-      <c r="M111" s="55"/>
-      <c r="N111" s="55"/>
+      <c r="M111" s="56"/>
+      <c r="N111" s="56"/>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
-      <c r="S111" s="62"/>
+      <c r="S111" s="63"/>
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
       <c r="V111" s="6"/>
@@ -9638,13 +9615,13 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
-      <c r="M112" s="55"/>
-      <c r="N112" s="55"/>
+      <c r="M112" s="56"/>
+      <c r="N112" s="56"/>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
-      <c r="S112" s="62"/>
+      <c r="S112" s="63"/>
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
@@ -9663,13 +9640,13 @@
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
-      <c r="M113" s="55"/>
-      <c r="N113" s="55"/>
+      <c r="M113" s="56"/>
+      <c r="N113" s="56"/>
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
-      <c r="S113" s="62"/>
+      <c r="S113" s="63"/>
       <c r="T113" s="6"/>
       <c r="U113" s="6"/>
       <c r="V113" s="6"/>
@@ -9688,13 +9665,13 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
-      <c r="M114" s="55"/>
-      <c r="N114" s="55"/>
+      <c r="M114" s="56"/>
+      <c r="N114" s="56"/>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
-      <c r="S114" s="62"/>
+      <c r="S114" s="63"/>
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
@@ -9713,13 +9690,13 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
-      <c r="M115" s="55"/>
-      <c r="N115" s="55"/>
+      <c r="M115" s="56"/>
+      <c r="N115" s="56"/>
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
-      <c r="S115" s="62"/>
+      <c r="S115" s="63"/>
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
@@ -9738,13 +9715,13 @@
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
-      <c r="M116" s="55"/>
-      <c r="N116" s="55"/>
+      <c r="M116" s="56"/>
+      <c r="N116" s="56"/>
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
-      <c r="S116" s="62"/>
+      <c r="S116" s="63"/>
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
@@ -9763,13 +9740,13 @@
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
-      <c r="M117" s="55"/>
-      <c r="N117" s="55"/>
+      <c r="M117" s="56"/>
+      <c r="N117" s="56"/>
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
-      <c r="S117" s="62"/>
+      <c r="S117" s="63"/>
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
@@ -9788,13 +9765,13 @@
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
-      <c r="M118" s="55"/>
-      <c r="N118" s="55"/>
+      <c r="M118" s="56"/>
+      <c r="N118" s="56"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
-      <c r="S118" s="62"/>
+      <c r="S118" s="63"/>
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
       <c r="V118" s="6"/>
@@ -9813,13 +9790,13 @@
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
-      <c r="M119" s="55"/>
-      <c r="N119" s="55"/>
+      <c r="M119" s="56"/>
+      <c r="N119" s="56"/>
       <c r="O119" s="6"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
-      <c r="S119" s="62"/>
+      <c r="S119" s="63"/>
       <c r="T119" s="6"/>
       <c r="U119" s="6"/>
       <c r="V119" s="6"/>
@@ -9838,13 +9815,13 @@
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
-      <c r="M120" s="55"/>
-      <c r="N120" s="55"/>
+      <c r="M120" s="56"/>
+      <c r="N120" s="56"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
-      <c r="S120" s="62"/>
+      <c r="S120" s="63"/>
       <c r="T120" s="6"/>
       <c r="U120" s="6"/>
       <c r="V120" s="6"/>
@@ -9863,13 +9840,13 @@
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
-      <c r="M121" s="55"/>
-      <c r="N121" s="55"/>
+      <c r="M121" s="56"/>
+      <c r="N121" s="56"/>
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
-      <c r="S121" s="62"/>
+      <c r="S121" s="63"/>
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
       <c r="V121" s="6"/>
@@ -9888,13 +9865,13 @@
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
-      <c r="M122" s="55"/>
-      <c r="N122" s="55"/>
+      <c r="M122" s="56"/>
+      <c r="N122" s="56"/>
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
-      <c r="S122" s="62"/>
+      <c r="S122" s="63"/>
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
@@ -9913,13 +9890,13 @@
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
-      <c r="M123" s="55"/>
-      <c r="N123" s="55"/>
+      <c r="M123" s="56"/>
+      <c r="N123" s="56"/>
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
-      <c r="S123" s="62"/>
+      <c r="S123" s="63"/>
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
       <c r="V123" s="6"/>
@@ -9938,13 +9915,13 @@
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
-      <c r="M124" s="55"/>
-      <c r="N124" s="55"/>
+      <c r="M124" s="56"/>
+      <c r="N124" s="56"/>
       <c r="O124" s="6"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
-      <c r="S124" s="62"/>
+      <c r="S124" s="63"/>
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="6"/>
@@ -9963,13 +9940,13 @@
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
-      <c r="M125" s="55"/>
-      <c r="N125" s="55"/>
+      <c r="M125" s="56"/>
+      <c r="N125" s="56"/>
       <c r="O125" s="6"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
-      <c r="S125" s="62"/>
+      <c r="S125" s="63"/>
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
       <c r="V125" s="6"/>
@@ -9988,13 +9965,13 @@
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
-      <c r="M126" s="55"/>
-      <c r="N126" s="55"/>
+      <c r="M126" s="56"/>
+      <c r="N126" s="56"/>
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
-      <c r="S126" s="62"/>
+      <c r="S126" s="63"/>
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
       <c r="V126" s="6"/>
@@ -10013,13 +9990,13 @@
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
-      <c r="M127" s="55"/>
-      <c r="N127" s="55"/>
+      <c r="M127" s="56"/>
+      <c r="N127" s="56"/>
       <c r="O127" s="6"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
-      <c r="S127" s="62"/>
+      <c r="S127" s="63"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
       <c r="V127" s="6"/>
@@ -10038,13 +10015,13 @@
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
-      <c r="M128" s="55"/>
-      <c r="N128" s="55"/>
+      <c r="M128" s="56"/>
+      <c r="N128" s="56"/>
       <c r="O128" s="6"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
-      <c r="S128" s="62"/>
+      <c r="S128" s="63"/>
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
       <c r="V128" s="6"/>
@@ -10063,13 +10040,13 @@
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
-      <c r="M129" s="55"/>
-      <c r="N129" s="55"/>
+      <c r="M129" s="56"/>
+      <c r="N129" s="56"/>
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
-      <c r="S129" s="62"/>
+      <c r="S129" s="63"/>
       <c r="T129" s="6"/>
       <c r="U129" s="6"/>
       <c r="V129" s="6"/>
@@ -10088,13 +10065,13 @@
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
-      <c r="M130" s="55"/>
-      <c r="N130" s="55"/>
+      <c r="M130" s="56"/>
+      <c r="N130" s="56"/>
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
-      <c r="S130" s="62"/>
+      <c r="S130" s="63"/>
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="6"/>
@@ -10113,13 +10090,13 @@
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
-      <c r="M131" s="55"/>
-      <c r="N131" s="55"/>
+      <c r="M131" s="56"/>
+      <c r="N131" s="56"/>
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
-      <c r="S131" s="62"/>
+      <c r="S131" s="63"/>
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
       <c r="V131" s="6"/>
@@ -10138,13 +10115,13 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
-      <c r="M132" s="55"/>
-      <c r="N132" s="55"/>
+      <c r="M132" s="56"/>
+      <c r="N132" s="56"/>
       <c r="O132" s="6"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
-      <c r="S132" s="62"/>
+      <c r="S132" s="63"/>
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
       <c r="V132" s="6"/>
@@ -10163,13 +10140,13 @@
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
-      <c r="M133" s="55"/>
-      <c r="N133" s="55"/>
+      <c r="M133" s="56"/>
+      <c r="N133" s="56"/>
       <c r="O133" s="6"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
-      <c r="S133" s="62"/>
+      <c r="S133" s="63"/>
       <c r="T133" s="6"/>
       <c r="U133" s="6"/>
       <c r="V133" s="6"/>
@@ -10188,13 +10165,13 @@
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
-      <c r="M134" s="55"/>
-      <c r="N134" s="55"/>
+      <c r="M134" s="56"/>
+      <c r="N134" s="56"/>
       <c r="O134" s="6"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
-      <c r="S134" s="62"/>
+      <c r="S134" s="63"/>
       <c r="T134" s="6"/>
       <c r="U134" s="6"/>
       <c r="V134" s="6"/>
@@ -10213,13 +10190,13 @@
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
-      <c r="M135" s="55"/>
-      <c r="N135" s="55"/>
+      <c r="M135" s="56"/>
+      <c r="N135" s="56"/>
       <c r="O135" s="6"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
       <c r="R135" s="6"/>
-      <c r="S135" s="62"/>
+      <c r="S135" s="63"/>
       <c r="T135" s="6"/>
       <c r="U135" s="6"/>
       <c r="V135" s="6"/>
@@ -10238,13 +10215,13 @@
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
-      <c r="M136" s="55"/>
-      <c r="N136" s="55"/>
+      <c r="M136" s="56"/>
+      <c r="N136" s="56"/>
       <c r="O136" s="6"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
       <c r="R136" s="6"/>
-      <c r="S136" s="62"/>
+      <c r="S136" s="63"/>
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
       <c r="V136" s="6"/>
@@ -10263,13 +10240,13 @@
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
-      <c r="M137" s="55"/>
-      <c r="N137" s="55"/>
+      <c r="M137" s="56"/>
+      <c r="N137" s="56"/>
       <c r="O137" s="6"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
       <c r="R137" s="6"/>
-      <c r="S137" s="62"/>
+      <c r="S137" s="63"/>
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="6"/>
@@ -10288,13 +10265,13 @@
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
-      <c r="M138" s="55"/>
-      <c r="N138" s="55"/>
+      <c r="M138" s="56"/>
+      <c r="N138" s="56"/>
       <c r="O138" s="6"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
       <c r="R138" s="6"/>
-      <c r="S138" s="62"/>
+      <c r="S138" s="63"/>
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
       <c r="V138" s="6"/>
@@ -10313,13 +10290,13 @@
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
-      <c r="M139" s="55"/>
-      <c r="N139" s="55"/>
+      <c r="M139" s="56"/>
+      <c r="N139" s="56"/>
       <c r="O139" s="6"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
       <c r="R139" s="6"/>
-      <c r="S139" s="62"/>
+      <c r="S139" s="63"/>
       <c r="T139" s="6"/>
       <c r="U139" s="6"/>
       <c r="V139" s="6"/>
@@ -10338,13 +10315,13 @@
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
-      <c r="M140" s="55"/>
-      <c r="N140" s="55"/>
+      <c r="M140" s="56"/>
+      <c r="N140" s="56"/>
       <c r="O140" s="6"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
       <c r="R140" s="6"/>
-      <c r="S140" s="62"/>
+      <c r="S140" s="63"/>
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
       <c r="V140" s="6"/>
@@ -10363,13 +10340,13 @@
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
-      <c r="M141" s="55"/>
-      <c r="N141" s="55"/>
+      <c r="M141" s="56"/>
+      <c r="N141" s="56"/>
       <c r="O141" s="6"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
       <c r="R141" s="6"/>
-      <c r="S141" s="62"/>
+      <c r="S141" s="63"/>
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
       <c r="V141" s="6"/>
@@ -10388,13 +10365,13 @@
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
-      <c r="M142" s="55"/>
-      <c r="N142" s="55"/>
+      <c r="M142" s="56"/>
+      <c r="N142" s="56"/>
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
       <c r="R142" s="6"/>
-      <c r="S142" s="62"/>
+      <c r="S142" s="63"/>
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
       <c r="V142" s="6"/>
@@ -10413,13 +10390,13 @@
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
-      <c r="M143" s="55"/>
-      <c r="N143" s="55"/>
+      <c r="M143" s="56"/>
+      <c r="N143" s="56"/>
       <c r="O143" s="6"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
       <c r="R143" s="6"/>
-      <c r="S143" s="62"/>
+      <c r="S143" s="63"/>
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
@@ -10438,13 +10415,13 @@
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
-      <c r="M144" s="55"/>
-      <c r="N144" s="55"/>
+      <c r="M144" s="56"/>
+      <c r="N144" s="56"/>
       <c r="O144" s="6"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
       <c r="R144" s="6"/>
-      <c r="S144" s="62"/>
+      <c r="S144" s="63"/>
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="6"/>
@@ -10463,13 +10440,13 @@
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
-      <c r="M145" s="55"/>
-      <c r="N145" s="55"/>
+      <c r="M145" s="56"/>
+      <c r="N145" s="56"/>
       <c r="O145" s="6"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
       <c r="R145" s="6"/>
-      <c r="S145" s="62"/>
+      <c r="S145" s="63"/>
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
       <c r="V145" s="6"/>
@@ -10488,13 +10465,13 @@
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
-      <c r="M146" s="55"/>
-      <c r="N146" s="55"/>
+      <c r="M146" s="56"/>
+      <c r="N146" s="56"/>
       <c r="O146" s="6"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
       <c r="R146" s="6"/>
-      <c r="S146" s="62"/>
+      <c r="S146" s="63"/>
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
       <c r="V146" s="6"/>
@@ -10513,13 +10490,13 @@
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
-      <c r="M147" s="55"/>
-      <c r="N147" s="55"/>
+      <c r="M147" s="56"/>
+      <c r="N147" s="56"/>
       <c r="O147" s="6"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
       <c r="R147" s="6"/>
-      <c r="S147" s="62"/>
+      <c r="S147" s="63"/>
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
@@ -10538,13 +10515,13 @@
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
-      <c r="M148" s="55"/>
-      <c r="N148" s="55"/>
+      <c r="M148" s="56"/>
+      <c r="N148" s="56"/>
       <c r="O148" s="6"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
       <c r="R148" s="6"/>
-      <c r="S148" s="62"/>
+      <c r="S148" s="63"/>
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
@@ -10563,13 +10540,13 @@
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
-      <c r="M149" s="55"/>
-      <c r="N149" s="55"/>
+      <c r="M149" s="56"/>
+      <c r="N149" s="56"/>
       <c r="O149" s="6"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
       <c r="R149" s="6"/>
-      <c r="S149" s="62"/>
+      <c r="S149" s="63"/>
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
@@ -10588,13 +10565,13 @@
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
-      <c r="M150" s="55"/>
-      <c r="N150" s="55"/>
+      <c r="M150" s="56"/>
+      <c r="N150" s="56"/>
       <c r="O150" s="6"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
       <c r="R150" s="6"/>
-      <c r="S150" s="62"/>
+      <c r="S150" s="63"/>
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6"/>
@@ -10613,13 +10590,13 @@
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
-      <c r="M151" s="55"/>
-      <c r="N151" s="55"/>
+      <c r="M151" s="56"/>
+      <c r="N151" s="56"/>
       <c r="O151" s="6"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
       <c r="R151" s="6"/>
-      <c r="S151" s="62"/>
+      <c r="S151" s="63"/>
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
       <c r="V151" s="6"/>
@@ -10638,13 +10615,13 @@
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
-      <c r="M152" s="55"/>
-      <c r="N152" s="55"/>
+      <c r="M152" s="56"/>
+      <c r="N152" s="56"/>
       <c r="O152" s="6"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
       <c r="R152" s="6"/>
-      <c r="S152" s="62"/>
+      <c r="S152" s="63"/>
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
       <c r="V152" s="6"/>
@@ -10663,13 +10640,13 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
-      <c r="M153" s="55"/>
-      <c r="N153" s="55"/>
+      <c r="M153" s="56"/>
+      <c r="N153" s="56"/>
       <c r="O153" s="6"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
       <c r="R153" s="6"/>
-      <c r="S153" s="62"/>
+      <c r="S153" s="63"/>
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
@@ -10688,13 +10665,13 @@
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
-      <c r="M154" s="55"/>
-      <c r="N154" s="55"/>
+      <c r="M154" s="56"/>
+      <c r="N154" s="56"/>
       <c r="O154" s="6"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
       <c r="R154" s="6"/>
-      <c r="S154" s="62"/>
+      <c r="S154" s="63"/>
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
@@ -10713,13 +10690,13 @@
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
-      <c r="M155" s="55"/>
-      <c r="N155" s="55"/>
+      <c r="M155" s="56"/>
+      <c r="N155" s="56"/>
       <c r="O155" s="6"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
-      <c r="S155" s="62"/>
+      <c r="S155" s="63"/>
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
@@ -10738,13 +10715,13 @@
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
-      <c r="M156" s="55"/>
-      <c r="N156" s="55"/>
+      <c r="M156" s="56"/>
+      <c r="N156" s="56"/>
       <c r="O156" s="6"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
       <c r="R156" s="6"/>
-      <c r="S156" s="62"/>
+      <c r="S156" s="63"/>
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
       <c r="V156" s="6"/>
@@ -10763,13 +10740,13 @@
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
-      <c r="M157" s="55"/>
-      <c r="N157" s="55"/>
+      <c r="M157" s="56"/>
+      <c r="N157" s="56"/>
       <c r="O157" s="6"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
-      <c r="S157" s="62"/>
+      <c r="S157" s="63"/>
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
       <c r="V157" s="6"/>
@@ -10788,13 +10765,13 @@
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
-      <c r="M158" s="55"/>
-      <c r="N158" s="55"/>
+      <c r="M158" s="56"/>
+      <c r="N158" s="56"/>
       <c r="O158" s="6"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
       <c r="R158" s="6"/>
-      <c r="S158" s="62"/>
+      <c r="S158" s="63"/>
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="6"/>
@@ -10813,13 +10790,13 @@
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
-      <c r="M159" s="55"/>
-      <c r="N159" s="55"/>
+      <c r="M159" s="56"/>
+      <c r="N159" s="56"/>
       <c r="O159" s="6"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
-      <c r="S159" s="62"/>
+      <c r="S159" s="63"/>
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
       <c r="V159" s="6"/>
@@ -10838,13 +10815,13 @@
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
-      <c r="M160" s="55"/>
-      <c r="N160" s="55"/>
+      <c r="M160" s="56"/>
+      <c r="N160" s="56"/>
       <c r="O160" s="6"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
       <c r="R160" s="6"/>
-      <c r="S160" s="62"/>
+      <c r="S160" s="63"/>
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
       <c r="V160" s="6"/>
@@ -10863,13 +10840,13 @@
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
-      <c r="M161" s="55"/>
-      <c r="N161" s="55"/>
+      <c r="M161" s="56"/>
+      <c r="N161" s="56"/>
       <c r="O161" s="6"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
       <c r="R161" s="6"/>
-      <c r="S161" s="62"/>
+      <c r="S161" s="63"/>
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
       <c r="V161" s="6"/>
@@ -10888,13 +10865,13 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
-      <c r="M162" s="55"/>
-      <c r="N162" s="55"/>
+      <c r="M162" s="56"/>
+      <c r="N162" s="56"/>
       <c r="O162" s="6"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
       <c r="R162" s="6"/>
-      <c r="S162" s="62"/>
+      <c r="S162" s="63"/>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
@@ -10913,13 +10890,13 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
-      <c r="M163" s="55"/>
-      <c r="N163" s="55"/>
+      <c r="M163" s="56"/>
+      <c r="N163" s="56"/>
       <c r="O163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
       <c r="R163" s="6"/>
-      <c r="S163" s="62"/>
+      <c r="S163" s="63"/>
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
@@ -10938,13 +10915,13 @@
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
-      <c r="M164" s="55"/>
-      <c r="N164" s="55"/>
+      <c r="M164" s="56"/>
+      <c r="N164" s="56"/>
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
       <c r="R164" s="6"/>
-      <c r="S164" s="62"/>
+      <c r="S164" s="63"/>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
@@ -10963,13 +10940,13 @@
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
-      <c r="M165" s="55"/>
-      <c r="N165" s="55"/>
+      <c r="M165" s="56"/>
+      <c r="N165" s="56"/>
       <c r="O165" s="6"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
-      <c r="S165" s="62"/>
+      <c r="S165" s="63"/>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
       <c r="V165" s="6"/>
@@ -10988,13 +10965,13 @@
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
-      <c r="M166" s="55"/>
-      <c r="N166" s="55"/>
+      <c r="M166" s="56"/>
+      <c r="N166" s="56"/>
       <c r="O166" s="6"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
       <c r="R166" s="6"/>
-      <c r="S166" s="62"/>
+      <c r="S166" s="63"/>
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
       <c r="V166" s="6"/>
@@ -11013,13 +10990,13 @@
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
-      <c r="M167" s="55"/>
-      <c r="N167" s="55"/>
+      <c r="M167" s="56"/>
+      <c r="N167" s="56"/>
       <c r="O167" s="6"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
       <c r="R167" s="6"/>
-      <c r="S167" s="62"/>
+      <c r="S167" s="63"/>
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
       <c r="V167" s="6"/>
@@ -11038,13 +11015,13 @@
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
-      <c r="M168" s="55"/>
-      <c r="N168" s="55"/>
+      <c r="M168" s="56"/>
+      <c r="N168" s="56"/>
       <c r="O168" s="6"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
       <c r="R168" s="6"/>
-      <c r="S168" s="62"/>
+      <c r="S168" s="63"/>
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
       <c r="V168" s="6"/>
@@ -11063,13 +11040,13 @@
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
-      <c r="M169" s="55"/>
-      <c r="N169" s="55"/>
+      <c r="M169" s="56"/>
+      <c r="N169" s="56"/>
       <c r="O169" s="6"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
       <c r="R169" s="6"/>
-      <c r="S169" s="62"/>
+      <c r="S169" s="63"/>
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
       <c r="V169" s="6"/>
@@ -11088,13 +11065,13 @@
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
-      <c r="M170" s="55"/>
-      <c r="N170" s="55"/>
+      <c r="M170" s="56"/>
+      <c r="N170" s="56"/>
       <c r="O170" s="6"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
       <c r="R170" s="6"/>
-      <c r="S170" s="62"/>
+      <c r="S170" s="63"/>
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
       <c r="V170" s="6"/>
@@ -11113,13 +11090,13 @@
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
-      <c r="M171" s="55"/>
-      <c r="N171" s="55"/>
+      <c r="M171" s="56"/>
+      <c r="N171" s="56"/>
       <c r="O171" s="6"/>
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
       <c r="R171" s="6"/>
-      <c r="S171" s="62"/>
+      <c r="S171" s="63"/>
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="6"/>
@@ -11138,13 +11115,13 @@
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
-      <c r="M172" s="55"/>
-      <c r="N172" s="55"/>
+      <c r="M172" s="56"/>
+      <c r="N172" s="56"/>
       <c r="O172" s="6"/>
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
       <c r="R172" s="6"/>
-      <c r="S172" s="62"/>
+      <c r="S172" s="63"/>
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
       <c r="V172" s="6"/>
@@ -11163,13 +11140,13 @@
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
-      <c r="M173" s="55"/>
-      <c r="N173" s="55"/>
+      <c r="M173" s="56"/>
+      <c r="N173" s="56"/>
       <c r="O173" s="6"/>
       <c r="P173" s="6"/>
       <c r="Q173" s="6"/>
       <c r="R173" s="6"/>
-      <c r="S173" s="62"/>
+      <c r="S173" s="63"/>
       <c r="T173" s="6"/>
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
@@ -11188,13 +11165,13 @@
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
-      <c r="M174" s="55"/>
-      <c r="N174" s="55"/>
+      <c r="M174" s="56"/>
+      <c r="N174" s="56"/>
       <c r="O174" s="6"/>
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
       <c r="R174" s="6"/>
-      <c r="S174" s="62"/>
+      <c r="S174" s="63"/>
       <c r="T174" s="6"/>
       <c r="U174" s="6"/>
       <c r="V174" s="6"/>
@@ -11213,13 +11190,13 @@
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
-      <c r="M175" s="55"/>
-      <c r="N175" s="55"/>
+      <c r="M175" s="56"/>
+      <c r="N175" s="56"/>
       <c r="O175" s="6"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
       <c r="R175" s="6"/>
-      <c r="S175" s="62"/>
+      <c r="S175" s="63"/>
       <c r="T175" s="6"/>
       <c r="U175" s="6"/>
       <c r="V175" s="6"/>
@@ -11238,13 +11215,13 @@
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
-      <c r="M176" s="55"/>
-      <c r="N176" s="55"/>
+      <c r="M176" s="56"/>
+      <c r="N176" s="56"/>
       <c r="O176" s="6"/>
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
       <c r="R176" s="6"/>
-      <c r="S176" s="62"/>
+      <c r="S176" s="63"/>
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
       <c r="V176" s="6"/>
@@ -11263,13 +11240,13 @@
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
-      <c r="M177" s="55"/>
-      <c r="N177" s="55"/>
+      <c r="M177" s="56"/>
+      <c r="N177" s="56"/>
       <c r="O177" s="6"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
       <c r="R177" s="6"/>
-      <c r="S177" s="62"/>
+      <c r="S177" s="63"/>
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
       <c r="V177" s="6"/>
@@ -11288,13 +11265,13 @@
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
-      <c r="M178" s="55"/>
-      <c r="N178" s="55"/>
+      <c r="M178" s="56"/>
+      <c r="N178" s="56"/>
       <c r="O178" s="6"/>
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
       <c r="R178" s="6"/>
-      <c r="S178" s="62"/>
+      <c r="S178" s="63"/>
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
@@ -11313,13 +11290,13 @@
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
-      <c r="M179" s="55"/>
-      <c r="N179" s="55"/>
+      <c r="M179" s="56"/>
+      <c r="N179" s="56"/>
       <c r="O179" s="6"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
       <c r="R179" s="6"/>
-      <c r="S179" s="62"/>
+      <c r="S179" s="63"/>
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
       <c r="V179" s="6"/>
@@ -11338,13 +11315,13 @@
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
-      <c r="M180" s="55"/>
-      <c r="N180" s="55"/>
+      <c r="M180" s="56"/>
+      <c r="N180" s="56"/>
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
       <c r="R180" s="6"/>
-      <c r="S180" s="62"/>
+      <c r="S180" s="63"/>
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
       <c r="V180" s="6"/>
@@ -11363,13 +11340,13 @@
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
-      <c r="M181" s="55"/>
-      <c r="N181" s="55"/>
+      <c r="M181" s="56"/>
+      <c r="N181" s="56"/>
       <c r="O181" s="6"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
       <c r="R181" s="6"/>
-      <c r="S181" s="62"/>
+      <c r="S181" s="63"/>
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
       <c r="V181" s="6"/>
@@ -11388,13 +11365,13 @@
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
-      <c r="M182" s="55"/>
-      <c r="N182" s="55"/>
+      <c r="M182" s="56"/>
+      <c r="N182" s="56"/>
       <c r="O182" s="6"/>
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
-      <c r="S182" s="62"/>
+      <c r="S182" s="63"/>
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
       <c r="V182" s="6"/>
@@ -11413,13 +11390,13 @@
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
-      <c r="M183" s="55"/>
-      <c r="N183" s="55"/>
+      <c r="M183" s="56"/>
+      <c r="N183" s="56"/>
       <c r="O183" s="6"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
       <c r="R183" s="6"/>
-      <c r="S183" s="62"/>
+      <c r="S183" s="63"/>
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
       <c r="V183" s="6"/>
@@ -11438,13 +11415,13 @@
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
-      <c r="M184" s="55"/>
-      <c r="N184" s="55"/>
+      <c r="M184" s="56"/>
+      <c r="N184" s="56"/>
       <c r="O184" s="6"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
       <c r="R184" s="6"/>
-      <c r="S184" s="62"/>
+      <c r="S184" s="63"/>
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
       <c r="V184" s="6"/>
@@ -11463,13 +11440,13 @@
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
-      <c r="M185" s="55"/>
-      <c r="N185" s="55"/>
+      <c r="M185" s="56"/>
+      <c r="N185" s="56"/>
       <c r="O185" s="6"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
       <c r="R185" s="6"/>
-      <c r="S185" s="62"/>
+      <c r="S185" s="63"/>
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
@@ -11488,13 +11465,13 @@
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
-      <c r="M186" s="55"/>
-      <c r="N186" s="55"/>
+      <c r="M186" s="56"/>
+      <c r="N186" s="56"/>
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
       <c r="R186" s="6"/>
-      <c r="S186" s="62"/>
+      <c r="S186" s="63"/>
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
       <c r="V186" s="6"/>
@@ -11513,13 +11490,13 @@
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
-      <c r="M187" s="55"/>
-      <c r="N187" s="55"/>
+      <c r="M187" s="56"/>
+      <c r="N187" s="56"/>
       <c r="O187" s="6"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
       <c r="R187" s="6"/>
-      <c r="S187" s="62"/>
+      <c r="S187" s="63"/>
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="6"/>
@@ -11538,13 +11515,13 @@
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
-      <c r="M188" s="55"/>
-      <c r="N188" s="55"/>
+      <c r="M188" s="56"/>
+      <c r="N188" s="56"/>
       <c r="O188" s="6"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
       <c r="R188" s="6"/>
-      <c r="S188" s="62"/>
+      <c r="S188" s="63"/>
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
       <c r="V188" s="6"/>
@@ -11563,13 +11540,13 @@
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
-      <c r="M189" s="55"/>
-      <c r="N189" s="55"/>
+      <c r="M189" s="56"/>
+      <c r="N189" s="56"/>
       <c r="O189" s="6"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
       <c r="R189" s="6"/>
-      <c r="S189" s="62"/>
+      <c r="S189" s="63"/>
       <c r="T189" s="6"/>
       <c r="U189" s="6"/>
       <c r="V189" s="6"/>
@@ -11588,13 +11565,13 @@
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
-      <c r="M190" s="55"/>
-      <c r="N190" s="55"/>
+      <c r="M190" s="56"/>
+      <c r="N190" s="56"/>
       <c r="O190" s="6"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
       <c r="R190" s="6"/>
-      <c r="S190" s="62"/>
+      <c r="S190" s="63"/>
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="6"/>
@@ -11613,13 +11590,13 @@
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
-      <c r="M191" s="55"/>
-      <c r="N191" s="55"/>
+      <c r="M191" s="56"/>
+      <c r="N191" s="56"/>
       <c r="O191" s="6"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
       <c r="R191" s="6"/>
-      <c r="S191" s="62"/>
+      <c r="S191" s="63"/>
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>
       <c r="V191" s="6"/>
@@ -11638,13 +11615,13 @@
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
-      <c r="M192" s="55"/>
-      <c r="N192" s="55"/>
+      <c r="M192" s="56"/>
+      <c r="N192" s="56"/>
       <c r="O192" s="6"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
       <c r="R192" s="6"/>
-      <c r="S192" s="62"/>
+      <c r="S192" s="63"/>
       <c r="T192" s="6"/>
       <c r="U192" s="6"/>
       <c r="V192" s="6"/>
@@ -11663,13 +11640,13 @@
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
-      <c r="M193" s="55"/>
-      <c r="N193" s="55"/>
+      <c r="M193" s="56"/>
+      <c r="N193" s="56"/>
       <c r="O193" s="6"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
       <c r="R193" s="6"/>
-      <c r="S193" s="62"/>
+      <c r="S193" s="63"/>
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
       <c r="V193" s="6"/>
@@ -11688,13 +11665,13 @@
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
-      <c r="M194" s="55"/>
-      <c r="N194" s="55"/>
+      <c r="M194" s="56"/>
+      <c r="N194" s="56"/>
       <c r="O194" s="6"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
       <c r="R194" s="6"/>
-      <c r="S194" s="62"/>
+      <c r="S194" s="63"/>
       <c r="T194" s="6"/>
       <c r="U194" s="6"/>
       <c r="V194" s="6"/>
@@ -11713,13 +11690,13 @@
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
-      <c r="M195" s="55"/>
-      <c r="N195" s="55"/>
+      <c r="M195" s="56"/>
+      <c r="N195" s="56"/>
       <c r="O195" s="6"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
       <c r="R195" s="6"/>
-      <c r="S195" s="62"/>
+      <c r="S195" s="63"/>
       <c r="T195" s="6"/>
       <c r="U195" s="6"/>
       <c r="V195" s="6"/>
@@ -11738,13 +11715,13 @@
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
-      <c r="M196" s="55"/>
-      <c r="N196" s="55"/>
+      <c r="M196" s="56"/>
+      <c r="N196" s="56"/>
       <c r="O196" s="6"/>
       <c r="P196" s="6"/>
       <c r="Q196" s="6"/>
       <c r="R196" s="6"/>
-      <c r="S196" s="62"/>
+      <c r="S196" s="63"/>
       <c r="T196" s="6"/>
       <c r="U196" s="6"/>
       <c r="V196" s="6"/>
@@ -11763,13 +11740,13 @@
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
-      <c r="M197" s="55"/>
-      <c r="N197" s="55"/>
+      <c r="M197" s="56"/>
+      <c r="N197" s="56"/>
       <c r="O197" s="6"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="6"/>
       <c r="R197" s="6"/>
-      <c r="S197" s="62"/>
+      <c r="S197" s="63"/>
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
       <c r="V197" s="6"/>
@@ -11788,13 +11765,13 @@
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
-      <c r="M198" s="55"/>
-      <c r="N198" s="55"/>
+      <c r="M198" s="56"/>
+      <c r="N198" s="56"/>
       <c r="O198" s="6"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="6"/>
       <c r="R198" s="6"/>
-      <c r="S198" s="62"/>
+      <c r="S198" s="63"/>
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
       <c r="V198" s="6"/>
@@ -11813,13 +11790,13 @@
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
-      <c r="M199" s="55"/>
-      <c r="N199" s="55"/>
+      <c r="M199" s="56"/>
+      <c r="N199" s="56"/>
       <c r="O199" s="6"/>
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
       <c r="R199" s="6"/>
-      <c r="S199" s="62"/>
+      <c r="S199" s="63"/>
       <c r="T199" s="6"/>
       <c r="U199" s="6"/>
       <c r="V199" s="6"/>
@@ -11838,13 +11815,13 @@
       <c r="J200" s="6"/>
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
-      <c r="M200" s="55"/>
-      <c r="N200" s="55"/>
+      <c r="M200" s="56"/>
+      <c r="N200" s="56"/>
       <c r="O200" s="6"/>
       <c r="P200" s="6"/>
       <c r="Q200" s="6"/>
       <c r="R200" s="6"/>
-      <c r="S200" s="62"/>
+      <c r="S200" s="63"/>
       <c r="T200" s="6"/>
       <c r="U200" s="6"/>
       <c r="V200" s="6"/>
@@ -11863,13 +11840,13 @@
       <c r="J201" s="6"/>
       <c r="K201" s="6"/>
       <c r="L201" s="6"/>
-      <c r="M201" s="55"/>
-      <c r="N201" s="55"/>
+      <c r="M201" s="56"/>
+      <c r="N201" s="56"/>
       <c r="O201" s="6"/>
       <c r="P201" s="6"/>
       <c r="Q201" s="6"/>
       <c r="R201" s="6"/>
-      <c r="S201" s="62"/>
+      <c r="S201" s="63"/>
       <c r="T201" s="6"/>
       <c r="U201" s="6"/>
       <c r="V201" s="6"/>
@@ -11888,13 +11865,13 @@
       <c r="J202" s="6"/>
       <c r="K202" s="6"/>
       <c r="L202" s="6"/>
-      <c r="M202" s="55"/>
-      <c r="N202" s="55"/>
+      <c r="M202" s="56"/>
+      <c r="N202" s="56"/>
       <c r="O202" s="6"/>
       <c r="P202" s="6"/>
       <c r="Q202" s="6"/>
       <c r="R202" s="6"/>
-      <c r="S202" s="62"/>
+      <c r="S202" s="63"/>
       <c r="T202" s="6"/>
       <c r="U202" s="6"/>
       <c r="V202" s="6"/>
@@ -11913,13 +11890,13 @@
       <c r="J203" s="6"/>
       <c r="K203" s="6"/>
       <c r="L203" s="6"/>
-      <c r="M203" s="55"/>
-      <c r="N203" s="55"/>
+      <c r="M203" s="56"/>
+      <c r="N203" s="56"/>
       <c r="O203" s="6"/>
       <c r="P203" s="6"/>
       <c r="Q203" s="6"/>
       <c r="R203" s="6"/>
-      <c r="S203" s="62"/>
+      <c r="S203" s="63"/>
       <c r="T203" s="6"/>
       <c r="U203" s="6"/>
       <c r="V203" s="6"/>
@@ -11938,13 +11915,13 @@
       <c r="J204" s="6"/>
       <c r="K204" s="6"/>
       <c r="L204" s="6"/>
-      <c r="M204" s="55"/>
-      <c r="N204" s="55"/>
+      <c r="M204" s="56"/>
+      <c r="N204" s="56"/>
       <c r="O204" s="6"/>
       <c r="P204" s="6"/>
       <c r="Q204" s="6"/>
       <c r="R204" s="6"/>
-      <c r="S204" s="62"/>
+      <c r="S204" s="63"/>
       <c r="T204" s="6"/>
       <c r="U204" s="6"/>
       <c r="V204" s="6"/>
@@ -11963,13 +11940,13 @@
       <c r="J205" s="6"/>
       <c r="K205" s="6"/>
       <c r="L205" s="6"/>
-      <c r="M205" s="55"/>
-      <c r="N205" s="55"/>
+      <c r="M205" s="56"/>
+      <c r="N205" s="56"/>
       <c r="O205" s="6"/>
       <c r="P205" s="6"/>
       <c r="Q205" s="6"/>
       <c r="R205" s="6"/>
-      <c r="S205" s="62"/>
+      <c r="S205" s="63"/>
       <c r="T205" s="6"/>
       <c r="U205" s="6"/>
       <c r="V205" s="6"/>
@@ -11988,13 +11965,13 @@
       <c r="J206" s="6"/>
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
-      <c r="M206" s="55"/>
-      <c r="N206" s="55"/>
+      <c r="M206" s="56"/>
+      <c r="N206" s="56"/>
       <c r="O206" s="6"/>
       <c r="P206" s="6"/>
       <c r="Q206" s="6"/>
       <c r="R206" s="6"/>
-      <c r="S206" s="62"/>
+      <c r="S206" s="63"/>
       <c r="T206" s="6"/>
       <c r="U206" s="6"/>
       <c r="V206" s="6"/>
@@ -12013,13 +11990,13 @@
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
       <c r="L207" s="6"/>
-      <c r="M207" s="55"/>
-      <c r="N207" s="55"/>
+      <c r="M207" s="56"/>
+      <c r="N207" s="56"/>
       <c r="O207" s="6"/>
       <c r="P207" s="6"/>
       <c r="Q207" s="6"/>
       <c r="R207" s="6"/>
-      <c r="S207" s="62"/>
+      <c r="S207" s="63"/>
       <c r="T207" s="6"/>
       <c r="U207" s="6"/>
       <c r="V207" s="6"/>
@@ -12038,13 +12015,13 @@
       <c r="J208" s="6"/>
       <c r="K208" s="6"/>
       <c r="L208" s="6"/>
-      <c r="M208" s="55"/>
-      <c r="N208" s="55"/>
+      <c r="M208" s="56"/>
+      <c r="N208" s="56"/>
       <c r="O208" s="6"/>
       <c r="P208" s="6"/>
       <c r="Q208" s="6"/>
       <c r="R208" s="6"/>
-      <c r="S208" s="62"/>
+      <c r="S208" s="63"/>
       <c r="T208" s="6"/>
       <c r="U208" s="6"/>
       <c r="V208" s="6"/>
@@ -12063,13 +12040,13 @@
       <c r="J209" s="6"/>
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
-      <c r="M209" s="55"/>
-      <c r="N209" s="55"/>
+      <c r="M209" s="56"/>
+      <c r="N209" s="56"/>
       <c r="O209" s="6"/>
       <c r="P209" s="6"/>
       <c r="Q209" s="6"/>
       <c r="R209" s="6"/>
-      <c r="S209" s="62"/>
+      <c r="S209" s="63"/>
       <c r="T209" s="6"/>
       <c r="U209" s="6"/>
       <c r="V209" s="6"/>
@@ -12088,13 +12065,13 @@
       <c r="J210" s="6"/>
       <c r="K210" s="6"/>
       <c r="L210" s="6"/>
-      <c r="M210" s="55"/>
-      <c r="N210" s="55"/>
+      <c r="M210" s="56"/>
+      <c r="N210" s="56"/>
       <c r="O210" s="6"/>
       <c r="P210" s="6"/>
       <c r="Q210" s="6"/>
       <c r="R210" s="6"/>
-      <c r="S210" s="62"/>
+      <c r="S210" s="63"/>
       <c r="T210" s="6"/>
       <c r="U210" s="6"/>
       <c r="V210" s="6"/>
@@ -12113,13 +12090,13 @@
       <c r="J211" s="6"/>
       <c r="K211" s="6"/>
       <c r="L211" s="6"/>
-      <c r="M211" s="55"/>
-      <c r="N211" s="55"/>
+      <c r="M211" s="56"/>
+      <c r="N211" s="56"/>
       <c r="O211" s="6"/>
       <c r="P211" s="6"/>
       <c r="Q211" s="6"/>
       <c r="R211" s="6"/>
-      <c r="S211" s="62"/>
+      <c r="S211" s="63"/>
       <c r="T211" s="6"/>
       <c r="U211" s="6"/>
       <c r="V211" s="6"/>
@@ -12138,13 +12115,13 @@
       <c r="J212" s="6"/>
       <c r="K212" s="6"/>
       <c r="L212" s="6"/>
-      <c r="M212" s="55"/>
-      <c r="N212" s="55"/>
+      <c r="M212" s="56"/>
+      <c r="N212" s="56"/>
       <c r="O212" s="6"/>
       <c r="P212" s="6"/>
       <c r="Q212" s="6"/>
       <c r="R212" s="6"/>
-      <c r="S212" s="62"/>
+      <c r="S212" s="63"/>
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
       <c r="V212" s="6"/>
@@ -12163,13 +12140,13 @@
       <c r="J213" s="6"/>
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
-      <c r="M213" s="55"/>
-      <c r="N213" s="55"/>
+      <c r="M213" s="56"/>
+      <c r="N213" s="56"/>
       <c r="O213" s="6"/>
       <c r="P213" s="6"/>
       <c r="Q213" s="6"/>
       <c r="R213" s="6"/>
-      <c r="S213" s="62"/>
+      <c r="S213" s="63"/>
       <c r="T213" s="6"/>
       <c r="U213" s="6"/>
       <c r="V213" s="6"/>
@@ -12188,13 +12165,13 @@
       <c r="J214" s="6"/>
       <c r="K214" s="6"/>
       <c r="L214" s="6"/>
-      <c r="M214" s="55"/>
-      <c r="N214" s="55"/>
+      <c r="M214" s="56"/>
+      <c r="N214" s="56"/>
       <c r="O214" s="6"/>
       <c r="P214" s="6"/>
       <c r="Q214" s="6"/>
       <c r="R214" s="6"/>
-      <c r="S214" s="62"/>
+      <c r="S214" s="63"/>
       <c r="T214" s="6"/>
       <c r="U214" s="6"/>
       <c r="V214" s="6"/>
@@ -12213,13 +12190,13 @@
       <c r="J215" s="6"/>
       <c r="K215" s="6"/>
       <c r="L215" s="6"/>
-      <c r="M215" s="55"/>
-      <c r="N215" s="55"/>
+      <c r="M215" s="56"/>
+      <c r="N215" s="56"/>
       <c r="O215" s="6"/>
       <c r="P215" s="6"/>
       <c r="Q215" s="6"/>
       <c r="R215" s="6"/>
-      <c r="S215" s="62"/>
+      <c r="S215" s="63"/>
       <c r="T215" s="6"/>
       <c r="U215" s="6"/>
       <c r="V215" s="6"/>
@@ -12238,13 +12215,13 @@
       <c r="J216" s="6"/>
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
-      <c r="M216" s="55"/>
-      <c r="N216" s="55"/>
+      <c r="M216" s="56"/>
+      <c r="N216" s="56"/>
       <c r="O216" s="6"/>
       <c r="P216" s="6"/>
       <c r="Q216" s="6"/>
       <c r="R216" s="6"/>
-      <c r="S216" s="62"/>
+      <c r="S216" s="63"/>
       <c r="T216" s="6"/>
       <c r="U216" s="6"/>
       <c r="V216" s="6"/>
@@ -12263,13 +12240,13 @@
       <c r="J217" s="6"/>
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
-      <c r="M217" s="55"/>
-      <c r="N217" s="55"/>
+      <c r="M217" s="56"/>
+      <c r="N217" s="56"/>
       <c r="O217" s="6"/>
       <c r="P217" s="6"/>
       <c r="Q217" s="6"/>
       <c r="R217" s="6"/>
-      <c r="S217" s="62"/>
+      <c r="S217" s="63"/>
       <c r="T217" s="6"/>
       <c r="U217" s="6"/>
       <c r="V217" s="6"/>
@@ -12288,13 +12265,13 @@
       <c r="J218" s="6"/>
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
-      <c r="M218" s="55"/>
-      <c r="N218" s="55"/>
+      <c r="M218" s="56"/>
+      <c r="N218" s="56"/>
       <c r="O218" s="6"/>
       <c r="P218" s="6"/>
       <c r="Q218" s="6"/>
       <c r="R218" s="6"/>
-      <c r="S218" s="62"/>
+      <c r="S218" s="63"/>
       <c r="T218" s="6"/>
       <c r="U218" s="6"/>
       <c r="V218" s="6"/>
@@ -12313,13 +12290,13 @@
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
-      <c r="M219" s="55"/>
-      <c r="N219" s="55"/>
+      <c r="M219" s="56"/>
+      <c r="N219" s="56"/>
       <c r="O219" s="6"/>
       <c r="P219" s="6"/>
       <c r="Q219" s="6"/>
       <c r="R219" s="6"/>
-      <c r="S219" s="62"/>
+      <c r="S219" s="63"/>
       <c r="T219" s="6"/>
       <c r="U219" s="6"/>
       <c r="V219" s="6"/>
@@ -12338,13 +12315,13 @@
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
-      <c r="M220" s="55"/>
-      <c r="N220" s="55"/>
+      <c r="M220" s="56"/>
+      <c r="N220" s="56"/>
       <c r="O220" s="6"/>
       <c r="P220" s="6"/>
       <c r="Q220" s="6"/>
       <c r="R220" s="6"/>
-      <c r="S220" s="62"/>
+      <c r="S220" s="63"/>
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
       <c r="V220" s="6"/>
@@ -12363,13 +12340,13 @@
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
-      <c r="M221" s="55"/>
-      <c r="N221" s="55"/>
+      <c r="M221" s="56"/>
+      <c r="N221" s="56"/>
       <c r="O221" s="6"/>
       <c r="P221" s="6"/>
       <c r="Q221" s="6"/>
       <c r="R221" s="6"/>
-      <c r="S221" s="62"/>
+      <c r="S221" s="63"/>
       <c r="T221" s="6"/>
       <c r="U221" s="6"/>
       <c r="V221" s="6"/>
@@ -12388,13 +12365,13 @@
       <c r="J222" s="6"/>
       <c r="K222" s="6"/>
       <c r="L222" s="6"/>
-      <c r="M222" s="55"/>
-      <c r="N222" s="55"/>
+      <c r="M222" s="56"/>
+      <c r="N222" s="56"/>
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
       <c r="Q222" s="6"/>
       <c r="R222" s="6"/>
-      <c r="S222" s="62"/>
+      <c r="S222" s="63"/>
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="6"/>
@@ -12413,13 +12390,13 @@
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
-      <c r="M223" s="55"/>
-      <c r="N223" s="55"/>
+      <c r="M223" s="56"/>
+      <c r="N223" s="56"/>
       <c r="O223" s="6"/>
       <c r="P223" s="6"/>
       <c r="Q223" s="6"/>
       <c r="R223" s="6"/>
-      <c r="S223" s="62"/>
+      <c r="S223" s="63"/>
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="6"/>
@@ -12438,13 +12415,13 @@
       <c r="J224" s="6"/>
       <c r="K224" s="6"/>
       <c r="L224" s="6"/>
-      <c r="M224" s="55"/>
-      <c r="N224" s="55"/>
+      <c r="M224" s="56"/>
+      <c r="N224" s="56"/>
       <c r="O224" s="6"/>
       <c r="P224" s="6"/>
       <c r="Q224" s="6"/>
       <c r="R224" s="6"/>
-      <c r="S224" s="62"/>
+      <c r="S224" s="63"/>
       <c r="T224" s="6"/>
       <c r="U224" s="6"/>
       <c r="V224" s="6"/>
@@ -12463,13 +12440,13 @@
       <c r="J225" s="6"/>
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
-      <c r="M225" s="55"/>
-      <c r="N225" s="55"/>
+      <c r="M225" s="56"/>
+      <c r="N225" s="56"/>
       <c r="O225" s="6"/>
       <c r="P225" s="6"/>
       <c r="Q225" s="6"/>
       <c r="R225" s="6"/>
-      <c r="S225" s="62"/>
+      <c r="S225" s="63"/>
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="6"/>
@@ -12488,13 +12465,13 @@
       <c r="J226" s="6"/>
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
-      <c r="M226" s="55"/>
-      <c r="N226" s="55"/>
+      <c r="M226" s="56"/>
+      <c r="N226" s="56"/>
       <c r="O226" s="6"/>
       <c r="P226" s="6"/>
       <c r="Q226" s="6"/>
       <c r="R226" s="6"/>
-      <c r="S226" s="62"/>
+      <c r="S226" s="63"/>
       <c r="T226" s="6"/>
       <c r="U226" s="6"/>
       <c r="V226" s="6"/>
@@ -12513,13 +12490,13 @@
       <c r="J227" s="6"/>
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
-      <c r="M227" s="55"/>
-      <c r="N227" s="55"/>
+      <c r="M227" s="56"/>
+      <c r="N227" s="56"/>
       <c r="O227" s="6"/>
       <c r="P227" s="6"/>
       <c r="Q227" s="6"/>
       <c r="R227" s="6"/>
-      <c r="S227" s="62"/>
+      <c r="S227" s="63"/>
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
       <c r="V227" s="6"/>
@@ -12538,13 +12515,13 @@
       <c r="J228" s="6"/>
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
-      <c r="M228" s="55"/>
-      <c r="N228" s="55"/>
+      <c r="M228" s="56"/>
+      <c r="N228" s="56"/>
       <c r="O228" s="6"/>
       <c r="P228" s="6"/>
       <c r="Q228" s="6"/>
       <c r="R228" s="6"/>
-      <c r="S228" s="62"/>
+      <c r="S228" s="63"/>
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
       <c r="V228" s="6"/>
@@ -12563,13 +12540,13 @@
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
-      <c r="M229" s="55"/>
-      <c r="N229" s="55"/>
+      <c r="M229" s="56"/>
+      <c r="N229" s="56"/>
       <c r="O229" s="6"/>
       <c r="P229" s="6"/>
       <c r="Q229" s="6"/>
       <c r="R229" s="6"/>
-      <c r="S229" s="62"/>
+      <c r="S229" s="63"/>
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
       <c r="V229" s="6"/>
@@ -12588,13 +12565,13 @@
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
-      <c r="M230" s="55"/>
-      <c r="N230" s="55"/>
+      <c r="M230" s="56"/>
+      <c r="N230" s="56"/>
       <c r="O230" s="6"/>
       <c r="P230" s="6"/>
       <c r="Q230" s="6"/>
       <c r="R230" s="6"/>
-      <c r="S230" s="62"/>
+      <c r="S230" s="63"/>
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
       <c r="V230" s="6"/>
@@ -12613,13 +12590,13 @@
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
-      <c r="M231" s="55"/>
-      <c r="N231" s="55"/>
+      <c r="M231" s="56"/>
+      <c r="N231" s="56"/>
       <c r="O231" s="6"/>
       <c r="P231" s="6"/>
       <c r="Q231" s="6"/>
       <c r="R231" s="6"/>
-      <c r="S231" s="62"/>
+      <c r="S231" s="63"/>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
       <c r="V231" s="6"/>
@@ -12638,13 +12615,13 @@
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
-      <c r="M232" s="55"/>
-      <c r="N232" s="55"/>
+      <c r="M232" s="56"/>
+      <c r="N232" s="56"/>
       <c r="O232" s="6"/>
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
       <c r="R232" s="6"/>
-      <c r="S232" s="62"/>
+      <c r="S232" s="63"/>
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
       <c r="V232" s="6"/>
@@ -12663,13 +12640,13 @@
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
-      <c r="M233" s="55"/>
-      <c r="N233" s="55"/>
+      <c r="M233" s="56"/>
+      <c r="N233" s="56"/>
       <c r="O233" s="6"/>
       <c r="P233" s="6"/>
       <c r="Q233" s="6"/>
       <c r="R233" s="6"/>
-      <c r="S233" s="62"/>
+      <c r="S233" s="63"/>
       <c r="T233" s="6"/>
       <c r="U233" s="6"/>
       <c r="V233" s="6"/>
@@ -12688,13 +12665,13 @@
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
       <c r="L234" s="6"/>
-      <c r="M234" s="55"/>
-      <c r="N234" s="55"/>
+      <c r="M234" s="56"/>
+      <c r="N234" s="56"/>
       <c r="O234" s="6"/>
       <c r="P234" s="6"/>
       <c r="Q234" s="6"/>
       <c r="R234" s="6"/>
-      <c r="S234" s="62"/>
+      <c r="S234" s="63"/>
       <c r="T234" s="6"/>
       <c r="U234" s="6"/>
       <c r="V234" s="6"/>
@@ -12713,13 +12690,13 @@
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
-      <c r="M235" s="55"/>
-      <c r="N235" s="55"/>
+      <c r="M235" s="56"/>
+      <c r="N235" s="56"/>
       <c r="O235" s="6"/>
       <c r="P235" s="6"/>
       <c r="Q235" s="6"/>
       <c r="R235" s="6"/>
-      <c r="S235" s="62"/>
+      <c r="S235" s="63"/>
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
       <c r="V235" s="6"/>
@@ -12738,13 +12715,13 @@
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
       <c r="L236" s="6"/>
-      <c r="M236" s="55"/>
-      <c r="N236" s="55"/>
+      <c r="M236" s="56"/>
+      <c r="N236" s="56"/>
       <c r="O236" s="6"/>
       <c r="P236" s="6"/>
       <c r="Q236" s="6"/>
       <c r="R236" s="6"/>
-      <c r="S236" s="62"/>
+      <c r="S236" s="63"/>
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
       <c r="V236" s="6"/>
@@ -12763,13 +12740,13 @@
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
-      <c r="M237" s="55"/>
-      <c r="N237" s="55"/>
+      <c r="M237" s="56"/>
+      <c r="N237" s="56"/>
       <c r="O237" s="6"/>
       <c r="P237" s="6"/>
       <c r="Q237" s="6"/>
       <c r="R237" s="6"/>
-      <c r="S237" s="62"/>
+      <c r="S237" s="63"/>
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
       <c r="V237" s="6"/>
@@ -12788,13 +12765,13 @@
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
-      <c r="M238" s="55"/>
-      <c r="N238" s="55"/>
+      <c r="M238" s="56"/>
+      <c r="N238" s="56"/>
       <c r="O238" s="6"/>
       <c r="P238" s="6"/>
       <c r="Q238" s="6"/>
       <c r="R238" s="6"/>
-      <c r="S238" s="62"/>
+      <c r="S238" s="63"/>
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
       <c r="V238" s="6"/>
@@ -12813,13 +12790,13 @@
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
-      <c r="M239" s="55"/>
-      <c r="N239" s="55"/>
+      <c r="M239" s="56"/>
+      <c r="N239" s="56"/>
       <c r="O239" s="6"/>
       <c r="P239" s="6"/>
       <c r="Q239" s="6"/>
       <c r="R239" s="6"/>
-      <c r="S239" s="62"/>
+      <c r="S239" s="63"/>
       <c r="T239" s="6"/>
       <c r="U239" s="6"/>
       <c r="V239" s="6"/>
@@ -12838,13 +12815,13 @@
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
-      <c r="M240" s="55"/>
-      <c r="N240" s="55"/>
+      <c r="M240" s="56"/>
+      <c r="N240" s="56"/>
       <c r="O240" s="6"/>
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
       <c r="R240" s="6"/>
-      <c r="S240" s="62"/>
+      <c r="S240" s="63"/>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
       <c r="V240" s="6"/>
@@ -12863,13 +12840,13 @@
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
-      <c r="M241" s="55"/>
-      <c r="N241" s="55"/>
+      <c r="M241" s="56"/>
+      <c r="N241" s="56"/>
       <c r="O241" s="6"/>
       <c r="P241" s="6"/>
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
-      <c r="S241" s="62"/>
+      <c r="S241" s="63"/>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
       <c r="V241" s="6"/>
@@ -12888,13 +12865,13 @@
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
-      <c r="M242" s="55"/>
-      <c r="N242" s="55"/>
+      <c r="M242" s="56"/>
+      <c r="N242" s="56"/>
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
-      <c r="S242" s="62"/>
+      <c r="S242" s="63"/>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
       <c r="V242" s="6"/>
@@ -12913,13 +12890,13 @@
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
-      <c r="M243" s="55"/>
-      <c r="N243" s="55"/>
+      <c r="M243" s="56"/>
+      <c r="N243" s="56"/>
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
-      <c r="S243" s="62"/>
+      <c r="S243" s="63"/>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
       <c r="V243" s="6"/>
@@ -12938,13 +12915,13 @@
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
-      <c r="M244" s="55"/>
-      <c r="N244" s="55"/>
+      <c r="M244" s="56"/>
+      <c r="N244" s="56"/>
       <c r="O244" s="6"/>
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
-      <c r="S244" s="62"/>
+      <c r="S244" s="63"/>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
       <c r="V244" s="6"/>
@@ -12963,13 +12940,13 @@
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
-      <c r="M245" s="55"/>
-      <c r="N245" s="55"/>
+      <c r="M245" s="56"/>
+      <c r="N245" s="56"/>
       <c r="O245" s="6"/>
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
-      <c r="S245" s="62"/>
+      <c r="S245" s="63"/>
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>
       <c r="V245" s="6"/>
@@ -12988,13 +12965,13 @@
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
-      <c r="M246" s="55"/>
-      <c r="N246" s="55"/>
+      <c r="M246" s="56"/>
+      <c r="N246" s="56"/>
       <c r="O246" s="6"/>
       <c r="P246" s="6"/>
       <c r="Q246" s="6"/>
       <c r="R246" s="6"/>
-      <c r="S246" s="62"/>
+      <c r="S246" s="63"/>
       <c r="T246" s="6"/>
       <c r="U246" s="6"/>
       <c r="V246" s="6"/>
@@ -13013,13 +12990,13 @@
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
-      <c r="M247" s="55"/>
-      <c r="N247" s="55"/>
+      <c r="M247" s="56"/>
+      <c r="N247" s="56"/>
       <c r="O247" s="6"/>
       <c r="P247" s="6"/>
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
-      <c r="S247" s="62"/>
+      <c r="S247" s="63"/>
       <c r="T247" s="6"/>
       <c r="U247" s="6"/>
       <c r="V247" s="6"/>
@@ -13038,13 +13015,13 @@
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
-      <c r="M248" s="55"/>
-      <c r="N248" s="55"/>
+      <c r="M248" s="56"/>
+      <c r="N248" s="56"/>
       <c r="O248" s="6"/>
       <c r="P248" s="6"/>
       <c r="Q248" s="6"/>
       <c r="R248" s="6"/>
-      <c r="S248" s="62"/>
+      <c r="S248" s="63"/>
       <c r="T248" s="6"/>
       <c r="U248" s="6"/>
       <c r="V248" s="6"/>
@@ -13063,13 +13040,13 @@
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
-      <c r="M249" s="55"/>
-      <c r="N249" s="55"/>
+      <c r="M249" s="56"/>
+      <c r="N249" s="56"/>
       <c r="O249" s="6"/>
       <c r="P249" s="6"/>
       <c r="Q249" s="6"/>
       <c r="R249" s="6"/>
-      <c r="S249" s="62"/>
+      <c r="S249" s="63"/>
       <c r="T249" s="6"/>
       <c r="U249" s="6"/>
       <c r="V249" s="6"/>
@@ -13088,13 +13065,13 @@
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
-      <c r="M250" s="55"/>
-      <c r="N250" s="55"/>
+      <c r="M250" s="56"/>
+      <c r="N250" s="56"/>
       <c r="O250" s="6"/>
       <c r="P250" s="6"/>
       <c r="Q250" s="6"/>
       <c r="R250" s="6"/>
-      <c r="S250" s="62"/>
+      <c r="S250" s="63"/>
       <c r="T250" s="6"/>
       <c r="U250" s="6"/>
       <c r="V250" s="6"/>
@@ -13113,13 +13090,13 @@
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
-      <c r="M251" s="55"/>
-      <c r="N251" s="55"/>
+      <c r="M251" s="56"/>
+      <c r="N251" s="56"/>
       <c r="O251" s="6"/>
       <c r="P251" s="6"/>
       <c r="Q251" s="6"/>
       <c r="R251" s="6"/>
-      <c r="S251" s="62"/>
+      <c r="S251" s="63"/>
       <c r="T251" s="6"/>
       <c r="U251" s="6"/>
       <c r="V251" s="6"/>
@@ -13138,13 +13115,13 @@
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
-      <c r="M252" s="55"/>
-      <c r="N252" s="55"/>
+      <c r="M252" s="56"/>
+      <c r="N252" s="56"/>
       <c r="O252" s="6"/>
       <c r="P252" s="6"/>
       <c r="Q252" s="6"/>
       <c r="R252" s="6"/>
-      <c r="S252" s="62"/>
+      <c r="S252" s="63"/>
       <c r="T252" s="6"/>
       <c r="U252" s="6"/>
       <c r="V252" s="6"/>
@@ -13163,13 +13140,13 @@
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
-      <c r="M253" s="55"/>
-      <c r="N253" s="55"/>
+      <c r="M253" s="56"/>
+      <c r="N253" s="56"/>
       <c r="O253" s="6"/>
       <c r="P253" s="6"/>
       <c r="Q253" s="6"/>
       <c r="R253" s="6"/>
-      <c r="S253" s="62"/>
+      <c r="S253" s="63"/>
       <c r="T253" s="6"/>
       <c r="U253" s="6"/>
       <c r="V253" s="6"/>
@@ -13188,13 +13165,13 @@
       <c r="J254" s="6"/>
       <c r="K254" s="6"/>
       <c r="L254" s="6"/>
-      <c r="M254" s="55"/>
-      <c r="N254" s="55"/>
+      <c r="M254" s="56"/>
+      <c r="N254" s="56"/>
       <c r="O254" s="6"/>
       <c r="P254" s="6"/>
       <c r="Q254" s="6"/>
       <c r="R254" s="6"/>
-      <c r="S254" s="62"/>
+      <c r="S254" s="63"/>
       <c r="T254" s="6"/>
       <c r="U254" s="6"/>
       <c r="V254" s="6"/>
@@ -13213,13 +13190,13 @@
       <c r="J255" s="6"/>
       <c r="K255" s="6"/>
       <c r="L255" s="6"/>
-      <c r="M255" s="55"/>
-      <c r="N255" s="55"/>
+      <c r="M255" s="56"/>
+      <c r="N255" s="56"/>
       <c r="O255" s="6"/>
       <c r="P255" s="6"/>
       <c r="Q255" s="6"/>
       <c r="R255" s="6"/>
-      <c r="S255" s="62"/>
+      <c r="S255" s="63"/>
       <c r="T255" s="6"/>
       <c r="U255" s="6"/>
       <c r="V255" s="6"/>
@@ -13238,13 +13215,13 @@
       <c r="J256" s="6"/>
       <c r="K256" s="6"/>
       <c r="L256" s="6"/>
-      <c r="M256" s="55"/>
-      <c r="N256" s="55"/>
+      <c r="M256" s="56"/>
+      <c r="N256" s="56"/>
       <c r="O256" s="6"/>
       <c r="P256" s="6"/>
       <c r="Q256" s="6"/>
       <c r="R256" s="6"/>
-      <c r="S256" s="62"/>
+      <c r="S256" s="63"/>
       <c r="T256" s="6"/>
       <c r="U256" s="6"/>
       <c r="V256" s="6"/>
@@ -13263,13 +13240,13 @@
       <c r="J257" s="6"/>
       <c r="K257" s="6"/>
       <c r="L257" s="6"/>
-      <c r="M257" s="55"/>
-      <c r="N257" s="55"/>
+      <c r="M257" s="56"/>
+      <c r="N257" s="56"/>
       <c r="O257" s="6"/>
       <c r="P257" s="6"/>
       <c r="Q257" s="6"/>
       <c r="R257" s="6"/>
-      <c r="S257" s="62"/>
+      <c r="S257" s="63"/>
       <c r="T257" s="6"/>
       <c r="U257" s="6"/>
       <c r="V257" s="6"/>
@@ -13288,13 +13265,13 @@
       <c r="J258" s="6"/>
       <c r="K258" s="6"/>
       <c r="L258" s="6"/>
-      <c r="M258" s="55"/>
-      <c r="N258" s="55"/>
+      <c r="M258" s="56"/>
+      <c r="N258" s="56"/>
       <c r="O258" s="6"/>
       <c r="P258" s="6"/>
       <c r="Q258" s="6"/>
       <c r="R258" s="6"/>
-      <c r="S258" s="62"/>
+      <c r="S258" s="63"/>
       <c r="T258" s="6"/>
       <c r="U258" s="6"/>
       <c r="V258" s="6"/>
@@ -13313,13 +13290,13 @@
       <c r="J259" s="6"/>
       <c r="K259" s="6"/>
       <c r="L259" s="6"/>
-      <c r="M259" s="55"/>
-      <c r="N259" s="55"/>
+      <c r="M259" s="56"/>
+      <c r="N259" s="56"/>
       <c r="O259" s="6"/>
       <c r="P259" s="6"/>
       <c r="Q259" s="6"/>
       <c r="R259" s="6"/>
-      <c r="S259" s="62"/>
+      <c r="S259" s="63"/>
       <c r="T259" s="6"/>
       <c r="U259" s="6"/>
       <c r="V259" s="6"/>
@@ -13338,13 +13315,13 @@
       <c r="J260" s="6"/>
       <c r="K260" s="6"/>
       <c r="L260" s="6"/>
-      <c r="M260" s="55"/>
-      <c r="N260" s="55"/>
+      <c r="M260" s="56"/>
+      <c r="N260" s="56"/>
       <c r="O260" s="6"/>
       <c r="P260" s="6"/>
       <c r="Q260" s="6"/>
       <c r="R260" s="6"/>
-      <c r="S260" s="62"/>
+      <c r="S260" s="63"/>
       <c r="T260" s="6"/>
       <c r="U260" s="6"/>
       <c r="V260" s="6"/>
@@ -13363,13 +13340,13 @@
       <c r="J261" s="6"/>
       <c r="K261" s="6"/>
       <c r="L261" s="6"/>
-      <c r="M261" s="55"/>
-      <c r="N261" s="55"/>
+      <c r="M261" s="56"/>
+      <c r="N261" s="56"/>
       <c r="O261" s="6"/>
       <c r="P261" s="6"/>
       <c r="Q261" s="6"/>
       <c r="R261" s="6"/>
-      <c r="S261" s="62"/>
+      <c r="S261" s="63"/>
       <c r="T261" s="6"/>
       <c r="U261" s="6"/>
       <c r="V261" s="6"/>
@@ -13388,13 +13365,13 @@
       <c r="J262" s="6"/>
       <c r="K262" s="6"/>
       <c r="L262" s="6"/>
-      <c r="M262" s="55"/>
-      <c r="N262" s="55"/>
+      <c r="M262" s="56"/>
+      <c r="N262" s="56"/>
       <c r="O262" s="6"/>
       <c r="P262" s="6"/>
       <c r="Q262" s="6"/>
       <c r="R262" s="6"/>
-      <c r="S262" s="62"/>
+      <c r="S262" s="63"/>
       <c r="T262" s="6"/>
       <c r="U262" s="6"/>
       <c r="V262" s="6"/>
@@ -13413,13 +13390,13 @@
       <c r="J263" s="6"/>
       <c r="K263" s="6"/>
       <c r="L263" s="6"/>
-      <c r="M263" s="55"/>
-      <c r="N263" s="55"/>
+      <c r="M263" s="56"/>
+      <c r="N263" s="56"/>
       <c r="O263" s="6"/>
       <c r="P263" s="6"/>
       <c r="Q263" s="6"/>
       <c r="R263" s="6"/>
-      <c r="S263" s="62"/>
+      <c r="S263" s="63"/>
       <c r="T263" s="6"/>
       <c r="U263" s="6"/>
       <c r="V263" s="6"/>
@@ -13438,13 +13415,13 @@
       <c r="J264" s="6"/>
       <c r="K264" s="6"/>
       <c r="L264" s="6"/>
-      <c r="M264" s="55"/>
-      <c r="N264" s="55"/>
+      <c r="M264" s="56"/>
+      <c r="N264" s="56"/>
       <c r="O264" s="6"/>
       <c r="P264" s="6"/>
       <c r="Q264" s="6"/>
       <c r="R264" s="6"/>
-      <c r="S264" s="62"/>
+      <c r="S264" s="63"/>
       <c r="T264" s="6"/>
       <c r="U264" s="6"/>
       <c r="V264" s="6"/>
@@ -13463,13 +13440,13 @@
       <c r="J265" s="6"/>
       <c r="K265" s="6"/>
       <c r="L265" s="6"/>
-      <c r="M265" s="55"/>
-      <c r="N265" s="55"/>
+      <c r="M265" s="56"/>
+      <c r="N265" s="56"/>
       <c r="O265" s="6"/>
       <c r="P265" s="6"/>
       <c r="Q265" s="6"/>
       <c r="R265" s="6"/>
-      <c r="S265" s="62"/>
+      <c r="S265" s="63"/>
       <c r="T265" s="6"/>
       <c r="U265" s="6"/>
       <c r="V265" s="6"/>
@@ -13488,13 +13465,13 @@
       <c r="J266" s="6"/>
       <c r="K266" s="6"/>
       <c r="L266" s="6"/>
-      <c r="M266" s="55"/>
-      <c r="N266" s="55"/>
+      <c r="M266" s="56"/>
+      <c r="N266" s="56"/>
       <c r="O266" s="6"/>
       <c r="P266" s="6"/>
       <c r="Q266" s="6"/>
       <c r="R266" s="6"/>
-      <c r="S266" s="62"/>
+      <c r="S266" s="63"/>
       <c r="T266" s="6"/>
       <c r="U266" s="6"/>
       <c r="V266" s="6"/>
@@ -13513,13 +13490,13 @@
       <c r="J267" s="6"/>
       <c r="K267" s="6"/>
       <c r="L267" s="6"/>
-      <c r="M267" s="55"/>
-      <c r="N267" s="55"/>
+      <c r="M267" s="56"/>
+      <c r="N267" s="56"/>
       <c r="O267" s="6"/>
       <c r="P267" s="6"/>
       <c r="Q267" s="6"/>
       <c r="R267" s="6"/>
-      <c r="S267" s="62"/>
+      <c r="S267" s="63"/>
       <c r="T267" s="6"/>
       <c r="U267" s="6"/>
       <c r="V267" s="6"/>
@@ -13538,13 +13515,13 @@
       <c r="J268" s="6"/>
       <c r="K268" s="6"/>
       <c r="L268" s="6"/>
-      <c r="M268" s="55"/>
-      <c r="N268" s="55"/>
+      <c r="M268" s="56"/>
+      <c r="N268" s="56"/>
       <c r="O268" s="6"/>
       <c r="P268" s="6"/>
       <c r="Q268" s="6"/>
       <c r="R268" s="6"/>
-      <c r="S268" s="62"/>
+      <c r="S268" s="63"/>
       <c r="T268" s="6"/>
       <c r="U268" s="6"/>
       <c r="V268" s="6"/>
@@ -13563,13 +13540,13 @@
       <c r="J269" s="6"/>
       <c r="K269" s="6"/>
       <c r="L269" s="6"/>
-      <c r="M269" s="55"/>
-      <c r="N269" s="55"/>
+      <c r="M269" s="56"/>
+      <c r="N269" s="56"/>
       <c r="O269" s="6"/>
       <c r="P269" s="6"/>
       <c r="Q269" s="6"/>
       <c r="R269" s="6"/>
-      <c r="S269" s="62"/>
+      <c r="S269" s="63"/>
       <c r="T269" s="6"/>
       <c r="U269" s="6"/>
       <c r="V269" s="6"/>
@@ -13588,13 +13565,13 @@
       <c r="J270" s="6"/>
       <c r="K270" s="6"/>
       <c r="L270" s="6"/>
-      <c r="M270" s="55"/>
-      <c r="N270" s="55"/>
+      <c r="M270" s="56"/>
+      <c r="N270" s="56"/>
       <c r="O270" s="6"/>
       <c r="P270" s="6"/>
       <c r="Q270" s="6"/>
       <c r="R270" s="6"/>
-      <c r="S270" s="62"/>
+      <c r="S270" s="63"/>
       <c r="T270" s="6"/>
       <c r="U270" s="6"/>
       <c r="V270" s="6"/>
@@ -13613,13 +13590,13 @@
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
       <c r="L271" s="6"/>
-      <c r="M271" s="55"/>
-      <c r="N271" s="55"/>
+      <c r="M271" s="56"/>
+      <c r="N271" s="56"/>
       <c r="O271" s="6"/>
       <c r="P271" s="6"/>
       <c r="Q271" s="6"/>
       <c r="R271" s="6"/>
-      <c r="S271" s="62"/>
+      <c r="S271" s="63"/>
       <c r="T271" s="6"/>
       <c r="U271" s="6"/>
       <c r="V271" s="6"/>
@@ -13638,13 +13615,13 @@
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
       <c r="L272" s="6"/>
-      <c r="M272" s="55"/>
-      <c r="N272" s="55"/>
+      <c r="M272" s="56"/>
+      <c r="N272" s="56"/>
       <c r="O272" s="6"/>
       <c r="P272" s="6"/>
       <c r="Q272" s="6"/>
       <c r="R272" s="6"/>
-      <c r="S272" s="62"/>
+      <c r="S272" s="63"/>
       <c r="T272" s="6"/>
       <c r="U272" s="6"/>
       <c r="V272" s="6"/>
@@ -13663,13 +13640,13 @@
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
       <c r="L273" s="6"/>
-      <c r="M273" s="55"/>
-      <c r="N273" s="55"/>
+      <c r="M273" s="56"/>
+      <c r="N273" s="56"/>
       <c r="O273" s="6"/>
       <c r="P273" s="6"/>
       <c r="Q273" s="6"/>
       <c r="R273" s="6"/>
-      <c r="S273" s="62"/>
+      <c r="S273" s="63"/>
       <c r="T273" s="6"/>
       <c r="U273" s="6"/>
       <c r="V273" s="6"/>
@@ -13688,13 +13665,13 @@
       <c r="J274" s="6"/>
       <c r="K274" s="6"/>
       <c r="L274" s="6"/>
-      <c r="M274" s="55"/>
-      <c r="N274" s="55"/>
+      <c r="M274" s="56"/>
+      <c r="N274" s="56"/>
       <c r="O274" s="6"/>
       <c r="P274" s="6"/>
       <c r="Q274" s="6"/>
       <c r="R274" s="6"/>
-      <c r="S274" s="62"/>
+      <c r="S274" s="63"/>
       <c r="T274" s="6"/>
       <c r="U274" s="6"/>
       <c r="V274" s="6"/>
@@ -13713,13 +13690,13 @@
       <c r="J275" s="6"/>
       <c r="K275" s="6"/>
       <c r="L275" s="6"/>
-      <c r="M275" s="55"/>
-      <c r="N275" s="55"/>
+      <c r="M275" s="56"/>
+      <c r="N275" s="56"/>
       <c r="O275" s="6"/>
       <c r="P275" s="6"/>
       <c r="Q275" s="6"/>
       <c r="R275" s="6"/>
-      <c r="S275" s="62"/>
+      <c r="S275" s="63"/>
       <c r="T275" s="6"/>
       <c r="U275" s="6"/>
       <c r="V275" s="6"/>
@@ -13738,13 +13715,13 @@
       <c r="J276" s="6"/>
       <c r="K276" s="6"/>
       <c r="L276" s="6"/>
-      <c r="M276" s="55"/>
-      <c r="N276" s="55"/>
+      <c r="M276" s="56"/>
+      <c r="N276" s="56"/>
       <c r="O276" s="6"/>
       <c r="P276" s="6"/>
       <c r="Q276" s="6"/>
       <c r="R276" s="6"/>
-      <c r="S276" s="62"/>
+      <c r="S276" s="63"/>
       <c r="T276" s="6"/>
       <c r="U276" s="6"/>
       <c r="V276" s="6"/>
@@ -13763,13 +13740,13 @@
       <c r="J277" s="6"/>
       <c r="K277" s="6"/>
       <c r="L277" s="6"/>
-      <c r="M277" s="55"/>
-      <c r="N277" s="55"/>
+      <c r="M277" s="56"/>
+      <c r="N277" s="56"/>
       <c r="O277" s="6"/>
       <c r="P277" s="6"/>
       <c r="Q277" s="6"/>
       <c r="R277" s="6"/>
-      <c r="S277" s="62"/>
+      <c r="S277" s="63"/>
       <c r="T277" s="6"/>
       <c r="U277" s="6"/>
       <c r="V277" s="6"/>
@@ -13788,13 +13765,13 @@
       <c r="J278" s="6"/>
       <c r="K278" s="6"/>
       <c r="L278" s="6"/>
-      <c r="M278" s="55"/>
-      <c r="N278" s="55"/>
+      <c r="M278" s="56"/>
+      <c r="N278" s="56"/>
       <c r="O278" s="6"/>
       <c r="P278" s="6"/>
       <c r="Q278" s="6"/>
       <c r="R278" s="6"/>
-      <c r="S278" s="62"/>
+      <c r="S278" s="63"/>
       <c r="T278" s="6"/>
       <c r="U278" s="6"/>
       <c r="V278" s="6"/>
@@ -13813,13 +13790,13 @@
       <c r="J279" s="6"/>
       <c r="K279" s="6"/>
       <c r="L279" s="6"/>
-      <c r="M279" s="55"/>
-      <c r="N279" s="55"/>
+      <c r="M279" s="56"/>
+      <c r="N279" s="56"/>
       <c r="O279" s="6"/>
       <c r="P279" s="6"/>
       <c r="Q279" s="6"/>
       <c r="R279" s="6"/>
-      <c r="S279" s="62"/>
+      <c r="S279" s="63"/>
       <c r="T279" s="6"/>
       <c r="U279" s="6"/>
       <c r="V279" s="6"/>
@@ -13838,13 +13815,13 @@
       <c r="J280" s="6"/>
       <c r="K280" s="6"/>
       <c r="L280" s="6"/>
-      <c r="M280" s="55"/>
-      <c r="N280" s="55"/>
+      <c r="M280" s="56"/>
+      <c r="N280" s="56"/>
       <c r="O280" s="6"/>
       <c r="P280" s="6"/>
       <c r="Q280" s="6"/>
       <c r="R280" s="6"/>
-      <c r="S280" s="62"/>
+      <c r="S280" s="63"/>
       <c r="T280" s="6"/>
       <c r="U280" s="6"/>
       <c r="V280" s="6"/>
@@ -13863,13 +13840,13 @@
       <c r="J281" s="6"/>
       <c r="K281" s="6"/>
       <c r="L281" s="6"/>
-      <c r="M281" s="55"/>
-      <c r="N281" s="55"/>
+      <c r="M281" s="56"/>
+      <c r="N281" s="56"/>
       <c r="O281" s="6"/>
       <c r="P281" s="6"/>
       <c r="Q281" s="6"/>
       <c r="R281" s="6"/>
-      <c r="S281" s="62"/>
+      <c r="S281" s="63"/>
       <c r="T281" s="6"/>
       <c r="U281" s="6"/>
       <c r="V281" s="6"/>
@@ -13888,13 +13865,13 @@
       <c r="J282" s="6"/>
       <c r="K282" s="6"/>
       <c r="L282" s="6"/>
-      <c r="M282" s="55"/>
-      <c r="N282" s="55"/>
+      <c r="M282" s="56"/>
+      <c r="N282" s="56"/>
       <c r="O282" s="6"/>
       <c r="P282" s="6"/>
       <c r="Q282" s="6"/>
       <c r="R282" s="6"/>
-      <c r="S282" s="62"/>
+      <c r="S282" s="63"/>
       <c r="T282" s="6"/>
       <c r="U282" s="6"/>
       <c r="V282" s="6"/>
@@ -13913,13 +13890,13 @@
       <c r="J283" s="6"/>
       <c r="K283" s="6"/>
       <c r="L283" s="6"/>
-      <c r="M283" s="55"/>
-      <c r="N283" s="55"/>
+      <c r="M283" s="56"/>
+      <c r="N283" s="56"/>
       <c r="O283" s="6"/>
       <c r="P283" s="6"/>
       <c r="Q283" s="6"/>
       <c r="R283" s="6"/>
-      <c r="S283" s="62"/>
+      <c r="S283" s="63"/>
       <c r="T283" s="6"/>
       <c r="U283" s="6"/>
       <c r="V283" s="6"/>
@@ -13938,13 +13915,13 @@
       <c r="J284" s="6"/>
       <c r="K284" s="6"/>
       <c r="L284" s="6"/>
-      <c r="M284" s="55"/>
-      <c r="N284" s="55"/>
+      <c r="M284" s="56"/>
+      <c r="N284" s="56"/>
       <c r="O284" s="6"/>
       <c r="P284" s="6"/>
       <c r="Q284" s="6"/>
       <c r="R284" s="6"/>
-      <c r="S284" s="62"/>
+      <c r="S284" s="63"/>
       <c r="T284" s="6"/>
       <c r="U284" s="6"/>
       <c r="V284" s="6"/>
@@ -13963,13 +13940,13 @@
       <c r="J285" s="6"/>
       <c r="K285" s="6"/>
       <c r="L285" s="6"/>
-      <c r="M285" s="55"/>
-      <c r="N285" s="55"/>
+      <c r="M285" s="56"/>
+      <c r="N285" s="56"/>
       <c r="O285" s="6"/>
       <c r="P285" s="6"/>
       <c r="Q285" s="6"/>
       <c r="R285" s="6"/>
-      <c r="S285" s="62"/>
+      <c r="S285" s="63"/>
       <c r="T285" s="6"/>
       <c r="U285" s="6"/>
       <c r="V285" s="6"/>
@@ -13988,13 +13965,13 @@
       <c r="J286" s="6"/>
       <c r="K286" s="6"/>
       <c r="L286" s="6"/>
-      <c r="M286" s="55"/>
-      <c r="N286" s="55"/>
+      <c r="M286" s="56"/>
+      <c r="N286" s="56"/>
       <c r="O286" s="6"/>
       <c r="P286" s="6"/>
       <c r="Q286" s="6"/>
       <c r="R286" s="6"/>
-      <c r="S286" s="62"/>
+      <c r="S286" s="63"/>
       <c r="T286" s="6"/>
       <c r="U286" s="6"/>
       <c r="V286" s="6"/>
@@ -14013,13 +13990,13 @@
       <c r="J287" s="6"/>
       <c r="K287" s="6"/>
       <c r="L287" s="6"/>
-      <c r="M287" s="55"/>
-      <c r="N287" s="55"/>
+      <c r="M287" s="56"/>
+      <c r="N287" s="56"/>
       <c r="O287" s="6"/>
       <c r="P287" s="6"/>
       <c r="Q287" s="6"/>
       <c r="R287" s="6"/>
-      <c r="S287" s="62"/>
+      <c r="S287" s="63"/>
       <c r="T287" s="6"/>
       <c r="U287" s="6"/>
       <c r="V287" s="6"/>
@@ -14038,13 +14015,13 @@
       <c r="J288" s="6"/>
       <c r="K288" s="6"/>
       <c r="L288" s="6"/>
-      <c r="M288" s="55"/>
-      <c r="N288" s="55"/>
+      <c r="M288" s="56"/>
+      <c r="N288" s="56"/>
       <c r="O288" s="6"/>
       <c r="P288" s="6"/>
       <c r="Q288" s="6"/>
       <c r="R288" s="6"/>
-      <c r="S288" s="62"/>
+      <c r="S288" s="63"/>
       <c r="T288" s="6"/>
       <c r="U288" s="6"/>
       <c r="V288" s="6"/>
@@ -14063,13 +14040,13 @@
       <c r="J289" s="6"/>
       <c r="K289" s="6"/>
       <c r="L289" s="6"/>
-      <c r="M289" s="55"/>
-      <c r="N289" s="55"/>
+      <c r="M289" s="56"/>
+      <c r="N289" s="56"/>
       <c r="O289" s="6"/>
       <c r="P289" s="6"/>
       <c r="Q289" s="6"/>
       <c r="R289" s="6"/>
-      <c r="S289" s="62"/>
+      <c r="S289" s="63"/>
       <c r="T289" s="6"/>
       <c r="U289" s="6"/>
       <c r="V289" s="6"/>
@@ -14088,13 +14065,13 @@
       <c r="J290" s="6"/>
       <c r="K290" s="6"/>
       <c r="L290" s="6"/>
-      <c r="M290" s="55"/>
-      <c r="N290" s="55"/>
+      <c r="M290" s="56"/>
+      <c r="N290" s="56"/>
       <c r="O290" s="6"/>
       <c r="P290" s="6"/>
       <c r="Q290" s="6"/>
       <c r="R290" s="6"/>
-      <c r="S290" s="62"/>
+      <c r="S290" s="63"/>
       <c r="T290" s="6"/>
       <c r="U290" s="6"/>
       <c r="V290" s="6"/>
@@ -14113,13 +14090,13 @@
       <c r="J291" s="6"/>
       <c r="K291" s="6"/>
       <c r="L291" s="6"/>
-      <c r="M291" s="55"/>
-      <c r="N291" s="55"/>
+      <c r="M291" s="56"/>
+      <c r="N291" s="56"/>
       <c r="O291" s="6"/>
       <c r="P291" s="6"/>
       <c r="Q291" s="6"/>
       <c r="R291" s="6"/>
-      <c r="S291" s="62"/>
+      <c r="S291" s="63"/>
       <c r="T291" s="6"/>
       <c r="U291" s="6"/>
       <c r="V291" s="6"/>
@@ -14138,13 +14115,13 @@
       <c r="J292" s="6"/>
       <c r="K292" s="6"/>
       <c r="L292" s="6"/>
-      <c r="M292" s="55"/>
-      <c r="N292" s="55"/>
+      <c r="M292" s="56"/>
+      <c r="N292" s="56"/>
       <c r="O292" s="6"/>
       <c r="P292" s="6"/>
       <c r="Q292" s="6"/>
       <c r="R292" s="6"/>
-      <c r="S292" s="62"/>
+      <c r="S292" s="63"/>
       <c r="T292" s="6"/>
       <c r="U292" s="6"/>
       <c r="V292" s="6"/>
@@ -14163,13 +14140,13 @@
       <c r="J293" s="6"/>
       <c r="K293" s="6"/>
       <c r="L293" s="6"/>
-      <c r="M293" s="55"/>
-      <c r="N293" s="55"/>
+      <c r="M293" s="56"/>
+      <c r="N293" s="56"/>
       <c r="O293" s="6"/>
       <c r="P293" s="6"/>
       <c r="Q293" s="6"/>
       <c r="R293" s="6"/>
-      <c r="S293" s="62"/>
+      <c r="S293" s="63"/>
       <c r="T293" s="6"/>
       <c r="U293" s="6"/>
       <c r="V293" s="6"/>
@@ -14188,13 +14165,13 @@
       <c r="J294" s="6"/>
       <c r="K294" s="6"/>
       <c r="L294" s="6"/>
-      <c r="M294" s="55"/>
-      <c r="N294" s="55"/>
+      <c r="M294" s="56"/>
+      <c r="N294" s="56"/>
       <c r="O294" s="6"/>
       <c r="P294" s="6"/>
       <c r="Q294" s="6"/>
       <c r="R294" s="6"/>
-      <c r="S294" s="62"/>
+      <c r="S294" s="63"/>
       <c r="T294" s="6"/>
       <c r="U294" s="6"/>
       <c r="V294" s="6"/>
@@ -14213,13 +14190,13 @@
       <c r="J295" s="6"/>
       <c r="K295" s="6"/>
       <c r="L295" s="6"/>
-      <c r="M295" s="55"/>
-      <c r="N295" s="55"/>
+      <c r="M295" s="56"/>
+      <c r="N295" s="56"/>
       <c r="O295" s="6"/>
       <c r="P295" s="6"/>
       <c r="Q295" s="6"/>
       <c r="R295" s="6"/>
-      <c r="S295" s="62"/>
+      <c r="S295" s="63"/>
       <c r="T295" s="6"/>
       <c r="U295" s="6"/>
       <c r="V295" s="6"/>
@@ -14238,13 +14215,13 @@
       <c r="J296" s="6"/>
       <c r="K296" s="6"/>
       <c r="L296" s="6"/>
-      <c r="M296" s="55"/>
-      <c r="N296" s="55"/>
+      <c r="M296" s="56"/>
+      <c r="N296" s="56"/>
       <c r="O296" s="6"/>
       <c r="P296" s="6"/>
       <c r="Q296" s="6"/>
       <c r="R296" s="6"/>
-      <c r="S296" s="62"/>
+      <c r="S296" s="63"/>
       <c r="T296" s="6"/>
       <c r="U296" s="6"/>
       <c r="V296" s="6"/>
@@ -14263,13 +14240,13 @@
       <c r="J297" s="6"/>
       <c r="K297" s="6"/>
       <c r="L297" s="6"/>
-      <c r="M297" s="55"/>
-      <c r="N297" s="55"/>
+      <c r="M297" s="56"/>
+      <c r="N297" s="56"/>
       <c r="O297" s="6"/>
       <c r="P297" s="6"/>
       <c r="Q297" s="6"/>
       <c r="R297" s="6"/>
-      <c r="S297" s="62"/>
+      <c r="S297" s="63"/>
       <c r="T297" s="6"/>
       <c r="U297" s="6"/>
       <c r="V297" s="6"/>
@@ -14288,13 +14265,13 @@
       <c r="J298" s="6"/>
       <c r="K298" s="6"/>
       <c r="L298" s="6"/>
-      <c r="M298" s="55"/>
-      <c r="N298" s="55"/>
+      <c r="M298" s="56"/>
+      <c r="N298" s="56"/>
       <c r="O298" s="6"/>
       <c r="P298" s="6"/>
       <c r="Q298" s="6"/>
       <c r="R298" s="6"/>
-      <c r="S298" s="62"/>
+      <c r="S298" s="63"/>
       <c r="T298" s="6"/>
       <c r="U298" s="6"/>
       <c r="V298" s="6"/>
@@ -14313,13 +14290,13 @@
       <c r="J299" s="6"/>
       <c r="K299" s="6"/>
       <c r="L299" s="6"/>
-      <c r="M299" s="55"/>
-      <c r="N299" s="55"/>
+      <c r="M299" s="56"/>
+      <c r="N299" s="56"/>
       <c r="O299" s="6"/>
       <c r="P299" s="6"/>
       <c r="Q299" s="6"/>
       <c r="R299" s="6"/>
-      <c r="S299" s="62"/>
+      <c r="S299" s="63"/>
       <c r="T299" s="6"/>
       <c r="U299" s="6"/>
       <c r="V299" s="6"/>
@@ -14338,13 +14315,13 @@
       <c r="J300" s="6"/>
       <c r="K300" s="6"/>
       <c r="L300" s="6"/>
-      <c r="M300" s="55"/>
-      <c r="N300" s="55"/>
+      <c r="M300" s="56"/>
+      <c r="N300" s="56"/>
       <c r="O300" s="6"/>
       <c r="P300" s="6"/>
       <c r="Q300" s="6"/>
       <c r="R300" s="6"/>
-      <c r="S300" s="62"/>
+      <c r="S300" s="63"/>
       <c r="T300" s="6"/>
       <c r="U300" s="6"/>
       <c r="V300" s="6"/>
@@ -14363,13 +14340,13 @@
       <c r="J301" s="6"/>
       <c r="K301" s="6"/>
       <c r="L301" s="6"/>
-      <c r="M301" s="55"/>
-      <c r="N301" s="55"/>
+      <c r="M301" s="56"/>
+      <c r="N301" s="56"/>
       <c r="O301" s="6"/>
       <c r="P301" s="6"/>
       <c r="Q301" s="6"/>
       <c r="R301" s="6"/>
-      <c r="S301" s="62"/>
+      <c r="S301" s="63"/>
       <c r="T301" s="6"/>
       <c r="U301" s="6"/>
       <c r="V301" s="6"/>
@@ -14388,13 +14365,13 @@
       <c r="J302" s="6"/>
       <c r="K302" s="6"/>
       <c r="L302" s="6"/>
-      <c r="M302" s="55"/>
-      <c r="N302" s="55"/>
+      <c r="M302" s="56"/>
+      <c r="N302" s="56"/>
       <c r="O302" s="6"/>
       <c r="P302" s="6"/>
       <c r="Q302" s="6"/>
       <c r="R302" s="6"/>
-      <c r="S302" s="62"/>
+      <c r="S302" s="63"/>
       <c r="T302" s="6"/>
       <c r="U302" s="6"/>
       <c r="V302" s="6"/>
@@ -14413,13 +14390,13 @@
       <c r="J303" s="6"/>
       <c r="K303" s="6"/>
       <c r="L303" s="6"/>
-      <c r="M303" s="55"/>
-      <c r="N303" s="55"/>
+      <c r="M303" s="56"/>
+      <c r="N303" s="56"/>
       <c r="O303" s="6"/>
       <c r="P303" s="6"/>
       <c r="Q303" s="6"/>
       <c r="R303" s="6"/>
-      <c r="S303" s="62"/>
+      <c r="S303" s="63"/>
       <c r="T303" s="6"/>
       <c r="U303" s="6"/>
       <c r="V303" s="6"/>
@@ -14438,13 +14415,13 @@
       <c r="J304" s="6"/>
       <c r="K304" s="6"/>
       <c r="L304" s="6"/>
-      <c r="M304" s="55"/>
-      <c r="N304" s="55"/>
+      <c r="M304" s="56"/>
+      <c r="N304" s="56"/>
       <c r="O304" s="6"/>
       <c r="P304" s="6"/>
       <c r="Q304" s="6"/>
       <c r="R304" s="6"/>
-      <c r="S304" s="62"/>
+      <c r="S304" s="63"/>
       <c r="T304" s="6"/>
       <c r="U304" s="6"/>
       <c r="V304" s="6"/>
@@ -14463,13 +14440,13 @@
       <c r="J305" s="6"/>
       <c r="K305" s="6"/>
       <c r="L305" s="6"/>
-      <c r="M305" s="55"/>
-      <c r="N305" s="55"/>
+      <c r="M305" s="56"/>
+      <c r="N305" s="56"/>
       <c r="O305" s="6"/>
       <c r="P305" s="6"/>
       <c r="Q305" s="6"/>
       <c r="R305" s="6"/>
-      <c r="S305" s="62"/>
+      <c r="S305" s="63"/>
       <c r="T305" s="6"/>
       <c r="U305" s="6"/>
       <c r="V305" s="6"/>
@@ -14488,13 +14465,13 @@
       <c r="J306" s="6"/>
       <c r="K306" s="6"/>
       <c r="L306" s="6"/>
-      <c r="M306" s="55"/>
-      <c r="N306" s="55"/>
+      <c r="M306" s="56"/>
+      <c r="N306" s="56"/>
       <c r="O306" s="6"/>
       <c r="P306" s="6"/>
       <c r="Q306" s="6"/>
       <c r="R306" s="6"/>
-      <c r="S306" s="62"/>
+      <c r="S306" s="63"/>
       <c r="T306" s="6"/>
       <c r="U306" s="6"/>
       <c r="V306" s="6"/>
@@ -14513,13 +14490,13 @@
       <c r="J307" s="6"/>
       <c r="K307" s="6"/>
       <c r="L307" s="6"/>
-      <c r="M307" s="55"/>
-      <c r="N307" s="55"/>
+      <c r="M307" s="56"/>
+      <c r="N307" s="56"/>
       <c r="O307" s="6"/>
       <c r="P307" s="6"/>
       <c r="Q307" s="6"/>
       <c r="R307" s="6"/>
-      <c r="S307" s="62"/>
+      <c r="S307" s="63"/>
       <c r="T307" s="6"/>
       <c r="U307" s="6"/>
       <c r="V307" s="6"/>
@@ -14538,13 +14515,13 @@
       <c r="J308" s="6"/>
       <c r="K308" s="6"/>
       <c r="L308" s="6"/>
-      <c r="M308" s="55"/>
-      <c r="N308" s="55"/>
+      <c r="M308" s="56"/>
+      <c r="N308" s="56"/>
       <c r="O308" s="6"/>
       <c r="P308" s="6"/>
       <c r="Q308" s="6"/>
       <c r="R308" s="6"/>
-      <c r="S308" s="62"/>
+      <c r="S308" s="63"/>
       <c r="T308" s="6"/>
       <c r="U308" s="6"/>
       <c r="V308" s="6"/>
@@ -14563,13 +14540,13 @@
       <c r="J309" s="6"/>
       <c r="K309" s="6"/>
       <c r="L309" s="6"/>
-      <c r="M309" s="55"/>
-      <c r="N309" s="55"/>
+      <c r="M309" s="56"/>
+      <c r="N309" s="56"/>
       <c r="O309" s="6"/>
       <c r="P309" s="6"/>
       <c r="Q309" s="6"/>
       <c r="R309" s="6"/>
-      <c r="S309" s="62"/>
+      <c r="S309" s="63"/>
       <c r="T309" s="6"/>
       <c r="U309" s="6"/>
       <c r="V309" s="6"/>
@@ -14588,13 +14565,13 @@
       <c r="J310" s="6"/>
       <c r="K310" s="6"/>
       <c r="L310" s="6"/>
-      <c r="M310" s="55"/>
-      <c r="N310" s="55"/>
+      <c r="M310" s="56"/>
+      <c r="N310" s="56"/>
       <c r="O310" s="6"/>
       <c r="P310" s="6"/>
       <c r="Q310" s="6"/>
       <c r="R310" s="6"/>
-      <c r="S310" s="62"/>
+      <c r="S310" s="63"/>
       <c r="T310" s="6"/>
       <c r="U310" s="6"/>
       <c r="V310" s="6"/>
@@ -14613,13 +14590,13 @@
       <c r="J311" s="6"/>
       <c r="K311" s="6"/>
       <c r="L311" s="6"/>
-      <c r="M311" s="55"/>
-      <c r="N311" s="55"/>
+      <c r="M311" s="56"/>
+      <c r="N311" s="56"/>
       <c r="O311" s="6"/>
       <c r="P311" s="6"/>
       <c r="Q311" s="6"/>
       <c r="R311" s="6"/>
-      <c r="S311" s="62"/>
+      <c r="S311" s="63"/>
       <c r="T311" s="6"/>
       <c r="U311" s="6"/>
       <c r="V311" s="6"/>
@@ -14638,13 +14615,13 @@
       <c r="J312" s="6"/>
       <c r="K312" s="6"/>
       <c r="L312" s="6"/>
-      <c r="M312" s="55"/>
-      <c r="N312" s="55"/>
+      <c r="M312" s="56"/>
+      <c r="N312" s="56"/>
       <c r="O312" s="6"/>
       <c r="P312" s="6"/>
       <c r="Q312" s="6"/>
       <c r="R312" s="6"/>
-      <c r="S312" s="62"/>
+      <c r="S312" s="63"/>
       <c r="T312" s="6"/>
       <c r="U312" s="6"/>
       <c r="V312" s="6"/>
@@ -14663,13 +14640,13 @@
       <c r="J313" s="6"/>
       <c r="K313" s="6"/>
       <c r="L313" s="6"/>
-      <c r="M313" s="55"/>
-      <c r="N313" s="55"/>
+      <c r="M313" s="56"/>
+      <c r="N313" s="56"/>
       <c r="O313" s="6"/>
       <c r="P313" s="6"/>
       <c r="Q313" s="6"/>
       <c r="R313" s="6"/>
-      <c r="S313" s="62"/>
+      <c r="S313" s="63"/>
       <c r="T313" s="6"/>
       <c r="U313" s="6"/>
       <c r="V313" s="6"/>
@@ -14688,13 +14665,13 @@
       <c r="J314" s="6"/>
       <c r="K314" s="6"/>
       <c r="L314" s="6"/>
-      <c r="M314" s="55"/>
-      <c r="N314" s="55"/>
+      <c r="M314" s="56"/>
+      <c r="N314" s="56"/>
       <c r="O314" s="6"/>
       <c r="P314" s="6"/>
       <c r="Q314" s="6"/>
       <c r="R314" s="6"/>
-      <c r="S314" s="62"/>
+      <c r="S314" s="63"/>
       <c r="T314" s="6"/>
       <c r="U314" s="6"/>
       <c r="V314" s="6"/>
@@ -14713,13 +14690,13 @@
       <c r="J315" s="6"/>
       <c r="K315" s="6"/>
       <c r="L315" s="6"/>
-      <c r="M315" s="55"/>
-      <c r="N315" s="55"/>
+      <c r="M315" s="56"/>
+      <c r="N315" s="56"/>
       <c r="O315" s="6"/>
       <c r="P315" s="6"/>
       <c r="Q315" s="6"/>
       <c r="R315" s="6"/>
-      <c r="S315" s="62"/>
+      <c r="S315" s="63"/>
       <c r="T315" s="6"/>
       <c r="U315" s="6"/>
       <c r="V315" s="6"/>
@@ -14738,13 +14715,13 @@
       <c r="J316" s="6"/>
       <c r="K316" s="6"/>
       <c r="L316" s="6"/>
-      <c r="M316" s="55"/>
-      <c r="N316" s="55"/>
+      <c r="M316" s="56"/>
+      <c r="N316" s="56"/>
       <c r="O316" s="6"/>
       <c r="P316" s="6"/>
       <c r="Q316" s="6"/>
       <c r="R316" s="6"/>
-      <c r="S316" s="62"/>
+      <c r="S316" s="63"/>
       <c r="T316" s="6"/>
       <c r="U316" s="6"/>
       <c r="V316" s="6"/>
@@ -14763,13 +14740,13 @@
       <c r="J317" s="6"/>
       <c r="K317" s="6"/>
       <c r="L317" s="6"/>
-      <c r="M317" s="55"/>
-      <c r="N317" s="55"/>
+      <c r="M317" s="56"/>
+      <c r="N317" s="56"/>
       <c r="O317" s="6"/>
       <c r="P317" s="6"/>
       <c r="Q317" s="6"/>
       <c r="R317" s="6"/>
-      <c r="S317" s="62"/>
+      <c r="S317" s="63"/>
       <c r="T317" s="6"/>
       <c r="U317" s="6"/>
       <c r="V317" s="6"/>
@@ -14788,13 +14765,13 @@
       <c r="J318" s="6"/>
       <c r="K318" s="6"/>
       <c r="L318" s="6"/>
-      <c r="M318" s="55"/>
-      <c r="N318" s="55"/>
+      <c r="M318" s="56"/>
+      <c r="N318" s="56"/>
       <c r="O318" s="6"/>
       <c r="P318" s="6"/>
       <c r="Q318" s="6"/>
       <c r="R318" s="6"/>
-      <c r="S318" s="62"/>
+      <c r="S318" s="63"/>
       <c r="T318" s="6"/>
       <c r="U318" s="6"/>
       <c r="V318" s="6"/>
@@ -14813,13 +14790,13 @@
       <c r="J319" s="6"/>
       <c r="K319" s="6"/>
       <c r="L319" s="6"/>
-      <c r="M319" s="55"/>
-      <c r="N319" s="55"/>
+      <c r="M319" s="56"/>
+      <c r="N319" s="56"/>
       <c r="O319" s="6"/>
       <c r="P319" s="6"/>
       <c r="Q319" s="6"/>
       <c r="R319" s="6"/>
-      <c r="S319" s="62"/>
+      <c r="S319" s="63"/>
       <c r="T319" s="6"/>
       <c r="U319" s="6"/>
       <c r="V319" s="6"/>
@@ -14838,13 +14815,13 @@
       <c r="J320" s="6"/>
       <c r="K320" s="6"/>
       <c r="L320" s="6"/>
-      <c r="M320" s="55"/>
-      <c r="N320" s="55"/>
+      <c r="M320" s="56"/>
+      <c r="N320" s="56"/>
       <c r="O320" s="6"/>
       <c r="P320" s="6"/>
       <c r="Q320" s="6"/>
       <c r="R320" s="6"/>
-      <c r="S320" s="62"/>
+      <c r="S320" s="63"/>
       <c r="T320" s="6"/>
       <c r="U320" s="6"/>
       <c r="V320" s="6"/>
@@ -14863,13 +14840,13 @@
       <c r="J321" s="6"/>
       <c r="K321" s="6"/>
       <c r="L321" s="6"/>
-      <c r="M321" s="55"/>
-      <c r="N321" s="55"/>
+      <c r="M321" s="56"/>
+      <c r="N321" s="56"/>
       <c r="O321" s="6"/>
       <c r="P321" s="6"/>
       <c r="Q321" s="6"/>
       <c r="R321" s="6"/>
-      <c r="S321" s="62"/>
+      <c r="S321" s="63"/>
       <c r="T321" s="6"/>
       <c r="U321" s="6"/>
       <c r="V321" s="6"/>
@@ -14888,13 +14865,13 @@
       <c r="J322" s="6"/>
       <c r="K322" s="6"/>
       <c r="L322" s="6"/>
-      <c r="M322" s="55"/>
-      <c r="N322" s="55"/>
+      <c r="M322" s="56"/>
+      <c r="N322" s="56"/>
       <c r="O322" s="6"/>
       <c r="P322" s="6"/>
       <c r="Q322" s="6"/>
       <c r="R322" s="6"/>
-      <c r="S322" s="62"/>
+      <c r="S322" s="63"/>
       <c r="T322" s="6"/>
       <c r="U322" s="6"/>
       <c r="V322" s="6"/>
@@ -14913,13 +14890,13 @@
       <c r="J323" s="6"/>
       <c r="K323" s="6"/>
       <c r="L323" s="6"/>
-      <c r="M323" s="55"/>
-      <c r="N323" s="55"/>
+      <c r="M323" s="56"/>
+      <c r="N323" s="56"/>
       <c r="O323" s="6"/>
       <c r="P323" s="6"/>
       <c r="Q323" s="6"/>
       <c r="R323" s="6"/>
-      <c r="S323" s="62"/>
+      <c r="S323" s="63"/>
       <c r="T323" s="6"/>
       <c r="U323" s="6"/>
       <c r="V323" s="6"/>
@@ -14938,13 +14915,13 @@
       <c r="J324" s="6"/>
       <c r="K324" s="6"/>
       <c r="L324" s="6"/>
-      <c r="M324" s="55"/>
-      <c r="N324" s="55"/>
+      <c r="M324" s="56"/>
+      <c r="N324" s="56"/>
       <c r="O324" s="6"/>
       <c r="P324" s="6"/>
       <c r="Q324" s="6"/>
       <c r="R324" s="6"/>
-      <c r="S324" s="62"/>
+      <c r="S324" s="63"/>
       <c r="T324" s="6"/>
       <c r="U324" s="6"/>
       <c r="V324" s="6"/>
@@ -14963,13 +14940,13 @@
       <c r="J325" s="6"/>
       <c r="K325" s="6"/>
       <c r="L325" s="6"/>
-      <c r="M325" s="55"/>
-      <c r="N325" s="55"/>
+      <c r="M325" s="56"/>
+      <c r="N325" s="56"/>
       <c r="O325" s="6"/>
       <c r="P325" s="6"/>
       <c r="Q325" s="6"/>
       <c r="R325" s="6"/>
-      <c r="S325" s="62"/>
+      <c r="S325" s="63"/>
       <c r="T325" s="6"/>
       <c r="U325" s="6"/>
       <c r="V325" s="6"/>
@@ -14988,13 +14965,13 @@
       <c r="J326" s="6"/>
       <c r="K326" s="6"/>
       <c r="L326" s="6"/>
-      <c r="M326" s="55"/>
-      <c r="N326" s="55"/>
+      <c r="M326" s="56"/>
+      <c r="N326" s="56"/>
       <c r="O326" s="6"/>
       <c r="P326" s="6"/>
       <c r="Q326" s="6"/>
       <c r="R326" s="6"/>
-      <c r="S326" s="62"/>
+      <c r="S326" s="63"/>
       <c r="T326" s="6"/>
       <c r="U326" s="6"/>
       <c r="V326" s="6"/>
@@ -15013,13 +14990,13 @@
       <c r="J327" s="6"/>
       <c r="K327" s="6"/>
       <c r="L327" s="6"/>
-      <c r="M327" s="55"/>
-      <c r="N327" s="55"/>
+      <c r="M327" s="56"/>
+      <c r="N327" s="56"/>
       <c r="O327" s="6"/>
       <c r="P327" s="6"/>
       <c r="Q327" s="6"/>
       <c r="R327" s="6"/>
-      <c r="S327" s="62"/>
+      <c r="S327" s="63"/>
       <c r="T327" s="6"/>
       <c r="U327" s="6"/>
       <c r="V327" s="6"/>
@@ -15038,13 +15015,13 @@
       <c r="J328" s="6"/>
       <c r="K328" s="6"/>
       <c r="L328" s="6"/>
-      <c r="M328" s="55"/>
-      <c r="N328" s="55"/>
+      <c r="M328" s="56"/>
+      <c r="N328" s="56"/>
       <c r="O328" s="6"/>
       <c r="P328" s="6"/>
       <c r="Q328" s="6"/>
       <c r="R328" s="6"/>
-      <c r="S328" s="62"/>
+      <c r="S328" s="63"/>
       <c r="T328" s="6"/>
       <c r="U328" s="6"/>
       <c r="V328" s="6"/>
@@ -15063,13 +15040,13 @@
       <c r="J329" s="6"/>
       <c r="K329" s="6"/>
       <c r="L329" s="6"/>
-      <c r="M329" s="55"/>
-      <c r="N329" s="55"/>
+      <c r="M329" s="56"/>
+      <c r="N329" s="56"/>
       <c r="O329" s="6"/>
       <c r="P329" s="6"/>
       <c r="Q329" s="6"/>
       <c r="R329" s="6"/>
-      <c r="S329" s="62"/>
+      <c r="S329" s="63"/>
       <c r="T329" s="6"/>
       <c r="U329" s="6"/>
       <c r="V329" s="6"/>
@@ -15088,13 +15065,13 @@
       <c r="J330" s="6"/>
       <c r="K330" s="6"/>
       <c r="L330" s="6"/>
-      <c r="M330" s="55"/>
-      <c r="N330" s="55"/>
+      <c r="M330" s="56"/>
+      <c r="N330" s="56"/>
       <c r="O330" s="6"/>
       <c r="P330" s="6"/>
       <c r="Q330" s="6"/>
       <c r="R330" s="6"/>
-      <c r="S330" s="62"/>
+      <c r="S330" s="63"/>
       <c r="T330" s="6"/>
       <c r="U330" s="6"/>
       <c r="V330" s="6"/>
@@ -15113,13 +15090,13 @@
       <c r="J331" s="6"/>
       <c r="K331" s="6"/>
       <c r="L331" s="6"/>
-      <c r="M331" s="55"/>
-      <c r="N331" s="55"/>
+      <c r="M331" s="56"/>
+      <c r="N331" s="56"/>
       <c r="O331" s="6"/>
       <c r="P331" s="6"/>
       <c r="Q331" s="6"/>
       <c r="R331" s="6"/>
-      <c r="S331" s="62"/>
+      <c r="S331" s="63"/>
       <c r="T331" s="6"/>
       <c r="U331" s="6"/>
       <c r="V331" s="6"/>
@@ -15138,13 +15115,13 @@
       <c r="J332" s="6"/>
       <c r="K332" s="6"/>
       <c r="L332" s="6"/>
-      <c r="M332" s="55"/>
-      <c r="N332" s="55"/>
+      <c r="M332" s="56"/>
+      <c r="N332" s="56"/>
       <c r="O332" s="6"/>
       <c r="P332" s="6"/>
       <c r="Q332" s="6"/>
       <c r="R332" s="6"/>
-      <c r="S332" s="62"/>
+      <c r="S332" s="63"/>
       <c r="T332" s="6"/>
       <c r="U332" s="6"/>
       <c r="V332" s="6"/>
@@ -15163,13 +15140,13 @@
       <c r="J333" s="6"/>
       <c r="K333" s="6"/>
       <c r="L333" s="6"/>
-      <c r="M333" s="55"/>
-      <c r="N333" s="55"/>
+      <c r="M333" s="56"/>
+      <c r="N333" s="56"/>
       <c r="O333" s="6"/>
       <c r="P333" s="6"/>
       <c r="Q333" s="6"/>
       <c r="R333" s="6"/>
-      <c r="S333" s="62"/>
+      <c r="S333" s="63"/>
       <c r="T333" s="6"/>
       <c r="U333" s="6"/>
       <c r="V333" s="6"/>
@@ -15188,13 +15165,13 @@
       <c r="J334" s="6"/>
       <c r="K334" s="6"/>
       <c r="L334" s="6"/>
-      <c r="M334" s="55"/>
-      <c r="N334" s="55"/>
+      <c r="M334" s="56"/>
+      <c r="N334" s="56"/>
       <c r="O334" s="6"/>
       <c r="P334" s="6"/>
       <c r="Q334" s="6"/>
       <c r="R334" s="6"/>
-      <c r="S334" s="62"/>
+      <c r="S334" s="63"/>
       <c r="T334" s="6"/>
       <c r="U334" s="6"/>
       <c r="V334" s="6"/>
@@ -15213,13 +15190,13 @@
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
       <c r="L335" s="6"/>
-      <c r="M335" s="55"/>
-      <c r="N335" s="55"/>
+      <c r="M335" s="56"/>
+      <c r="N335" s="56"/>
       <c r="O335" s="6"/>
       <c r="P335" s="6"/>
       <c r="Q335" s="6"/>
       <c r="R335" s="6"/>
-      <c r="S335" s="62"/>
+      <c r="S335" s="63"/>
       <c r="T335" s="6"/>
       <c r="U335" s="6"/>
       <c r="V335" s="6"/>
@@ -15238,13 +15215,13 @@
       <c r="J336" s="6"/>
       <c r="K336" s="6"/>
       <c r="L336" s="6"/>
-      <c r="M336" s="55"/>
-      <c r="N336" s="55"/>
+      <c r="M336" s="56"/>
+      <c r="N336" s="56"/>
       <c r="O336" s="6"/>
       <c r="P336" s="6"/>
       <c r="Q336" s="6"/>
       <c r="R336" s="6"/>
-      <c r="S336" s="62"/>
+      <c r="S336" s="63"/>
       <c r="T336" s="6"/>
       <c r="U336" s="6"/>
       <c r="V336" s="6"/>
@@ -15263,13 +15240,13 @@
       <c r="J337" s="6"/>
       <c r="K337" s="6"/>
       <c r="L337" s="6"/>
-      <c r="M337" s="55"/>
-      <c r="N337" s="55"/>
+      <c r="M337" s="56"/>
+      <c r="N337" s="56"/>
       <c r="O337" s="6"/>
       <c r="P337" s="6"/>
       <c r="Q337" s="6"/>
       <c r="R337" s="6"/>
-      <c r="S337" s="62"/>
+      <c r="S337" s="63"/>
       <c r="T337" s="6"/>
       <c r="U337" s="6"/>
       <c r="V337" s="6"/>
@@ -15288,13 +15265,13 @@
       <c r="J338" s="6"/>
       <c r="K338" s="6"/>
       <c r="L338" s="6"/>
-      <c r="M338" s="55"/>
-      <c r="N338" s="55"/>
+      <c r="M338" s="56"/>
+      <c r="N338" s="56"/>
       <c r="O338" s="6"/>
       <c r="P338" s="6"/>
       <c r="Q338" s="6"/>
       <c r="R338" s="6"/>
-      <c r="S338" s="62"/>
+      <c r="S338" s="63"/>
       <c r="T338" s="6"/>
       <c r="U338" s="6"/>
       <c r="V338" s="6"/>
@@ -15313,13 +15290,13 @@
       <c r="J339" s="6"/>
       <c r="K339" s="6"/>
       <c r="L339" s="6"/>
-      <c r="M339" s="55"/>
-      <c r="N339" s="55"/>
+      <c r="M339" s="56"/>
+      <c r="N339" s="56"/>
       <c r="O339" s="6"/>
       <c r="P339" s="6"/>
       <c r="Q339" s="6"/>
       <c r="R339" s="6"/>
-      <c r="S339" s="62"/>
+      <c r="S339" s="63"/>
       <c r="T339" s="6"/>
       <c r="U339" s="6"/>
       <c r="V339" s="6"/>
@@ -15338,13 +15315,13 @@
       <c r="J340" s="6"/>
       <c r="K340" s="6"/>
       <c r="L340" s="6"/>
-      <c r="M340" s="55"/>
-      <c r="N340" s="55"/>
+      <c r="M340" s="56"/>
+      <c r="N340" s="56"/>
       <c r="O340" s="6"/>
       <c r="P340" s="6"/>
       <c r="Q340" s="6"/>
       <c r="R340" s="6"/>
-      <c r="S340" s="62"/>
+      <c r="S340" s="63"/>
       <c r="T340" s="6"/>
       <c r="U340" s="6"/>
       <c r="V340" s="6"/>
@@ -15363,13 +15340,13 @@
       <c r="J341" s="6"/>
       <c r="K341" s="6"/>
       <c r="L341" s="6"/>
-      <c r="M341" s="55"/>
-      <c r="N341" s="55"/>
+      <c r="M341" s="56"/>
+      <c r="N341" s="56"/>
       <c r="O341" s="6"/>
       <c r="P341" s="6"/>
       <c r="Q341" s="6"/>
       <c r="R341" s="6"/>
-      <c r="S341" s="62"/>
+      <c r="S341" s="63"/>
       <c r="T341" s="6"/>
       <c r="U341" s="6"/>
       <c r="V341" s="6"/>
@@ -15388,13 +15365,13 @@
       <c r="J342" s="6"/>
       <c r="K342" s="6"/>
       <c r="L342" s="6"/>
-      <c r="M342" s="55"/>
-      <c r="N342" s="55"/>
+      <c r="M342" s="56"/>
+      <c r="N342" s="56"/>
       <c r="O342" s="6"/>
       <c r="P342" s="6"/>
       <c r="Q342" s="6"/>
       <c r="R342" s="6"/>
-      <c r="S342" s="62"/>
+      <c r="S342" s="63"/>
       <c r="T342" s="6"/>
       <c r="U342" s="6"/>
       <c r="V342" s="6"/>
@@ -15413,13 +15390,13 @@
       <c r="J343" s="6"/>
       <c r="K343" s="6"/>
       <c r="L343" s="6"/>
-      <c r="M343" s="55"/>
-      <c r="N343" s="55"/>
+      <c r="M343" s="56"/>
+      <c r="N343" s="56"/>
       <c r="O343" s="6"/>
       <c r="P343" s="6"/>
       <c r="Q343" s="6"/>
       <c r="R343" s="6"/>
-      <c r="S343" s="62"/>
+      <c r="S343" s="63"/>
       <c r="T343" s="6"/>
       <c r="U343" s="6"/>
       <c r="V343" s="6"/>
@@ -15438,13 +15415,13 @@
       <c r="J344" s="6"/>
       <c r="K344" s="6"/>
       <c r="L344" s="6"/>
-      <c r="M344" s="55"/>
-      <c r="N344" s="55"/>
+      <c r="M344" s="56"/>
+      <c r="N344" s="56"/>
       <c r="O344" s="6"/>
       <c r="P344" s="6"/>
       <c r="Q344" s="6"/>
       <c r="R344" s="6"/>
-      <c r="S344" s="62"/>
+      <c r="S344" s="63"/>
       <c r="T344" s="6"/>
       <c r="U344" s="6"/>
       <c r="V344" s="6"/>
@@ -15463,13 +15440,13 @@
       <c r="J345" s="6"/>
       <c r="K345" s="6"/>
       <c r="L345" s="6"/>
-      <c r="M345" s="55"/>
-      <c r="N345" s="55"/>
+      <c r="M345" s="56"/>
+      <c r="N345" s="56"/>
       <c r="O345" s="6"/>
       <c r="P345" s="6"/>
       <c r="Q345" s="6"/>
       <c r="R345" s="6"/>
-      <c r="S345" s="62"/>
+      <c r="S345" s="63"/>
       <c r="T345" s="6"/>
       <c r="U345" s="6"/>
       <c r="V345" s="6"/>
@@ -15488,13 +15465,13 @@
       <c r="J346" s="6"/>
       <c r="K346" s="6"/>
       <c r="L346" s="6"/>
-      <c r="M346" s="55"/>
-      <c r="N346" s="55"/>
+      <c r="M346" s="56"/>
+      <c r="N346" s="56"/>
       <c r="O346" s="6"/>
       <c r="P346" s="6"/>
       <c r="Q346" s="6"/>
       <c r="R346" s="6"/>
-      <c r="S346" s="62"/>
+      <c r="S346" s="63"/>
       <c r="T346" s="6"/>
       <c r="U346" s="6"/>
       <c r="V346" s="6"/>
@@ -15513,13 +15490,13 @@
       <c r="J347" s="6"/>
       <c r="K347" s="6"/>
       <c r="L347" s="6"/>
-      <c r="M347" s="55"/>
-      <c r="N347" s="55"/>
+      <c r="M347" s="56"/>
+      <c r="N347" s="56"/>
       <c r="O347" s="6"/>
       <c r="P347" s="6"/>
       <c r="Q347" s="6"/>
       <c r="R347" s="6"/>
-      <c r="S347" s="62"/>
+      <c r="S347" s="63"/>
       <c r="T347" s="6"/>
       <c r="U347" s="6"/>
       <c r="V347" s="6"/>
@@ -15538,13 +15515,13 @@
       <c r="J348" s="6"/>
       <c r="K348" s="6"/>
       <c r="L348" s="6"/>
-      <c r="M348" s="55"/>
-      <c r="N348" s="55"/>
+      <c r="M348" s="56"/>
+      <c r="N348" s="56"/>
       <c r="O348" s="6"/>
       <c r="P348" s="6"/>
       <c r="Q348" s="6"/>
       <c r="R348" s="6"/>
-      <c r="S348" s="62"/>
+      <c r="S348" s="63"/>
       <c r="T348" s="6"/>
       <c r="U348" s="6"/>
       <c r="V348" s="6"/>
@@ -15563,13 +15540,13 @@
       <c r="J349" s="6"/>
       <c r="K349" s="6"/>
       <c r="L349" s="6"/>
-      <c r="M349" s="55"/>
-      <c r="N349" s="55"/>
+      <c r="M349" s="56"/>
+      <c r="N349" s="56"/>
       <c r="O349" s="6"/>
       <c r="P349" s="6"/>
       <c r="Q349" s="6"/>
       <c r="R349" s="6"/>
-      <c r="S349" s="62"/>
+      <c r="S349" s="63"/>
       <c r="T349" s="6"/>
       <c r="U349" s="6"/>
       <c r="V349" s="6"/>
@@ -15588,13 +15565,13 @@
       <c r="J350" s="6"/>
       <c r="K350" s="6"/>
       <c r="L350" s="6"/>
-      <c r="M350" s="55"/>
-      <c r="N350" s="55"/>
+      <c r="M350" s="56"/>
+      <c r="N350" s="56"/>
       <c r="O350" s="6"/>
       <c r="P350" s="6"/>
       <c r="Q350" s="6"/>
       <c r="R350" s="6"/>
-      <c r="S350" s="62"/>
+      <c r="S350" s="63"/>
       <c r="T350" s="6"/>
       <c r="U350" s="6"/>
       <c r="V350" s="6"/>
@@ -15613,13 +15590,13 @@
       <c r="J351" s="6"/>
       <c r="K351" s="6"/>
       <c r="L351" s="6"/>
-      <c r="M351" s="55"/>
-      <c r="N351" s="55"/>
+      <c r="M351" s="56"/>
+      <c r="N351" s="56"/>
       <c r="O351" s="6"/>
       <c r="P351" s="6"/>
       <c r="Q351" s="6"/>
       <c r="R351" s="6"/>
-      <c r="S351" s="62"/>
+      <c r="S351" s="63"/>
       <c r="T351" s="6"/>
       <c r="U351" s="6"/>
       <c r="V351" s="6"/>
@@ -15638,13 +15615,13 @@
       <c r="J352" s="6"/>
       <c r="K352" s="6"/>
       <c r="L352" s="6"/>
-      <c r="M352" s="55"/>
-      <c r="N352" s="55"/>
+      <c r="M352" s="56"/>
+      <c r="N352" s="56"/>
       <c r="O352" s="6"/>
       <c r="P352" s="6"/>
       <c r="Q352" s="6"/>
       <c r="R352" s="6"/>
-      <c r="S352" s="62"/>
+      <c r="S352" s="63"/>
       <c r="T352" s="6"/>
       <c r="U352" s="6"/>
       <c r="V352" s="6"/>
@@ -15663,13 +15640,13 @@
       <c r="J353" s="6"/>
       <c r="K353" s="6"/>
       <c r="L353" s="6"/>
-      <c r="M353" s="55"/>
-      <c r="N353" s="55"/>
+      <c r="M353" s="56"/>
+      <c r="N353" s="56"/>
       <c r="O353" s="6"/>
       <c r="P353" s="6"/>
       <c r="Q353" s="6"/>
       <c r="R353" s="6"/>
-      <c r="S353" s="62"/>
+      <c r="S353" s="63"/>
       <c r="T353" s="6"/>
       <c r="U353" s="6"/>
       <c r="V353" s="6"/>
@@ -15688,13 +15665,13 @@
       <c r="J354" s="6"/>
       <c r="K354" s="6"/>
       <c r="L354" s="6"/>
-      <c r="M354" s="55"/>
-      <c r="N354" s="55"/>
+      <c r="M354" s="56"/>
+      <c r="N354" s="56"/>
       <c r="O354" s="6"/>
       <c r="P354" s="6"/>
       <c r="Q354" s="6"/>
       <c r="R354" s="6"/>
-      <c r="S354" s="62"/>
+      <c r="S354" s="63"/>
       <c r="T354" s="6"/>
       <c r="U354" s="6"/>
       <c r="V354" s="6"/>
@@ -15713,13 +15690,13 @@
       <c r="J355" s="6"/>
       <c r="K355" s="6"/>
       <c r="L355" s="6"/>
-      <c r="M355" s="55"/>
-      <c r="N355" s="55"/>
+      <c r="M355" s="56"/>
+      <c r="N355" s="56"/>
       <c r="O355" s="6"/>
       <c r="P355" s="6"/>
       <c r="Q355" s="6"/>
       <c r="R355" s="6"/>
-      <c r="S355" s="62"/>
+      <c r="S355" s="63"/>
       <c r="T355" s="6"/>
       <c r="U355" s="6"/>
       <c r="V355" s="6"/>
@@ -15738,13 +15715,13 @@
       <c r="J356" s="6"/>
       <c r="K356" s="6"/>
       <c r="L356" s="6"/>
-      <c r="M356" s="55"/>
-      <c r="N356" s="55"/>
+      <c r="M356" s="56"/>
+      <c r="N356" s="56"/>
       <c r="O356" s="6"/>
       <c r="P356" s="6"/>
       <c r="Q356" s="6"/>
       <c r="R356" s="6"/>
-      <c r="S356" s="62"/>
+      <c r="S356" s="63"/>
       <c r="T356" s="6"/>
       <c r="U356" s="6"/>
       <c r="V356" s="6"/>
@@ -15763,13 +15740,13 @@
       <c r="J357" s="6"/>
       <c r="K357" s="6"/>
       <c r="L357" s="6"/>
-      <c r="M357" s="55"/>
-      <c r="N357" s="55"/>
+      <c r="M357" s="56"/>
+      <c r="N357" s="56"/>
       <c r="O357" s="6"/>
       <c r="P357" s="6"/>
       <c r="Q357" s="6"/>
       <c r="R357" s="6"/>
-      <c r="S357" s="62"/>
+      <c r="S357" s="63"/>
       <c r="T357" s="6"/>
       <c r="U357" s="6"/>
       <c r="V357" s="6"/>
@@ -15788,13 +15765,13 @@
       <c r="J358" s="6"/>
       <c r="K358" s="6"/>
       <c r="L358" s="6"/>
-      <c r="M358" s="55"/>
-      <c r="N358" s="55"/>
+      <c r="M358" s="56"/>
+      <c r="N358" s="56"/>
       <c r="O358" s="6"/>
       <c r="P358" s="6"/>
       <c r="Q358" s="6"/>
       <c r="R358" s="6"/>
-      <c r="S358" s="62"/>
+      <c r="S358" s="63"/>
       <c r="T358" s="6"/>
       <c r="U358" s="6"/>
       <c r="V358" s="6"/>
@@ -15813,13 +15790,13 @@
       <c r="J359" s="6"/>
       <c r="K359" s="6"/>
       <c r="L359" s="6"/>
-      <c r="M359" s="55"/>
-      <c r="N359" s="55"/>
+      <c r="M359" s="56"/>
+      <c r="N359" s="56"/>
       <c r="O359" s="6"/>
       <c r="P359" s="6"/>
       <c r="Q359" s="6"/>
       <c r="R359" s="6"/>
-      <c r="S359" s="62"/>
+      <c r="S359" s="63"/>
       <c r="T359" s="6"/>
       <c r="U359" s="6"/>
       <c r="V359" s="6"/>
@@ -15838,13 +15815,13 @@
       <c r="J360" s="6"/>
       <c r="K360" s="6"/>
       <c r="L360" s="6"/>
-      <c r="M360" s="55"/>
-      <c r="N360" s="55"/>
+      <c r="M360" s="56"/>
+      <c r="N360" s="56"/>
       <c r="O360" s="6"/>
       <c r="P360" s="6"/>
       <c r="Q360" s="6"/>
       <c r="R360" s="6"/>
-      <c r="S360" s="62"/>
+      <c r="S360" s="63"/>
       <c r="T360" s="6"/>
       <c r="U360" s="6"/>
       <c r="V360" s="6"/>
@@ -15863,13 +15840,13 @@
       <c r="J361" s="6"/>
       <c r="K361" s="6"/>
       <c r="L361" s="6"/>
-      <c r="M361" s="55"/>
-      <c r="N361" s="55"/>
+      <c r="M361" s="56"/>
+      <c r="N361" s="56"/>
       <c r="O361" s="6"/>
       <c r="P361" s="6"/>
       <c r="Q361" s="6"/>
       <c r="R361" s="6"/>
-      <c r="S361" s="62"/>
+      <c r="S361" s="63"/>
       <c r="T361" s="6"/>
       <c r="U361" s="6"/>
       <c r="V361" s="6"/>
@@ -15888,13 +15865,13 @@
       <c r="J362" s="6"/>
       <c r="K362" s="6"/>
       <c r="L362" s="6"/>
-      <c r="M362" s="55"/>
-      <c r="N362" s="55"/>
+      <c r="M362" s="56"/>
+      <c r="N362" s="56"/>
       <c r="O362" s="6"/>
       <c r="P362" s="6"/>
       <c r="Q362" s="6"/>
       <c r="R362" s="6"/>
-      <c r="S362" s="62"/>
+      <c r="S362" s="63"/>
       <c r="T362" s="6"/>
       <c r="U362" s="6"/>
       <c r="V362" s="6"/>
@@ -15913,13 +15890,13 @@
       <c r="J363" s="6"/>
       <c r="K363" s="6"/>
       <c r="L363" s="6"/>
-      <c r="M363" s="55"/>
-      <c r="N363" s="55"/>
+      <c r="M363" s="56"/>
+      <c r="N363" s="56"/>
       <c r="O363" s="6"/>
       <c r="P363" s="6"/>
       <c r="Q363" s="6"/>
       <c r="R363" s="6"/>
-      <c r="S363" s="62"/>
+      <c r="S363" s="63"/>
       <c r="T363" s="6"/>
       <c r="U363" s="6"/>
       <c r="V363" s="6"/>
@@ -15938,13 +15915,13 @@
       <c r="J364" s="6"/>
       <c r="K364" s="6"/>
       <c r="L364" s="6"/>
-      <c r="M364" s="55"/>
-      <c r="N364" s="55"/>
+      <c r="M364" s="56"/>
+      <c r="N364" s="56"/>
       <c r="O364" s="6"/>
       <c r="P364" s="6"/>
       <c r="Q364" s="6"/>
       <c r="R364" s="6"/>
-      <c r="S364" s="62"/>
+      <c r="S364" s="63"/>
       <c r="T364" s="6"/>
       <c r="U364" s="6"/>
       <c r="V364" s="6"/>
@@ -15963,13 +15940,13 @@
       <c r="J365" s="6"/>
       <c r="K365" s="6"/>
       <c r="L365" s="6"/>
-      <c r="M365" s="55"/>
-      <c r="N365" s="55"/>
+      <c r="M365" s="56"/>
+      <c r="N365" s="56"/>
       <c r="O365" s="6"/>
       <c r="P365" s="6"/>
       <c r="Q365" s="6"/>
       <c r="R365" s="6"/>
-      <c r="S365" s="62"/>
+      <c r="S365" s="63"/>
       <c r="T365" s="6"/>
       <c r="U365" s="6"/>
       <c r="V365" s="6"/>
@@ -15988,13 +15965,13 @@
       <c r="J366" s="6"/>
       <c r="K366" s="6"/>
       <c r="L366" s="6"/>
-      <c r="M366" s="55"/>
-      <c r="N366" s="55"/>
+      <c r="M366" s="56"/>
+      <c r="N366" s="56"/>
       <c r="O366" s="6"/>
       <c r="P366" s="6"/>
       <c r="Q366" s="6"/>
       <c r="R366" s="6"/>
-      <c r="S366" s="62"/>
+      <c r="S366" s="63"/>
       <c r="T366" s="6"/>
       <c r="U366" s="6"/>
       <c r="V366" s="6"/>
@@ -16013,13 +15990,13 @@
       <c r="J367" s="6"/>
       <c r="K367" s="6"/>
       <c r="L367" s="6"/>
-      <c r="M367" s="55"/>
-      <c r="N367" s="55"/>
+      <c r="M367" s="56"/>
+      <c r="N367" s="56"/>
       <c r="O367" s="6"/>
       <c r="P367" s="6"/>
       <c r="Q367" s="6"/>
       <c r="R367" s="6"/>
-      <c r="S367" s="62"/>
+      <c r="S367" s="63"/>
       <c r="T367" s="6"/>
       <c r="U367" s="6"/>
       <c r="V367" s="6"/>
@@ -16038,13 +16015,13 @@
       <c r="J368" s="6"/>
       <c r="K368" s="6"/>
       <c r="L368" s="6"/>
-      <c r="M368" s="55"/>
-      <c r="N368" s="55"/>
+      <c r="M368" s="56"/>
+      <c r="N368" s="56"/>
       <c r="O368" s="6"/>
       <c r="P368" s="6"/>
       <c r="Q368" s="6"/>
       <c r="R368" s="6"/>
-      <c r="S368" s="62"/>
+      <c r="S368" s="63"/>
       <c r="T368" s="6"/>
       <c r="U368" s="6"/>
       <c r="V368" s="6"/>
@@ -16063,13 +16040,13 @@
       <c r="J369" s="6"/>
       <c r="K369" s="6"/>
       <c r="L369" s="6"/>
-      <c r="M369" s="55"/>
-      <c r="N369" s="55"/>
+      <c r="M369" s="56"/>
+      <c r="N369" s="56"/>
       <c r="O369" s="6"/>
       <c r="P369" s="6"/>
       <c r="Q369" s="6"/>
       <c r="R369" s="6"/>
-      <c r="S369" s="62"/>
+      <c r="S369" s="63"/>
       <c r="T369" s="6"/>
       <c r="U369" s="6"/>
       <c r="V369" s="6"/>
@@ -16088,13 +16065,13 @@
       <c r="J370" s="6"/>
       <c r="K370" s="6"/>
       <c r="L370" s="6"/>
-      <c r="M370" s="55"/>
-      <c r="N370" s="55"/>
+      <c r="M370" s="56"/>
+      <c r="N370" s="56"/>
       <c r="O370" s="6"/>
       <c r="P370" s="6"/>
       <c r="Q370" s="6"/>
       <c r="R370" s="6"/>
-      <c r="S370" s="62"/>
+      <c r="S370" s="63"/>
       <c r="T370" s="6"/>
       <c r="U370" s="6"/>
       <c r="V370" s="6"/>
@@ -16113,13 +16090,13 @@
       <c r="J371" s="6"/>
       <c r="K371" s="6"/>
       <c r="L371" s="6"/>
-      <c r="M371" s="55"/>
-      <c r="N371" s="55"/>
+      <c r="M371" s="56"/>
+      <c r="N371" s="56"/>
       <c r="O371" s="6"/>
       <c r="P371" s="6"/>
       <c r="Q371" s="6"/>
       <c r="R371" s="6"/>
-      <c r="S371" s="62"/>
+      <c r="S371" s="63"/>
       <c r="T371" s="6"/>
       <c r="U371" s="6"/>
       <c r="V371" s="6"/>
@@ -16138,13 +16115,13 @@
       <c r="J372" s="6"/>
       <c r="K372" s="6"/>
       <c r="L372" s="6"/>
-      <c r="M372" s="55"/>
-      <c r="N372" s="55"/>
+      <c r="M372" s="56"/>
+      <c r="N372" s="56"/>
       <c r="O372" s="6"/>
       <c r="P372" s="6"/>
       <c r="Q372" s="6"/>
       <c r="R372" s="6"/>
-      <c r="S372" s="62"/>
+      <c r="S372" s="63"/>
       <c r="T372" s="6"/>
       <c r="U372" s="6"/>
       <c r="V372" s="6"/>
@@ -16163,13 +16140,13 @@
       <c r="J373" s="6"/>
       <c r="K373" s="6"/>
       <c r="L373" s="6"/>
-      <c r="M373" s="55"/>
-      <c r="N373" s="55"/>
+      <c r="M373" s="56"/>
+      <c r="N373" s="56"/>
       <c r="O373" s="6"/>
       <c r="P373" s="6"/>
       <c r="Q373" s="6"/>
       <c r="R373" s="6"/>
-      <c r="S373" s="62"/>
+      <c r="S373" s="63"/>
       <c r="T373" s="6"/>
       <c r="U373" s="6"/>
       <c r="V373" s="6"/>
@@ -16188,13 +16165,13 @@
       <c r="J374" s="6"/>
       <c r="K374" s="6"/>
       <c r="L374" s="6"/>
-      <c r="M374" s="55"/>
-      <c r="N374" s="55"/>
+      <c r="M374" s="56"/>
+      <c r="N374" s="56"/>
       <c r="O374" s="6"/>
       <c r="P374" s="6"/>
       <c r="Q374" s="6"/>
       <c r="R374" s="6"/>
-      <c r="S374" s="62"/>
+      <c r="S374" s="63"/>
       <c r="T374" s="6"/>
       <c r="U374" s="6"/>
       <c r="V374" s="6"/>
@@ -16213,13 +16190,13 @@
       <c r="J375" s="6"/>
       <c r="K375" s="6"/>
       <c r="L375" s="6"/>
-      <c r="M375" s="55"/>
-      <c r="N375" s="55"/>
+      <c r="M375" s="56"/>
+      <c r="N375" s="56"/>
       <c r="O375" s="6"/>
       <c r="P375" s="6"/>
       <c r="Q375" s="6"/>
       <c r="R375" s="6"/>
-      <c r="S375" s="62"/>
+      <c r="S375" s="63"/>
       <c r="T375" s="6"/>
       <c r="U375" s="6"/>
       <c r="V375" s="6"/>
@@ -16238,13 +16215,13 @@
       <c r="J376" s="6"/>
       <c r="K376" s="6"/>
       <c r="L376" s="6"/>
-      <c r="M376" s="55"/>
-      <c r="N376" s="55"/>
+      <c r="M376" s="56"/>
+      <c r="N376" s="56"/>
       <c r="O376" s="6"/>
       <c r="P376" s="6"/>
       <c r="Q376" s="6"/>
       <c r="R376" s="6"/>
-      <c r="S376" s="62"/>
+      <c r="S376" s="63"/>
       <c r="T376" s="6"/>
       <c r="U376" s="6"/>
       <c r="V376" s="6"/>
@@ -16263,13 +16240,13 @@
       <c r="J377" s="6"/>
       <c r="K377" s="6"/>
       <c r="L377" s="6"/>
-      <c r="M377" s="55"/>
-      <c r="N377" s="55"/>
+      <c r="M377" s="56"/>
+      <c r="N377" s="56"/>
       <c r="O377" s="6"/>
       <c r="P377" s="6"/>
       <c r="Q377" s="6"/>
       <c r="R377" s="6"/>
-      <c r="S377" s="62"/>
+      <c r="S377" s="63"/>
       <c r="T377" s="6"/>
       <c r="U377" s="6"/>
       <c r="V377" s="6"/>
@@ -16288,13 +16265,13 @@
       <c r="J378" s="6"/>
       <c r="K378" s="6"/>
       <c r="L378" s="6"/>
-      <c r="M378" s="55"/>
-      <c r="N378" s="55"/>
+      <c r="M378" s="56"/>
+      <c r="N378" s="56"/>
       <c r="O378" s="6"/>
       <c r="P378" s="6"/>
       <c r="Q378" s="6"/>
       <c r="R378" s="6"/>
-      <c r="S378" s="62"/>
+      <c r="S378" s="63"/>
       <c r="T378" s="6"/>
       <c r="U378" s="6"/>
       <c r="V378" s="6"/>
@@ -16313,13 +16290,13 @@
       <c r="J379" s="6"/>
       <c r="K379" s="6"/>
       <c r="L379" s="6"/>
-      <c r="M379" s="55"/>
-      <c r="N379" s="55"/>
+      <c r="M379" s="56"/>
+      <c r="N379" s="56"/>
       <c r="O379" s="6"/>
       <c r="P379" s="6"/>
       <c r="Q379" s="6"/>
       <c r="R379" s="6"/>
-      <c r="S379" s="62"/>
+      <c r="S379" s="63"/>
       <c r="T379" s="6"/>
       <c r="U379" s="6"/>
       <c r="V379" s="6"/>
@@ -16338,13 +16315,13 @@
       <c r="J380" s="6"/>
       <c r="K380" s="6"/>
       <c r="L380" s="6"/>
-      <c r="M380" s="55"/>
-      <c r="N380" s="55"/>
+      <c r="M380" s="56"/>
+      <c r="N380" s="56"/>
       <c r="O380" s="6"/>
       <c r="P380" s="6"/>
       <c r="Q380" s="6"/>
       <c r="R380" s="6"/>
-      <c r="S380" s="62"/>
+      <c r="S380" s="63"/>
       <c r="T380" s="6"/>
       <c r="U380" s="6"/>
       <c r="V380" s="6"/>
@@ -16363,13 +16340,13 @@
       <c r="J381" s="6"/>
       <c r="K381" s="6"/>
       <c r="L381" s="6"/>
-      <c r="M381" s="55"/>
-      <c r="N381" s="55"/>
+      <c r="M381" s="56"/>
+      <c r="N381" s="56"/>
       <c r="O381" s="6"/>
       <c r="P381" s="6"/>
       <c r="Q381" s="6"/>
       <c r="R381" s="6"/>
-      <c r="S381" s="62"/>
+      <c r="S381" s="63"/>
       <c r="T381" s="6"/>
       <c r="U381" s="6"/>
       <c r="V381" s="6"/>
@@ -16388,13 +16365,13 @@
       <c r="J382" s="6"/>
       <c r="K382" s="6"/>
       <c r="L382" s="6"/>
-      <c r="M382" s="55"/>
-      <c r="N382" s="55"/>
+      <c r="M382" s="56"/>
+      <c r="N382" s="56"/>
       <c r="O382" s="6"/>
       <c r="P382" s="6"/>
       <c r="Q382" s="6"/>
       <c r="R382" s="6"/>
-      <c r="S382" s="62"/>
+      <c r="S382" s="63"/>
       <c r="T382" s="6"/>
       <c r="U382" s="6"/>
       <c r="V382" s="6"/>
@@ -16413,13 +16390,13 @@
       <c r="J383" s="6"/>
       <c r="K383" s="6"/>
       <c r="L383" s="6"/>
-      <c r="M383" s="55"/>
-      <c r="N383" s="55"/>
+      <c r="M383" s="56"/>
+      <c r="N383" s="56"/>
       <c r="O383" s="6"/>
       <c r="P383" s="6"/>
       <c r="Q383" s="6"/>
       <c r="R383" s="6"/>
-      <c r="S383" s="62"/>
+      <c r="S383" s="63"/>
       <c r="T383" s="6"/>
       <c r="U383" s="6"/>
       <c r="V383" s="6"/>
@@ -16438,13 +16415,13 @@
       <c r="J384" s="6"/>
       <c r="K384" s="6"/>
       <c r="L384" s="6"/>
-      <c r="M384" s="55"/>
-      <c r="N384" s="55"/>
+      <c r="M384" s="56"/>
+      <c r="N384" s="56"/>
       <c r="O384" s="6"/>
       <c r="P384" s="6"/>
       <c r="Q384" s="6"/>
       <c r="R384" s="6"/>
-      <c r="S384" s="62"/>
+      <c r="S384" s="63"/>
       <c r="T384" s="6"/>
       <c r="U384" s="6"/>
       <c r="V384" s="6"/>
@@ -16463,13 +16440,13 @@
       <c r="J385" s="6"/>
       <c r="K385" s="6"/>
       <c r="L385" s="6"/>
-      <c r="M385" s="55"/>
-      <c r="N385" s="55"/>
+      <c r="M385" s="56"/>
+      <c r="N385" s="56"/>
       <c r="O385" s="6"/>
       <c r="P385" s="6"/>
       <c r="Q385" s="6"/>
       <c r="R385" s="6"/>
-      <c r="S385" s="62"/>
+      <c r="S385" s="63"/>
       <c r="T385" s="6"/>
       <c r="U385" s="6"/>
       <c r="V385" s="6"/>
@@ -16488,13 +16465,13 @@
       <c r="J386" s="6"/>
       <c r="K386" s="6"/>
       <c r="L386" s="6"/>
-      <c r="M386" s="55"/>
-      <c r="N386" s="55"/>
+      <c r="M386" s="56"/>
+      <c r="N386" s="56"/>
       <c r="O386" s="6"/>
       <c r="P386" s="6"/>
       <c r="Q386" s="6"/>
       <c r="R386" s="6"/>
-      <c r="S386" s="62"/>
+      <c r="S386" s="63"/>
       <c r="T386" s="6"/>
       <c r="U386" s="6"/>
       <c r="V386" s="6"/>
@@ -16513,13 +16490,13 @@
       <c r="J387" s="6"/>
       <c r="K387" s="6"/>
       <c r="L387" s="6"/>
-      <c r="M387" s="55"/>
-      <c r="N387" s="55"/>
+      <c r="M387" s="56"/>
+      <c r="N387" s="56"/>
       <c r="O387" s="6"/>
       <c r="P387" s="6"/>
       <c r="Q387" s="6"/>
       <c r="R387" s="6"/>
-      <c r="S387" s="62"/>
+      <c r="S387" s="63"/>
       <c r="T387" s="6"/>
       <c r="U387" s="6"/>
       <c r="V387" s="6"/>
@@ -16538,13 +16515,13 @@
       <c r="J388" s="6"/>
       <c r="K388" s="6"/>
       <c r="L388" s="6"/>
-      <c r="M388" s="55"/>
-      <c r="N388" s="55"/>
+      <c r="M388" s="56"/>
+      <c r="N388" s="56"/>
       <c r="O388" s="6"/>
       <c r="P388" s="6"/>
       <c r="Q388" s="6"/>
       <c r="R388" s="6"/>
-      <c r="S388" s="62"/>
+      <c r="S388" s="63"/>
       <c r="T388" s="6"/>
       <c r="U388" s="6"/>
       <c r="V388" s="6"/>
@@ -16563,13 +16540,13 @@
       <c r="J389" s="6"/>
       <c r="K389" s="6"/>
       <c r="L389" s="6"/>
-      <c r="M389" s="55"/>
-      <c r="N389" s="55"/>
+      <c r="M389" s="56"/>
+      <c r="N389" s="56"/>
       <c r="O389" s="6"/>
       <c r="P389" s="6"/>
       <c r="Q389" s="6"/>
       <c r="R389" s="6"/>
-      <c r="S389" s="62"/>
+      <c r="S389" s="63"/>
       <c r="T389" s="6"/>
       <c r="U389" s="6"/>
       <c r="V389" s="6"/>
@@ -16588,13 +16565,13 @@
       <c r="J390" s="6"/>
       <c r="K390" s="6"/>
       <c r="L390" s="6"/>
-      <c r="M390" s="55"/>
-      <c r="N390" s="55"/>
+      <c r="M390" s="56"/>
+      <c r="N390" s="56"/>
       <c r="O390" s="6"/>
       <c r="P390" s="6"/>
       <c r="Q390" s="6"/>
       <c r="R390" s="6"/>
-      <c r="S390" s="62"/>
+      <c r="S390" s="63"/>
       <c r="T390" s="6"/>
       <c r="U390" s="6"/>
       <c r="V390" s="6"/>
@@ -16613,13 +16590,13 @@
       <c r="J391" s="6"/>
       <c r="K391" s="6"/>
       <c r="L391" s="6"/>
-      <c r="M391" s="55"/>
-      <c r="N391" s="55"/>
+      <c r="M391" s="56"/>
+      <c r="N391" s="56"/>
       <c r="O391" s="6"/>
       <c r="P391" s="6"/>
       <c r="Q391" s="6"/>
       <c r="R391" s="6"/>
-      <c r="S391" s="62"/>
+      <c r="S391" s="63"/>
       <c r="T391" s="6"/>
       <c r="U391" s="6"/>
       <c r="V391" s="6"/>
@@ -16638,13 +16615,13 @@
       <c r="J392" s="6"/>
       <c r="K392" s="6"/>
       <c r="L392" s="6"/>
-      <c r="M392" s="55"/>
-      <c r="N392" s="55"/>
+      <c r="M392" s="56"/>
+      <c r="N392" s="56"/>
       <c r="O392" s="6"/>
       <c r="P392" s="6"/>
       <c r="Q392" s="6"/>
       <c r="R392" s="6"/>
-      <c r="S392" s="62"/>
+      <c r="S392" s="63"/>
       <c r="T392" s="6"/>
       <c r="U392" s="6"/>
       <c r="V392" s="6"/>
@@ -16663,13 +16640,13 @@
       <c r="J393" s="6"/>
       <c r="K393" s="6"/>
       <c r="L393" s="6"/>
-      <c r="M393" s="55"/>
-      <c r="N393" s="55"/>
+      <c r="M393" s="56"/>
+      <c r="N393" s="56"/>
       <c r="O393" s="6"/>
       <c r="P393" s="6"/>
       <c r="Q393" s="6"/>
       <c r="R393" s="6"/>
-      <c r="S393" s="62"/>
+      <c r="S393" s="63"/>
       <c r="T393" s="6"/>
       <c r="U393" s="6"/>
       <c r="V393" s="6"/>
@@ -16688,13 +16665,13 @@
       <c r="J394" s="6"/>
       <c r="K394" s="6"/>
       <c r="L394" s="6"/>
-      <c r="M394" s="55"/>
-      <c r="N394" s="55"/>
+      <c r="M394" s="56"/>
+      <c r="N394" s="56"/>
       <c r="O394" s="6"/>
       <c r="P394" s="6"/>
       <c r="Q394" s="6"/>
       <c r="R394" s="6"/>
-      <c r="S394" s="62"/>
+      <c r="S394" s="63"/>
       <c r="T394" s="6"/>
       <c r="U394" s="6"/>
       <c r="V394" s="6"/>
@@ -16713,13 +16690,13 @@
       <c r="J395" s="6"/>
       <c r="K395" s="6"/>
       <c r="L395" s="6"/>
-      <c r="M395" s="55"/>
-      <c r="N395" s="55"/>
+      <c r="M395" s="56"/>
+      <c r="N395" s="56"/>
       <c r="O395" s="6"/>
       <c r="P395" s="6"/>
       <c r="Q395" s="6"/>
       <c r="R395" s="6"/>
-      <c r="S395" s="62"/>
+      <c r="S395" s="63"/>
       <c r="T395" s="6"/>
       <c r="U395" s="6"/>
       <c r="V395" s="6"/>
@@ -16738,13 +16715,13 @@
       <c r="J396" s="6"/>
       <c r="K396" s="6"/>
       <c r="L396" s="6"/>
-      <c r="M396" s="55"/>
-      <c r="N396" s="55"/>
+      <c r="M396" s="56"/>
+      <c r="N396" s="56"/>
       <c r="O396" s="6"/>
       <c r="P396" s="6"/>
       <c r="Q396" s="6"/>
       <c r="R396" s="6"/>
-      <c r="S396" s="62"/>
+      <c r="S396" s="63"/>
       <c r="T396" s="6"/>
       <c r="U396" s="6"/>
       <c r="V396" s="6"/>
@@ -16763,13 +16740,13 @@
       <c r="J397" s="6"/>
       <c r="K397" s="6"/>
       <c r="L397" s="6"/>
-      <c r="M397" s="55"/>
-      <c r="N397" s="55"/>
+      <c r="M397" s="56"/>
+      <c r="N397" s="56"/>
       <c r="O397" s="6"/>
       <c r="P397" s="6"/>
       <c r="Q397" s="6"/>
       <c r="R397" s="6"/>
-      <c r="S397" s="62"/>
+      <c r="S397" s="63"/>
       <c r="T397" s="6"/>
       <c r="U397" s="6"/>
       <c r="V397" s="6"/>
@@ -16788,13 +16765,13 @@
       <c r="J398" s="6"/>
       <c r="K398" s="6"/>
       <c r="L398" s="6"/>
-      <c r="M398" s="55"/>
-      <c r="N398" s="55"/>
+      <c r="M398" s="56"/>
+      <c r="N398" s="56"/>
       <c r="O398" s="6"/>
       <c r="P398" s="6"/>
       <c r="Q398" s="6"/>
       <c r="R398" s="6"/>
-      <c r="S398" s="62"/>
+      <c r="S398" s="63"/>
       <c r="T398" s="6"/>
       <c r="U398" s="6"/>
       <c r="V398" s="6"/>
@@ -16813,13 +16790,13 @@
       <c r="J399" s="6"/>
       <c r="K399" s="6"/>
       <c r="L399" s="6"/>
-      <c r="M399" s="55"/>
-      <c r="N399" s="55"/>
+      <c r="M399" s="56"/>
+      <c r="N399" s="56"/>
       <c r="O399" s="6"/>
       <c r="P399" s="6"/>
       <c r="Q399" s="6"/>
       <c r="R399" s="6"/>
-      <c r="S399" s="62"/>
+      <c r="S399" s="63"/>
       <c r="T399" s="6"/>
       <c r="U399" s="6"/>
       <c r="V399" s="6"/>
@@ -16838,13 +16815,13 @@
       <c r="J400" s="6"/>
       <c r="K400" s="6"/>
       <c r="L400" s="6"/>
-      <c r="M400" s="55"/>
-      <c r="N400" s="55"/>
+      <c r="M400" s="56"/>
+      <c r="N400" s="56"/>
       <c r="O400" s="6"/>
       <c r="P400" s="6"/>
       <c r="Q400" s="6"/>
       <c r="R400" s="6"/>
-      <c r="S400" s="62"/>
+      <c r="S400" s="63"/>
       <c r="T400" s="6"/>
       <c r="U400" s="6"/>
       <c r="V400" s="6"/>
@@ -16863,13 +16840,13 @@
       <c r="J401" s="6"/>
       <c r="K401" s="6"/>
       <c r="L401" s="6"/>
-      <c r="M401" s="55"/>
-      <c r="N401" s="55"/>
+      <c r="M401" s="56"/>
+      <c r="N401" s="56"/>
       <c r="O401" s="6"/>
       <c r="P401" s="6"/>
       <c r="Q401" s="6"/>
       <c r="R401" s="6"/>
-      <c r="S401" s="62"/>
+      <c r="S401" s="63"/>
       <c r="T401" s="6"/>
       <c r="U401" s="6"/>
       <c r="V401" s="6"/>
@@ -16888,13 +16865,13 @@
       <c r="J402" s="6"/>
       <c r="K402" s="6"/>
       <c r="L402" s="6"/>
-      <c r="M402" s="55"/>
-      <c r="N402" s="55"/>
+      <c r="M402" s="56"/>
+      <c r="N402" s="56"/>
       <c r="O402" s="6"/>
       <c r="P402" s="6"/>
       <c r="Q402" s="6"/>
       <c r="R402" s="6"/>
-      <c r="S402" s="62"/>
+      <c r="S402" s="63"/>
       <c r="T402" s="6"/>
       <c r="U402" s="6"/>
       <c r="V402" s="6"/>
@@ -16913,13 +16890,13 @@
       <c r="J403" s="6"/>
       <c r="K403" s="6"/>
       <c r="L403" s="6"/>
-      <c r="M403" s="55"/>
-      <c r="N403" s="55"/>
+      <c r="M403" s="56"/>
+      <c r="N403" s="56"/>
       <c r="O403" s="6"/>
       <c r="P403" s="6"/>
       <c r="Q403" s="6"/>
       <c r="R403" s="6"/>
-      <c r="S403" s="62"/>
+      <c r="S403" s="63"/>
       <c r="T403" s="6"/>
       <c r="U403" s="6"/>
       <c r="V403" s="6"/>
@@ -16938,13 +16915,13 @@
       <c r="J404" s="6"/>
       <c r="K404" s="6"/>
       <c r="L404" s="6"/>
-      <c r="M404" s="55"/>
-      <c r="N404" s="55"/>
+      <c r="M404" s="56"/>
+      <c r="N404" s="56"/>
       <c r="O404" s="6"/>
       <c r="P404" s="6"/>
       <c r="Q404" s="6"/>
       <c r="R404" s="6"/>
-      <c r="S404" s="62"/>
+      <c r="S404" s="63"/>
       <c r="T404" s="6"/>
       <c r="U404" s="6"/>
       <c r="V404" s="6"/>
@@ -16963,13 +16940,13 @@
       <c r="J405" s="6"/>
       <c r="K405" s="6"/>
       <c r="L405" s="6"/>
-      <c r="M405" s="55"/>
-      <c r="N405" s="55"/>
+      <c r="M405" s="56"/>
+      <c r="N405" s="56"/>
       <c r="O405" s="6"/>
       <c r="P405" s="6"/>
       <c r="Q405" s="6"/>
       <c r="R405" s="6"/>
-      <c r="S405" s="62"/>
+      <c r="S405" s="63"/>
       <c r="T405" s="6"/>
       <c r="U405" s="6"/>
       <c r="V405" s="6"/>
@@ -16988,13 +16965,13 @@
       <c r="J406" s="6"/>
       <c r="K406" s="6"/>
       <c r="L406" s="6"/>
-      <c r="M406" s="55"/>
-      <c r="N406" s="55"/>
+      <c r="M406" s="56"/>
+      <c r="N406" s="56"/>
       <c r="O406" s="6"/>
       <c r="P406" s="6"/>
       <c r="Q406" s="6"/>
       <c r="R406" s="6"/>
-      <c r="S406" s="62"/>
+      <c r="S406" s="63"/>
       <c r="T406" s="6"/>
       <c r="U406" s="6"/>
       <c r="V406" s="6"/>
@@ -17013,13 +16990,13 @@
       <c r="J407" s="6"/>
       <c r="K407" s="6"/>
       <c r="L407" s="6"/>
-      <c r="M407" s="55"/>
-      <c r="N407" s="55"/>
+      <c r="M407" s="56"/>
+      <c r="N407" s="56"/>
       <c r="O407" s="6"/>
       <c r="P407" s="6"/>
       <c r="Q407" s="6"/>
       <c r="R407" s="6"/>
-      <c r="S407" s="62"/>
+      <c r="S407" s="63"/>
       <c r="T407" s="6"/>
       <c r="U407" s="6"/>
       <c r="V407" s="6"/>
@@ -17038,13 +17015,13 @@
       <c r="J408" s="6"/>
       <c r="K408" s="6"/>
       <c r="L408" s="6"/>
-      <c r="M408" s="55"/>
-      <c r="N408" s="55"/>
+      <c r="M408" s="56"/>
+      <c r="N408" s="56"/>
       <c r="O408" s="6"/>
       <c r="P408" s="6"/>
       <c r="Q408" s="6"/>
       <c r="R408" s="6"/>
-      <c r="S408" s="62"/>
+      <c r="S408" s="63"/>
       <c r="T408" s="6"/>
       <c r="U408" s="6"/>
       <c r="V408" s="6"/>
@@ -17063,13 +17040,13 @@
       <c r="J409" s="6"/>
       <c r="K409" s="6"/>
       <c r="L409" s="6"/>
-      <c r="M409" s="55"/>
-      <c r="N409" s="55"/>
+      <c r="M409" s="56"/>
+      <c r="N409" s="56"/>
       <c r="O409" s="6"/>
       <c r="P409" s="6"/>
       <c r="Q409" s="6"/>
       <c r="R409" s="6"/>
-      <c r="S409" s="62"/>
+      <c r="S409" s="63"/>
       <c r="T409" s="6"/>
       <c r="U409" s="6"/>
       <c r="V409" s="6"/>
@@ -17088,13 +17065,13 @@
       <c r="J410" s="6"/>
       <c r="K410" s="6"/>
       <c r="L410" s="6"/>
-      <c r="M410" s="55"/>
-      <c r="N410" s="55"/>
+      <c r="M410" s="56"/>
+      <c r="N410" s="56"/>
       <c r="O410" s="6"/>
       <c r="P410" s="6"/>
       <c r="Q410" s="6"/>
       <c r="R410" s="6"/>
-      <c r="S410" s="62"/>
+      <c r="S410" s="63"/>
       <c r="T410" s="6"/>
       <c r="U410" s="6"/>
       <c r="V410" s="6"/>
@@ -17113,13 +17090,13 @@
       <c r="J411" s="6"/>
       <c r="K411" s="6"/>
       <c r="L411" s="6"/>
-      <c r="M411" s="55"/>
-      <c r="N411" s="55"/>
+      <c r="M411" s="56"/>
+      <c r="N411" s="56"/>
       <c r="O411" s="6"/>
       <c r="P411" s="6"/>
       <c r="Q411" s="6"/>
       <c r="R411" s="6"/>
-      <c r="S411" s="62"/>
+      <c r="S411" s="63"/>
       <c r="T411" s="6"/>
       <c r="U411" s="6"/>
       <c r="V411" s="6"/>
@@ -17138,13 +17115,13 @@
       <c r="J412" s="6"/>
       <c r="K412" s="6"/>
       <c r="L412" s="6"/>
-      <c r="M412" s="55"/>
-      <c r="N412" s="55"/>
+      <c r="M412" s="56"/>
+      <c r="N412" s="56"/>
       <c r="O412" s="6"/>
       <c r="P412" s="6"/>
       <c r="Q412" s="6"/>
       <c r="R412" s="6"/>
-      <c r="S412" s="62"/>
+      <c r="S412" s="63"/>
       <c r="T412" s="6"/>
       <c r="U412" s="6"/>
       <c r="V412" s="6"/>
@@ -17163,13 +17140,13 @@
       <c r="J413" s="6"/>
       <c r="K413" s="6"/>
       <c r="L413" s="6"/>
-      <c r="M413" s="55"/>
-      <c r="N413" s="55"/>
+      <c r="M413" s="56"/>
+      <c r="N413" s="56"/>
       <c r="O413" s="6"/>
       <c r="P413" s="6"/>
       <c r="Q413" s="6"/>
       <c r="R413" s="6"/>
-      <c r="S413" s="62"/>
+      <c r="S413" s="63"/>
       <c r="T413" s="6"/>
       <c r="U413" s="6"/>
       <c r="V413" s="6"/>
@@ -17188,13 +17165,13 @@
       <c r="J414" s="6"/>
       <c r="K414" s="6"/>
       <c r="L414" s="6"/>
-      <c r="M414" s="55"/>
-      <c r="N414" s="55"/>
+      <c r="M414" s="56"/>
+      <c r="N414" s="56"/>
       <c r="O414" s="6"/>
       <c r="P414" s="6"/>
       <c r="Q414" s="6"/>
       <c r="R414" s="6"/>
-      <c r="S414" s="62"/>
+      <c r="S414" s="63"/>
       <c r="T414" s="6"/>
       <c r="U414" s="6"/>
       <c r="V414" s="6"/>
@@ -17213,13 +17190,13 @@
       <c r="J415" s="6"/>
       <c r="K415" s="6"/>
       <c r="L415" s="6"/>
-      <c r="M415" s="55"/>
-      <c r="N415" s="55"/>
+      <c r="M415" s="56"/>
+      <c r="N415" s="56"/>
       <c r="O415" s="6"/>
       <c r="P415" s="6"/>
       <c r="Q415" s="6"/>
       <c r="R415" s="6"/>
-      <c r="S415" s="62"/>
+      <c r="S415" s="63"/>
       <c r="T415" s="6"/>
       <c r="U415" s="6"/>
       <c r="V415" s="6"/>
@@ -17238,13 +17215,13 @@
       <c r="J416" s="6"/>
       <c r="K416" s="6"/>
       <c r="L416" s="6"/>
-      <c r="M416" s="55"/>
-      <c r="N416" s="55"/>
+      <c r="M416" s="56"/>
+      <c r="N416" s="56"/>
       <c r="O416" s="6"/>
       <c r="P416" s="6"/>
       <c r="Q416" s="6"/>
       <c r="R416" s="6"/>
-      <c r="S416" s="62"/>
+      <c r="S416" s="63"/>
       <c r="T416" s="6"/>
       <c r="U416" s="6"/>
       <c r="V416" s="6"/>
@@ -17263,13 +17240,13 @@
       <c r="J417" s="6"/>
       <c r="K417" s="6"/>
       <c r="L417" s="6"/>
-      <c r="M417" s="55"/>
-      <c r="N417" s="55"/>
+      <c r="M417" s="56"/>
+      <c r="N417" s="56"/>
       <c r="O417" s="6"/>
       <c r="P417" s="6"/>
       <c r="Q417" s="6"/>
       <c r="R417" s="6"/>
-      <c r="S417" s="62"/>
+      <c r="S417" s="63"/>
       <c r="T417" s="6"/>
       <c r="U417" s="6"/>
       <c r="V417" s="6"/>
@@ -17288,13 +17265,13 @@
       <c r="J418" s="6"/>
       <c r="K418" s="6"/>
       <c r="L418" s="6"/>
-      <c r="M418" s="55"/>
-      <c r="N418" s="55"/>
+      <c r="M418" s="56"/>
+      <c r="N418" s="56"/>
       <c r="O418" s="6"/>
       <c r="P418" s="6"/>
       <c r="Q418" s="6"/>
       <c r="R418" s="6"/>
-      <c r="S418" s="62"/>
+      <c r="S418" s="63"/>
       <c r="T418" s="6"/>
       <c r="U418" s="6"/>
       <c r="V418" s="6"/>
@@ -17313,13 +17290,13 @@
       <c r="J419" s="6"/>
       <c r="K419" s="6"/>
       <c r="L419" s="6"/>
-      <c r="M419" s="55"/>
-      <c r="N419" s="55"/>
+      <c r="M419" s="56"/>
+      <c r="N419" s="56"/>
       <c r="O419" s="6"/>
       <c r="P419" s="6"/>
       <c r="Q419" s="6"/>
       <c r="R419" s="6"/>
-      <c r="S419" s="62"/>
+      <c r="S419" s="63"/>
       <c r="T419" s="6"/>
       <c r="U419" s="6"/>
       <c r="V419" s="6"/>
@@ -17338,13 +17315,13 @@
       <c r="J420" s="6"/>
       <c r="K420" s="6"/>
       <c r="L420" s="6"/>
-      <c r="M420" s="55"/>
-      <c r="N420" s="55"/>
+      <c r="M420" s="56"/>
+      <c r="N420" s="56"/>
       <c r="O420" s="6"/>
       <c r="P420" s="6"/>
       <c r="Q420" s="6"/>
       <c r="R420" s="6"/>
-      <c r="S420" s="62"/>
+      <c r="S420" s="63"/>
       <c r="T420" s="6"/>
       <c r="U420" s="6"/>
       <c r="V420" s="6"/>
@@ -17363,13 +17340,13 @@
       <c r="J421" s="6"/>
       <c r="K421" s="6"/>
       <c r="L421" s="6"/>
-      <c r="M421" s="55"/>
-      <c r="N421" s="55"/>
+      <c r="M421" s="56"/>
+      <c r="N421" s="56"/>
       <c r="O421" s="6"/>
       <c r="P421" s="6"/>
       <c r="Q421" s="6"/>
       <c r="R421" s="6"/>
-      <c r="S421" s="62"/>
+      <c r="S421" s="63"/>
       <c r="T421" s="6"/>
       <c r="U421" s="6"/>
       <c r="V421" s="6"/>
@@ -17388,13 +17365,13 @@
       <c r="J422" s="6"/>
       <c r="K422" s="6"/>
       <c r="L422" s="6"/>
-      <c r="M422" s="55"/>
-      <c r="N422" s="55"/>
+      <c r="M422" s="56"/>
+      <c r="N422" s="56"/>
       <c r="O422" s="6"/>
       <c r="P422" s="6"/>
       <c r="Q422" s="6"/>
       <c r="R422" s="6"/>
-      <c r="S422" s="62"/>
+      <c r="S422" s="63"/>
       <c r="T422" s="6"/>
       <c r="U422" s="6"/>
       <c r="V422" s="6"/>
@@ -17413,13 +17390,13 @@
       <c r="J423" s="6"/>
       <c r="K423" s="6"/>
       <c r="L423" s="6"/>
-      <c r="M423" s="55"/>
-      <c r="N423" s="55"/>
+      <c r="M423" s="56"/>
+      <c r="N423" s="56"/>
       <c r="O423" s="6"/>
       <c r="P423" s="6"/>
       <c r="Q423" s="6"/>
       <c r="R423" s="6"/>
-      <c r="S423" s="62"/>
+      <c r="S423" s="63"/>
       <c r="T423" s="6"/>
       <c r="U423" s="6"/>
       <c r="V423" s="6"/>
@@ -17438,13 +17415,13 @@
       <c r="J424" s="6"/>
       <c r="K424" s="6"/>
       <c r="L424" s="6"/>
-      <c r="M424" s="55"/>
-      <c r="N424" s="55"/>
+      <c r="M424" s="56"/>
+      <c r="N424" s="56"/>
       <c r="O424" s="6"/>
       <c r="P424" s="6"/>
       <c r="Q424" s="6"/>
       <c r="R424" s="6"/>
-      <c r="S424" s="62"/>
+      <c r="S424" s="63"/>
       <c r="T424" s="6"/>
       <c r="U424" s="6"/>
       <c r="V424" s="6"/>
@@ -17463,13 +17440,13 @@
       <c r="J425" s="6"/>
       <c r="K425" s="6"/>
       <c r="L425" s="6"/>
-      <c r="M425" s="55"/>
-      <c r="N425" s="55"/>
+      <c r="M425" s="56"/>
+      <c r="N425" s="56"/>
       <c r="O425" s="6"/>
       <c r="P425" s="6"/>
       <c r="Q425" s="6"/>
       <c r="R425" s="6"/>
-      <c r="S425" s="62"/>
+      <c r="S425" s="63"/>
       <c r="T425" s="6"/>
       <c r="U425" s="6"/>
       <c r="V425" s="6"/>
@@ -17488,13 +17465,13 @@
       <c r="J426" s="6"/>
       <c r="K426" s="6"/>
       <c r="L426" s="6"/>
-      <c r="M426" s="55"/>
-      <c r="N426" s="55"/>
+      <c r="M426" s="56"/>
+      <c r="N426" s="56"/>
       <c r="O426" s="6"/>
       <c r="P426" s="6"/>
       <c r="Q426" s="6"/>
       <c r="R426" s="6"/>
-      <c r="S426" s="62"/>
+      <c r="S426" s="63"/>
       <c r="T426" s="6"/>
       <c r="U426" s="6"/>
       <c r="V426" s="6"/>
@@ -17513,13 +17490,13 @@
       <c r="J427" s="6"/>
       <c r="K427" s="6"/>
       <c r="L427" s="6"/>
-      <c r="M427" s="55"/>
-      <c r="N427" s="55"/>
+      <c r="M427" s="56"/>
+      <c r="N427" s="56"/>
       <c r="O427" s="6"/>
       <c r="P427" s="6"/>
       <c r="Q427" s="6"/>
       <c r="R427" s="6"/>
-      <c r="S427" s="62"/>
+      <c r="S427" s="63"/>
       <c r="T427" s="6"/>
       <c r="U427" s="6"/>
       <c r="V427" s="6"/>
@@ -17538,13 +17515,13 @@
       <c r="J428" s="6"/>
       <c r="K428" s="6"/>
       <c r="L428" s="6"/>
-      <c r="M428" s="55"/>
-      <c r="N428" s="55"/>
+      <c r="M428" s="56"/>
+      <c r="N428" s="56"/>
       <c r="O428" s="6"/>
       <c r="P428" s="6"/>
       <c r="Q428" s="6"/>
       <c r="R428" s="6"/>
-      <c r="S428" s="62"/>
+      <c r="S428" s="63"/>
       <c r="T428" s="6"/>
       <c r="U428" s="6"/>
       <c r="V428" s="6"/>
@@ -17563,13 +17540,13 @@
       <c r="J429" s="6"/>
       <c r="K429" s="6"/>
       <c r="L429" s="6"/>
-      <c r="M429" s="55"/>
-      <c r="N429" s="55"/>
+      <c r="M429" s="56"/>
+      <c r="N429" s="56"/>
       <c r="O429" s="6"/>
       <c r="P429" s="6"/>
       <c r="Q429" s="6"/>
       <c r="R429" s="6"/>
-      <c r="S429" s="62"/>
+      <c r="S429" s="63"/>
       <c r="T429" s="6"/>
       <c r="U429" s="6"/>
       <c r="V429" s="6"/>
@@ -17588,13 +17565,13 @@
       <c r="J430" s="6"/>
       <c r="K430" s="6"/>
       <c r="L430" s="6"/>
-      <c r="M430" s="55"/>
-      <c r="N430" s="55"/>
+      <c r="M430" s="56"/>
+      <c r="N430" s="56"/>
       <c r="O430" s="6"/>
       <c r="P430" s="6"/>
       <c r="Q430" s="6"/>
       <c r="R430" s="6"/>
-      <c r="S430" s="62"/>
+      <c r="S430" s="63"/>
       <c r="T430" s="6"/>
       <c r="U430" s="6"/>
       <c r="V430" s="6"/>
@@ -17613,13 +17590,13 @@
       <c r="J431" s="6"/>
       <c r="K431" s="6"/>
       <c r="L431" s="6"/>
-      <c r="M431" s="55"/>
-      <c r="N431" s="55"/>
+      <c r="M431" s="56"/>
+      <c r="N431" s="56"/>
       <c r="O431" s="6"/>
       <c r="P431" s="6"/>
       <c r="Q431" s="6"/>
       <c r="R431" s="6"/>
-      <c r="S431" s="62"/>
+      <c r="S431" s="63"/>
       <c r="T431" s="6"/>
       <c r="U431" s="6"/>
       <c r="V431" s="6"/>
@@ -17638,13 +17615,13 @@
       <c r="J432" s="6"/>
       <c r="K432" s="6"/>
       <c r="L432" s="6"/>
-      <c r="M432" s="55"/>
-      <c r="N432" s="55"/>
+      <c r="M432" s="56"/>
+      <c r="N432" s="56"/>
       <c r="O432" s="6"/>
       <c r="P432" s="6"/>
       <c r="Q432" s="6"/>
       <c r="R432" s="6"/>
-      <c r="S432" s="62"/>
+      <c r="S432" s="63"/>
       <c r="T432" s="6"/>
       <c r="U432" s="6"/>
       <c r="V432" s="6"/>
@@ -17663,13 +17640,13 @@
       <c r="J433" s="6"/>
       <c r="K433" s="6"/>
       <c r="L433" s="6"/>
-      <c r="M433" s="55"/>
-      <c r="N433" s="55"/>
+      <c r="M433" s="56"/>
+      <c r="N433" s="56"/>
       <c r="O433" s="6"/>
       <c r="P433" s="6"/>
       <c r="Q433" s="6"/>
       <c r="R433" s="6"/>
-      <c r="S433" s="62"/>
+      <c r="S433" s="63"/>
       <c r="T433" s="6"/>
       <c r="U433" s="6"/>
       <c r="V433" s="6"/>
@@ -17688,13 +17665,13 @@
       <c r="J434" s="6"/>
       <c r="K434" s="6"/>
       <c r="L434" s="6"/>
-      <c r="M434" s="55"/>
-      <c r="N434" s="55"/>
+      <c r="M434" s="56"/>
+      <c r="N434" s="56"/>
       <c r="O434" s="6"/>
       <c r="P434" s="6"/>
       <c r="Q434" s="6"/>
       <c r="R434" s="6"/>
-      <c r="S434" s="62"/>
+      <c r="S434" s="63"/>
       <c r="T434" s="6"/>
       <c r="U434" s="6"/>
       <c r="V434" s="6"/>
@@ -17713,13 +17690,13 @@
       <c r="J435" s="6"/>
       <c r="K435" s="6"/>
       <c r="L435" s="6"/>
-      <c r="M435" s="55"/>
-      <c r="N435" s="55"/>
+      <c r="M435" s="56"/>
+      <c r="N435" s="56"/>
       <c r="O435" s="6"/>
       <c r="P435" s="6"/>
       <c r="Q435" s="6"/>
       <c r="R435" s="6"/>
-      <c r="S435" s="62"/>
+      <c r="S435" s="63"/>
       <c r="T435" s="6"/>
       <c r="U435" s="6"/>
       <c r="V435" s="6"/>
@@ -17738,13 +17715,13 @@
       <c r="J436" s="6"/>
       <c r="K436" s="6"/>
       <c r="L436" s="6"/>
-      <c r="M436" s="55"/>
-      <c r="N436" s="55"/>
+      <c r="M436" s="56"/>
+      <c r="N436" s="56"/>
       <c r="O436" s="6"/>
       <c r="P436" s="6"/>
       <c r="Q436" s="6"/>
       <c r="R436" s="6"/>
-      <c r="S436" s="62"/>
+      <c r="S436" s="63"/>
       <c r="T436" s="6"/>
       <c r="U436" s="6"/>
       <c r="V436" s="6"/>
@@ -17763,13 +17740,13 @@
       <c r="J437" s="6"/>
       <c r="K437" s="6"/>
       <c r="L437" s="6"/>
-      <c r="M437" s="55"/>
-      <c r="N437" s="55"/>
+      <c r="M437" s="56"/>
+      <c r="N437" s="56"/>
       <c r="O437" s="6"/>
       <c r="P437" s="6"/>
       <c r="Q437" s="6"/>
       <c r="R437" s="6"/>
-      <c r="S437" s="62"/>
+      <c r="S437" s="63"/>
       <c r="T437" s="6"/>
       <c r="U437" s="6"/>
       <c r="V437" s="6"/>
@@ -17788,13 +17765,13 @@
       <c r="J438" s="6"/>
       <c r="K438" s="6"/>
       <c r="L438" s="6"/>
-      <c r="M438" s="55"/>
-      <c r="N438" s="55"/>
+      <c r="M438" s="56"/>
+      <c r="N438" s="56"/>
       <c r="O438" s="6"/>
       <c r="P438" s="6"/>
       <c r="Q438" s="6"/>
       <c r="R438" s="6"/>
-      <c r="S438" s="62"/>
+      <c r="S438" s="63"/>
       <c r="T438" s="6"/>
       <c r="U438" s="6"/>
       <c r="V438" s="6"/>
@@ -17813,13 +17790,13 @@
       <c r="J439" s="6"/>
       <c r="K439" s="6"/>
       <c r="L439" s="6"/>
-      <c r="M439" s="55"/>
-      <c r="N439" s="55"/>
+      <c r="M439" s="56"/>
+      <c r="N439" s="56"/>
       <c r="O439" s="6"/>
       <c r="P439" s="6"/>
       <c r="Q439" s="6"/>
       <c r="R439" s="6"/>
-      <c r="S439" s="62"/>
+      <c r="S439" s="63"/>
       <c r="T439" s="6"/>
       <c r="U439" s="6"/>
       <c r="V439" s="6"/>
@@ -17838,13 +17815,13 @@
       <c r="J440" s="6"/>
       <c r="K440" s="6"/>
       <c r="L440" s="6"/>
-      <c r="M440" s="55"/>
-      <c r="N440" s="55"/>
+      <c r="M440" s="56"/>
+      <c r="N440" s="56"/>
       <c r="O440" s="6"/>
       <c r="P440" s="6"/>
       <c r="Q440" s="6"/>
       <c r="R440" s="6"/>
-      <c r="S440" s="62"/>
+      <c r="S440" s="63"/>
       <c r="T440" s="6"/>
       <c r="U440" s="6"/>
       <c r="V440" s="6"/>
@@ -17863,13 +17840,13 @@
       <c r="J441" s="6"/>
       <c r="K441" s="6"/>
       <c r="L441" s="6"/>
-      <c r="M441" s="55"/>
-      <c r="N441" s="55"/>
+      <c r="M441" s="56"/>
+      <c r="N441" s="56"/>
       <c r="O441" s="6"/>
       <c r="P441" s="6"/>
       <c r="Q441" s="6"/>
       <c r="R441" s="6"/>
-      <c r="S441" s="62"/>
+      <c r="S441" s="63"/>
       <c r="T441" s="6"/>
       <c r="U441" s="6"/>
       <c r="V441" s="6"/>
@@ -17888,13 +17865,13 @@
       <c r="J442" s="6"/>
       <c r="K442" s="6"/>
       <c r="L442" s="6"/>
-      <c r="M442" s="55"/>
-      <c r="N442" s="55"/>
+      <c r="M442" s="56"/>
+      <c r="N442" s="56"/>
       <c r="O442" s="6"/>
       <c r="P442" s="6"/>
       <c r="Q442" s="6"/>
       <c r="R442" s="6"/>
-      <c r="S442" s="62"/>
+      <c r="S442" s="63"/>
       <c r="T442" s="6"/>
       <c r="U442" s="6"/>
       <c r="V442" s="6"/>
@@ -17913,13 +17890,13 @@
       <c r="J443" s="6"/>
       <c r="K443" s="6"/>
       <c r="L443" s="6"/>
-      <c r="M443" s="55"/>
-      <c r="N443" s="55"/>
+      <c r="M443" s="56"/>
+      <c r="N443" s="56"/>
       <c r="O443" s="6"/>
       <c r="P443" s="6"/>
       <c r="Q443" s="6"/>
       <c r="R443" s="6"/>
-      <c r="S443" s="62"/>
+      <c r="S443" s="63"/>
       <c r="T443" s="6"/>
       <c r="U443" s="6"/>
       <c r="V443" s="6"/>
@@ -17938,13 +17915,13 @@
       <c r="J444" s="6"/>
       <c r="K444" s="6"/>
       <c r="L444" s="6"/>
-      <c r="M444" s="55"/>
-      <c r="N444" s="55"/>
+      <c r="M444" s="56"/>
+      <c r="N444" s="56"/>
       <c r="O444" s="6"/>
       <c r="P444" s="6"/>
       <c r="Q444" s="6"/>
       <c r="R444" s="6"/>
-      <c r="S444" s="62"/>
+      <c r="S444" s="63"/>
       <c r="T444" s="6"/>
       <c r="U444" s="6"/>
       <c r="V444" s="6"/>
@@ -17963,13 +17940,13 @@
       <c r="J445" s="6"/>
       <c r="K445" s="6"/>
       <c r="L445" s="6"/>
-      <c r="M445" s="55"/>
-      <c r="N445" s="55"/>
+      <c r="M445" s="56"/>
+      <c r="N445" s="56"/>
       <c r="O445" s="6"/>
       <c r="P445" s="6"/>
       <c r="Q445" s="6"/>
       <c r="R445" s="6"/>
-      <c r="S445" s="62"/>
+      <c r="S445" s="63"/>
       <c r="T445" s="6"/>
       <c r="U445" s="6"/>
       <c r="V445" s="6"/>
@@ -17988,13 +17965,13 @@
       <c r="J446" s="6"/>
       <c r="K446" s="6"/>
       <c r="L446" s="6"/>
-      <c r="M446" s="55"/>
-      <c r="N446" s="55"/>
+      <c r="M446" s="56"/>
+      <c r="N446" s="56"/>
       <c r="O446" s="6"/>
       <c r="P446" s="6"/>
       <c r="Q446" s="6"/>
       <c r="R446" s="6"/>
-      <c r="S446" s="62"/>
+      <c r="S446" s="63"/>
       <c r="T446" s="6"/>
       <c r="U446" s="6"/>
       <c r="V446" s="6"/>
@@ -18013,13 +17990,13 @@
       <c r="J447" s="6"/>
       <c r="K447" s="6"/>
       <c r="L447" s="6"/>
-      <c r="M447" s="55"/>
-      <c r="N447" s="55"/>
+      <c r="M447" s="56"/>
+      <c r="N447" s="56"/>
       <c r="O447" s="6"/>
       <c r="P447" s="6"/>
       <c r="Q447" s="6"/>
       <c r="R447" s="6"/>
-      <c r="S447" s="62"/>
+      <c r="S447" s="63"/>
       <c r="T447" s="6"/>
       <c r="U447" s="6"/>
       <c r="V447" s="6"/>
@@ -18038,13 +18015,13 @@
       <c r="J448" s="6"/>
       <c r="K448" s="6"/>
       <c r="L448" s="6"/>
-      <c r="M448" s="55"/>
-      <c r="N448" s="55"/>
+      <c r="M448" s="56"/>
+      <c r="N448" s="56"/>
       <c r="O448" s="6"/>
       <c r="P448" s="6"/>
       <c r="Q448" s="6"/>
       <c r="R448" s="6"/>
-      <c r="S448" s="62"/>
+      <c r="S448" s="63"/>
       <c r="T448" s="6"/>
       <c r="U448" s="6"/>
       <c r="V448" s="6"/>
@@ -18063,13 +18040,13 @@
       <c r="J449" s="6"/>
       <c r="K449" s="6"/>
       <c r="L449" s="6"/>
-      <c r="M449" s="55"/>
-      <c r="N449" s="55"/>
+      <c r="M449" s="56"/>
+      <c r="N449" s="56"/>
       <c r="O449" s="6"/>
       <c r="P449" s="6"/>
       <c r="Q449" s="6"/>
       <c r="R449" s="6"/>
-      <c r="S449" s="62"/>
+      <c r="S449" s="63"/>
       <c r="T449" s="6"/>
       <c r="U449" s="6"/>
       <c r="V449" s="6"/>
@@ -18088,13 +18065,13 @@
       <c r="J450" s="6"/>
       <c r="K450" s="6"/>
       <c r="L450" s="6"/>
-      <c r="M450" s="55"/>
-      <c r="N450" s="55"/>
+      <c r="M450" s="56"/>
+      <c r="N450" s="56"/>
       <c r="O450" s="6"/>
       <c r="P450" s="6"/>
       <c r="Q450" s="6"/>
       <c r="R450" s="6"/>
-      <c r="S450" s="62"/>
+      <c r="S450" s="63"/>
       <c r="T450" s="6"/>
       <c r="U450" s="6"/>
       <c r="V450" s="6"/>
@@ -18113,13 +18090,13 @@
       <c r="J451" s="6"/>
       <c r="K451" s="6"/>
       <c r="L451" s="6"/>
-      <c r="M451" s="55"/>
-      <c r="N451" s="55"/>
+      <c r="M451" s="56"/>
+      <c r="N451" s="56"/>
       <c r="O451" s="6"/>
       <c r="P451" s="6"/>
       <c r="Q451" s="6"/>
       <c r="R451" s="6"/>
-      <c r="S451" s="62"/>
+      <c r="S451" s="63"/>
       <c r="T451" s="6"/>
       <c r="U451" s="6"/>
       <c r="V451" s="6"/>
@@ -18138,13 +18115,13 @@
       <c r="J452" s="6"/>
       <c r="K452" s="6"/>
       <c r="L452" s="6"/>
-      <c r="M452" s="55"/>
-      <c r="N452" s="55"/>
+      <c r="M452" s="56"/>
+      <c r="N452" s="56"/>
       <c r="O452" s="6"/>
       <c r="P452" s="6"/>
       <c r="Q452" s="6"/>
       <c r="R452" s="6"/>
-      <c r="S452" s="62"/>
+      <c r="S452" s="63"/>
       <c r="T452" s="6"/>
       <c r="U452" s="6"/>
       <c r="V452" s="6"/>
@@ -18163,13 +18140,13 @@
       <c r="J453" s="6"/>
       <c r="K453" s="6"/>
       <c r="L453" s="6"/>
-      <c r="M453" s="55"/>
-      <c r="N453" s="55"/>
+      <c r="M453" s="56"/>
+      <c r="N453" s="56"/>
       <c r="O453" s="6"/>
       <c r="P453" s="6"/>
       <c r="Q453" s="6"/>
       <c r="R453" s="6"/>
-      <c r="S453" s="62"/>
+      <c r="S453" s="63"/>
       <c r="T453" s="6"/>
       <c r="U453" s="6"/>
       <c r="V453" s="6"/>
@@ -18188,13 +18165,13 @@
       <c r="J454" s="6"/>
       <c r="K454" s="6"/>
       <c r="L454" s="6"/>
-      <c r="M454" s="55"/>
-      <c r="N454" s="55"/>
+      <c r="M454" s="56"/>
+      <c r="N454" s="56"/>
       <c r="O454" s="6"/>
       <c r="P454" s="6"/>
       <c r="Q454" s="6"/>
       <c r="R454" s="6"/>
-      <c r="S454" s="62"/>
+      <c r="S454" s="63"/>
       <c r="T454" s="6"/>
       <c r="U454" s="6"/>
       <c r="V454" s="6"/>
@@ -18213,13 +18190,13 @@
       <c r="J455" s="6"/>
       <c r="K455" s="6"/>
       <c r="L455" s="6"/>
-      <c r="M455" s="55"/>
-      <c r="N455" s="55"/>
+      <c r="M455" s="56"/>
+      <c r="N455" s="56"/>
       <c r="O455" s="6"/>
       <c r="P455" s="6"/>
       <c r="Q455" s="6"/>
       <c r="R455" s="6"/>
-      <c r="S455" s="62"/>
+      <c r="S455" s="63"/>
       <c r="T455" s="6"/>
       <c r="U455" s="6"/>
       <c r="V455" s="6"/>
@@ -18238,13 +18215,13 @@
       <c r="J456" s="6"/>
       <c r="K456" s="6"/>
       <c r="L456" s="6"/>
-      <c r="M456" s="55"/>
-      <c r="N456" s="55"/>
+      <c r="M456" s="56"/>
+      <c r="N456" s="56"/>
       <c r="O456" s="6"/>
       <c r="P456" s="6"/>
       <c r="Q456" s="6"/>
       <c r="R456" s="6"/>
-      <c r="S456" s="62"/>
+      <c r="S456" s="63"/>
       <c r="T456" s="6"/>
       <c r="U456" s="6"/>
       <c r="V456" s="6"/>
@@ -18263,13 +18240,13 @@
       <c r="J457" s="6"/>
       <c r="K457" s="6"/>
       <c r="L457" s="6"/>
-      <c r="M457" s="55"/>
-      <c r="N457" s="55"/>
+      <c r="M457" s="56"/>
+      <c r="N457" s="56"/>
       <c r="O457" s="6"/>
       <c r="P457" s="6"/>
       <c r="Q457" s="6"/>
       <c r="R457" s="6"/>
-      <c r="S457" s="62"/>
+      <c r="S457" s="63"/>
       <c r="T457" s="6"/>
       <c r="U457" s="6"/>
       <c r="V457" s="6"/>
@@ -18288,13 +18265,13 @@
       <c r="J458" s="6"/>
       <c r="K458" s="6"/>
       <c r="L458" s="6"/>
-      <c r="M458" s="55"/>
-      <c r="N458" s="55"/>
+      <c r="M458" s="56"/>
+      <c r="N458" s="56"/>
       <c r="O458" s="6"/>
       <c r="P458" s="6"/>
       <c r="Q458" s="6"/>
       <c r="R458" s="6"/>
-      <c r="S458" s="62"/>
+      <c r="S458" s="63"/>
       <c r="T458" s="6"/>
       <c r="U458" s="6"/>
       <c r="V458" s="6"/>
@@ -18313,13 +18290,13 @@
       <c r="J459" s="6"/>
       <c r="K459" s="6"/>
       <c r="L459" s="6"/>
-      <c r="M459" s="55"/>
-      <c r="N459" s="55"/>
+      <c r="M459" s="56"/>
+      <c r="N459" s="56"/>
       <c r="O459" s="6"/>
       <c r="P459" s="6"/>
       <c r="Q459" s="6"/>
       <c r="R459" s="6"/>
-      <c r="S459" s="62"/>
+      <c r="S459" s="63"/>
       <c r="T459" s="6"/>
       <c r="U459" s="6"/>
       <c r="V459" s="6"/>
@@ -18338,13 +18315,13 @@
       <c r="J460" s="6"/>
       <c r="K460" s="6"/>
       <c r="L460" s="6"/>
-      <c r="M460" s="55"/>
-      <c r="N460" s="55"/>
+      <c r="M460" s="56"/>
+      <c r="N460" s="56"/>
       <c r="O460" s="6"/>
       <c r="P460" s="6"/>
       <c r="Q460" s="6"/>
       <c r="R460" s="6"/>
-      <c r="S460" s="62"/>
+      <c r="S460" s="63"/>
       <c r="T460" s="6"/>
       <c r="U460" s="6"/>
       <c r="V460" s="6"/>
@@ -18363,13 +18340,13 @@
       <c r="J461" s="6"/>
       <c r="K461" s="6"/>
       <c r="L461" s="6"/>
-      <c r="M461" s="55"/>
-      <c r="N461" s="55"/>
+      <c r="M461" s="56"/>
+      <c r="N461" s="56"/>
       <c r="O461" s="6"/>
       <c r="P461" s="6"/>
       <c r="Q461" s="6"/>
       <c r="R461" s="6"/>
-      <c r="S461" s="62"/>
+      <c r="S461" s="63"/>
       <c r="T461" s="6"/>
       <c r="U461" s="6"/>
       <c r="V461" s="6"/>
@@ -18388,13 +18365,13 @@
       <c r="J462" s="6"/>
       <c r="K462" s="6"/>
       <c r="L462" s="6"/>
-      <c r="M462" s="55"/>
-      <c r="N462" s="55"/>
+      <c r="M462" s="56"/>
+      <c r="N462" s="56"/>
       <c r="O462" s="6"/>
       <c r="P462" s="6"/>
       <c r="Q462" s="6"/>
       <c r="R462" s="6"/>
-      <c r="S462" s="62"/>
+      <c r="S462" s="63"/>
       <c r="T462" s="6"/>
       <c r="U462" s="6"/>
       <c r="V462" s="6"/>
@@ -18413,13 +18390,13 @@
       <c r="J463" s="6"/>
       <c r="K463" s="6"/>
       <c r="L463" s="6"/>
-      <c r="M463" s="55"/>
-      <c r="N463" s="55"/>
+      <c r="M463" s="56"/>
+      <c r="N463" s="56"/>
       <c r="O463" s="6"/>
       <c r="P463" s="6"/>
       <c r="Q463" s="6"/>
       <c r="R463" s="6"/>
-      <c r="S463" s="62"/>
+      <c r="S463" s="63"/>
       <c r="T463" s="6"/>
       <c r="U463" s="6"/>
       <c r="V463" s="6"/>
@@ -18438,13 +18415,13 @@
       <c r="J464" s="6"/>
       <c r="K464" s="6"/>
       <c r="L464" s="6"/>
-      <c r="M464" s="55"/>
-      <c r="N464" s="55"/>
+      <c r="M464" s="56"/>
+      <c r="N464" s="56"/>
       <c r="O464" s="6"/>
       <c r="P464" s="6"/>
       <c r="Q464" s="6"/>
       <c r="R464" s="6"/>
-      <c r="S464" s="62"/>
+      <c r="S464" s="63"/>
       <c r="T464" s="6"/>
       <c r="U464" s="6"/>
       <c r="V464" s="6"/>
@@ -18463,13 +18440,13 @@
       <c r="J465" s="6"/>
       <c r="K465" s="6"/>
       <c r="L465" s="6"/>
-      <c r="M465" s="55"/>
-      <c r="N465" s="55"/>
+      <c r="M465" s="56"/>
+      <c r="N465" s="56"/>
       <c r="O465" s="6"/>
       <c r="P465" s="6"/>
       <c r="Q465" s="6"/>
       <c r="R465" s="6"/>
-      <c r="S465" s="62"/>
+      <c r="S465" s="63"/>
       <c r="T465" s="6"/>
       <c r="U465" s="6"/>
       <c r="V465" s="6"/>
@@ -18488,13 +18465,13 @@
       <c r="J466" s="6"/>
       <c r="K466" s="6"/>
       <c r="L466" s="6"/>
-      <c r="M466" s="55"/>
-      <c r="N466" s="55"/>
+      <c r="M466" s="56"/>
+      <c r="N466" s="56"/>
       <c r="O466" s="6"/>
       <c r="P466" s="6"/>
       <c r="Q466" s="6"/>
       <c r="R466" s="6"/>
-      <c r="S466" s="62"/>
+      <c r="S466" s="63"/>
       <c r="T466" s="6"/>
       <c r="U466" s="6"/>
       <c r="V466" s="6"/>
@@ -18513,13 +18490,13 @@
       <c r="J467" s="6"/>
       <c r="K467" s="6"/>
       <c r="L467" s="6"/>
-      <c r="M467" s="55"/>
-      <c r="N467" s="55"/>
+      <c r="M467" s="56"/>
+      <c r="N467" s="56"/>
       <c r="O467" s="6"/>
       <c r="P467" s="6"/>
       <c r="Q467" s="6"/>
       <c r="R467" s="6"/>
-      <c r="S467" s="62"/>
+      <c r="S467" s="63"/>
       <c r="T467" s="6"/>
       <c r="U467" s="6"/>
       <c r="V467" s="6"/>
@@ -18538,13 +18515,13 @@
       <c r="J468" s="6"/>
       <c r="K468" s="6"/>
       <c r="L468" s="6"/>
-      <c r="M468" s="55"/>
-      <c r="N468" s="55"/>
+      <c r="M468" s="56"/>
+      <c r="N468" s="56"/>
       <c r="O468" s="6"/>
       <c r="P468" s="6"/>
       <c r="Q468" s="6"/>
       <c r="R468" s="6"/>
-      <c r="S468" s="62"/>
+      <c r="S468" s="63"/>
       <c r="T468" s="6"/>
       <c r="U468" s="6"/>
       <c r="V468" s="6"/>
@@ -18563,13 +18540,13 @@
       <c r="J469" s="6"/>
       <c r="K469" s="6"/>
       <c r="L469" s="6"/>
-      <c r="M469" s="55"/>
-      <c r="N469" s="55"/>
+      <c r="M469" s="56"/>
+      <c r="N469" s="56"/>
       <c r="O469" s="6"/>
       <c r="P469" s="6"/>
       <c r="Q469" s="6"/>
       <c r="R469" s="6"/>
-      <c r="S469" s="62"/>
+      <c r="S469" s="63"/>
       <c r="T469" s="6"/>
       <c r="U469" s="6"/>
       <c r="V469" s="6"/>
@@ -18588,13 +18565,13 @@
       <c r="J470" s="6"/>
       <c r="K470" s="6"/>
       <c r="L470" s="6"/>
-      <c r="M470" s="55"/>
-      <c r="N470" s="55"/>
+      <c r="M470" s="56"/>
+      <c r="N470" s="56"/>
       <c r="O470" s="6"/>
       <c r="P470" s="6"/>
       <c r="Q470" s="6"/>
       <c r="R470" s="6"/>
-      <c r="S470" s="62"/>
+      <c r="S470" s="63"/>
       <c r="T470" s="6"/>
       <c r="U470" s="6"/>
       <c r="V470" s="6"/>
@@ -18613,13 +18590,13 @@
       <c r="J471" s="6"/>
       <c r="K471" s="6"/>
       <c r="L471" s="6"/>
-      <c r="M471" s="55"/>
-      <c r="N471" s="55"/>
+      <c r="M471" s="56"/>
+      <c r="N471" s="56"/>
       <c r="O471" s="6"/>
       <c r="P471" s="6"/>
       <c r="Q471" s="6"/>
       <c r="R471" s="6"/>
-      <c r="S471" s="62"/>
+      <c r="S471" s="63"/>
       <c r="T471" s="6"/>
       <c r="U471" s="6"/>
       <c r="V471" s="6"/>
@@ -18638,13 +18615,13 @@
       <c r="J472" s="6"/>
       <c r="K472" s="6"/>
       <c r="L472" s="6"/>
-      <c r="M472" s="55"/>
-      <c r="N472" s="55"/>
+      <c r="M472" s="56"/>
+      <c r="N472" s="56"/>
       <c r="O472" s="6"/>
       <c r="P472" s="6"/>
       <c r="Q472" s="6"/>
       <c r="R472" s="6"/>
-      <c r="S472" s="62"/>
+      <c r="S472" s="63"/>
       <c r="T472" s="6"/>
       <c r="U472" s="6"/>
       <c r="V472" s="6"/>
@@ -18663,13 +18640,13 @@
       <c r="J473" s="6"/>
       <c r="K473" s="6"/>
       <c r="L473" s="6"/>
-      <c r="M473" s="55"/>
-      <c r="N473" s="55"/>
+      <c r="M473" s="56"/>
+      <c r="N473" s="56"/>
       <c r="O473" s="6"/>
       <c r="P473" s="6"/>
       <c r="Q473" s="6"/>
       <c r="R473" s="6"/>
-      <c r="S473" s="62"/>
+      <c r="S473" s="63"/>
       <c r="T473" s="6"/>
       <c r="U473" s="6"/>
       <c r="V473" s="6"/>
@@ -18688,13 +18665,13 @@
       <c r="J474" s="6"/>
       <c r="K474" s="6"/>
       <c r="L474" s="6"/>
-      <c r="M474" s="55"/>
-      <c r="N474" s="55"/>
+      <c r="M474" s="56"/>
+      <c r="N474" s="56"/>
       <c r="O474" s="6"/>
       <c r="P474" s="6"/>
       <c r="Q474" s="6"/>
       <c r="R474" s="6"/>
-      <c r="S474" s="62"/>
+      <c r="S474" s="63"/>
       <c r="T474" s="6"/>
       <c r="U474" s="6"/>
       <c r="V474" s="6"/>
@@ -18713,13 +18690,13 @@
       <c r="J475" s="6"/>
       <c r="K475" s="6"/>
       <c r="L475" s="6"/>
-      <c r="M475" s="55"/>
-      <c r="N475" s="55"/>
+      <c r="M475" s="56"/>
+      <c r="N475" s="56"/>
       <c r="O475" s="6"/>
       <c r="P475" s="6"/>
       <c r="Q475" s="6"/>
       <c r="R475" s="6"/>
-      <c r="S475" s="62"/>
+      <c r="S475" s="63"/>
       <c r="T475" s="6"/>
       <c r="U475" s="6"/>
       <c r="V475" s="6"/>
@@ -18738,13 +18715,13 @@
       <c r="J476" s="6"/>
       <c r="K476" s="6"/>
       <c r="L476" s="6"/>
-      <c r="M476" s="55"/>
-      <c r="N476" s="55"/>
+      <c r="M476" s="56"/>
+      <c r="N476" s="56"/>
       <c r="O476" s="6"/>
       <c r="P476" s="6"/>
       <c r="Q476" s="6"/>
       <c r="R476" s="6"/>
-      <c r="S476" s="62"/>
+      <c r="S476" s="63"/>
       <c r="T476" s="6"/>
       <c r="U476" s="6"/>
       <c r="V476" s="6"/>
@@ -18763,13 +18740,13 @@
       <c r="J477" s="6"/>
       <c r="K477" s="6"/>
       <c r="L477" s="6"/>
-      <c r="M477" s="55"/>
-      <c r="N477" s="55"/>
+      <c r="M477" s="56"/>
+      <c r="N477" s="56"/>
       <c r="O477" s="6"/>
       <c r="P477" s="6"/>
       <c r="Q477" s="6"/>
       <c r="R477" s="6"/>
-      <c r="S477" s="62"/>
+      <c r="S477" s="63"/>
       <c r="T477" s="6"/>
       <c r="U477" s="6"/>
       <c r="V477" s="6"/>
@@ -18788,13 +18765,13 @@
       <c r="J478" s="6"/>
       <c r="K478" s="6"/>
       <c r="L478" s="6"/>
-      <c r="M478" s="55"/>
-      <c r="N478" s="55"/>
+      <c r="M478" s="56"/>
+      <c r="N478" s="56"/>
       <c r="O478" s="6"/>
       <c r="P478" s="6"/>
       <c r="Q478" s="6"/>
       <c r="R478" s="6"/>
-      <c r="S478" s="62"/>
+      <c r="S478" s="63"/>
       <c r="T478" s="6"/>
       <c r="U478" s="6"/>
       <c r="V478" s="6"/>
@@ -18813,13 +18790,13 @@
       <c r="J479" s="6"/>
       <c r="K479" s="6"/>
       <c r="L479" s="6"/>
-      <c r="M479" s="55"/>
-      <c r="N479" s="55"/>
+      <c r="M479" s="56"/>
+      <c r="N479" s="56"/>
       <c r="O479" s="6"/>
       <c r="P479" s="6"/>
       <c r="Q479" s="6"/>
       <c r="R479" s="6"/>
-      <c r="S479" s="62"/>
+      <c r="S479" s="63"/>
       <c r="T479" s="6"/>
       <c r="U479" s="6"/>
       <c r="V479" s="6"/>
@@ -19099,6 +19076,7 @@
     <hyperlink ref="C9" r:id="rId4" display="605016(百龙创园)"/>
     <hyperlink ref="C8" r:id="rId5" display="002932(明德生物)"/>
     <hyperlink ref="C10" r:id="rId6" display="603010(万盛股份)"/>
+    <hyperlink ref="C11" r:id="rId7" display=" 002585(双星新材)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>交易计划执行结果编码</t>
   </si>
@@ -805,35 +805,6 @@
     <t>000021</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>605028(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>世贸能源</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>JG_0000010</t>
   </si>
   <si>
@@ -903,13 +874,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -973,16 +944,8 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,18 +997,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1057,32 +1012,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,7 +1029,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,29 +1044,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,6 +1065,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
@@ -1157,7 +1081,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,25 +1204,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,109 +1258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,13 +1276,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,13 +1306,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,11 +1462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,27 +1492,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1583,148 +1546,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1819,7 +1782,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1861,7 +1824,7 @@
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1921,7 +1884,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1930,10 +1893,10 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1945,10 +1908,10 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1957,22 +1920,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -6097,7 +6060,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6934,7 +6897,7 @@
       </c>
       <c r="Z10" s="43">
         <f>(P10-E10)/VLOOKUP(B10,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
-        <v>-0.196428571428572</v>
+        <v>-0.196428571428571</v>
       </c>
       <c r="AA10" s="78" t="s">
         <v>54</v>
@@ -7010,9 +6973,7 @@
       <c r="B12" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="C12" s="31"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -7040,10 +7001,10 @@
     </row>
     <row r="13" ht="13" spans="1:27">
       <c r="A13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="83" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>63</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -7073,10 +7034,10 @@
     </row>
     <row r="14" ht="13" spans="1:27">
       <c r="A14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="83" t="s">
         <v>64</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>65</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -7106,10 +7067,10 @@
     </row>
     <row r="15" ht="13" spans="1:27">
       <c r="A15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="83" t="s">
         <v>66</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>67</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -7139,10 +7100,10 @@
     </row>
     <row r="16" ht="13" spans="1:27">
       <c r="A16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="83" t="s">
         <v>68</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>69</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -7172,10 +7133,10 @@
     </row>
     <row r="17" ht="13" spans="1:27">
       <c r="A17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="83" t="s">
         <v>70</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>71</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -7205,10 +7166,10 @@
     </row>
     <row r="18" ht="13" spans="1:27">
       <c r="A18" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="83" t="s">
         <v>72</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>73</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -7238,10 +7199,10 @@
     </row>
     <row r="19" ht="13" spans="1:27">
       <c r="A19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="83" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>75</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -7271,10 +7232,10 @@
     </row>
     <row r="20" ht="13" spans="1:27">
       <c r="A20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="83" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>77</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -19073,10 +19034,10 @@
     <hyperlink ref="C7" r:id="rId1" display="603867(新化股份)"/>
     <hyperlink ref="C6" r:id="rId2" display="600085(同仁堂)"/>
     <hyperlink ref="C4" r:id="rId3" display="003040(楚天龙)"/>
-    <hyperlink ref="C9" r:id="rId4" display="605016(百龙创园)"/>
-    <hyperlink ref="C8" r:id="rId5" display="002932(明德生物)"/>
-    <hyperlink ref="C10" r:id="rId6" display="603010(万盛股份)"/>
-    <hyperlink ref="C11" r:id="rId7" display=" 002585(双星新材)"/>
+    <hyperlink ref="C8" r:id="rId4" display="002932(明德生物)"/>
+    <hyperlink ref="C10" r:id="rId5" display="603010(万盛股份)"/>
+    <hyperlink ref="C11" r:id="rId6" display=" 002585(双星新材)"/>
+    <hyperlink ref="C9" r:id="rId7" display="605016(百龙创园)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -19103,22 +19064,22 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:99">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="CU1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -6056,11 +6056,11 @@
   <dimension ref="A1:BP552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="X11" sqref="X11:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6800,10 +6800,7 @@
         <f>T9-I9</f>
         <v>-52.0760799999998</v>
       </c>
-      <c r="Y9" s="39">
-        <f>T9-I9</f>
-        <v>-52.0760799999998</v>
-      </c>
+      <c r="Y9" s="39"/>
       <c r="Z9" s="43">
         <f>(P9-E9)/VLOOKUP(B9,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
         <v>-0.0622009569377991</v>
@@ -6891,10 +6888,7 @@
         <f>T10-I10</f>
         <v>-210.84262</v>
       </c>
-      <c r="Y10" s="39">
-        <f>T10-I10</f>
-        <v>-210.84262</v>
-      </c>
+      <c r="Y10" s="39"/>
       <c r="Z10" s="43">
         <f>(P10-E10)/VLOOKUP(B10,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
         <v>-0.196428571428571</v>
@@ -6950,17 +6944,41 @@
         <f>(E11-M11)*F11+G11+H11+5</f>
         <v>216</v>
       </c>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
+      <c r="O11" s="24">
+        <v>44537</v>
+      </c>
+      <c r="P11" s="23">
+        <v>26.7</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>100</v>
+      </c>
+      <c r="R11" s="23">
+        <v>5</v>
+      </c>
+      <c r="S11" s="62">
+        <f>P11*Q11*0.001</f>
+        <v>2.67</v>
+      </c>
+      <c r="T11" s="39">
+        <f>P11*Q11-R11-S11</f>
+        <v>2662.33</v>
+      </c>
+      <c r="U11" s="23">
+        <v>28.18</v>
+      </c>
+      <c r="V11" s="23">
+        <v>25.99</v>
+      </c>
+      <c r="W11" s="66">
+        <f>(P11-V11)/(U11-V11)</f>
+        <v>0.324200913242009</v>
+      </c>
+      <c r="X11" s="39">
+        <f>T11-I11</f>
+        <v>-179.67</v>
+      </c>
+      <c r="Y11" s="39"/>
       <c r="Z11" s="23"/>
       <c r="AA11" s="78" t="s">
         <v>58</v>
@@ -18986,12 +19004,15 @@
       <c r="B552" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="45">
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:W1"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -780,12 +780,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -795,7 +789,55 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</t>
+      <t>宁可错过，不要根据临时计划入场。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作出出场决定是使用止损线倒逼出场。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
   <si>
@@ -875,9 +917,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -997,10 +1039,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1012,8 +1091,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,15 +1117,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,54 +1139,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1104,23 +1162,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1204,7 +1246,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,85 +1396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,79 +1414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,22 +1499,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1507,7 +1534,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1541,147 +1568,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6056,11 +6098,11 @@
   <dimension ref="A1:BP552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X11" sqref="X11:Y11"/>
+      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -6898,7 +6940,7 @@
       </c>
       <c r="AB10" s="75"/>
     </row>
-    <row r="11" ht="37" spans="1:27">
+    <row r="11" ht="87" spans="1:27">
       <c r="A11" s="20" t="s">
         <v>55</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -6102,7 +6102,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -7021,7 +7021,10 @@
         <v>-179.67</v>
       </c>
       <c r="Y11" s="39"/>
-      <c r="Z11" s="23"/>
+      <c r="Z11" s="43">
+        <f>(P11-E11)/VLOOKUP(B11,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
+        <v>-0.218300653594771</v>
+      </c>
       <c r="AA11" s="78" t="s">
         <v>58</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19940" windowHeight="11360" activeTab="2"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -2234,10 +2234,17 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>资金曲线!$A$2:$A$8</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -2251,12 +2258,9 @@
                   <c:v>44510</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                  <c:v>44517</c:v>
+                  <c:v>44524</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                  <c:v>44524</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                   <c:v>44531</c:v>
                 </c:pt>
               </c:numCache>
@@ -2264,10 +2268,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金曲线!$B$2:$B$8</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>资金曲线!$B$2:$B$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(资金曲线!$B$2:$B$5,资金曲线!$B$7:$B$8)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>40000</c:v>
                 </c:pt>
@@ -2281,12 +2292,9 @@
                   <c:v>39808.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>39831.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39831.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>40295</c:v>
                 </c:pt>
               </c:numCache>
@@ -2403,16 +2411,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref/>
+                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2426,12 +2434,9 @@
                         <c:v>44510</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                        <c:v>44517</c:v>
+                        <c:v>44524</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                        <c:v>44524</c:v>
-                      </c:pt>
-                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                         <c:v>44531</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2441,14 +2446,17 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$C$2:$C$8</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>资金曲线!$C$2:$C$8</c15:sqref>
+                          <c15:sqref>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>400</c:v>
                       </c:pt>
@@ -2462,12 +2470,9 @@
                         <c:v>398.0803</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>398.3102</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>398.3102</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
                         <c:v>402.95</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2571,16 +2576,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref/>
+                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2594,12 +2599,9 @@
                         <c:v>44510</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                        <c:v>44517</c:v>
+                        <c:v>44524</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                        <c:v>44524</c:v>
-                      </c:pt>
-                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                         <c:v>44531</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2609,14 +2611,17 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$D$2:$D$8</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>资金曲线!$D$2:$D$8</c15:sqref>
+                          <c15:sqref>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2400</c:v>
                       </c:pt>
@@ -2630,12 +2635,9 @@
                         <c:v>2388.4818</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>2389.8612</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2389.8612</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
                         <c:v>2417.7</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2701,6 +2703,7 @@
         <c:axId val="654560973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="39500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2751,6 +2754,8 @@
         <c:crossAx val="632913533"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+        <c:minorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2887,10 +2892,17 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>资金曲线!$A$2:$A$8</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -2904,12 +2916,9 @@
                   <c:v>44510</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                  <c:v>44517</c:v>
+                  <c:v>44524</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                  <c:v>44524</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                   <c:v>44531</c:v>
                 </c:pt>
               </c:numCache>
@@ -2917,10 +2926,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金曲线!$C$2:$C$8</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>资金曲线!$C$2:$C$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$8)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
                 </c:pt>
@@ -2934,12 +2950,9 @@
                   <c:v>398.0803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>398.3102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>398.3102</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>402.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -3002,16 +3015,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref/>
+                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3025,12 +3038,9 @@
                         <c:v>44510</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                        <c:v>44517</c:v>
+                        <c:v>44524</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                        <c:v>44524</c:v>
-                      </c:pt>
-                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                         <c:v>44531</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3040,14 +3050,17 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$B$2:$B$8</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>资金曲线!$B$2:$B$8</c15:sqref>
+                          <c15:sqref>(资金曲线!$B$2:$B$5,资金曲线!$B$7:$B$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>40000</c:v>
                       </c:pt>
@@ -3061,12 +3074,9 @@
                         <c:v>39808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>39831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>39831.02</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
                         <c:v>40295</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3306,10 +3316,17 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>资金曲线!$A$2:$A$8</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -3323,12 +3340,9 @@
                   <c:v>44510</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                  <c:v>44517</c:v>
+                  <c:v>44524</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                  <c:v>44524</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                   <c:v>44531</c:v>
                 </c:pt>
               </c:numCache>
@@ -3336,10 +3350,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金曲线!$D$2:$D$8</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>资金曲线!$D$2:$D$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$8)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2400</c:v>
                 </c:pt>
@@ -3353,12 +3374,9 @@
                   <c:v>2388.4818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2389.8612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2389.8612</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2417.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -3421,16 +3439,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref/>
+                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3444,12 +3462,9 @@
                         <c:v>44510</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                        <c:v>44517</c:v>
+                        <c:v>44524</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                        <c:v>44524</c:v>
-                      </c:pt>
-                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                         <c:v>44531</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3459,14 +3474,17 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$B$2:$B$8</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>资金曲线!$B$2:$B$8</c15:sqref>
+                          <c15:sqref>(资金曲线!$B$2:$B$5,资金曲线!$B$7:$B$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>40000</c:v>
                       </c:pt>
@@ -3480,12 +3498,9 @@
                         <c:v>39808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>39831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>39831.02</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
                         <c:v>40295</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3535,16 +3550,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref/>
+                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3558,12 +3573,9 @@
                         <c:v>44510</c:v>
                       </c:pt>
                       <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                        <c:v>44517</c:v>
+                        <c:v>44524</c:v>
                       </c:pt>
                       <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                        <c:v>44524</c:v>
-                      </c:pt>
-                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
                         <c:v>44531</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3573,14 +3585,17 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$C$2:$C$8</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>资金曲线!$C$2:$C$8</c15:sqref>
+                          <c15:sqref>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>400</c:v>
                       </c:pt>
@@ -3594,12 +3609,9 @@
                         <c:v>398.0803</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>398.3102</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>398.3102</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
                         <c:v>402.95</c:v>
                       </c:pt>
                     </c:numCache>
@@ -22789,7 +22801,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="2"/>
+    <workbookView windowWidth="19940" windowHeight="11360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -3189,7 +3189,7 @@
         </c:txPr>
         <c:crossAx val="307545957"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5481,9 +5481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>6985</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5492,7 +5492,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4732655" y="2957830"/>
-        <a:ext cx="4569460" cy="2502535"/>
+        <a:ext cx="4573905" cy="2837815"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -22800,7 +22800,7 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -781,6 +781,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -928,13 +934,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1046,33 +1052,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1084,14 +1075,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,14 +1090,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1121,9 +1112,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1131,14 +1121,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,15 +1136,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1176,7 +1151,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,7 +1260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,25 +1278,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,25 +1332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,49 +1344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,7 +1368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,31 +1380,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,7 +1428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,7 +1519,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1535,35 +1556,35 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1582,165 +1603,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1757,13 +1763,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1778,7 +1784,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1796,7 +1802,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1874,19 +1880,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1895,7 +1901,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1940,25 +1946,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1982,7 +1988,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2852,10 +2858,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.111817418090171"/>
-          <c:y val="0.187869822485207"/>
-          <c:w val="0.85499859983198"/>
-          <c:h val="0.693392504930966"/>
+          <c:x val="0.111842105263158"/>
+          <c:y val="0.140309155766944"/>
+          <c:w val="0.85498320268757"/>
+          <c:h val="0.603186682520809"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3112,7 +3118,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5444,14 +5450,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>126365</xdr:rowOff>
     </xdr:to>
@@ -5461,7 +5467,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4745355" y="50165"/>
+        <a:off x="4734560" y="50165"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -10559,7 +10565,7 @@
       <c r="Y10" s="46"/>
       <c r="Z10" s="50">
         <f>(P10-E10)/VLOOKUP(B10,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
-        <v>-0.196428571428572</v>
+        <v>-0.196428571428571</v>
       </c>
       <c r="AA10" s="85" t="s">
         <v>54</v>
@@ -22800,8 +22806,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -22807,7 +22807,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -5652,51 +5652,53 @@
           <cell r="AE4" t="str">
             <v>5T</v>
           </cell>
-          <cell r="AF4" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
-          </cell>
         </row>
         <row r="4">
-          <cell r="BG4">
+          <cell r="AM4" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="BN4">
             <v>28.15</v>
           </cell>
-          <cell r="BH4">
+          <cell r="BO4">
             <v>21.87</v>
           </cell>
-          <cell r="BI4">
+          <cell r="BP4">
             <v>6.28</v>
           </cell>
-          <cell r="BJ4">
+          <cell r="BQ4">
             <v>26.2</v>
           </cell>
-          <cell r="BK4">
+          <cell r="BR4">
             <v>24.68</v>
           </cell>
-          <cell r="BL4">
+          <cell r="BS4">
             <v>32.49</v>
           </cell>
-          <cell r="BM4">
+          <cell r="BT4">
             <v>152</v>
           </cell>
-          <cell r="BN4">
+          <cell r="BU4">
             <v>100</v>
           </cell>
-          <cell r="BO4">
+          <cell r="BV4">
             <v>4.13815789473685</v>
           </cell>
-          <cell r="BP4">
+          <cell r="BW4">
             <v>0.0580152671755725</v>
           </cell>
-          <cell r="BQ4">
+          <cell r="BX4">
             <v>0.240076335877863</v>
           </cell>
-          <cell r="BR4">
+          <cell r="BY4">
             <v>150.88</v>
           </cell>
-          <cell r="BS4" t="str">
+          <cell r="BZ4" t="str">
             <v>不宜入场</v>
           </cell>
-          <cell r="BT4" t="str">
+          <cell r="CA4" t="str">
             <v>已执行</v>
           </cell>
         </row>
@@ -5786,116 +5788,118 @@
           <cell r="AE5" t="str">
             <v>4T</v>
           </cell>
-          <cell r="AF5" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
-          </cell>
         </row>
         <row r="5">
-          <cell r="AH5" t="str">
-            <v>14.04</v>
-          </cell>
-          <cell r="AI5">
-            <v>0.0351</v>
-          </cell>
-          <cell r="AJ5">
-            <v>0.3603</v>
-          </cell>
-          <cell r="AK5">
-            <v>0.3371</v>
-          </cell>
-          <cell r="AL5">
-            <v>0.2435</v>
-          </cell>
-          <cell r="AM5">
-            <v>0.263</v>
-          </cell>
-          <cell r="AN5">
-            <v>0.003</v>
-          </cell>
-          <cell r="AO5">
-            <v>0.0758</v>
-          </cell>
-          <cell r="AP5">
-            <v>-0.2476</v>
-          </cell>
-          <cell r="AQ5">
-            <v>0.0073</v>
-          </cell>
-          <cell r="AR5">
-            <v>0.2143</v>
-          </cell>
-          <cell r="AS5">
-            <v>0.156</v>
-          </cell>
-          <cell r="AT5">
-            <v>0.1125</v>
-          </cell>
-          <cell r="AU5">
-            <v>0.2584</v>
-          </cell>
-          <cell r="AV5">
-            <v>-0.0411</v>
-          </cell>
-          <cell r="AW5">
-            <v>0.0156</v>
-          </cell>
-          <cell r="AX5">
-            <v>-0.167</v>
-          </cell>
-          <cell r="AY5">
-            <v>0.4704</v>
-          </cell>
-          <cell r="AZ5">
-            <v>0.4673</v>
-          </cell>
-          <cell r="BA5">
-            <v>0.4797</v>
-          </cell>
-          <cell r="BB5">
-            <v>0.4796</v>
+          <cell r="AM5" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="AO5" t="str">
+            <v>14.04</v>
+          </cell>
+          <cell r="AP5">
+            <v>0.0351</v>
+          </cell>
+          <cell r="AQ5">
+            <v>0.3603</v>
+          </cell>
+          <cell r="AR5">
+            <v>0.3371</v>
+          </cell>
+          <cell r="AS5">
+            <v>0.2435</v>
+          </cell>
+          <cell r="AT5">
+            <v>0.263</v>
+          </cell>
+          <cell r="AU5">
+            <v>0.003</v>
+          </cell>
+          <cell r="AV5">
+            <v>0.0758</v>
+          </cell>
+          <cell r="AW5">
+            <v>-0.2476</v>
+          </cell>
+          <cell r="AX5">
+            <v>0.0073</v>
+          </cell>
+          <cell r="AY5">
+            <v>0.2143</v>
+          </cell>
+          <cell r="AZ5">
+            <v>0.156</v>
+          </cell>
+          <cell r="BA5">
+            <v>0.1125</v>
+          </cell>
+          <cell r="BB5">
+            <v>0.2584</v>
+          </cell>
+          <cell r="BC5">
+            <v>-0.0411</v>
+          </cell>
+          <cell r="BD5">
+            <v>0.0156</v>
+          </cell>
+          <cell r="BE5">
+            <v>-0.167</v>
+          </cell>
+          <cell r="BF5">
+            <v>0.4704</v>
+          </cell>
           <cell r="BG5">
+            <v>0.4673</v>
+          </cell>
+          <cell r="BH5">
+            <v>0.4797</v>
+          </cell>
+          <cell r="BI5">
+            <v>0.4796</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="BN5">
             <v>35.48</v>
           </cell>
-          <cell r="BH5">
+          <cell r="BO5">
             <v>31.36</v>
           </cell>
-          <cell r="BI5">
+          <cell r="BP5">
             <v>4.12</v>
           </cell>
-          <cell r="BJ5">
+          <cell r="BQ5">
             <v>34.12</v>
           </cell>
-          <cell r="BK5">
+          <cell r="BR5">
             <v>32.53</v>
           </cell>
-          <cell r="BL5">
+          <cell r="BS5">
             <v>39.33</v>
           </cell>
-          <cell r="BM5">
+          <cell r="BT5">
             <v>159</v>
           </cell>
-          <cell r="BN5">
+          <cell r="BU5">
             <v>100</v>
           </cell>
-          <cell r="BO5">
+          <cell r="BV5">
             <v>3.27672955974844</v>
           </cell>
-          <cell r="BP5">
+          <cell r="BW5">
             <v>0.0466002344665884</v>
           </cell>
-          <cell r="BQ5">
+          <cell r="BX5">
             <v>0.152696365767878</v>
           </cell>
-          <cell r="BR5">
+          <cell r="BY5">
             <v>37.41</v>
           </cell>
-          <cell r="BS5" t="str">
+          <cell r="BZ5" t="str">
             <v>可以</v>
           </cell>
-          <cell r="BT5" t="str">
+          <cell r="CA5" t="str">
             <v>已执行</v>
           </cell>
         </row>
@@ -5985,116 +5989,118 @@
           <cell r="AE6" t="str">
             <v>3T</v>
           </cell>
-          <cell r="AF6" t="str">
-            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="6">
-          <cell r="AH6" t="str">
-            <v>1.22</v>
-          </cell>
-          <cell r="AI6" t="str">
-            <v>76.43%</v>
-          </cell>
-          <cell r="AJ6" t="str">
-            <v>213.97%</v>
-          </cell>
-          <cell r="AK6" t="str">
-            <v>-18.38%</v>
-          </cell>
-          <cell r="AL6" t="str">
-            <v>-27.36%</v>
-          </cell>
           <cell r="AM6" t="str">
-            <v>41.62%</v>
-          </cell>
-          <cell r="AN6" t="str">
-            <v>10.87%</v>
-          </cell>
-          <cell r="AO6" t="str">
-            <v>-28.84%</v>
-          </cell>
-          <cell r="AP6" t="str">
-            <v>-61.45%</v>
-          </cell>
-          <cell r="AQ6" t="str">
-            <v>22.84%</v>
-          </cell>
-          <cell r="AR6" t="str">
-            <v>91.86%</v>
-          </cell>
-          <cell r="AS6" t="str">
-            <v>36.42%</v>
-          </cell>
-          <cell r="AT6" t="str">
-            <v>23.26%</v>
-          </cell>
-          <cell r="AU6">
-            <v>0.0455</v>
-          </cell>
-          <cell r="AV6">
-            <v>-0.0116</v>
-          </cell>
-          <cell r="AW6">
-            <v>0.1549</v>
-          </cell>
-          <cell r="AX6">
-            <v>-0.1474</v>
-          </cell>
-          <cell r="AY6">
-            <v>0.2133</v>
-          </cell>
-          <cell r="AZ6">
-            <v>0.1848</v>
-          </cell>
-          <cell r="BA6">
-            <v>0.1718</v>
-          </cell>
-          <cell r="BB6">
-            <v>0.1605</v>
+            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
           </cell>
         </row>
         <row r="6">
+          <cell r="AO6" t="str">
+            <v>1.22</v>
+          </cell>
+          <cell r="AP6" t="str">
+            <v>76.43%</v>
+          </cell>
+          <cell r="AQ6" t="str">
+            <v>213.97%</v>
+          </cell>
+          <cell r="AR6" t="str">
+            <v>-18.38%</v>
+          </cell>
+          <cell r="AS6" t="str">
+            <v>-27.36%</v>
+          </cell>
+          <cell r="AT6" t="str">
+            <v>41.62%</v>
+          </cell>
+          <cell r="AU6" t="str">
+            <v>10.87%</v>
+          </cell>
+          <cell r="AV6" t="str">
+            <v>-28.84%</v>
+          </cell>
+          <cell r="AW6" t="str">
+            <v>-61.45%</v>
+          </cell>
+          <cell r="AX6" t="str">
+            <v>22.84%</v>
+          </cell>
+          <cell r="AY6" t="str">
+            <v>91.86%</v>
+          </cell>
+          <cell r="AZ6" t="str">
+            <v>36.42%</v>
+          </cell>
+          <cell r="BA6" t="str">
+            <v>23.26%</v>
+          </cell>
+          <cell r="BB6">
+            <v>0.0455</v>
+          </cell>
+          <cell r="BC6">
+            <v>-0.0116</v>
+          </cell>
+          <cell r="BD6">
+            <v>0.1549</v>
+          </cell>
+          <cell r="BE6">
+            <v>-0.1474</v>
+          </cell>
+          <cell r="BF6">
+            <v>0.2133</v>
+          </cell>
           <cell r="BG6">
+            <v>0.1848</v>
+          </cell>
+          <cell r="BH6">
+            <v>0.1718</v>
+          </cell>
+          <cell r="BI6">
+            <v>0.1605</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="BN6">
             <v>36.21</v>
           </cell>
-          <cell r="BH6">
+          <cell r="BO6">
             <v>27.35</v>
           </cell>
-          <cell r="BI6">
+          <cell r="BP6">
             <v>8.86</v>
           </cell>
-          <cell r="BJ6">
+          <cell r="BQ6">
             <v>32.65</v>
           </cell>
-          <cell r="BK6">
+          <cell r="BR6">
             <v>30.89</v>
           </cell>
-          <cell r="BL6">
+          <cell r="BS6">
             <v>36.22</v>
           </cell>
-          <cell r="BM6">
+          <cell r="BT6">
             <v>176</v>
           </cell>
-          <cell r="BN6">
+          <cell r="BU6">
             <v>100</v>
           </cell>
-          <cell r="BO6">
+          <cell r="BV6">
             <v>2.02840909090909</v>
           </cell>
-          <cell r="BP6">
+          <cell r="BW6">
             <v>0.0539050535987748</v>
           </cell>
-          <cell r="BQ6">
+          <cell r="BX6">
             <v>0.109341500765697</v>
           </cell>
-          <cell r="BR6">
+          <cell r="BY6">
             <v>28.82</v>
           </cell>
-          <cell r="BS6" t="str">
+          <cell r="BZ6" t="str">
             <v>可以</v>
           </cell>
-          <cell r="BT6" t="str">
+          <cell r="CA6" t="str">
             <v>已执行</v>
           </cell>
         </row>
@@ -6187,116 +6193,118 @@
           <cell r="AE7" t="str">
             <v>3T</v>
           </cell>
-          <cell r="AF7" t="str">
-            <v>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</v>
-          </cell>
         </row>
         <row r="7">
-          <cell r="AH7">
-            <v>10.35</v>
-          </cell>
-          <cell r="AI7" t="str">
-            <v>1018.94%</v>
-          </cell>
-          <cell r="AJ7" t="str">
-            <v>1628.25%</v>
-          </cell>
-          <cell r="AK7" t="str">
-            <v>195.29%</v>
-          </cell>
-          <cell r="AL7" t="str">
-            <v>187.08%</v>
-          </cell>
           <cell r="AM7" t="str">
-            <v>-27.60%</v>
-          </cell>
-          <cell r="AN7" t="str">
-            <v>203.68%</v>
-          </cell>
-          <cell r="AO7" t="str">
-            <v>-30.01%</v>
-          </cell>
-          <cell r="AP7" t="str">
-            <v>79.80%</v>
-          </cell>
-          <cell r="AQ7" t="str">
-            <v>346.57%</v>
-          </cell>
-          <cell r="AR7" t="str">
-            <v>1325.86%</v>
-          </cell>
-          <cell r="AS7" t="str">
-            <v>185.25%</v>
-          </cell>
-          <cell r="AT7" t="str">
-            <v>196.14%</v>
-          </cell>
-          <cell r="AU7" t="str">
-            <v>62.35%</v>
-          </cell>
-          <cell r="AV7" t="str">
-            <v>74.09%</v>
-          </cell>
-          <cell r="AW7" t="str">
-            <v>-43.96%</v>
-          </cell>
-          <cell r="AX7" t="str">
-            <v>97.62%</v>
-          </cell>
-          <cell r="AY7" t="str">
-            <v>78.21%</v>
-          </cell>
-          <cell r="AZ7" t="str">
-            <v>76.66%</v>
-          </cell>
-          <cell r="BA7">
-            <v>0.7636</v>
-          </cell>
-          <cell r="BB7">
-            <v>0.7607</v>
+            <v>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="BG7">
+          <cell r="AO7">
+            <v>10.35</v>
+          </cell>
+          <cell r="AP7" t="str">
+            <v>1018.94%</v>
+          </cell>
+          <cell r="AQ7" t="str">
+            <v>1628.25%</v>
+          </cell>
+          <cell r="AR7" t="str">
+            <v>195.29%</v>
+          </cell>
+          <cell r="AS7" t="str">
+            <v>187.08%</v>
+          </cell>
+          <cell r="AT7" t="str">
+            <v>-27.60%</v>
+          </cell>
+          <cell r="AU7" t="str">
+            <v>203.68%</v>
+          </cell>
+          <cell r="AV7" t="str">
+            <v>-30.01%</v>
+          </cell>
+          <cell r="AW7" t="str">
+            <v>79.80%</v>
+          </cell>
+          <cell r="AX7" t="str">
+            <v>346.57%</v>
+          </cell>
+          <cell r="AY7" t="str">
+            <v>1325.86%</v>
+          </cell>
+          <cell r="AZ7" t="str">
+            <v>185.25%</v>
+          </cell>
+          <cell r="BA7" t="str">
+            <v>196.14%</v>
+          </cell>
+          <cell r="BB7" t="str">
+            <v>62.35%</v>
+          </cell>
+          <cell r="BC7" t="str">
+            <v>74.09%</v>
+          </cell>
+          <cell r="BD7" t="str">
+            <v>-43.96%</v>
+          </cell>
+          <cell r="BE7" t="str">
+            <v>97.62%</v>
+          </cell>
+          <cell r="BF7" t="str">
+            <v>78.21%</v>
+          </cell>
+          <cell r="BG7" t="str">
+            <v>76.66%</v>
+          </cell>
+          <cell r="BH7">
+            <v>0.7636</v>
+          </cell>
+          <cell r="BI7">
+            <v>0.7607</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="BN7">
             <v>75.02</v>
           </cell>
-          <cell r="BH7">
+          <cell r="BO7">
             <v>62.33</v>
           </cell>
-          <cell r="BI7">
+          <cell r="BP7">
             <v>12.69</v>
           </cell>
-          <cell r="BJ7">
+          <cell r="BQ7">
             <v>70.98</v>
           </cell>
-          <cell r="BK7">
+          <cell r="BR7">
             <v>66.88</v>
           </cell>
-          <cell r="BL7">
+          <cell r="BS7">
             <v>84.94</v>
           </cell>
-          <cell r="BM7">
+          <cell r="BT7">
             <v>410.000000000001</v>
           </cell>
-          <cell r="BN7">
+          <cell r="BU7">
             <v>0</v>
           </cell>
-          <cell r="BO7">
+          <cell r="BV7">
             <v>3.40487804878048</v>
           </cell>
-          <cell r="BP7">
+          <cell r="BW7">
             <v>0.0577627500704425</v>
           </cell>
-          <cell r="BQ7">
+          <cell r="BX7">
             <v>0.196675119752043</v>
           </cell>
-          <cell r="BR7">
+          <cell r="BY7">
             <v>6.49</v>
           </cell>
-          <cell r="BS7" t="str">
+          <cell r="BZ7" t="str">
             <v>可以</v>
           </cell>
-          <cell r="BT7" t="str">
+          <cell r="CA7" t="str">
             <v>已执行</v>
           </cell>
         </row>
@@ -6377,51 +6385,53 @@
           <cell r="AE8" t="str">
             <v>3T</v>
           </cell>
-          <cell r="AF8" t="str">
-            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
-          </cell>
         </row>
         <row r="8">
-          <cell r="BG8">
+          <cell r="AM8" t="str">
+            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="BN8">
             <v>32.43</v>
           </cell>
-          <cell r="BH8">
+          <cell r="BO8">
             <v>26.16</v>
           </cell>
-          <cell r="BI8">
+          <cell r="BP8">
             <v>6.27</v>
           </cell>
-          <cell r="BJ8">
+          <cell r="BQ8">
             <v>30.66</v>
           </cell>
-          <cell r="BK8">
+          <cell r="BR8">
             <v>29.35</v>
           </cell>
-          <cell r="BL8">
+          <cell r="BS8">
             <v>38.71</v>
           </cell>
-          <cell r="BM8">
+          <cell r="BT8">
             <v>131</v>
           </cell>
-          <cell r="BN8">
+          <cell r="BU8">
             <v>200</v>
           </cell>
-          <cell r="BO8">
+          <cell r="BV8">
             <v>6.14503816793894</v>
           </cell>
-          <cell r="BP8">
+          <cell r="BW8">
             <v>0.042726679712981</v>
           </cell>
-          <cell r="BQ8">
+          <cell r="BX8">
             <v>0.262557077625571</v>
           </cell>
-          <cell r="BR8">
+          <cell r="BY8">
             <v>38.46</v>
           </cell>
-          <cell r="BS8" t="str">
+          <cell r="BZ8" t="str">
             <v>不宜入场</v>
           </cell>
-          <cell r="BT8" t="str">
+          <cell r="CA8" t="str">
             <v>已执行</v>
           </cell>
         </row>
@@ -6508,116 +6518,118 @@
           <cell r="AE9" t="str">
             <v>4T</v>
           </cell>
-          <cell r="AF9" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="9">
-          <cell r="AH9">
-            <v>6.25</v>
-          </cell>
-          <cell r="AI9">
-            <v>1.5016</v>
-          </cell>
-          <cell r="AJ9">
-            <v>5.5181</v>
-          </cell>
-          <cell r="AK9">
-            <v>3.3249</v>
-          </cell>
-          <cell r="AL9">
-            <v>1.8449</v>
-          </cell>
-          <cell r="AM9">
-            <v>0.3554</v>
-          </cell>
-          <cell r="AN9">
-            <v>0.2495</v>
-          </cell>
-          <cell r="AO9">
-            <v>0.1071</v>
-          </cell>
-          <cell r="AP9">
-            <v>-0.134</v>
-          </cell>
-          <cell r="AQ9">
-            <v>0.0437</v>
-          </cell>
-          <cell r="AR9">
-            <v>1.1403</v>
-          </cell>
-          <cell r="AS9">
-            <v>1.4349</v>
-          </cell>
-          <cell r="AT9">
-            <v>1.2425</v>
-          </cell>
-          <cell r="AU9">
-            <v>0.2131</v>
-          </cell>
-          <cell r="AV9">
-            <v>0.2062</v>
-          </cell>
-          <cell r="AW9">
-            <v>0.334</v>
-          </cell>
-          <cell r="AX9">
-            <v>0.0105</v>
-          </cell>
-          <cell r="AY9">
-            <v>0.3392</v>
-          </cell>
-          <cell r="AZ9">
-            <v>0.3777</v>
-          </cell>
-          <cell r="BA9">
-            <v>0.3722</v>
-          </cell>
-          <cell r="BB9">
-            <v>0.3621</v>
+          <cell r="AM9" t="str">
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
         </row>
         <row r="9">
+          <cell r="AO9">
+            <v>6.25</v>
+          </cell>
+          <cell r="AP9">
+            <v>1.5016</v>
+          </cell>
+          <cell r="AQ9">
+            <v>5.5181</v>
+          </cell>
+          <cell r="AR9">
+            <v>3.3249</v>
+          </cell>
+          <cell r="AS9">
+            <v>1.8449</v>
+          </cell>
+          <cell r="AT9">
+            <v>0.3554</v>
+          </cell>
+          <cell r="AU9">
+            <v>0.2495</v>
+          </cell>
+          <cell r="AV9">
+            <v>0.1071</v>
+          </cell>
+          <cell r="AW9">
+            <v>-0.134</v>
+          </cell>
+          <cell r="AX9">
+            <v>0.0437</v>
+          </cell>
+          <cell r="AY9">
+            <v>1.1403</v>
+          </cell>
+          <cell r="AZ9">
+            <v>1.4349</v>
+          </cell>
+          <cell r="BA9">
+            <v>1.2425</v>
+          </cell>
+          <cell r="BB9">
+            <v>0.2131</v>
+          </cell>
+          <cell r="BC9">
+            <v>0.2062</v>
+          </cell>
+          <cell r="BD9">
+            <v>0.334</v>
+          </cell>
+          <cell r="BE9">
+            <v>0.0105</v>
+          </cell>
+          <cell r="BF9">
+            <v>0.3392</v>
+          </cell>
           <cell r="BG9">
+            <v>0.3777</v>
+          </cell>
+          <cell r="BH9">
+            <v>0.3722</v>
+          </cell>
+          <cell r="BI9">
+            <v>0.3621</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="BN9">
             <v>31.18</v>
           </cell>
-          <cell r="BH9">
+          <cell r="BO9">
             <v>21.1</v>
           </cell>
-          <cell r="BI9">
+          <cell r="BP9">
             <v>10.08</v>
           </cell>
-          <cell r="BJ9">
+          <cell r="BQ9">
             <v>29.77</v>
           </cell>
-          <cell r="BK9">
+          <cell r="BR9">
             <v>27.72</v>
           </cell>
-          <cell r="BL9">
+          <cell r="BS9">
             <v>34.93</v>
           </cell>
-          <cell r="BM9">
+          <cell r="BT9">
             <v>205</v>
           </cell>
-          <cell r="BN9">
+          <cell r="BU9">
             <v>100</v>
           </cell>
-          <cell r="BO9">
+          <cell r="BV9">
             <v>2.51707317073171</v>
           </cell>
-          <cell r="BP9">
+          <cell r="BW9">
             <v>0.0688612697346322</v>
           </cell>
-          <cell r="BQ9">
+          <cell r="BX9">
             <v>0.173328854551562</v>
           </cell>
-          <cell r="BR9">
+          <cell r="BY9">
             <v>17.95</v>
           </cell>
-          <cell r="BS9" t="str">
+          <cell r="BZ9" t="str">
             <v>可以</v>
           </cell>
-          <cell r="BT9" t="str">
+          <cell r="CA9" t="str">
             <v>已执行</v>
           </cell>
         </row>
@@ -6704,117 +6716,119 @@
           <cell r="AE10" t="str">
             <v>4T</v>
           </cell>
-          <cell r="AF10" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="10">
-          <cell r="AH10">
-            <v>0.77</v>
-          </cell>
-          <cell r="AI10" t="str">
-            <v>-30.59%</v>
-          </cell>
-          <cell r="AJ10" t="str">
-            <v>12.50%</v>
-          </cell>
-          <cell r="AK10" t="str">
-            <v>32.53%</v>
-          </cell>
-          <cell r="AL10" t="str">
-            <v>57.14%</v>
-          </cell>
-          <cell r="AM10">
-            <v>2.6193</v>
-          </cell>
-          <cell r="AN10">
-            <v>0.0893</v>
-          </cell>
-          <cell r="AO10">
-            <v>-0.0175</v>
-          </cell>
-          <cell r="AP10">
-            <v>-0.2195</v>
-          </cell>
-          <cell r="AQ10">
-            <v>-0.0419</v>
-          </cell>
-          <cell r="AR10">
-            <v>0.1981</v>
-          </cell>
-          <cell r="AS10">
-            <v>0.198</v>
-          </cell>
-          <cell r="AT10">
-            <v>0.1998</v>
-          </cell>
-          <cell r="AU10">
-            <v>0.1893</v>
-          </cell>
-          <cell r="AV10">
-            <v>-0.0513</v>
-          </cell>
-          <cell r="AW10">
-            <v>0.0188</v>
-          </cell>
-          <cell r="AX10">
-            <v>0.0467</v>
-          </cell>
-          <cell r="AY10">
-            <v>0.2619</v>
-          </cell>
-          <cell r="AZ10">
-            <v>0.259</v>
-          </cell>
-          <cell r="BA10">
-            <v>0.2791</v>
-          </cell>
-          <cell r="BB10">
-            <v>0.1079</v>
+          <cell r="AM10" t="str">
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
         </row>
         <row r="10">
+          <cell r="AO10">
+            <v>0.77</v>
+          </cell>
+          <cell r="AP10" t="str">
+            <v>-30.59%</v>
+          </cell>
+          <cell r="AQ10" t="str">
+            <v>12.50%</v>
+          </cell>
+          <cell r="AR10" t="str">
+            <v>32.53%</v>
+          </cell>
+          <cell r="AS10" t="str">
+            <v>57.14%</v>
+          </cell>
+          <cell r="AT10">
+            <v>2.6193</v>
+          </cell>
+          <cell r="AU10">
+            <v>0.0893</v>
+          </cell>
+          <cell r="AV10">
+            <v>-0.0175</v>
+          </cell>
+          <cell r="AW10">
+            <v>-0.2195</v>
+          </cell>
+          <cell r="AX10">
+            <v>-0.0419</v>
+          </cell>
+          <cell r="AY10">
+            <v>0.1981</v>
+          </cell>
+          <cell r="AZ10">
+            <v>0.198</v>
+          </cell>
+          <cell r="BA10">
+            <v>0.1998</v>
+          </cell>
+          <cell r="BB10">
+            <v>0.1893</v>
+          </cell>
+          <cell r="BC10">
+            <v>-0.0513</v>
+          </cell>
+          <cell r="BD10">
+            <v>0.0188</v>
+          </cell>
+          <cell r="BE10">
+            <v>0.0467</v>
+          </cell>
+          <cell r="BF10">
+            <v>0.2619</v>
+          </cell>
           <cell r="BG10">
+            <v>0.259</v>
+          </cell>
+          <cell r="BH10">
+            <v>0.2791</v>
+          </cell>
+          <cell r="BI10">
+            <v>0.1079</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="BN10">
             <v>25.31</v>
           </cell>
-          <cell r="BH10">
+          <cell r="BO10">
             <v>19.08</v>
           </cell>
-          <cell r="BI10">
+          <cell r="BP10">
             <v>6.23</v>
           </cell>
-          <cell r="BJ10">
+          <cell r="BQ10">
             <v>24.28</v>
           </cell>
-          <cell r="BK10">
+          <cell r="BR10">
             <v>22.26</v>
           </cell>
-          <cell r="BL10">
+          <cell r="BS10">
             <v>26.72</v>
           </cell>
-          <cell r="BM10">
+          <cell r="BT10">
             <v>202</v>
           </cell>
-          <cell r="BN10">
+          <cell r="BU10">
             <v>100</v>
           </cell>
-          <cell r="BO10">
+          <cell r="BV10">
             <v>1.20792079207921</v>
           </cell>
-          <cell r="BP10">
+          <cell r="BW10">
             <v>0.0831960461285008</v>
           </cell>
-          <cell r="BQ10">
+          <cell r="BX10">
             <v>0.100494233937397</v>
           </cell>
-          <cell r="BR10">
+          <cell r="BY10">
             <v>56.67</v>
           </cell>
-          <cell r="BS10" t="str">
+          <cell r="BZ10" t="str">
             <v>暂不宜入场
 (等待波动一周后)</v>
           </cell>
-          <cell r="BT10" t="str">
+          <cell r="CA10" t="str">
             <v>待执行</v>
           </cell>
         </row>
@@ -6901,117 +6915,119 @@
           <cell r="AE11" t="str">
             <v>4T</v>
           </cell>
-          <cell r="AF11" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="11">
-          <cell r="AH11">
-            <v>8.51</v>
-          </cell>
-          <cell r="AI11">
-            <v>3.6019</v>
-          </cell>
-          <cell r="AJ11">
-            <v>16.933</v>
-          </cell>
-          <cell r="AK11">
-            <v>7.9794</v>
-          </cell>
-          <cell r="AL11">
-            <v>3.2905</v>
-          </cell>
-          <cell r="AM11">
-            <v>1.3176</v>
-          </cell>
-          <cell r="AN11">
-            <v>0.0128</v>
-          </cell>
-          <cell r="AO11">
-            <v>-0.2701</v>
-          </cell>
-          <cell r="AP11">
-            <v>0.2668</v>
-          </cell>
-          <cell r="AQ11">
-            <v>0.0496</v>
-          </cell>
-          <cell r="AR11">
-            <v>0.7137</v>
-          </cell>
-          <cell r="AS11">
-            <v>0.3284</v>
-          </cell>
-          <cell r="AT11">
-            <v>0.4288</v>
-          </cell>
-          <cell r="AU11">
-            <v>0.52</v>
-          </cell>
-          <cell r="AV11">
-            <v>-0.119</v>
-          </cell>
-          <cell r="AW11">
-            <v>0.0208</v>
-          </cell>
-          <cell r="AX11">
-            <v>0.1948</v>
-          </cell>
-          <cell r="AY11">
-            <v>0.1781</v>
-          </cell>
-          <cell r="AZ11">
-            <v>0.2286</v>
-          </cell>
-          <cell r="BA11">
-            <v>0.2077</v>
-          </cell>
-          <cell r="BB11">
-            <v>0.1904</v>
+          <cell r="AM11" t="str">
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
         </row>
         <row r="11">
+          <cell r="AO11">
+            <v>8.51</v>
+          </cell>
+          <cell r="AP11">
+            <v>3.6019</v>
+          </cell>
+          <cell r="AQ11">
+            <v>16.933</v>
+          </cell>
+          <cell r="AR11">
+            <v>7.9794</v>
+          </cell>
+          <cell r="AS11">
+            <v>3.2905</v>
+          </cell>
+          <cell r="AT11">
+            <v>1.3176</v>
+          </cell>
+          <cell r="AU11">
+            <v>0.0128</v>
+          </cell>
+          <cell r="AV11">
+            <v>-0.2701</v>
+          </cell>
+          <cell r="AW11">
+            <v>0.2668</v>
+          </cell>
+          <cell r="AX11">
+            <v>0.0496</v>
+          </cell>
+          <cell r="AY11">
+            <v>0.7137</v>
+          </cell>
+          <cell r="AZ11">
+            <v>0.3284</v>
+          </cell>
+          <cell r="BA11">
+            <v>0.4288</v>
+          </cell>
+          <cell r="BB11">
+            <v>0.52</v>
+          </cell>
+          <cell r="BC11">
+            <v>-0.119</v>
+          </cell>
+          <cell r="BD11">
+            <v>0.0208</v>
+          </cell>
+          <cell r="BE11">
+            <v>0.1948</v>
+          </cell>
+          <cell r="BF11">
+            <v>0.1781</v>
+          </cell>
           <cell r="BG11">
+            <v>0.2286</v>
+          </cell>
+          <cell r="BH11">
+            <v>0.2077</v>
+          </cell>
+          <cell r="BI11">
+            <v>0.1904</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="BN11">
             <v>24.2</v>
           </cell>
-          <cell r="BH11">
+          <cell r="BO11">
             <v>18.22</v>
           </cell>
-          <cell r="BI11">
+          <cell r="BP11">
             <v>5.98</v>
           </cell>
-          <cell r="BJ11">
+          <cell r="BQ11">
             <v>23.05</v>
           </cell>
-          <cell r="BK11">
+          <cell r="BR11">
             <v>20.89</v>
           </cell>
-          <cell r="BL11">
+          <cell r="BS11">
             <v>28.54</v>
           </cell>
-          <cell r="BM11">
+          <cell r="BT11">
             <v>216</v>
           </cell>
-          <cell r="BN11">
+          <cell r="BU11">
             <v>100</v>
           </cell>
-          <cell r="BO11">
+          <cell r="BV11">
             <v>2.54166666666667</v>
           </cell>
-          <cell r="BP11">
+          <cell r="BW11">
             <v>0.0937093275488069</v>
           </cell>
-          <cell r="BQ11">
+          <cell r="BX11">
             <v>0.238177874186551</v>
           </cell>
-          <cell r="BR11">
+          <cell r="BY11">
             <v>39.84</v>
           </cell>
-          <cell r="BS11" t="str">
+          <cell r="BZ11" t="str">
             <v>暂不宜入场
 (等待波动一周后)</v>
           </cell>
-          <cell r="BT11" t="str">
+          <cell r="CA11" t="str">
             <v>待执行</v>
           </cell>
         </row>
@@ -7100,112 +7116,112 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="AH12">
+          <cell r="AO12">
             <v>2.2</v>
           </cell>
-          <cell r="AI12">
+          <cell r="AP12">
             <v>0.0112</v>
           </cell>
-          <cell r="AJ12">
+          <cell r="AQ12">
             <v>0.8116</v>
           </cell>
-          <cell r="AK12">
+          <cell r="AR12">
             <v>0.7087</v>
           </cell>
-          <cell r="AL12">
+          <cell r="AS12">
             <v>0.7083</v>
           </cell>
-          <cell r="AM12">
+          <cell r="AT12">
             <v>0.006</v>
           </cell>
-          <cell r="AN12">
+          <cell r="AU12">
             <v>0.3442</v>
           </cell>
-          <cell r="AO12">
+          <cell r="AV12">
             <v>0.247</v>
           </cell>
-          <cell r="AP12">
+          <cell r="AW12">
             <v>0.0127</v>
           </cell>
-          <cell r="AQ12">
+          <cell r="AX12">
             <v>0.1618</v>
           </cell>
-          <cell r="AR12">
+          <cell r="AY12">
             <v>1.016</v>
           </cell>
-          <cell r="AS12">
+          <cell r="AZ12">
             <v>0.5767</v>
           </cell>
-          <cell r="AT12">
+          <cell r="BA12">
             <v>0.477</v>
           </cell>
-          <cell r="AU12">
+          <cell r="BB12">
             <v>0.4664</v>
           </cell>
-          <cell r="AV12">
+          <cell r="BC12">
             <v>-0.1139</v>
           </cell>
-          <cell r="AW12">
+          <cell r="BD12">
             <v>-0.0272</v>
           </cell>
-          <cell r="AX12">
+          <cell r="BE12">
             <v>0.0402</v>
           </cell>
-          <cell r="AY12">
+          <cell r="BF12">
             <v>0.5316</v>
           </cell>
-          <cell r="AZ12">
+          <cell r="BG12">
             <v>0.5499</v>
           </cell>
-          <cell r="BA12">
+          <cell r="BH12">
             <v>0.5374</v>
           </cell>
-          <cell r="BB12">
+          <cell r="BI12">
             <v>0.5361</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="BG12">
+          <cell r="BN12">
             <v>42.71</v>
           </cell>
-          <cell r="BH12">
+          <cell r="BO12">
             <v>32.98</v>
           </cell>
-          <cell r="BI12">
+          <cell r="BP12">
             <v>9.73</v>
           </cell>
-          <cell r="BJ12">
+          <cell r="BQ12">
             <v>40.42</v>
           </cell>
-          <cell r="BK12">
+          <cell r="BR12">
             <v>37.94</v>
           </cell>
-          <cell r="BL12">
+          <cell r="BS12">
             <v>42.87</v>
           </cell>
-          <cell r="BM12">
+          <cell r="BT12">
             <v>248</v>
           </cell>
-          <cell r="BN12">
+          <cell r="BU12">
             <v>100</v>
           </cell>
-          <cell r="BO12">
+          <cell r="BV12">
             <v>0.987903225806448</v>
           </cell>
-          <cell r="BP12">
+          <cell r="BW12">
             <v>0.0613557644730332</v>
           </cell>
-          <cell r="BQ12">
+          <cell r="BX12">
             <v>0.0606135576447302</v>
           </cell>
-          <cell r="BR12">
+          <cell r="BY12">
             <v>25.4</v>
           </cell>
-          <cell r="BS12" t="str">
+          <cell r="BZ12" t="str">
             <v>暂不宜入场
 (等待波动一周后)</v>
           </cell>
-          <cell r="BT12" t="str">
+          <cell r="CA12" t="str">
             <v>待执行</v>
           </cell>
         </row>
@@ -7292,117 +7308,119 @@
           <cell r="AE13" t="str">
             <v>4T</v>
           </cell>
-          <cell r="AF13" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="13">
-          <cell r="AH13">
-            <v>6.25</v>
-          </cell>
-          <cell r="AI13">
-            <v>1.5016</v>
-          </cell>
-          <cell r="AJ13">
-            <v>5.5181</v>
-          </cell>
-          <cell r="AK13">
-            <v>3.3249</v>
-          </cell>
-          <cell r="AL13">
-            <v>1.8449</v>
-          </cell>
-          <cell r="AM13">
-            <v>0.3554</v>
-          </cell>
-          <cell r="AN13">
-            <v>0.2495</v>
-          </cell>
-          <cell r="AO13">
-            <v>0.1071</v>
-          </cell>
-          <cell r="AP13">
-            <v>-0.134</v>
-          </cell>
-          <cell r="AQ13">
-            <v>0.0437</v>
-          </cell>
-          <cell r="AR13">
-            <v>1.1403</v>
-          </cell>
-          <cell r="AS13">
-            <v>1.4349</v>
-          </cell>
-          <cell r="AT13">
-            <v>1.2425</v>
-          </cell>
-          <cell r="AU13">
-            <v>0.2131</v>
-          </cell>
-          <cell r="AV13">
-            <v>0.2062</v>
-          </cell>
-          <cell r="AW13">
-            <v>0.334</v>
-          </cell>
-          <cell r="AX13">
-            <v>0.0105</v>
-          </cell>
-          <cell r="AY13">
-            <v>0.3392</v>
-          </cell>
-          <cell r="AZ13">
-            <v>0.3777</v>
-          </cell>
-          <cell r="BA13">
-            <v>0.3722</v>
-          </cell>
-          <cell r="BB13">
-            <v>0.3621</v>
+          <cell r="AM13" t="str">
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
         </row>
         <row r="13">
+          <cell r="AO13">
+            <v>6.25</v>
+          </cell>
+          <cell r="AP13">
+            <v>1.5016</v>
+          </cell>
+          <cell r="AQ13">
+            <v>5.5181</v>
+          </cell>
+          <cell r="AR13">
+            <v>3.3249</v>
+          </cell>
+          <cell r="AS13">
+            <v>1.8449</v>
+          </cell>
+          <cell r="AT13">
+            <v>0.3554</v>
+          </cell>
+          <cell r="AU13">
+            <v>0.2495</v>
+          </cell>
+          <cell r="AV13">
+            <v>0.1071</v>
+          </cell>
+          <cell r="AW13">
+            <v>-0.134</v>
+          </cell>
+          <cell r="AX13">
+            <v>0.0437</v>
+          </cell>
+          <cell r="AY13">
+            <v>1.1403</v>
+          </cell>
+          <cell r="AZ13">
+            <v>1.4349</v>
+          </cell>
+          <cell r="BA13">
+            <v>1.2425</v>
+          </cell>
+          <cell r="BB13">
+            <v>0.2131</v>
+          </cell>
+          <cell r="BC13">
+            <v>0.2062</v>
+          </cell>
+          <cell r="BD13">
+            <v>0.334</v>
+          </cell>
+          <cell r="BE13">
+            <v>0.0105</v>
+          </cell>
+          <cell r="BF13">
+            <v>0.3392</v>
+          </cell>
           <cell r="BG13">
+            <v>0.3777</v>
+          </cell>
+          <cell r="BH13">
+            <v>0.3722</v>
+          </cell>
+          <cell r="BI13">
+            <v>0.3621</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="BN13">
             <v>31.21</v>
           </cell>
-          <cell r="BH13">
+          <cell r="BO13">
             <v>22.41</v>
           </cell>
-          <cell r="BI13">
+          <cell r="BP13">
             <v>8.8</v>
           </cell>
-          <cell r="BJ13">
+          <cell r="BQ13">
             <v>30.32</v>
           </cell>
-          <cell r="BK13">
+          <cell r="BR13">
             <v>27.44</v>
           </cell>
-          <cell r="BL13">
+          <cell r="BS13">
             <v>35.16</v>
           </cell>
-          <cell r="BM13">
+          <cell r="BT13">
             <v>288</v>
           </cell>
-          <cell r="BN13">
+          <cell r="BU13">
             <v>100</v>
           </cell>
-          <cell r="BO13">
+          <cell r="BV13">
             <v>1.68055555555555</v>
           </cell>
-          <cell r="BP13">
+          <cell r="BW13">
             <v>0.0949868073878628</v>
           </cell>
-          <cell r="BQ13">
+          <cell r="BX13">
             <v>0.159630606860158</v>
           </cell>
-          <cell r="BR13">
+          <cell r="BY13">
             <v>17.95</v>
           </cell>
-          <cell r="BS13" t="str">
+          <cell r="BZ13" t="str">
             <v>暂不宜入场
 (等待波动一周后)</v>
           </cell>
-          <cell r="BT13" t="str">
+          <cell r="CA13" t="str">
             <v>待执行</v>
           </cell>
         </row>
@@ -7489,117 +7507,119 @@
           <cell r="AE14" t="str">
             <v>4T</v>
           </cell>
-          <cell r="AF14" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="14">
-          <cell r="AH14">
-            <v>34.76</v>
-          </cell>
-          <cell r="AI14">
-            <v>0.4151</v>
-          </cell>
-          <cell r="AJ14">
-            <v>4.3101</v>
-          </cell>
-          <cell r="AK14">
-            <v>5.7893</v>
-          </cell>
-          <cell r="AL14">
-            <v>5.2189</v>
-          </cell>
-          <cell r="AM14">
-            <v>0.5076</v>
-          </cell>
-          <cell r="AN14">
-            <v>1.5097</v>
-          </cell>
-          <cell r="AO14">
-            <v>0.5596</v>
-          </cell>
-          <cell r="AP14">
-            <v>-0.084</v>
-          </cell>
-          <cell r="AQ14">
-            <v>0.1501</v>
-          </cell>
-          <cell r="AR14">
-            <v>0.3924</v>
-          </cell>
-          <cell r="AS14">
-            <v>0.602</v>
-          </cell>
-          <cell r="AT14">
-            <v>0.755</v>
-          </cell>
-          <cell r="AU14">
-            <v>0.9365</v>
-          </cell>
-          <cell r="AV14">
-            <v>-0.3372</v>
-          </cell>
-          <cell r="AW14">
-            <v>0.7463</v>
-          </cell>
-          <cell r="AX14">
-            <v>-0.1096</v>
-          </cell>
-          <cell r="AY14">
-            <v>0.1174</v>
-          </cell>
-          <cell r="AZ14">
-            <v>0.2187</v>
-          </cell>
-          <cell r="BA14">
-            <v>0.2433</v>
-          </cell>
-          <cell r="BB14">
-            <v>0.2275</v>
+          <cell r="AM14" t="str">
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
         </row>
         <row r="14">
+          <cell r="AO14">
+            <v>34.76</v>
+          </cell>
+          <cell r="AP14">
+            <v>0.4151</v>
+          </cell>
+          <cell r="AQ14">
+            <v>4.3101</v>
+          </cell>
+          <cell r="AR14">
+            <v>5.7893</v>
+          </cell>
+          <cell r="AS14">
+            <v>5.2189</v>
+          </cell>
+          <cell r="AT14">
+            <v>0.5076</v>
+          </cell>
+          <cell r="AU14">
+            <v>1.5097</v>
+          </cell>
+          <cell r="AV14">
+            <v>0.5596</v>
+          </cell>
+          <cell r="AW14">
+            <v>-0.084</v>
+          </cell>
+          <cell r="AX14">
+            <v>0.1501</v>
+          </cell>
+          <cell r="AY14">
+            <v>0.3924</v>
+          </cell>
+          <cell r="AZ14">
+            <v>0.602</v>
+          </cell>
+          <cell r="BA14">
+            <v>0.755</v>
+          </cell>
+          <cell r="BB14">
+            <v>0.9365</v>
+          </cell>
+          <cell r="BC14">
+            <v>-0.3372</v>
+          </cell>
+          <cell r="BD14">
+            <v>0.7463</v>
+          </cell>
+          <cell r="BE14">
+            <v>-0.1096</v>
+          </cell>
+          <cell r="BF14">
+            <v>0.1174</v>
+          </cell>
           <cell r="BG14">
+            <v>0.2187</v>
+          </cell>
+          <cell r="BH14">
+            <v>0.2433</v>
+          </cell>
+          <cell r="BI14">
+            <v>0.2275</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="BN14">
             <v>60.39</v>
           </cell>
-          <cell r="BH14">
+          <cell r="BO14">
             <v>42.1</v>
           </cell>
-          <cell r="BI14">
+          <cell r="BP14">
             <v>18.29</v>
           </cell>
-          <cell r="BJ14">
+          <cell r="BQ14">
             <v>57.34</v>
           </cell>
-          <cell r="BK14">
+          <cell r="BR14">
             <v>52</v>
           </cell>
-          <cell r="BL14">
+          <cell r="BS14">
             <v>65.25</v>
           </cell>
-          <cell r="BM14">
+          <cell r="BT14">
             <v>534</v>
           </cell>
-          <cell r="BN14">
+          <cell r="BU14">
             <v>0</v>
           </cell>
-          <cell r="BO14">
+          <cell r="BV14">
             <v>1.4812734082397</v>
           </cell>
-          <cell r="BP14">
+          <cell r="BW14">
             <v>0.0931287059644228</v>
           </cell>
-          <cell r="BQ14">
+          <cell r="BX14">
             <v>0.137949075688873</v>
           </cell>
-          <cell r="BR14">
+          <cell r="BY14">
             <v>56.78</v>
           </cell>
-          <cell r="BS14" t="str">
+          <cell r="BZ14" t="str">
             <v>暂不宜入场
 (等待波动一周后)</v>
           </cell>
-          <cell r="BT14" t="str">
+          <cell r="CA14" t="str">
             <v>待执行</v>
           </cell>
         </row>
@@ -7680,116 +7700,118 @@
           <cell r="AE15" t="str">
             <v>3T</v>
           </cell>
-          <cell r="AF15" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="15">
-          <cell r="AH15">
-            <v>9.73</v>
-          </cell>
-          <cell r="AI15">
-            <v>3.1533</v>
-          </cell>
-          <cell r="AJ15">
-            <v>2.152</v>
-          </cell>
-          <cell r="AK15">
-            <v>1.6028</v>
-          </cell>
-          <cell r="AL15">
-            <v>1.161</v>
-          </cell>
-          <cell r="AM15">
-            <v>0.2365</v>
-          </cell>
-          <cell r="AN15">
-            <v>0.0229</v>
-          </cell>
-          <cell r="AO15">
-            <v>0.1857</v>
-          </cell>
-          <cell r="AP15">
-            <v>0.1281</v>
-          </cell>
-          <cell r="AQ15">
-            <v>0.1124</v>
-          </cell>
-          <cell r="AR15">
-            <v>0.3139</v>
-          </cell>
-          <cell r="AS15">
-            <v>0.0935</v>
-          </cell>
-          <cell r="AT15">
-            <v>0.1211</v>
-          </cell>
-          <cell r="AU15">
-            <v>-0.3125</v>
-          </cell>
-          <cell r="AV15">
-            <v>0.2292</v>
-          </cell>
-          <cell r="AW15">
-            <v>0.1278</v>
-          </cell>
-          <cell r="AX15">
-            <v>0.2239</v>
-          </cell>
-          <cell r="AY15">
-            <v>0.2428</v>
-          </cell>
-          <cell r="AZ15">
-            <v>0.3271</v>
-          </cell>
-          <cell r="BA15">
-            <v>0.347</v>
-          </cell>
-          <cell r="BB15">
-            <v>0.3263</v>
+          <cell r="AM15" t="str">
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
         </row>
         <row r="15">
+          <cell r="AO15">
+            <v>9.73</v>
+          </cell>
+          <cell r="AP15">
+            <v>3.1533</v>
+          </cell>
+          <cell r="AQ15">
+            <v>2.152</v>
+          </cell>
+          <cell r="AR15">
+            <v>1.6028</v>
+          </cell>
+          <cell r="AS15">
+            <v>1.161</v>
+          </cell>
+          <cell r="AT15">
+            <v>0.2365</v>
+          </cell>
+          <cell r="AU15">
+            <v>0.0229</v>
+          </cell>
+          <cell r="AV15">
+            <v>0.1857</v>
+          </cell>
+          <cell r="AW15">
+            <v>0.1281</v>
+          </cell>
+          <cell r="AX15">
+            <v>0.1124</v>
+          </cell>
+          <cell r="AY15">
+            <v>0.3139</v>
+          </cell>
+          <cell r="AZ15">
+            <v>0.0935</v>
+          </cell>
+          <cell r="BA15">
+            <v>0.1211</v>
+          </cell>
+          <cell r="BB15">
+            <v>-0.3125</v>
+          </cell>
+          <cell r="BC15">
+            <v>0.2292</v>
+          </cell>
+          <cell r="BD15">
+            <v>0.1278</v>
+          </cell>
+          <cell r="BE15">
+            <v>0.2239</v>
+          </cell>
+          <cell r="BF15">
+            <v>0.2428</v>
+          </cell>
           <cell r="BG15">
+            <v>0.3271</v>
+          </cell>
+          <cell r="BH15">
+            <v>0.347</v>
+          </cell>
+          <cell r="BI15">
+            <v>0.3263</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="BN15">
             <v>30.41</v>
           </cell>
-          <cell r="BH15">
+          <cell r="BO15">
             <v>22.76</v>
           </cell>
-          <cell r="BI15">
+          <cell r="BP15">
             <v>7.65</v>
           </cell>
-          <cell r="BJ15">
+          <cell r="BQ15">
             <v>28.82</v>
           </cell>
-          <cell r="BK15">
+          <cell r="BR15">
             <v>26.31</v>
           </cell>
-          <cell r="BL15">
+          <cell r="BS15">
             <v>32.36</v>
           </cell>
-          <cell r="BM15">
+          <cell r="BT15">
             <v>251</v>
           </cell>
-          <cell r="BN15">
+          <cell r="BU15">
             <v>100</v>
           </cell>
-          <cell r="BO15">
+          <cell r="BV15">
             <v>1.41035856573705</v>
           </cell>
-          <cell r="BP15">
+          <cell r="BW15">
             <v>0.0870922970159612</v>
           </cell>
-          <cell r="BQ15">
+          <cell r="BX15">
             <v>0.122831367106176</v>
           </cell>
-          <cell r="BR15">
+          <cell r="BY15">
             <v>25.15</v>
           </cell>
-          <cell r="BS15" t="str">
+          <cell r="BZ15" t="str">
             <v>可以</v>
           </cell>
-          <cell r="BT15" t="str">
+          <cell r="CA15" t="str">
             <v>已执行</v>
           </cell>
         </row>
@@ -7876,52 +7898,54 @@
           <cell r="AE16" t="str">
             <v>4T</v>
           </cell>
-          <cell r="AF16" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="16">
-          <cell r="BG16">
+          <cell r="AM16" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="BN16">
             <v>27.49</v>
           </cell>
-          <cell r="BH16">
+          <cell r="BO16">
             <v>19.96</v>
           </cell>
-          <cell r="BI16">
+          <cell r="BP16">
             <v>7.53</v>
           </cell>
-          <cell r="BJ16">
+          <cell r="BQ16">
             <v>25.95</v>
           </cell>
-          <cell r="BK16">
+          <cell r="BR16">
             <v>23.28</v>
           </cell>
-          <cell r="BL16">
+          <cell r="BS16">
             <v>27.59</v>
           </cell>
-          <cell r="BM16">
+          <cell r="BT16">
             <v>267</v>
           </cell>
-          <cell r="BN16">
+          <cell r="BU16">
             <v>100</v>
           </cell>
-          <cell r="BO16">
+          <cell r="BV16">
             <v>0.614232209737828</v>
           </cell>
-          <cell r="BP16">
+          <cell r="BW16">
             <v>0.102890173410405</v>
           </cell>
-          <cell r="BQ16">
+          <cell r="BX16">
             <v>0.0631984585741811</v>
           </cell>
-          <cell r="BR16">
+          <cell r="BY16">
             <v>26.15</v>
           </cell>
-          <cell r="BS16" t="str">
+          <cell r="BZ16" t="str">
             <v>暂不宜入场
 (等待波动一周后)</v>
           </cell>
-          <cell r="BT16" t="str">
+          <cell r="CA16" t="str">
             <v>待执行</v>
           </cell>
         </row>
@@ -8018,116 +8042,118 @@
           <cell r="AE17" t="str">
             <v>5T</v>
           </cell>
-          <cell r="AF17" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="17">
-          <cell r="AH17">
-            <v>10</v>
-          </cell>
-          <cell r="AI17">
-            <v>-0.1149</v>
-          </cell>
-          <cell r="AJ17">
-            <v>1.1966</v>
-          </cell>
-          <cell r="AK17">
-            <v>2.6601</v>
-          </cell>
-          <cell r="AL17">
-            <v>0.9935</v>
-          </cell>
-          <cell r="AM17">
-            <v>-0.4244</v>
-          </cell>
-          <cell r="AN17">
-            <v>0.8275</v>
-          </cell>
-          <cell r="AO17">
-            <v>-1.1004</v>
-          </cell>
-          <cell r="AP17">
-            <v>15.79</v>
-          </cell>
-          <cell r="AQ17">
-            <v>-0.1106</v>
-          </cell>
-          <cell r="AR17">
-            <v>0.756</v>
-          </cell>
-          <cell r="AS17">
-            <v>1.1246</v>
-          </cell>
-          <cell r="AT17">
-            <v>0.64</v>
-          </cell>
-          <cell r="AU17">
-            <v>-0.1855</v>
-          </cell>
-          <cell r="AV17">
-            <v>0.1135</v>
-          </cell>
-          <cell r="AW17">
-            <v>-0.5985</v>
-          </cell>
-          <cell r="AX17">
-            <v>2.7082</v>
-          </cell>
-          <cell r="AY17">
-            <v>0.8544</v>
-          </cell>
-          <cell r="AZ17">
-            <v>0.8505</v>
-          </cell>
-          <cell r="BA17">
-            <v>0.8349</v>
-          </cell>
-          <cell r="BB17">
-            <v>0.8576</v>
+          <cell r="AM17" t="str">
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
         </row>
         <row r="17">
+          <cell r="AO17">
+            <v>10</v>
+          </cell>
+          <cell r="AP17">
+            <v>-0.1149</v>
+          </cell>
+          <cell r="AQ17">
+            <v>1.1966</v>
+          </cell>
+          <cell r="AR17">
+            <v>2.6601</v>
+          </cell>
+          <cell r="AS17">
+            <v>0.9935</v>
+          </cell>
+          <cell r="AT17">
+            <v>-0.4244</v>
+          </cell>
+          <cell r="AU17">
+            <v>0.8275</v>
+          </cell>
+          <cell r="AV17">
+            <v>-1.1004</v>
+          </cell>
+          <cell r="AW17">
+            <v>15.79</v>
+          </cell>
+          <cell r="AX17">
+            <v>-0.1106</v>
+          </cell>
+          <cell r="AY17">
+            <v>0.756</v>
+          </cell>
+          <cell r="AZ17">
+            <v>1.1246</v>
+          </cell>
+          <cell r="BA17">
+            <v>0.64</v>
+          </cell>
+          <cell r="BB17">
+            <v>-0.1855</v>
+          </cell>
+          <cell r="BC17">
+            <v>0.1135</v>
+          </cell>
+          <cell r="BD17">
+            <v>-0.5985</v>
+          </cell>
+          <cell r="BE17">
+            <v>2.7082</v>
+          </cell>
+          <cell r="BF17">
+            <v>0.8544</v>
+          </cell>
           <cell r="BG17">
+            <v>0.8505</v>
+          </cell>
+          <cell r="BH17">
+            <v>0.8349</v>
+          </cell>
+          <cell r="BI17">
+            <v>0.8576</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="BN17">
             <v>147.51</v>
           </cell>
-          <cell r="BH17">
+          <cell r="BO17">
             <v>117.62</v>
           </cell>
-          <cell r="BI17">
+          <cell r="BP17">
             <v>29.89</v>
           </cell>
-          <cell r="BJ17">
+          <cell r="BQ17">
             <v>143.8</v>
           </cell>
-          <cell r="BK17">
+          <cell r="BR17">
             <v>129.9</v>
           </cell>
-          <cell r="BL17">
+          <cell r="BS17">
             <v>158.48</v>
           </cell>
-          <cell r="BM17">
+          <cell r="BT17">
             <v>1390</v>
           </cell>
-          <cell r="BN17">
+          <cell r="BU17">
             <v>0</v>
           </cell>
-          <cell r="BO17">
+          <cell r="BV17">
             <v>1.05611510791367</v>
           </cell>
-          <cell r="BP17">
+          <cell r="BW17">
             <v>0.0966620305980529</v>
           </cell>
-          <cell r="BQ17">
+          <cell r="BX17">
             <v>0.102086230876217</v>
           </cell>
-          <cell r="BR17">
+          <cell r="BY17">
             <v>55.79</v>
           </cell>
-          <cell r="BS17" t="str">
+          <cell r="BZ17" t="str">
             <v>可以</v>
           </cell>
-          <cell r="BT17" t="str">
+          <cell r="CA17" t="str">
             <v>执行中</v>
           </cell>
         </row>
@@ -8206,52 +8232,54 @@
           <cell r="AE18" t="str">
             <v>3T</v>
           </cell>
-          <cell r="AF18" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="18">
-          <cell r="BG18">
+          <cell r="AM18" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="BN18">
             <v>10.54</v>
           </cell>
-          <cell r="BH18">
+          <cell r="BO18">
             <v>8.35</v>
           </cell>
-          <cell r="BI18">
+          <cell r="BP18">
             <v>2.19</v>
           </cell>
-          <cell r="BJ18">
+          <cell r="BQ18">
             <v>10.28</v>
           </cell>
-          <cell r="BK18">
+          <cell r="BR18">
             <v>9.41</v>
           </cell>
-          <cell r="BL18">
+          <cell r="BS18">
             <v>12</v>
           </cell>
-          <cell r="BM18">
+          <cell r="BT18">
             <v>86.9999999999999</v>
           </cell>
-          <cell r="BN18">
+          <cell r="BU18">
             <v>300</v>
           </cell>
-          <cell r="BO18">
+          <cell r="BV18">
             <v>1.97701149425288</v>
           </cell>
-          <cell r="BP18">
+          <cell r="BW18">
             <v>0.0846303501945525</v>
           </cell>
-          <cell r="BQ18">
+          <cell r="BX18">
             <v>0.167315175097276</v>
           </cell>
-          <cell r="BR18">
+          <cell r="BY18">
             <v>18.1</v>
           </cell>
-          <cell r="BS18" t="str">
+          <cell r="BZ18" t="str">
             <v>暂不宜入场
 (等待波动一周后)</v>
           </cell>
-          <cell r="BT18" t="str">
+          <cell r="CA18" t="str">
             <v>执行中</v>
           </cell>
         </row>
@@ -8330,49 +8358,51 @@
           <cell r="AE19" t="str">
             <v>3T</v>
           </cell>
-          <cell r="AF19" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="19">
-          <cell r="BG19">
-            <v>52.82</v>
-          </cell>
-          <cell r="BH19">
-            <v>40.96</v>
-          </cell>
-          <cell r="BI19">
-            <v>11.86</v>
-          </cell>
-          <cell r="BJ19">
-            <v>50.93</v>
-          </cell>
-          <cell r="BK19">
-            <v>46.13</v>
+          <cell r="AM19" t="str">
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="BM19">
-            <v>480</v>
-          </cell>
           <cell r="BN19">
-            <v>0</v>
+            <v>52.82</v>
+          </cell>
+          <cell r="BO19">
+            <v>40.96</v>
+          </cell>
+          <cell r="BP19">
+            <v>11.86</v>
+          </cell>
+          <cell r="BQ19">
+            <v>50.93</v>
+          </cell>
+          <cell r="BR19">
+            <v>46.13</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="BP19">
-            <v>0.0942470056940899</v>
+          <cell r="BT19">
+            <v>480</v>
+          </cell>
+          <cell r="BU19">
+            <v>0</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="BR19">
+          <cell r="BW19">
+            <v>0.0942470056940899</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="BY19">
             <v>12</v>
           </cell>
-          <cell r="BS19" t="str">
+          <cell r="BZ19" t="str">
             <v>暂不宜入场
 (等待波动一周后)</v>
           </cell>
-          <cell r="BT19" t="str">
+          <cell r="CA19" t="str">
             <v>待执行</v>
           </cell>
         </row>
@@ -8452,117 +8482,119 @@
           <cell r="AE20" t="str">
             <v>3T</v>
           </cell>
-          <cell r="AF20" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="20">
-          <cell r="AH20">
-            <v>9.73</v>
-          </cell>
-          <cell r="AI20">
-            <v>3.1533</v>
-          </cell>
-          <cell r="AJ20">
-            <v>2.152</v>
-          </cell>
-          <cell r="AK20">
-            <v>1.6028</v>
-          </cell>
-          <cell r="AL20">
-            <v>1.161</v>
-          </cell>
-          <cell r="AM20">
-            <v>0.2365</v>
-          </cell>
-          <cell r="AN20">
-            <v>0.0229</v>
-          </cell>
-          <cell r="AO20">
-            <v>0.1857</v>
-          </cell>
-          <cell r="AP20">
-            <v>0.1281</v>
-          </cell>
-          <cell r="AQ20">
-            <v>0.1124</v>
-          </cell>
-          <cell r="AR20">
-            <v>0.3139</v>
-          </cell>
-          <cell r="AS20">
-            <v>0.0935</v>
-          </cell>
-          <cell r="AT20">
-            <v>0.1211</v>
-          </cell>
-          <cell r="AU20">
-            <v>-0.3125</v>
-          </cell>
-          <cell r="AV20">
-            <v>0.2292</v>
-          </cell>
-          <cell r="AW20">
-            <v>0.1278</v>
-          </cell>
-          <cell r="AX20">
-            <v>0.2239</v>
-          </cell>
-          <cell r="AY20">
-            <v>0.2428</v>
-          </cell>
-          <cell r="AZ20">
-            <v>0.3271</v>
-          </cell>
-          <cell r="BA20">
-            <v>0.347</v>
-          </cell>
-          <cell r="BB20">
-            <v>0.3263</v>
+          <cell r="AM20" t="str">
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
         </row>
         <row r="20">
+          <cell r="AO20">
+            <v>9.73</v>
+          </cell>
+          <cell r="AP20">
+            <v>3.1533</v>
+          </cell>
+          <cell r="AQ20">
+            <v>2.152</v>
+          </cell>
+          <cell r="AR20">
+            <v>1.6028</v>
+          </cell>
+          <cell r="AS20">
+            <v>1.161</v>
+          </cell>
+          <cell r="AT20">
+            <v>0.2365</v>
+          </cell>
+          <cell r="AU20">
+            <v>0.0229</v>
+          </cell>
+          <cell r="AV20">
+            <v>0.1857</v>
+          </cell>
+          <cell r="AW20">
+            <v>0.1281</v>
+          </cell>
+          <cell r="AX20">
+            <v>0.1124</v>
+          </cell>
+          <cell r="AY20">
+            <v>0.3139</v>
+          </cell>
+          <cell r="AZ20">
+            <v>0.0935</v>
+          </cell>
+          <cell r="BA20">
+            <v>0.1211</v>
+          </cell>
+          <cell r="BB20">
+            <v>-0.3125</v>
+          </cell>
+          <cell r="BC20">
+            <v>0.2292</v>
+          </cell>
+          <cell r="BD20">
+            <v>0.1278</v>
+          </cell>
+          <cell r="BE20">
+            <v>0.2239</v>
+          </cell>
+          <cell r="BF20">
+            <v>0.2428</v>
+          </cell>
           <cell r="BG20">
+            <v>0.3271</v>
+          </cell>
+          <cell r="BH20">
+            <v>0.347</v>
+          </cell>
+          <cell r="BI20">
+            <v>0.3263</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="BN20">
             <v>30.41</v>
           </cell>
-          <cell r="BH20">
+          <cell r="BO20">
             <v>22.76</v>
           </cell>
-          <cell r="BI20">
+          <cell r="BP20">
             <v>7.65</v>
           </cell>
-          <cell r="BJ20">
+          <cell r="BQ20">
             <v>28.82</v>
           </cell>
-          <cell r="BK20">
+          <cell r="BR20">
             <v>26.31</v>
           </cell>
-          <cell r="BL20">
+          <cell r="BS20">
             <v>32.36</v>
           </cell>
-          <cell r="BM20">
+          <cell r="BT20">
             <v>251</v>
           </cell>
-          <cell r="BN20">
+          <cell r="BU20">
             <v>100</v>
           </cell>
-          <cell r="BO20">
+          <cell r="BV20">
             <v>1.41035856573705</v>
           </cell>
-          <cell r="BP20">
+          <cell r="BW20">
             <v>0.0870922970159612</v>
           </cell>
-          <cell r="BQ20">
+          <cell r="BX20">
             <v>0.122831367106176</v>
           </cell>
-          <cell r="BR20">
+          <cell r="BY20">
             <v>25.15</v>
           </cell>
-          <cell r="BS20" t="str">
+          <cell r="BZ20" t="str">
             <v>暂不宜入场
 (等待波动一周后)</v>
           </cell>
-          <cell r="BT20" t="str">
+          <cell r="CA20" t="str">
             <v>待执行</v>
           </cell>
         </row>
@@ -8645,41 +8677,41 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="BI21">
+          <cell r="BP21">
             <v>0</v>
           </cell>
-          <cell r="BJ21">
+          <cell r="BQ21">
             <v>17.19</v>
           </cell>
-          <cell r="BK21">
+          <cell r="BR21">
             <v>15.5</v>
           </cell>
-          <cell r="BL21">
+          <cell r="BS21">
             <v>20.66</v>
           </cell>
-          <cell r="BM21">
+          <cell r="BT21">
             <v>169</v>
           </cell>
-          <cell r="BN21">
+          <cell r="BU21">
             <v>100</v>
           </cell>
-          <cell r="BO21">
+          <cell r="BV21">
             <v>2.05325443786982</v>
           </cell>
-          <cell r="BP21">
+          <cell r="BW21">
             <v>0.0983129726585225</v>
           </cell>
-          <cell r="BQ21">
+          <cell r="BX21">
             <v>0.201861547411286</v>
           </cell>
-          <cell r="BR21">
+          <cell r="BY21">
             <v>26.15</v>
           </cell>
-          <cell r="BS21" t="str">
+          <cell r="BZ21" t="str">
             <v>暂不宜入场
 (等待波动一周后)</v>
           </cell>
-          <cell r="BT21" t="str">
+          <cell r="CA21" t="str">
             <v>待执行</v>
           </cell>
         </row>
@@ -8756,51 +8788,53 @@
           <cell r="AE22" t="str">
             <v>3T</v>
           </cell>
-          <cell r="AF22" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
         </row>
         <row r="22">
-          <cell r="BG22">
+          <cell r="AM22" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="BN22">
             <v>21.32</v>
           </cell>
-          <cell r="BH22">
+          <cell r="BO22">
             <v>17.54</v>
           </cell>
-          <cell r="BI22">
+          <cell r="BP22">
             <v>3.78</v>
           </cell>
-          <cell r="BJ22">
+          <cell r="BQ22">
             <v>20.44</v>
           </cell>
-          <cell r="BK22">
+          <cell r="BR22">
             <v>19.09</v>
           </cell>
-          <cell r="BL22">
+          <cell r="BS22">
             <v>23.43</v>
           </cell>
-          <cell r="BM22">
+          <cell r="BT22">
             <v>135</v>
           </cell>
-          <cell r="BN22">
+          <cell r="BU22">
             <v>200</v>
           </cell>
-          <cell r="BO22">
+          <cell r="BV22">
             <v>2.21481481481481</v>
           </cell>
-          <cell r="BP22">
+          <cell r="BW22">
             <v>0.0660469667318983</v>
           </cell>
-          <cell r="BQ22">
+          <cell r="BX22">
             <v>0.146281800391389</v>
           </cell>
-          <cell r="BR22">
+          <cell r="BY22">
             <v>13.79</v>
           </cell>
-          <cell r="BS22" t="str">
+          <cell r="BZ22" t="str">
             <v>可以</v>
           </cell>
-          <cell r="BT22" t="str">
+          <cell r="CA22" t="str">
             <v>执行中</v>
           </cell>
         </row>
@@ -8883,16 +8917,18 @@
           <cell r="AE23" t="str">
             <v>4T</v>
           </cell>
-          <cell r="AF23" t="str">
-            <v>成交量未减少</v>
-          </cell>
         </row>
         <row r="23">
-          <cell r="BS23" t="str">
+          <cell r="AM23" t="str">
+            <v>成交量未减少</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="BZ23" t="str">
             <v>暂不宜入场
 (等待波动一周后)</v>
           </cell>
-          <cell r="BT23" t="str">
+          <cell r="CA23" t="str">
             <v>待执行</v>
           </cell>
         </row>
@@ -10444,9 +10480,9 @@
         <f>X4+X5</f>
         <v>-1.25900000000001</v>
       </c>
-      <c r="Z4" s="74">
-        <f>(P4-E4)/VLOOKUP(B4,[1]交易计划及执行表!$A$4:$BT$1000,61,FALSE)</f>
-        <v>-0.208598726114649</v>
+      <c r="Z4" s="74" t="e">
+        <f>(P4-E4)/VLOOKUP(B4,[1]交易计划及执行表!$A$4:$CA$1000,61,FALSE)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA4" s="80" t="s">
         <v>35</v>
@@ -10545,9 +10581,9 @@
         <v>139.73</v>
       </c>
       <c r="Y5" s="79"/>
-      <c r="Z5" s="74">
-        <f>(P5-E4)/VLOOKUP(B5,[1]交易计划及执行表!$A$4:$BT$1000,61,FALSE)</f>
-        <v>0.238853503184713</v>
+      <c r="Z5" s="74" t="e">
+        <f>(P5-E4)/VLOOKUP(B5,[1]交易计划及执行表!$A$4:$CA$1000,61,FALSE)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA5" s="80"/>
       <c r="AB5" s="82"/>
@@ -10816,9 +10852,9 @@
         <v>-52.0760799999998</v>
       </c>
       <c r="Y9" s="47"/>
-      <c r="Z9" s="51">
-        <f>(P9-E9)/VLOOKUP(B9,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
-        <v>-0.0622009569377991</v>
+      <c r="Z9" s="51" t="e">
+        <f>(P9-E9)/VLOOKUP(B9,[1]交易计划及执行表!$A$8:$CA$1000,61,FALSE)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA9" s="85" t="s">
         <v>50</v>
@@ -10905,8 +10941,8 @@
       </c>
       <c r="Y10" s="47"/>
       <c r="Z10" s="51">
-        <f>(P10-E10)/VLOOKUP(B10,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
-        <v>-0.196428571428571</v>
+        <f>(P10-E10)/VLOOKUP(B10,[1]交易计划及执行表!$A$8:$CA$1000,61,FALSE)</f>
+        <v>-5.46810273405137</v>
       </c>
       <c r="AA10" s="86" t="s">
         <v>54</v>
@@ -10994,8 +11030,8 @@
       </c>
       <c r="Y11" s="47"/>
       <c r="Z11" s="51">
-        <f>(P11-E11)/VLOOKUP(B11,[1]交易计划及执行表!$A$8:$BT$1000,61,FALSE)</f>
-        <v>-0.218300653594771</v>
+        <f>(P11-E11)/VLOOKUP(B11,[1]交易计划及执行表!$A$8:$CA$1000,61,FALSE)</f>
+        <v>-5.11798958014098</v>
       </c>
       <c r="AA11" s="86" t="s">
         <v>58</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -937,14 +937,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1050,7 +1050,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,13 +1061,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1086,11 +1079,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1101,14 +1117,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -1125,6 +1170,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1134,59 +1187,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,25 +1264,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,43 +1300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,7 +1324,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,61 +1426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,19 +1438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,68 +1512,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1607,153 +1548,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1770,10 +1770,10 @@
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1788,10 +1788,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1809,7 +1809,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,19 +1887,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,7 +1908,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1953,25 +1953,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,7 +1995,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2180,36 +2180,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2250,14 +2220,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c:f>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -2276,6 +2246,9 @@
                 <c:pt idx="5" c:formatCode="yyyy\-m\-d">
                   <c:v>44531</c:v>
                 </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                  <c:v>44538</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2284,14 +2257,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$B$2:$B$8</c15:sqref>
+                    <c15:sqref>资金曲线!$B$2:$B$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$B$2:$B$5,资金曲线!$B$7:$B$8)</c:f>
+              <c:f>(资金曲线!$B$2:$B$5,资金曲线!$B$7:$B$9)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40000</c:v>
                 </c:pt>
@@ -2310,6 +2283,327 @@
                 <c:pt idx="5">
                   <c:v>40295</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>40235.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>资金曲线!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>每笔交易风险额度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-m\-d</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                  <c:v>44524</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                  <c:v>44538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>资金曲线!$C$2:$C$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>398.8077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>398.1254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>398.0803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398.3102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>402.3519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>资金曲线!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总交易风险额度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-m\-d</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                  <c:v>44524</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                  <c:v>44538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>资金曲线!$D$2:$D$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2392.8462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2388.7524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2388.4818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2389.8612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2417.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2414.1114</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2327,340 +2621,6 @@
         <c:smooth val="0"/>
         <c:axId val="632913533"/>
         <c:axId val="654560973"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>资金曲线!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>每笔交易风险额度</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="ctr"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
-                        <c:v>44489</c:v>
-                      </c:pt>
-                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
-                        <c:v>44496</c:v>
-                      </c:pt>
-                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
-                        <c:v>44503</c:v>
-                      </c:pt>
-                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
-                        <c:v>44510</c:v>
-                      </c:pt>
-                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                        <c:v>44524</c:v>
-                      </c:pt>
-                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                        <c:v>44531</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>资金曲线!$C$2:$C$8</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$8)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>400</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>398.8077</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>398.1254</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>398.0803</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>398.3102</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>402.95</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>资金曲线!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>总交易风险额度</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="ctr"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
-                        <c:v>44489</c:v>
-                      </c:pt>
-                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
-                        <c:v>44496</c:v>
-                      </c:pt>
-                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
-                        <c:v>44503</c:v>
-                      </c:pt>
-                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
-                        <c:v>44510</c:v>
-                      </c:pt>
-                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                        <c:v>44524</c:v>
-                      </c:pt>
-                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                        <c:v>44531</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>资金曲线!$D$2:$D$8</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$8)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>2400</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2392.8462</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2388.7524</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2388.4818</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2389.8612</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2417.7</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
       </c:lineChart>
       <c:dateAx>
         <c:axId val="632913533"/>
@@ -2908,14 +2868,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c:f>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -2934,6 +2894,9 @@
                 <c:pt idx="5" c:formatCode="yyyy\-m\-d">
                   <c:v>44531</c:v>
                 </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                  <c:v>44538</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2942,14 +2905,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$C$2:$C$8</c15:sqref>
+                    <c15:sqref>资金曲线!$C$2:$C$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$8)</c:f>
+              <c:f>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$9)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>400</c:v>
                 </c:pt>
@@ -2967,6 +2930,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>402.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>402.3519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,16 +2994,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3055,6 +3021,9 @@
                       </c:pt>
                       <c:pt idx="5" c:formatCode="yyyy\-m\-d">
                         <c:v>44531</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                        <c:v>44538</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3332,14 +3301,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c:f>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -3358,6 +3327,9 @@
                 <c:pt idx="5" c:formatCode="yyyy\-m\-d">
                   <c:v>44531</c:v>
                 </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                  <c:v>44538</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3366,14 +3338,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$D$2:$D$8</c15:sqref>
+                    <c15:sqref>资金曲线!$D$2:$D$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$8)</c:f>
+              <c:f>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$9)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2400</c:v>
                 </c:pt>
@@ -3391,6 +3363,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2417.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2414.1114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,16 +3427,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3479,6 +3454,9 @@
                       </c:pt>
                       <c:pt idx="5" c:formatCode="yyyy\-m\-d">
                         <c:v>44531</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                        <c:v>44538</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3563,16 +3541,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$8</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$8)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3590,6 +3568,9 @@
                       </c:pt>
                       <c:pt idx="5" c:formatCode="yyyy\-m\-d">
                         <c:v>44531</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                        <c:v>44538</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5460,13 +5441,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50165</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>126365</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5474,7 +5455,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4734560" y="50165"/>
+        <a:off x="4734560" y="60960"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -10106,12 +10087,12 @@
   <sheetPr/>
   <dimension ref="A1:BP552"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomRight" activeCell="X11" sqref="X11:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -23123,7 +23104,7 @@
   <sheetPr/>
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -23187,8 +23168,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -23329,9 +23310,17 @@
       <c r="A9" s="3">
         <v>44538</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="4">
+        <v>40235.19</v>
+      </c>
+      <c r="C9" s="4">
+        <f>(VLOOKUP(A9,$A$1:$D106,2,FALSE)*0.01)</f>
+        <v>402.3519</v>
+      </c>
+      <c r="D9" s="4">
+        <f>(VLOOKUP(A9,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>2414.1114</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -937,14 +937,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1050,6 +1050,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -1079,8 +1086,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,31 +1147,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,7 +1163,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,16 +1176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,29 +1187,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,7 +1264,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,13 +1294,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,37 +1336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1348,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,25 +1378,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,67 +1438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,6 +1519,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1530,56 +1539,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1607,153 +1566,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1767,13 +1767,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1788,10 +1788,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1809,7 +1809,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,19 +1887,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,7 +1908,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1953,25 +1953,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,7 +1995,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2180,7 +2180,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -8917,6 +8917,9 @@
           <cell r="A24" t="str">
             <v>000044</v>
           </cell>
+          <cell r="B24">
+            <v>44538</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -937,14 +937,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1050,6 +1050,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -1071,8 +1078,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1086,9 +1094,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1102,22 +1109,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,29 +1177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
@@ -1169,26 +1184,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1270,13 +1270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,13 +1300,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,13 +1342,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,49 +1372,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,19 +1414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,37 +1438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,6 +1513,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1543,15 +1552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1563,6 +1563,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1581,179 +1607,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1767,13 +1767,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1788,10 +1788,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1809,7 +1809,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,19 +1887,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,7 +1908,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1953,25 +1953,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,7 +1995,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7997,7 +7997,7 @@
             <v>143.8</v>
           </cell>
           <cell r="W17">
-            <v>138</v>
+            <v>137.88</v>
           </cell>
           <cell r="X17" t="str">
             <v>20w</v>
@@ -8018,7 +8018,7 @@
             <v>0.0490319709220385</v>
           </cell>
           <cell r="AD17">
-            <v>0.0403337969401948</v>
+            <v>0.0411682892906816</v>
           </cell>
           <cell r="AE17" t="str">
             <v>5T</v>
@@ -8108,22 +8108,22 @@
             <v>143.8</v>
           </cell>
           <cell r="BR17">
-            <v>129.9</v>
+            <v>128.2</v>
           </cell>
           <cell r="BS17">
             <v>158.48</v>
           </cell>
           <cell r="BT17">
-            <v>1390</v>
+            <v>1560</v>
           </cell>
           <cell r="BU17">
             <v>0</v>
           </cell>
           <cell r="BV17">
-            <v>1.05611510791367</v>
+            <v>0.941025641025638</v>
           </cell>
           <cell r="BW17">
-            <v>0.0966620305980529</v>
+            <v>0.108484005563282</v>
           </cell>
           <cell r="BX17">
             <v>0.102086230876217</v>
@@ -8902,6 +8902,28 @@
         <row r="23">
           <cell r="AM23" t="str">
             <v>成交量未减少</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="BP23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="BT23">
+            <v>0</v>
+          </cell>
+          <cell r="BU23" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BV23" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BW23" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BX23" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="23">
@@ -8920,129 +8942,673 @@
           <cell r="B24">
             <v>44538</v>
           </cell>
+          <cell r="C24" t="str">
+            <v>000422(湖北宜化)</v>
+          </cell>
+          <cell r="D24">
+            <v>15.56</v>
+          </cell>
+          <cell r="E24">
+            <v>17.84</v>
+          </cell>
+          <cell r="F24">
+            <v>24.67</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="H24">
+            <v>24.93</v>
+          </cell>
+          <cell r="I24">
+            <v>2.55</v>
+          </cell>
+          <cell r="J24">
+            <v>35</v>
+          </cell>
+          <cell r="K24">
+            <v>8.77647058823529</v>
+          </cell>
+          <cell r="L24">
+            <v>0.287714285714286</v>
+          </cell>
+          <cell r="M24">
+            <v>22.86</v>
+          </cell>
+          <cell r="N24">
+            <v>28.67</v>
+          </cell>
+          <cell r="O24">
+            <v>24.08</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="X24" t="str">
+            <v>5w</v>
+          </cell>
+          <cell r="Y24">
+            <v>0.346857142857143</v>
+          </cell>
+          <cell r="Z24">
+            <v>0.160097663062435</v>
+          </cell>
+          <cell r="AA24" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AB24" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="BP24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="BT24">
+            <v>0</v>
+          </cell>
+          <cell r="BU24" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BV24" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BW24" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BX24" t="e">
+            <v>#DIV/0!</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
             <v>000045</v>
           </cell>
+          <cell r="B25">
+            <v>44539</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>605117(德业股份)</v>
+          </cell>
+          <cell r="D25">
+            <v>175.79</v>
+          </cell>
+          <cell r="E25">
+            <v>198.7</v>
+          </cell>
+          <cell r="F25">
+            <v>267.26</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="H25">
+            <v>287.9</v>
+          </cell>
+          <cell r="I25">
+            <v>38.49</v>
+          </cell>
+          <cell r="J25">
+            <v>345.99</v>
+          </cell>
+          <cell r="K25">
+            <v>6.47986489997402</v>
+          </cell>
+          <cell r="L25">
+            <v>0.1678950258678</v>
+          </cell>
+          <cell r="M25">
+            <v>262.64</v>
+          </cell>
+          <cell r="N25">
+            <v>299</v>
+          </cell>
+          <cell r="O25">
+            <v>265.8</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="X25" t="str">
+            <v>5w</v>
+          </cell>
+          <cell r="Y25">
+            <v>0.240902916269256</v>
+          </cell>
+          <cell r="Z25">
+            <v>0.111036789297659</v>
+          </cell>
+          <cell r="AA25" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AB25" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="BP25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="BT25">
+            <v>0</v>
+          </cell>
+          <cell r="BU25" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BV25" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BW25" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BX25" t="e">
+            <v>#DIV/0!</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
             <v>000046</v>
           </cell>
+          <cell r="B26">
+            <v>44538</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>002326(永太科技)</v>
+          </cell>
+          <cell r="D26">
+            <v>38.63</v>
+          </cell>
+          <cell r="E26">
+            <v>44.15</v>
+          </cell>
+          <cell r="F26">
+            <v>59.89</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="H26">
+            <v>60.42</v>
+          </cell>
+          <cell r="I26">
+            <v>7.86</v>
+          </cell>
+          <cell r="J26">
+            <v>81.13</v>
+          </cell>
+          <cell r="K26">
+            <v>6.68702290076336</v>
+          </cell>
+          <cell r="L26">
+            <v>0.255269320843091</v>
+          </cell>
+          <cell r="M26">
+            <v>54.88</v>
+          </cell>
+          <cell r="N26">
+            <v>64.91</v>
+          </cell>
+          <cell r="O26">
+            <v>56.6</v>
+          </cell>
+          <cell r="P26">
+            <v>63.5</v>
+          </cell>
+          <cell r="Q26">
+            <v>57.1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="X26" t="str">
+            <v>6w</v>
+          </cell>
+          <cell r="Y26">
+            <v>0.323554788610871</v>
+          </cell>
+          <cell r="Z26">
+            <v>0.128023417038977</v>
+          </cell>
+          <cell r="AA26">
+            <v>0.100787401574803</v>
+          </cell>
+          <cell r="AB26" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AM26" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="BN26">
+            <v>72.71</v>
+          </cell>
+          <cell r="BO26">
+            <v>54.26</v>
+          </cell>
+          <cell r="BP26">
+            <v>18.45</v>
+          </cell>
+          <cell r="BQ26">
+            <v>63.5</v>
+          </cell>
+          <cell r="BR26">
+            <v>56.6</v>
+          </cell>
+          <cell r="BS26">
+            <v>81.91</v>
+          </cell>
+          <cell r="BT26">
+            <v>690</v>
+          </cell>
+          <cell r="BU26">
+            <v>0</v>
+          </cell>
+          <cell r="BV26">
+            <v>2.66811594202899</v>
+          </cell>
+          <cell r="BW26">
+            <v>0.108661417322835</v>
+          </cell>
+          <cell r="BX26">
+            <v>0.28992125984252</v>
+          </cell>
+          <cell r="BY26">
+            <v>190.51</v>
+          </cell>
+          <cell r="BZ26" t="str">
+            <v>可以</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>000047</v>
+            <v>000048</v>
+          </cell>
+          <cell r="B27">
+            <v>44538</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>003026(中晶科技)</v>
+          </cell>
+          <cell r="D27">
+            <v>78.97</v>
+          </cell>
+          <cell r="E27">
+            <v>79.84</v>
+          </cell>
+          <cell r="F27">
+            <v>81.17</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="H27">
+            <v>83.72</v>
+          </cell>
+          <cell r="I27">
+            <v>15.67</v>
+          </cell>
+          <cell r="J27">
+            <v>114.9</v>
+          </cell>
+          <cell r="K27">
+            <v>4.34269304403318</v>
+          </cell>
+          <cell r="L27">
+            <v>0.271366405570061</v>
+          </cell>
+          <cell r="M27">
+            <v>66.69</v>
+          </cell>
+          <cell r="N27">
+            <v>74.69</v>
+          </cell>
+          <cell r="O27">
+            <v>67.5</v>
+          </cell>
+          <cell r="P27">
+            <v>92.99</v>
+          </cell>
+          <cell r="Q27">
+            <v>79.3</v>
+          </cell>
+          <cell r="R27">
+            <v>93.5</v>
+          </cell>
+          <cell r="S27">
+            <v>80.31</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="Y27">
+            <v>0.419582245430809</v>
+          </cell>
+          <cell r="Z27">
+            <v>0.0962645601820859</v>
+          </cell>
+          <cell r="AA27">
+            <v>0.147220131196903</v>
+          </cell>
+          <cell r="AB27">
+            <v>0.141069518716578</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="BT27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="BV27" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="BW27" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>000048</v>
+            <v>000049</v>
+          </cell>
+          <cell r="B28">
+            <v>44538</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>6000071(凤凰光学)</v>
+          </cell>
+          <cell r="D28">
+            <v>26.22</v>
+          </cell>
+          <cell r="E28">
+            <v>29.2</v>
+          </cell>
+          <cell r="F28">
+            <v>43.92</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="H28">
+            <v>53.52</v>
+          </cell>
+          <cell r="I28">
+            <v>10.28</v>
+          </cell>
+          <cell r="J28">
+            <v>61.58</v>
+          </cell>
+          <cell r="K28">
+            <v>4.20622568093385</v>
+          </cell>
+          <cell r="L28">
+            <v>0.130886651510231</v>
+          </cell>
+          <cell r="M28">
+            <v>47.97</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="X28" t="str">
+            <v>2w</v>
+          </cell>
+          <cell r="Y28">
+            <v>0.221013316011692</v>
+          </cell>
+          <cell r="Z28" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BQ28">
+            <v>61.58</v>
+          </cell>
+          <cell r="BR28">
+            <v>47.97</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BT28">
+            <v>1361</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BV28">
+            <v>-4.52461425422483</v>
+          </cell>
+          <cell r="BW28">
+            <v>0.221013316011692</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="BZ28" t="str">
+            <v>暂不宜入场
+(等待波动一周后)</v>
+          </cell>
+          <cell r="CA28" t="str">
+            <v>待执行</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>000049</v>
+            <v>000050</v>
+          </cell>
+          <cell r="B29">
+            <v>44538</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>603703(盛洋科技)</v>
+          </cell>
+          <cell r="D29">
+            <v>14.33</v>
+          </cell>
+          <cell r="E29">
+            <v>14.85</v>
+          </cell>
+          <cell r="F29">
+            <v>18.11</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="H29">
+            <v>22.36</v>
+          </cell>
+          <cell r="I29">
+            <v>10.99</v>
+          </cell>
+          <cell r="J29">
+            <v>25.66</v>
+          </cell>
+          <cell r="K29">
+            <v>1.03457688808007</v>
+          </cell>
+          <cell r="L29">
+            <v>0.128604832424006</v>
+          </cell>
+          <cell r="M29">
+            <v>20.89</v>
+          </cell>
+          <cell r="N29">
+            <v>25.3</v>
+          </cell>
+          <cell r="O29">
+            <v>21.24</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="X29" t="str">
+            <v>2w</v>
+          </cell>
+          <cell r="Y29">
+            <v>0.1858924395947</v>
+          </cell>
+          <cell r="Z29">
+            <v>0.160474308300395</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="BQ29">
+            <v>25.3</v>
+          </cell>
+          <cell r="BR29">
+            <v>21.24</v>
+          </cell>
+          <cell r="BS29">
+            <v>22.55</v>
+          </cell>
+          <cell r="BT29">
+            <v>406</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="BV29">
+            <v>-0.677339901477832</v>
+          </cell>
+          <cell r="BW29">
+            <v>0.160474308300395</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="BZ29" t="str">
+            <v>暂不宜入场
+(等待波动一周后)</v>
+          </cell>
+          <cell r="CA29" t="str">
+            <v>待执行</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>000050</v>
+            <v>000051</v>
+          </cell>
+          <cell r="B30">
+            <v>44538</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>002922(伊戈尔)</v>
+          </cell>
+          <cell r="D30">
+            <v>15.34</v>
+          </cell>
+          <cell r="E30">
+            <v>16.94</v>
+          </cell>
+          <cell r="F30">
+            <v>22.72</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="H30">
+            <v>26.06</v>
+          </cell>
+          <cell r="I30">
+            <v>6.68</v>
+          </cell>
+          <cell r="J30">
+            <v>31.05</v>
+          </cell>
+          <cell r="K30">
+            <v>2.90119760479042</v>
+          </cell>
+          <cell r="L30">
+            <v>0.160708534621578</v>
+          </cell>
+          <cell r="M30">
+            <v>21.3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="X30" t="str">
+            <v>5w</v>
+          </cell>
+          <cell r="Y30">
+            <v>0.314009661835749</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>000051</v>
+            <v>000052</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>000052</v>
+            <v>000053</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>000053</v>
+            <v>000054</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>000054</v>
+            <v>000055</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>000055</v>
+            <v>000056</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>000056</v>
+            <v>000057</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>000057</v>
+            <v>000058</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>000058</v>
+            <v>000059</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>000059</v>
+            <v>000060</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>000060</v>
+            <v>000061</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>000061</v>
+            <v>000062</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>000062</v>
+            <v>000063</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>000063</v>
+            <v>000064</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>000064</v>
+            <v>000065</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>000065</v>
+            <v>000066</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>000066</v>
+            <v>000067</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>000067</v>
+            <v>000068</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
             <v>000069</v>
           </cell>
         </row>
@@ -10091,11 +10657,11 @@
   <dimension ref="A1:BP552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X11" sqref="X11:Y11"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -10661,7 +10661,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="19940" windowHeight="11360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -938,13 +938,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="178" formatCode="#\ ?/?"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1063,8 +1063,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,6 +1109,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1086,23 +1131,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1110,6 +1141,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,39 +1169,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,24 +1186,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1270,13 +1270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,12 +1283,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,7 +1306,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,121 +1420,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,11 +1519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,6 +1539,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1548,21 +1580,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,26 +1601,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,142 +1612,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2266,343 +2266,25 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39880.77</c:v>
+                  <c:v>99880.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39812.54</c:v>
+                  <c:v>99812.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39808.03</c:v>
+                  <c:v>99808.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39831.02</c:v>
+                  <c:v>99831.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40295</c:v>
+                  <c:v>100295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40235.19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>资金曲线!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>每笔交易风险额度</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
-                  <c:v>44489</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
-                  <c:v>44496</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
-                  <c:v>44503</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
-                  <c:v>44510</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                  <c:v>44524</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
-                  <c:v>44538</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>资金曲线!$C$2:$C$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$9)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>398.8077</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>398.1254</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>398.0803</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>398.3102</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>402.95</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>402.3519</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>资金曲线!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>总交易风险额度</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
-                  <c:v>44489</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
-                  <c:v>44496</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
-                  <c:v>44503</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
-                  <c:v>44510</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
-                  <c:v>44524</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
-                  <c:v>44538</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>资金曲线!$D$2:$D$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$9)</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2392.8462</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2388.7524</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2388.4818</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2389.8612</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2417.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2414.1114</c:v>
+                  <c:v>100235.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,6 +2303,352 @@
         <c:smooth val="0"/>
         <c:axId val="632913533"/>
         <c:axId val="654560973"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>资金曲线!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>每笔交易风险额度</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:numFmt formatCode="General" sourceLinked="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-m\-d</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                        <c:v>44489</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                        <c:v>44496</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                        <c:v>44503</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                        <c:v>44510</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                        <c:v>44524</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                        <c:v>44531</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                        <c:v>44538</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$C$2:$C$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>998.8077</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>998.1254</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>998.0803</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>998.3102</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1002.95</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1002.3519</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>资金曲线!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>总交易风险额度</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:numFmt formatCode="General" sourceLinked="1"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-m\-d</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                        <c:v>44489</c:v>
+                      </c:pt>
+                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                        <c:v>44496</c:v>
+                      </c:pt>
+                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                        <c:v>44503</c:v>
+                      </c:pt>
+                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                        <c:v>44510</c:v>
+                      </c:pt>
+                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                        <c:v>44524</c:v>
+                      </c:pt>
+                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                        <c:v>44531</c:v>
+                      </c:pt>
+                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                        <c:v>44538</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>资金曲线!$D$2:$D$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5992.8462</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5988.7524</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5988.4818</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5989.8612</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6017.7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6014.1114</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:dateAx>
         <c:axId val="632913533"/>
@@ -2676,7 +2704,6 @@
         <c:axId val="654560973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="39500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2914,25 +2941,25 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>398.8077</c:v>
+                  <c:v>998.8077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>398.1254</c:v>
+                  <c:v>998.1254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>398.0803</c:v>
+                  <c:v>998.0803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>398.3102</c:v>
+                  <c:v>998.3102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>402.95</c:v>
+                  <c:v>1002.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>402.3519</c:v>
+                  <c:v>1002.3519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,22 +3071,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>40000</c:v>
+                        <c:v>100000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>39880.77</c:v>
+                        <c:v>99880.77</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>39812.54</c:v>
+                        <c:v>99812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>39808.03</c:v>
+                        <c:v>99808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>39831.02</c:v>
+                        <c:v>99831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>40295</c:v>
+                        <c:v>100295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3347,25 +3374,25 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2400</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2392.8462</c:v>
+                  <c:v>5992.8462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2388.7524</c:v>
+                  <c:v>5988.7524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2388.4818</c:v>
+                  <c:v>5988.4818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2389.8612</c:v>
+                  <c:v>5989.8612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2417.7</c:v>
+                  <c:v>6017.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2414.1114</c:v>
+                  <c:v>6014.1114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3477,22 +3504,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>40000</c:v>
+                        <c:v>100000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>39880.77</c:v>
+                        <c:v>99880.77</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>39812.54</c:v>
+                        <c:v>99812.54</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>39808.03</c:v>
+                        <c:v>99808.03</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>39831.02</c:v>
+                        <c:v>99831.02</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>40295</c:v>
+                        <c:v>100295</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3591,22 +3618,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>400</c:v>
+                        <c:v>1000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>398.8077</c:v>
+                        <c:v>998.8077</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>398.1254</c:v>
+                        <c:v>998.1254</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>398.0803</c:v>
+                        <c:v>998.0803</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>398.3102</c:v>
+                        <c:v>998.3102</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>402.95</c:v>
+                        <c:v>1002.95</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6134,19 +6161,10 @@
             <v>65.5</v>
           </cell>
           <cell r="P7">
-            <v>70.98</v>
+            <v>77.98</v>
           </cell>
           <cell r="Q7">
-            <v>66.88</v>
-          </cell>
-          <cell r="R7">
-            <v>77.98</v>
-          </cell>
-          <cell r="S7">
-            <v>71.58</v>
-          </cell>
-          <cell r="T7">
-            <v>77.98</v>
+            <v>70.54</v>
           </cell>
         </row>
         <row r="7">
@@ -6160,13 +6178,12 @@
             <v>0.123745819397993</v>
           </cell>
           <cell r="AA7">
-            <v>0.0577627500704425</v>
-          </cell>
-          <cell r="AB7">
-            <v>0.0820723262374969</v>
-          </cell>
-          <cell r="AC7">
-            <v>1</v>
+            <v>0.09540907925109</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AC7" t="e">
+            <v>#DIV/0!</v>
           </cell>
           <cell r="AD7" t="e">
             <v>#DIV/0!</v>
@@ -10656,7 +10673,7 @@
   <sheetPr/>
   <dimension ref="A1:BP552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -23737,8 +23754,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -23768,15 +23785,15 @@
         <v>44489</v>
       </c>
       <c r="B2" s="4">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="C2" s="4">
         <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.01)</f>
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="4">
         <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2400</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -23784,15 +23801,15 @@
         <v>44496</v>
       </c>
       <c r="B3" s="4">
-        <v>39880.77</v>
+        <v>99880.77</v>
       </c>
       <c r="C3" s="4">
         <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.01)</f>
-        <v>398.8077</v>
+        <v>998.8077</v>
       </c>
       <c r="D3" s="4">
         <f>(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2392.8462</v>
+        <v>5992.8462</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -23800,15 +23817,15 @@
         <v>44503</v>
       </c>
       <c r="B4" s="4">
-        <v>39812.54</v>
+        <v>99812.54</v>
       </c>
       <c r="C4" s="4">
         <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.01)</f>
-        <v>398.1254</v>
+        <v>998.1254</v>
       </c>
       <c r="D4" s="4">
         <f>(VLOOKUP(A4,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2388.7524</v>
+        <v>5988.7524</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -23816,15 +23833,15 @@
         <v>44510</v>
       </c>
       <c r="B5" s="4">
-        <v>39808.03</v>
+        <v>99808.03</v>
       </c>
       <c r="C5" s="4">
         <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.01)</f>
-        <v>398.0803</v>
+        <v>998.0803</v>
       </c>
       <c r="D5" s="4">
         <f>(VLOOKUP(A5,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2388.4818</v>
+        <v>5988.4818</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -23848,15 +23865,15 @@
         <v>44524</v>
       </c>
       <c r="B7" s="4">
-        <v>39831.02</v>
+        <v>99831.02</v>
       </c>
       <c r="C7" s="4">
         <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.01)</f>
-        <v>398.3102</v>
+        <v>998.3102</v>
       </c>
       <c r="D7" s="4">
         <f>(VLOOKUP(A7,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2389.8612</v>
+        <v>5989.8612</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -23864,15 +23881,15 @@
         <v>44531</v>
       </c>
       <c r="B8" s="4">
-        <v>40295</v>
+        <v>100295</v>
       </c>
       <c r="C8" s="4">
         <f>(VLOOKUP(A8,$A$1:$D105,2,FALSE)*0.01)</f>
-        <v>402.95</v>
+        <v>1002.95</v>
       </c>
       <c r="D8" s="4">
         <f>(VLOOKUP(A8,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2417.7</v>
+        <v>6017.7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -23880,15 +23897,15 @@
         <v>44538</v>
       </c>
       <c r="B9" s="4">
-        <v>40235.19</v>
+        <v>100235.19</v>
       </c>
       <c r="C9" s="4">
         <f>(VLOOKUP(A9,$A$1:$D106,2,FALSE)*0.01)</f>
-        <v>402.3519</v>
+        <v>1002.3519</v>
       </c>
       <c r="D9" s="4">
         <f>(VLOOKUP(A9,$A$1:$D$99,2,FALSE)*0.06)</f>
-        <v>2414.1114</v>
+        <v>6014.1114</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -926,10 +926,10 @@
     <t>账户资金</t>
   </si>
   <si>
-    <t>每笔交易风险额度</t>
+    <t>最大可承受每笔交易风险额度</t>
   </si>
   <si>
-    <t>总交易风险额度</t>
+    <t>最大可承受总交易风险额度</t>
   </si>
 </sst>
 </file>
@@ -2321,7 +2321,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>每笔交易风险额度</c:v>
+                        <c:v>最大可承受每笔交易风险额度</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2492,7 +2492,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>总交易风险额度</c:v>
+                        <c:v>最大可承受总交易风险额度</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2870,7 +2870,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>每笔交易风险额度</c:v>
+                  <c:v>最大可承受每笔交易风险额度</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3303,7 +3303,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>总交易风险额度</c:v>
+                  <c:v>最大可承受总交易风险额度</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3543,7 +3543,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>每笔交易风险额度</c:v>
+                        <c:v>最大可承受每笔交易风险额度</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5482,7 +5482,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4734560" y="60960"/>
+        <a:off x="6089650" y="60960"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5512,7 +5512,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4732655" y="2957830"/>
+        <a:off x="6087745" y="2957830"/>
         <a:ext cx="4573905" cy="2837815"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5542,7 +5542,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4733925" y="5983605"/>
+        <a:off x="6089015" y="5983605"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -23755,15 +23755,15 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.9821428571429" customWidth="1"/>
     <col min="2" max="2" width="12.0446428571429" customWidth="1"/>
-    <col min="3" max="3" width="15.0178571428571" customWidth="1"/>
-    <col min="4" max="4" width="16.5089285714286" customWidth="1"/>
+    <col min="3" max="3" width="27.9642857142857" customWidth="1"/>
+    <col min="4" max="4" width="22.6160714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" spans="1:4">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -23755,7 +23755,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -23755,7 +23755,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19940" windowHeight="11360" activeTab="2"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -938,13 +938,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1050,22 +1050,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,7 +1064,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1094,14 +1079,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1116,18 +1108,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1147,36 +1178,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1184,9 +1185,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1270,7 +1270,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,13 +1312,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,7 +1372,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,55 +1426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,79 +1438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,8 +1513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1543,13 +1543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1584,17 +1588,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1602,8 +1602,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,148 +1612,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1767,13 +1767,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1788,10 +1788,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1809,7 +1809,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1896,7 +1896,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,7 +1908,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1953,25 +1953,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5483,7 +5483,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6089650" y="60960"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:ext cx="4572000" cy="2595880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5512,7 +5512,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6087745" y="2957830"/>
+        <a:off x="6087745" y="2810510"/>
         <a:ext cx="4573905" cy="2837815"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5542,7 +5542,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6089015" y="5983605"/>
+        <a:off x="6089015" y="5836285"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -10673,12 +10673,12 @@
   <sheetPr/>
   <dimension ref="A1:BP552"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -23726,7 +23726,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="10">
         <f>SUM(交易计划及执行表!N6:N11)</f>
-        <v>625.132859999998</v>
+        <v>625.132859999999</v>
       </c>
       <c r="B2" s="6">
         <v>0.3333</v>
@@ -23754,8 +23754,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -23766,7 +23766,7 @@
     <col min="4" max="4" width="22.6160714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="10720"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -938,13 +938,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1050,14 +1050,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,112 +1177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1186,7 +1186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1270,25 +1270,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,7 +1336,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,31 +1420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,97 +1438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,8 +1513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1534,10 +1534,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1573,27 +1590,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1602,8 +1602,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,94 +1612,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1711,49 +1711,49 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1767,13 +1767,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1788,10 +1788,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1809,7 +1809,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1896,7 +1896,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,7 +1908,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1953,25 +1953,25 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10678,7 +10678,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D$1:D$1048576"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易计划执行结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="10720"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -937,14 +937,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1063,9 +1063,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,15 +1086,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,23 +1101,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,14 +1133,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,14 +1163,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,16 +1185,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1270,13 +1270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,43 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,7 +1312,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,13 +1342,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,7 +1426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,67 +1438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,21 +1520,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1551,11 +1536,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1571,6 +1569,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1594,15 +1603,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1612,97 +1612,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1711,43 +1711,43 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1791,7 +1791,7 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1887,19 +1887,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1995,7 +1995,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8332,6 +8332,12 @@
           <cell r="Q19">
             <v>46.13</v>
           </cell>
+          <cell r="R19">
+            <v>49.4</v>
+          </cell>
+          <cell r="S19">
+            <v>46.7</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="X19" t="str">
@@ -8346,15 +8352,16 @@
           <cell r="AA19">
             <v>0.0942470056940899</v>
           </cell>
-        </row>
-        <row r="19">
+          <cell r="AB19">
+            <v>0.054655870445344</v>
+          </cell>
           <cell r="AC19" t="e">
             <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="19">
           <cell r="AE19" t="str">
-            <v>3T</v>
+            <v>4T</v>
           </cell>
         </row>
         <row r="19">
@@ -8373,23 +8380,23 @@
             <v>11.86</v>
           </cell>
           <cell r="BQ19">
-            <v>50.93</v>
+            <v>49.4</v>
           </cell>
           <cell r="BR19">
-            <v>46.13</v>
+            <v>46.7</v>
           </cell>
         </row>
         <row r="19">
           <cell r="BT19">
-            <v>480</v>
+            <v>270</v>
           </cell>
           <cell r="BU19">
-            <v>0</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="19">
           <cell r="BW19">
-            <v>0.0942470056940899</v>
+            <v>0.054655870445344</v>
           </cell>
         </row>
         <row r="19">
@@ -10674,7 +10681,7 @@
   <dimension ref="A1:BP552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -23754,7 +23761,7 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
